--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueta\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA132DCE-325A-435A-804E-C51CCB01BB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE393E-D6B4-46DB-A57A-52D632B394CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
     <sheet name="OrganizationContacts" sheetId="2" r:id="rId2"/>
+    <sheet name="Projects" sheetId="3" r:id="rId3"/>
+    <sheet name="ProjectsProducts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="285">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -646,13 +648,262 @@
   </si>
   <si>
     <t>Surrey BC</t>
+  </si>
+  <si>
+    <t>Test Case description</t>
+  </si>
+  <si>
+    <t>MOTIRegion</t>
+  </si>
+  <si>
+    <t>CostEstimate</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>ProductsCount</t>
+  </si>
+  <si>
+    <t>ProductsRowStart</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>UpdatedBy</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Complete Project with 3 Products</t>
+  </si>
+  <si>
+    <t>Required only fields Project with no Products</t>
+  </si>
+  <si>
+    <t>Required only fields Project with 1 Product</t>
+  </si>
+  <si>
+    <t>Project with 10 Products</t>
+  </si>
+  <si>
+    <t>UpdateStatus</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>CodeName</t>
+  </si>
+  <si>
+    <t>UpdateName</t>
+  </si>
+  <si>
+    <t>UpdateNumber</t>
+  </si>
+  <si>
+    <t>UpdateCodeName</t>
+  </si>
+  <si>
+    <t>UpdateMOTIRegion</t>
+  </si>
+  <si>
+    <t>UpdateSummary</t>
+  </si>
+  <si>
+    <t>Automation Project 01</t>
+  </si>
+  <si>
+    <t>Automation Project 02</t>
+  </si>
+  <si>
+    <t>Automation Project 03</t>
+  </si>
+  <si>
+    <t>Automation Project 04</t>
+  </si>
+  <si>
+    <t>AU-0001</t>
+  </si>
+  <si>
+    <t>AU-0002</t>
+  </si>
+  <si>
+    <t>AU-0003</t>
+  </si>
+  <si>
+    <t>AU-0004</t>
+  </si>
+  <si>
+    <t>Active (AC)</t>
+  </si>
+  <si>
+    <t>Cancelled (CA)</t>
+  </si>
+  <si>
+    <t>Consolidated (CNCN)</t>
+  </si>
+  <si>
+    <t>Completed (CO)</t>
+  </si>
+  <si>
+    <t>South Coast Region</t>
+  </si>
+  <si>
+    <t>Southern Interior Region</t>
+  </si>
+  <si>
+    <t>Northern Region</t>
+  </si>
+  <si>
+    <t>Project created by Automation Testing - 3 products associated</t>
+  </si>
+  <si>
+    <t>Project created by Automation Testing - 1 products associated</t>
+  </si>
+  <si>
+    <t>Project created by Automation Testing - no products associated</t>
+  </si>
+  <si>
+    <t>Project created by Automation Testing - 10 products associated</t>
+  </si>
+  <si>
+    <t>TRANPSP1</t>
+  </si>
+  <si>
+    <t>Updated Automation Project 01</t>
+  </si>
+  <si>
+    <t>UPAU-0001</t>
+  </si>
+  <si>
+    <t>On Hold (HO)</t>
+  </si>
+  <si>
+    <t>Project updated by Automation Testing - 3 products associated</t>
+  </si>
+  <si>
+    <t>UpdateStartDate</t>
+  </si>
+  <si>
+    <t>UpdateCostEstimate</t>
+  </si>
+  <si>
+    <t>UpdateObjectives</t>
+  </si>
+  <si>
+    <t>UpdateScope</t>
+  </si>
+  <si>
+    <t>AU-0001-01</t>
+  </si>
+  <si>
+    <t>AU-0001-02</t>
+  </si>
+  <si>
+    <t>AU-0001-03</t>
+  </si>
+  <si>
+    <t>Automated Product 001</t>
+  </si>
+  <si>
+    <t>Automated Product 002</t>
+  </si>
+  <si>
+    <t>Automated Product 003</t>
+  </si>
+  <si>
+    <t>Regression Testing - create new products within a project</t>
+  </si>
+  <si>
+    <t>Most common cases of creating a product</t>
+  </si>
+  <si>
+    <t>UPAU-0001-01</t>
+  </si>
+  <si>
+    <t>UPAU-0001-02</t>
+  </si>
+  <si>
+    <t>UPAU-0001-03</t>
+  </si>
+  <si>
+    <t>Automated Product 001 - updated</t>
+  </si>
+  <si>
+    <t>Automated Product 002 - updated</t>
+  </si>
+  <si>
+    <t>Automated Product 003 -updated</t>
+  </si>
+  <si>
+    <t>Updated material product</t>
+  </si>
+  <si>
+    <t>AU-0001-01 Automated Product 001</t>
+  </si>
+  <si>
+    <t>AU-0001-02 Automated Product 002</t>
+  </si>
+  <si>
+    <t>AU-0001-03 Automated Product 003</t>
+  </si>
+  <si>
+    <t>UPAU-0001-01 Automated Product 001 - updated</t>
+  </si>
+  <si>
+    <t>UPAU-0001-02 Automated Product 002 - updated</t>
+  </si>
+  <si>
+    <t>UPAU-0001-03 Automated Product 003 -updated</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Updated new scope - Testing</t>
+  </si>
+  <si>
+    <t>ProductCodeName</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>UpdateProductCode</t>
+  </si>
+  <si>
+    <t>UpdateProductName</t>
+  </si>
+  <si>
+    <t>UpdateProductCodeName</t>
+  </si>
+  <si>
+    <t>EstimateDate</t>
+  </si>
+  <si>
+    <t>UpdateEstimateDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/dd/yy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +923,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -698,13 +955,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -988,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -2099,4 +2359,476 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12A4D20-CBEC-42E3-9A24-C9C857FE01F3}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(C2," ",B2)</f>
+        <v>AU-0001 Automation Project 01</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE(M2," ",L2)</f>
+        <v>UPAU-0001 Updated Automation Project 01</v>
+      </c>
+      <c r="O2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(C3," ",B3)</f>
+        <v>AU-0002 Automation Project 02</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>AU-0003 Automation Project 03</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>AU-0004 Automation Project 04</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C337DBF-8E87-4911-96F1-55478D7291E8}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44938</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44938</v>
+      </c>
+      <c r="G2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="4">
+        <v>44938</v>
+      </c>
+      <c r="M2" s="6">
+        <v>120</v>
+      </c>
+      <c r="N2" s="4">
+        <v>44969</v>
+      </c>
+      <c r="O2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44969</v>
+      </c>
+      <c r="E3" s="6">
+        <v>150.99</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44969</v>
+      </c>
+      <c r="G3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44938</v>
+      </c>
+      <c r="M3" s="6">
+        <v>150.75</v>
+      </c>
+      <c r="N3" s="4">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44997</v>
+      </c>
+      <c r="E4" s="6">
+        <v>170.79</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44997</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="4">
+        <v>44938</v>
+      </c>
+      <c r="M4" s="6">
+        <v>289</v>
+      </c>
+      <c r="N4" s="4">
+        <v>44969</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueta\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE393E-D6B4-46DB-A57A-52D632B394CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2D8940-61C5-412C-9ACC-D1F6E015027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
     <sheet name="OrganizationContacts" sheetId="2" r:id="rId2"/>
     <sheet name="Projects" sheetId="3" r:id="rId3"/>
     <sheet name="ProjectsProducts" sheetId="4" r:id="rId4"/>
+    <sheet name="ResearchFiles" sheetId="5" r:id="rId5"/>
+    <sheet name="SearchProperties" sheetId="8" r:id="rId6"/>
+    <sheet name="PropertyResearch" sheetId="9" r:id="rId7"/>
+    <sheet name="Properties" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="439">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -794,18 +798,6 @@
     <t>Project updated by Automation Testing - 3 products associated</t>
   </si>
   <si>
-    <t>UpdateStartDate</t>
-  </si>
-  <si>
-    <t>UpdateCostEstimate</t>
-  </si>
-  <si>
-    <t>UpdateObjectives</t>
-  </si>
-  <si>
-    <t>UpdateScope</t>
-  </si>
-  <si>
     <t>AU-0001-01</t>
   </si>
   <si>
@@ -881,19 +873,493 @@
     <t>ProductCode</t>
   </si>
   <si>
-    <t>UpdateProductCode</t>
-  </si>
-  <si>
-    <t>UpdateProductName</t>
-  </si>
-  <si>
-    <t>UpdateProductCodeName</t>
-  </si>
-  <si>
     <t>EstimateDate</t>
   </si>
   <si>
-    <t>UpdateEstimateDate</t>
+    <t>RoadName</t>
+  </si>
+  <si>
+    <t>RoadAlias</t>
+  </si>
+  <si>
+    <t>ResearchPurpose</t>
+  </si>
+  <si>
+    <t>RequestDate</t>
+  </si>
+  <si>
+    <t>RequestSource</t>
+  </si>
+  <si>
+    <t>Requester</t>
+  </si>
+  <si>
+    <t>RequestDescription</t>
+  </si>
+  <si>
+    <t>ResearchCompletedDate</t>
+  </si>
+  <si>
+    <t>RequestResult</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PlanNumber</t>
+  </si>
+  <si>
+    <t>LegalDescription</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>AddressLine3</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>MoTIRegion</t>
+  </si>
+  <si>
+    <t>HighwaysDistrict</t>
+  </si>
+  <si>
+    <t>ElectoralDistrict</t>
+  </si>
+  <si>
+    <t>AgriculturalLandReserve</t>
+  </si>
+  <si>
+    <t>RailwayBelt</t>
+  </si>
+  <si>
+    <t>LandParcelType</t>
+  </si>
+  <si>
+    <t>MunicipalZoning</t>
+  </si>
+  <si>
+    <t>Anomalies</t>
+  </si>
+  <si>
+    <t>TenureStatus</t>
+  </si>
+  <si>
+    <t>ProvincialPublicHwy</t>
+  </si>
+  <si>
+    <t>SqrMeters</t>
+  </si>
+  <si>
+    <t>IsVolumetric</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>VolumeType</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Complete RF Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit existing RF </t>
+  </si>
+  <si>
+    <t>Create RF from Pin</t>
+  </si>
+  <si>
+    <t>Automated Research File Creation - Complete File</t>
+  </si>
+  <si>
+    <t>Automated Research File Creation - Required fields only</t>
+  </si>
+  <si>
+    <t>Automated Research File from Pin</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Archived</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>The Automated Road</t>
+  </si>
+  <si>
+    <t>The Automated Happy Path</t>
+  </si>
+  <si>
+    <t>Devin Smith</t>
+  </si>
+  <si>
+    <t>Public Enquiry (non-FOI)</t>
+  </si>
+  <si>
+    <t>Automation Test - Description for complete Research File request</t>
+  </si>
+  <si>
+    <t>Automation Test - Description for the Result of the Research File request</t>
+  </si>
+  <si>
+    <t>Automation Test - Expropiation Notes</t>
+  </si>
+  <si>
+    <t>Edited Automation Path</t>
+  </si>
+  <si>
+    <t>Automation Test - Edition of a Research File's request</t>
+  </si>
+  <si>
+    <t>001-505-360</t>
+  </si>
+  <si>
+    <t>028-753-054</t>
+  </si>
+  <si>
+    <t>099-123-677</t>
+  </si>
+  <si>
+    <t>004-537-360</t>
+  </si>
+  <si>
+    <t>18TR2_RUPERT</t>
+  </si>
+  <si>
+    <t>1818 Cornwall</t>
+  </si>
+  <si>
+    <t>DISTRICT LOT 2405</t>
+  </si>
+  <si>
+    <t>LOT 97</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>Automation RF Property</t>
+  </si>
+  <si>
+    <t>8989 Main St.</t>
+  </si>
+  <si>
+    <t>Office 2305-09</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>V1H 9K0</t>
+  </si>
+  <si>
+    <t>Edit Property Details within a RF</t>
+  </si>
+  <si>
+    <t>Lower Mainland District</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Oak Bay-Gordon Head</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Automated Test zone within RF</t>
+  </si>
+  <si>
+    <t>Assignment of rent, Potential for business loss claims, Building liens</t>
+  </si>
+  <si>
+    <t>Closed Road, Adjacent Land</t>
+  </si>
+  <si>
+    <t>Combination (PPH &amp; Non-PPH)</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>Airspace</t>
+  </si>
+  <si>
+    <t>Automated updates on Property Information from Research File</t>
+  </si>
+  <si>
+    <t>Automated updates on Property Information from Research File - Changes added automatically</t>
+  </si>
+  <si>
+    <t>AdjacentLandType</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>NotesTab</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing - Note 1,Automation Functional Testing - Note 2,Automation Functional Testing - Note 3</t>
+  </si>
+  <si>
+    <t>ResearchFileName</t>
+  </si>
+  <si>
+    <t>Payable Pin</t>
+  </si>
+  <si>
+    <t>RF POI</t>
+  </si>
+  <si>
+    <t>RF Non-existing PID property</t>
+  </si>
+  <si>
+    <t>RF Add Properties</t>
+  </si>
+  <si>
+    <t>SearchPropertiesIndex</t>
+  </si>
+  <si>
+    <t>Expropriation</t>
+  </si>
+  <si>
+    <t>ExpropriationNotes</t>
+  </si>
+  <si>
+    <t>RF Create from Pin</t>
+  </si>
+  <si>
+    <t>Required only RF Creation</t>
+  </si>
+  <si>
+    <t>RF Minimum Fields</t>
+  </si>
+  <si>
+    <t>000-104-698</t>
+  </si>
+  <si>
+    <t>RF Exception Cases</t>
+  </si>
+  <si>
+    <t>000-000-000</t>
+  </si>
+  <si>
+    <t>DescriptiveName</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>LegalOpinionRequest</t>
+  </si>
+  <si>
+    <t>LegalOpinionObtained</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>SummaryNotes</t>
+  </si>
+  <si>
+    <t>PropertyReasearchRowStart</t>
+  </si>
+  <si>
+    <t>Fill Complete Research File</t>
+  </si>
+  <si>
+    <t>PID 004-537-360</t>
+  </si>
+  <si>
+    <t>PID 014-816-563</t>
+  </si>
+  <si>
+    <t>PID 007-095-333</t>
+  </si>
+  <si>
+    <t>PIN 34431771</t>
+  </si>
+  <si>
+    <t>PID 001-505-360</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>District Other</t>
+  </si>
+  <si>
+    <t>FOI</t>
+  </si>
+  <si>
+    <t>Form 12</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Automation - Summary Notes for Property of Interest 1</t>
+  </si>
+  <si>
+    <t>Automation - Summary Notes for Property of Interest 2</t>
+  </si>
+  <si>
+    <t>Automation - Summary Notes for Property of Interest 3</t>
+  </si>
+  <si>
+    <t>Automation - Summary Notes for Property of Interest 4</t>
+  </si>
+  <si>
+    <t>Automation - Summary Notes for Property of Interest 5</t>
+  </si>
+  <si>
+    <t>Automation - Document Reference for Property 1</t>
+  </si>
+  <si>
+    <t>Automation - Document Reference for Property 2</t>
+  </si>
+  <si>
+    <t>Automation - Document Reference for Property 3</t>
+  </si>
+  <si>
+    <t>Automation - Document Reference for Property 4</t>
+  </si>
+  <si>
+    <t>Automation - Document Reference for Property 5</t>
+  </si>
+  <si>
+    <t>00333 Super Test Project,11016 Salmon Slough Bridge,11920 Henderson Road - Chalmers</t>
+  </si>
+  <si>
+    <t>Acquisition,General Enquiry</t>
+  </si>
+  <si>
+    <t>General Enquiry,Acquisition,Tenure Clean-Up</t>
+  </si>
+  <si>
+    <t>Manuel Rodriguez</t>
+  </si>
+  <si>
+    <t>Automation Test - Editing Expropriation Notes</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing - Note 1 edited to test notes edition is working successfully.</t>
+  </si>
+  <si>
+    <t>Edit one Research Property</t>
+  </si>
+  <si>
+    <t>Property 1 edited</t>
+  </si>
+  <si>
+    <t>Land Issue</t>
+  </si>
+  <si>
+    <t>Automation - Edited Document Reference for Property 1</t>
+  </si>
+  <si>
+    <t>Automation - Edited Summary notes for POI 1</t>
+  </si>
+  <si>
+    <t>Automation created from Pin Path</t>
+  </si>
+  <si>
+    <t>The Pin Path</t>
+  </si>
+  <si>
+    <t>External Request</t>
+  </si>
+  <si>
+    <t>Sue Tairaku</t>
+  </si>
+  <si>
+    <t>Automation Test - Created from a pin and requested on Feb, 27th 2021</t>
+  </si>
+  <si>
+    <t>Automation Test - Specific selected pin is not needed to acquire.</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing - Research File created from a pin on a map</t>
+  </si>
+  <si>
+    <t>Property Research from pin</t>
+  </si>
+  <si>
+    <t>Selected by pin on map</t>
+  </si>
+  <si>
+    <t>Road Closure</t>
+  </si>
+  <si>
+    <t>Document references will be attached on the Documents Tab</t>
+  </si>
+  <si>
+    <t>Automation - POI Details from Research file created from a pin on a map</t>
+  </si>
+  <si>
+    <t>Edit Property Details from Property Map</t>
+  </si>
+  <si>
+    <t>HighwayEstablishedBy</t>
+  </si>
+  <si>
+    <t>RF Edit</t>
+  </si>
+  <si>
+    <t>007-310-374</t>
+  </si>
+  <si>
+    <t>PropertyResearchRowEnd</t>
+  </si>
+  <si>
+    <t>Hwy / Road</t>
+  </si>
+  <si>
+    <t>11183 Gurney Road: Cutlas Lake,11325 Secret Cove to Earls Cove</t>
+  </si>
+  <si>
+    <t>Complete Product 1 for Project 1</t>
+  </si>
+  <si>
+    <t>Complete Product 2 for Project 1</t>
+  </si>
+  <si>
+    <t>Complete Product 3 for Project 1</t>
+  </si>
+  <si>
+    <t>Update for product 1</t>
+  </si>
+  <si>
+    <t>Update for product 2</t>
+  </si>
+  <si>
+    <t>Update for product 3</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -965,6 +1431,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1252,55 +1719,55 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.88671875" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.6328125" customWidth="1"/>
+    <col min="12" max="12" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.36328125" customWidth="1"/>
+    <col min="18" max="18" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.36328125" customWidth="1"/>
+    <col min="21" max="21" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.90625" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.36328125" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="19.88671875" customWidth="1"/>
+    <col min="40" max="40" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="19.90625" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19" customWidth="1"/>
-    <col min="45" max="45" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="67.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -1449,7 +1916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1589,7 +2056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -1720,7 +2187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -1785,7 +2252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -1865,7 +2332,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -1897,55 +2364,55 @@
   <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.77734375" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.36328125" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.81640625" customWidth="1"/>
+    <col min="21" max="21" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="20.21875" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="18.21875" customWidth="1"/>
-    <col min="40" max="40" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="20.1796875" customWidth="1"/>
+    <col min="31" max="31" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="18.1796875" customWidth="1"/>
+    <col min="40" max="40" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="55.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -2085,7 +2552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -2216,7 +2683,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -2269,7 +2736,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -2340,7 +2807,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -2365,85 +2832,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12A4D20-CBEC-42E3-9A24-C9C857FE01F3}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -2495,7 +2962,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -2531,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -2567,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -2612,217 +3079,213 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C337DBF-8E87-4911-96F1-55478D7291E8}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" t="s">
         <v>251</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44938</v>
+      </c>
+      <c r="F2" s="6">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44938</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" t="s">
         <v>252</v>
       </c>
-      <c r="N1" t="s">
-        <v>284</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44969</v>
+      </c>
+      <c r="F3" s="6">
+        <v>150.99</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44969</v>
+      </c>
+      <c r="H3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" t="s">
         <v>253</v>
       </c>
-      <c r="P1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44997</v>
+      </c>
+      <c r="F4" s="6">
+        <v>170.79</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44997</v>
+      </c>
+      <c r="H4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" t="s">
         <v>258</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44938</v>
+      </c>
+      <c r="F5" s="6">
+        <v>120</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44969</v>
+      </c>
+      <c r="H5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E6" s="4">
         <v>44938</v>
       </c>
-      <c r="E2" s="6">
-        <v>100</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F6" s="6">
+        <v>150.75</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="4">
         <v>44938</v>
       </c>
-      <c r="G2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="4">
-        <v>44938</v>
-      </c>
-      <c r="M2" s="6">
-        <v>120</v>
-      </c>
-      <c r="N2" s="4">
-        <v>44969</v>
-      </c>
-      <c r="O2" t="s">
-        <v>269</v>
-      </c>
-      <c r="P2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44969</v>
-      </c>
-      <c r="E3" s="6">
-        <v>150.99</v>
-      </c>
-      <c r="F3" s="4">
-        <v>44969</v>
-      </c>
-      <c r="G3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" t="s">
-        <v>274</v>
-      </c>
-      <c r="L3" s="4">
-        <v>44938</v>
-      </c>
-      <c r="M3" s="6">
-        <v>150.75</v>
-      </c>
-      <c r="N3" s="4">
-        <v>44969</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44997</v>
-      </c>
-      <c r="E4" s="6">
-        <v>170.79</v>
-      </c>
-      <c r="F4" s="4">
-        <v>44997</v>
-      </c>
-      <c r="G4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K4" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="4">
-        <v>44938</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="F7" s="6">
         <v>289</v>
       </c>
-      <c r="N4" s="4">
+      <c r="G7" s="4">
         <v>44969</v>
       </c>
     </row>
@@ -2831,4 +3294,840 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="100.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44625</v>
+      </c>
+      <c r="I2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="4">
+        <v>44631</v>
+      </c>
+      <c r="M2" t="s">
+        <v>325</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44651</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>407</v>
+      </c>
+      <c r="P3" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44254</v>
+      </c>
+      <c r="I4" t="s">
+        <v>416</v>
+      </c>
+      <c r="J4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" t="s">
+        <v>418</v>
+      </c>
+      <c r="L4" s="4">
+        <v>44703</v>
+      </c>
+      <c r="M4" t="s">
+        <v>419</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2">
+        <v>8157500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="27.36328125" customWidth="1"/>
+    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="83.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L3" t="s">
+        <v>345</v>
+      </c>
+      <c r="M3" t="s">
+        <v>431</v>
+      </c>
+      <c r="N3" t="s">
+        <v>348</v>
+      </c>
+      <c r="O3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P3" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>351</v>
+      </c>
+      <c r="S3" t="s">
+        <v>352</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>353</v>
+      </c>
+      <c r="X3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2D8940-61C5-412C-9ACC-D1F6E015027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB33E2A-28E7-4344-B1DA-B1AAEEECCC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="444">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -639,9 +639,6 @@
     <t>Auto Corp Investments</t>
   </si>
   <si>
-    <t>11105 BRIDGE ROAD HOLDINGS LTD</t>
-  </si>
-  <si>
     <t>V6Z 3S5</t>
   </si>
   <si>
@@ -1092,12 +1089,6 @@
     <t>Automated Test zone within RF</t>
   </si>
   <si>
-    <t>Assignment of rent, Potential for business loss claims, Building liens</t>
-  </si>
-  <si>
-    <t>Closed Road, Adjacent Land</t>
-  </si>
-  <si>
     <t>Combination (PPH &amp; Non-PPH)</t>
   </si>
   <si>
@@ -1254,9 +1245,6 @@
     <t>Automation - Document Reference for Property 5</t>
   </si>
   <si>
-    <t>00333 Super Test Project,11016 Salmon Slough Bridge,11920 Henderson Road - Chalmers</t>
-  </si>
-  <si>
     <t>Acquisition,General Enquiry</t>
   </si>
   <si>
@@ -1360,6 +1348,33 @@
   </si>
   <si>
     <t>Update for product 3</t>
+  </si>
+  <si>
+    <t>11105 BRIDGE ROAD HOLDINGS LTD.</t>
+  </si>
+  <si>
+    <t>Create and Cancel Actions</t>
+  </si>
+  <si>
+    <t>Automated Research File - Validate Cancel changes</t>
+  </si>
+  <si>
+    <t>Cancel Changes</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing - Update and cancel updates</t>
+  </si>
+  <si>
+    <t>010-087-346</t>
+  </si>
+  <si>
+    <t>02867 Rapid Bus Transit Pullouts,11016 Salmon Slough Bridge,11920 Henderson Road - Chalmers</t>
+  </si>
+  <si>
+    <t>Assignment of rent,Potential for business loss claims,Building liens</t>
+  </si>
+  <si>
+    <t>Closed Road,Adjacent Land</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1731,7 @@
   <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1729,7 +1744,7 @@
     <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" customWidth="1"/>
     <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="16.6328125" customWidth="1"/>
     <col min="12" max="12" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="28.453125" customWidth="1"/>
@@ -2079,43 +2094,43 @@
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>108</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" t="s">
         <v>131</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>74</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>150</v>
-      </c>
-      <c r="R3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" t="s">
-        <v>131</v>
       </c>
       <c r="U3" t="s">
         <v>70</v>
@@ -2350,8 +2365,8 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{16C12AA1-ECCE-499E-9396-FFC7128B9E7E}"/>
     <hyperlink ref="L2" r:id="rId2" xr:uid="{3E5C643A-012D-4079-8C9C-CE03A2BB44C0}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{1CC1FCEE-4D1F-4BC0-B831-33526F37CA9E}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{1CC1FCEE-4D1F-4BC0-B831-33526F37CA9E}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
     <hyperlink ref="I5" r:id="rId5" xr:uid="{3BF8C400-BAC1-4978-8D41-326CBC17576E}"/>
     <hyperlink ref="L5" r:id="rId6" xr:uid="{9CA6DE06-BA42-496F-902B-6B9113678CE6}"/>
   </hyperlinks>
@@ -2623,7 +2638,7 @@
         <v>57</v>
       </c>
       <c r="X2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y2" t="s">
         <v>54</v>
@@ -2724,7 +2739,7 @@
         <v>103</v>
       </c>
       <c r="X3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y3" t="s">
         <v>33</v>
@@ -2795,13 +2810,13 @@
         <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y4" t="s">
         <v>54</v>
       </c>
       <c r="AA4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT4" t="s">
         <v>177</v>
@@ -2859,85 +2874,85 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(C2," ",B2)</f>
         <v>AU-0001 Automation Project 01</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2946,50 +2961,50 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" t="s">
         <v>247</v>
-      </c>
-      <c r="M2" t="s">
-        <v>248</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(M2," ",L2)</f>
         <v>UPAU-0001 Updated Automation Project 01</v>
       </c>
       <c r="O2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q2" t="s">
         <v>249</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D5" si="0">CONCATENATE(C3," ",B3)</f>
         <v>AU-0002 Automation Project 02</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -3000,32 +3015,32 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>AU-0003 Automation Project 03</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3036,32 +3051,32 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>AU-0004 Automation Project 04</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="I5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -3081,7 +3096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C337DBF-8E87-4911-96F1-55478D7291E8}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3103,42 +3118,42 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="4">
         <v>44938</v>
@@ -3150,24 +3165,24 @@
         <v>44938</v>
       </c>
       <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
         <v>257</v>
-      </c>
-      <c r="I2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="4">
         <v>44969</v>
@@ -3179,24 +3194,24 @@
         <v>44969</v>
       </c>
       <c r="H3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" t="s">
         <v>257</v>
-      </c>
-      <c r="I3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="4">
         <v>44997</v>
@@ -3208,24 +3223,24 @@
         <v>44997</v>
       </c>
       <c r="H4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" t="s">
         <v>257</v>
-      </c>
-      <c r="I4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="4">
         <v>44938</v>
@@ -3237,24 +3252,24 @@
         <v>44969</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="4">
         <v>44938</v>
@@ -3268,16 +3283,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7" s="4">
         <v>44938</v>
@@ -3298,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3331,108 +3346,108 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
         <v>319</v>
       </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>320</v>
       </c>
-      <c r="F2" t="s">
-        <v>321</v>
-      </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H2" s="4">
         <v>44625</v>
       </c>
       <c r="I2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" t="s">
         <v>323</v>
-      </c>
-      <c r="J2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K2" t="s">
-        <v>324</v>
       </c>
       <c r="L2" s="4">
         <v>44631</v>
       </c>
       <c r="M2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -3446,28 +3461,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K3" t="s">
         <v>327</v>
-      </c>
-      <c r="G3" t="s">
-        <v>405</v>
-      </c>
-      <c r="J3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K3" t="s">
-        <v>328</v>
       </c>
       <c r="L3" s="4">
         <v>44651</v>
@@ -3476,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -3493,49 +3508,49 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H4" s="4">
         <v>44254</v>
       </c>
       <c r="I4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L4" s="4">
         <v>44703</v>
       </c>
       <c r="M4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -3549,13 +3564,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -3568,6 +3583,35 @@
       </c>
       <c r="S5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>438</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3626,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3616,98 +3660,98 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2">
         <v>8157500</v>
       </c>
       <c r="D2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3764,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3739,183 +3783,183 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" t="s">
         <v>381</v>
       </c>
-      <c r="B4" t="s">
-        <v>384</v>
-      </c>
       <c r="C4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" t="s">
         <v>389</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" t="s">
         <v>392</v>
-      </c>
-      <c r="E4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" t="s">
         <v>409</v>
-      </c>
-      <c r="B7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" t="s">
         <v>421</v>
-      </c>
-      <c r="B8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F8" t="s">
-        <v>424</v>
-      </c>
-      <c r="G8" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3928,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3979,131 +4023,131 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" t="s">
         <v>343</v>
       </c>
-      <c r="C3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" t="s">
         <v>344</v>
       </c>
-      <c r="J3" t="s">
-        <v>346</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N3" t="s">
         <v>347</v>
       </c>
-      <c r="L3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M3" t="s">
-        <v>431</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>442</v>
+      </c>
+      <c r="P3" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q3" t="s">
         <v>348</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>349</v>
-      </c>
-      <c r="P3" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>351</v>
-      </c>
-      <c r="S3" t="s">
-        <v>352</v>
       </c>
       <c r="T3">
         <v>100</v>
@@ -4115,15 +4159,15 @@
         <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="X3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB33E2A-28E7-4344-B1DA-B1AAEEECCC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C06CC6-F4FE-40D2-83AD-202A49A1CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" tabRatio="868" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
     <sheet name="OrganizationContacts" sheetId="2" r:id="rId2"/>
-    <sheet name="Projects" sheetId="3" r:id="rId3"/>
-    <sheet name="ProjectsProducts" sheetId="4" r:id="rId4"/>
-    <sheet name="ResearchFiles" sheetId="5" r:id="rId5"/>
-    <sheet name="SearchProperties" sheetId="8" r:id="rId6"/>
-    <sheet name="PropertyResearch" sheetId="9" r:id="rId7"/>
-    <sheet name="Properties" sheetId="6" r:id="rId8"/>
+    <sheet name="FinancialCodes" sheetId="11" r:id="rId3"/>
+    <sheet name="Projects" sheetId="3" r:id="rId4"/>
+    <sheet name="ProjectsProducts" sheetId="4" r:id="rId5"/>
+    <sheet name="ResearchFiles" sheetId="5" r:id="rId6"/>
+    <sheet name="SearchProperties" sheetId="8" r:id="rId7"/>
+    <sheet name="PropertyResearch" sheetId="9" r:id="rId8"/>
+    <sheet name="Properties" sheetId="6" r:id="rId9"/>
+    <sheet name="Notes" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="508">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -696,9 +698,6 @@
     <t>Project with 10 Products</t>
   </si>
   <si>
-    <t>UpdateStatus</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -708,21 +707,6 @@
     <t>CodeName</t>
   </si>
   <si>
-    <t>UpdateName</t>
-  </si>
-  <si>
-    <t>UpdateNumber</t>
-  </si>
-  <si>
-    <t>UpdateCodeName</t>
-  </si>
-  <si>
-    <t>UpdateMOTIRegion</t>
-  </si>
-  <si>
-    <t>UpdateSummary</t>
-  </si>
-  <si>
     <t>Automation Project 01</t>
   </si>
   <si>
@@ -783,9 +767,6 @@
     <t>TRANPSP1</t>
   </si>
   <si>
-    <t>Updated Automation Project 01</t>
-  </si>
-  <si>
     <t>UPAU-0001</t>
   </si>
   <si>
@@ -1101,18 +1082,12 @@
     <t>Automated updates on Property Information from Research File</t>
   </si>
   <si>
-    <t>Automated updates on Property Information from Research File - Changes added automatically</t>
-  </si>
-  <si>
     <t>AdjacentLandType</t>
   </si>
   <si>
     <t>Projects</t>
   </si>
   <si>
-    <t>NotesTab</t>
-  </si>
-  <si>
     <t>Automation Functional Testing - Note 1,Automation Functional Testing - Note 2,Automation Functional Testing - Note 3</t>
   </si>
   <si>
@@ -1257,9 +1232,6 @@
     <t>Automation Test - Editing Expropriation Notes</t>
   </si>
   <si>
-    <t>Automation Functional Testing - Note 1 edited to test notes edition is working successfully.</t>
-  </si>
-  <si>
     <t>Edit one Research Property</t>
   </si>
   <si>
@@ -1293,9 +1265,6 @@
     <t>Automation Test - Specific selected pin is not needed to acquire.</t>
   </si>
   <si>
-    <t>Automation Functional Testing - Research File created from a pin on a map</t>
-  </si>
-  <si>
     <t>Property Research from pin</t>
   </si>
   <si>
@@ -1362,9 +1331,6 @@
     <t>Cancel Changes</t>
   </si>
   <si>
-    <t>Automation Functional Testing - Update and cancel updates</t>
-  </si>
-  <si>
     <t>010-087-346</t>
   </si>
   <si>
@@ -1375,6 +1341,234 @@
   </si>
   <si>
     <t>Closed Road,Adjacent Land</t>
+  </si>
+  <si>
+    <t>Test case Description</t>
+  </si>
+  <si>
+    <t>Research File - Create new notes</t>
+  </si>
+  <si>
+    <t>Research File - Edit Note</t>
+  </si>
+  <si>
+    <t>Acquisition File - Create new notes</t>
+  </si>
+  <si>
+    <t>Acquisition File - Edit Notes</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing - Note 1,Automation Functional Testing - Note 2,Automation Functional Testing - Note 3,Automation Functional Testing - Note 4,Automation Functional Testing - Note 5,Automation Functional Testing - Note 6,Automation Functional Testing - Note 7,Automation Functional Testing - Note 8,Automation Functional Testing - Note 9,Automation Functional Testing - Note 10,Automation Functional Testing - Note 11,Automation Functional Testing - Note 12</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing - Note 1 edited to test notes from research file is working successfully.</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing - Note edited to test notes from acquisition file is working successfully.</t>
+  </si>
+  <si>
+    <t>Update project</t>
+  </si>
+  <si>
+    <t>Unique Product for Project 1</t>
+  </si>
+  <si>
+    <t>Product 1 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 2 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 3 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 4 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 5 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 6 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 7 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 8 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 9 for Project 4</t>
+  </si>
+  <si>
+    <t>Product 10 for Project 4</t>
+  </si>
+  <si>
+    <t>UNIQUE-0001</t>
+  </si>
+  <si>
+    <t>Unique Product from Project 3</t>
+  </si>
+  <si>
+    <t>MULTI-0001</t>
+  </si>
+  <si>
+    <t>MULTI-0002</t>
+  </si>
+  <si>
+    <t>MULTI-0003</t>
+  </si>
+  <si>
+    <t>MULTI-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0005</t>
+  </si>
+  <si>
+    <t>MULTI-0006</t>
+  </si>
+  <si>
+    <t>MULTI-0007</t>
+  </si>
+  <si>
+    <t>MULTI-0008</t>
+  </si>
+  <si>
+    <t>MULTI-0009</t>
+  </si>
+  <si>
+    <t>MULTI-0010</t>
+  </si>
+  <si>
+    <t>Product 1 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 2 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 3 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 4 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 5 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 6 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 7 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 8 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 9 for AU-0004</t>
+  </si>
+  <si>
+    <t>Product 10 for AU-0004</t>
+  </si>
+  <si>
+    <t>UNIQUE-0001 Unique Product from Project 3</t>
+  </si>
+  <si>
+    <t>MULTI-0001 Product 1 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0002 Product 2 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0003 Product 3 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0004 Product 4 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0005 Product 5 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0006 Product 6 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0007 Product 7 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0008 Product 8 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0009 Product 9 for AU-0004</t>
+  </si>
+  <si>
+    <t>MULTI-0010 Product 10 for AU-0004</t>
+  </si>
+  <si>
+    <t>Testing of a project with 1 product</t>
+  </si>
+  <si>
+    <t>Testing a project with several products</t>
+  </si>
+  <si>
+    <t>Several products associated to 1 project</t>
+  </si>
+  <si>
+    <t>Main Search Properties</t>
+  </si>
+  <si>
+    <t>Edit Property from Map</t>
+  </si>
+  <si>
+    <t>123 Fake St.</t>
+  </si>
+  <si>
+    <t>Apt 305</t>
+  </si>
+  <si>
+    <t>V6Z 8H9</t>
+  </si>
+  <si>
+    <t>The Automated Zone from Properties Details</t>
+  </si>
+  <si>
+    <t>Main Search invalid PID</t>
+  </si>
+  <si>
+    <t>CodeType</t>
+  </si>
+  <si>
+    <t>CodeValue</t>
+  </si>
+  <si>
+    <t>CodeDescription</t>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+  </si>
+  <si>
+    <t>Create a new Financial Code</t>
+  </si>
+  <si>
+    <t>Edit Financial Code</t>
+  </si>
+  <si>
+    <t>Work activity</t>
+  </si>
+  <si>
+    <t>AUTO-TSTFINCODE</t>
+  </si>
+  <si>
+    <t>This is a Test Financial Code created by Automated programming</t>
+  </si>
+  <si>
+    <t>This is a Test Financial Code created by Automated programming - Edited automated form</t>
+  </si>
+  <si>
+    <t>Automated updates on Property Information from Property Information.</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1925,7 @@
   <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1957,40 +2151,40 @@
         <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>108</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" t="s">
-        <v>131</v>
-      </c>
       <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>132</v>
-      </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" t="s">
-        <v>133</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
@@ -2094,7 +2288,7 @@
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>67</v>
@@ -2109,10 +2303,10 @@
         <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O3" t="s">
         <v>75</v>
@@ -2287,10 +2481,10 @@
         <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>184</v>
@@ -2363,8 +2557,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{16C12AA1-ECCE-499E-9396-FFC7128B9E7E}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{3E5C643A-012D-4079-8C9C-CE03A2BB44C0}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{16C12AA1-ECCE-499E-9396-FFC7128B9E7E}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{3E5C643A-012D-4079-8C9C-CE03A2BB44C0}"/>
     <hyperlink ref="L3" r:id="rId3" xr:uid="{1CC1FCEE-4D1F-4BC0-B831-33526F37CA9E}"/>
     <hyperlink ref="I3" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
     <hyperlink ref="I5" r:id="rId5" xr:uid="{3BF8C400-BAC1-4978-8D41-326CBC17576E}"/>
@@ -2374,12 +2568,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0191B-A695-44B6-B8DB-539DF91B46C4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9B3A8-42C1-4A9C-B1C1-5E5E07CE0539}">
   <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2844,11 +3098,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9776329E-4018-44A5-82B8-B8248C5C0C9C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45701</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12A4D20-CBEC-42E3-9A24-C9C857FE01F3}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2856,7 +3189,7 @@
     <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.1796875" bestFit="1" customWidth="1"/>
@@ -2864,26 +3197,20 @@
     <col min="9" max="9" width="11.54296875" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>118</v>
@@ -2906,53 +3233,35 @@
       <c r="K1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(C2," ",B2)</f>
         <v>AU-0001 Automation Project 01</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2960,51 +3269,35 @@
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" t="s">
-        <v>247</v>
-      </c>
-      <c r="N2" t="str">
-        <f>CONCATENATE(M2," ",L2)</f>
-        <v>UPAU-0001 Updated Automation Project 01</v>
-      </c>
-      <c r="O2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D5" si="0">CONCATENATE(C3," ",B3)</f>
         <v>AU-0002 Automation Project 02</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="I3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -3013,34 +3306,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>AU-0003 Automation Project 03</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3049,40 +3342,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>AU-0004 Automation Project 04</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE(C6," ",B6)</f>
+        <v>UPAU-0001 Automation Project 01</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3092,12 +3421,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C337DBF-8E87-4911-96F1-55478D7291E8}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3118,13 +3447,13 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>212</v>
@@ -3133,7 +3462,7 @@
         <v>204</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>205</v>
@@ -3144,16 +3473,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E2" s="4">
         <v>44938</v>
@@ -3165,24 +3494,24 @@
         <v>44938</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E3" s="4">
         <v>44969</v>
@@ -3194,24 +3523,24 @@
         <v>44969</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E4" s="4">
         <v>44997</v>
@@ -3223,84 +3552,367 @@
         <v>44997</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>474</v>
       </c>
       <c r="E5" s="4">
-        <v>44938</v>
+        <v>45075</v>
       </c>
       <c r="F5" s="6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G5" s="4">
-        <v>44969</v>
+        <v>45076</v>
       </c>
       <c r="H5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I5" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>475</v>
       </c>
       <c r="E6" s="4">
-        <v>44938</v>
+        <v>43831</v>
       </c>
       <c r="F6" s="6">
-        <v>150.75</v>
+        <v>89.95</v>
       </c>
       <c r="G6" s="4">
-        <v>44969</v>
+        <v>43832</v>
+      </c>
+      <c r="H6" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43862</v>
+      </c>
+      <c r="F7" s="6">
+        <v>77.89</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43863</v>
+      </c>
+      <c r="I7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43891</v>
+      </c>
+      <c r="F8" s="6">
+        <v>123.44</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43892</v>
+      </c>
+      <c r="H8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43922</v>
+      </c>
+      <c r="F9" s="6">
+        <v>320.12</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43923</v>
+      </c>
+      <c r="H9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43952</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43983</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43984</v>
+      </c>
+      <c r="H11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" s="4">
+        <v>44013</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44014</v>
+      </c>
+      <c r="H12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44044</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44045</v>
+      </c>
+      <c r="I13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44075</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44076</v>
+      </c>
+      <c r="H14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44105</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44938</v>
+      </c>
+      <c r="F16" s="6">
+        <v>120</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44969</v>
+      </c>
+      <c r="H16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44938</v>
+      </c>
+      <c r="F17" s="6">
+        <v>150.75</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" t="s">
         <v>263</v>
       </c>
-      <c r="D7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="E18" s="4">
         <v>44938</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F18" s="6">
         <v>289</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G18" s="4">
         <v>44969</v>
       </c>
     </row>
@@ -3311,12 +3923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3330,159 +3942,152 @@
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="100.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" t="s">
         <v>313</v>
       </c>
-      <c r="C2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" t="s">
-        <v>320</v>
-      </c>
       <c r="G2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H2" s="4">
         <v>44625</v>
       </c>
       <c r="I2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L2" s="4">
         <v>44631</v>
       </c>
       <c r="M2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>325</v>
-      </c>
-      <c r="P2" t="s">
-        <v>356</v>
+        <v>318</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="J3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L3" s="4">
         <v>44651</v>
@@ -3491,126 +4096,117 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>403</v>
-      </c>
-      <c r="P3" t="s">
-        <v>404</v>
+        <v>394</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R3">
         <v>6</v>
       </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H4" s="4">
         <v>44254</v>
       </c>
       <c r="I4" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="K4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="L4" s="4">
         <v>44703</v>
       </c>
       <c r="M4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
-        <v>416</v>
+      <c r="P4">
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <v>7</v>
       </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
       <c r="Q5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
-        <v>439</v>
+      <c r="P6">
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6">
         <v>6</v>
       </c>
     </row>
@@ -3621,20 +4217,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
@@ -3660,98 +4256,120 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C2">
         <v>8157500</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10">
+        <v>90054791</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3759,12 +4377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3783,183 +4401,183 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
         <v>378</v>
       </c>
-      <c r="B5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" t="s">
-        <v>387</v>
-      </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" t="s">
         <v>389</v>
       </c>
-      <c r="F5" t="s">
-        <v>398</v>
-      </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F8" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3968,12 +4586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3991,7 +4609,7 @@
     <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
@@ -4023,131 +4641,131 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" t="s">
+        <v>340</v>
+      </c>
+      <c r="O3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>341</v>
+      </c>
+      <c r="S3" t="s">
         <v>342</v>
-      </c>
-      <c r="C3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" t="s">
-        <v>343</v>
-      </c>
-      <c r="J3" t="s">
-        <v>345</v>
-      </c>
-      <c r="K3" t="s">
-        <v>346</v>
-      </c>
-      <c r="L3" t="s">
-        <v>344</v>
-      </c>
-      <c r="M3" t="s">
-        <v>427</v>
-      </c>
-      <c r="N3" t="s">
-        <v>347</v>
-      </c>
-      <c r="O3" t="s">
-        <v>442</v>
-      </c>
-      <c r="P3" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>348</v>
-      </c>
-      <c r="S3" t="s">
-        <v>349</v>
       </c>
       <c r="T3">
         <v>100</v>
@@ -4159,15 +4777,45 @@
         <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="X3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N4" t="s">
+        <v>493</v>
+      </c>
+      <c r="T4">
+        <v>65</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>103.59</v>
+      </c>
+      <c r="W4" t="s">
+        <v>343</v>
+      </c>
       <c r="X4" t="s">
-        <v>352</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C06CC6-F4FE-40D2-83AD-202A49A1CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4814C91-07EE-4F73-A421-EF825998BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" tabRatio="868" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="868" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="SearchProperties" sheetId="8" r:id="rId7"/>
     <sheet name="PropertyResearch" sheetId="9" r:id="rId8"/>
     <sheet name="Properties" sheetId="6" r:id="rId9"/>
-    <sheet name="Notes" sheetId="10" r:id="rId10"/>
+    <sheet name="DocumentsIndex" sheetId="13" r:id="rId10"/>
+    <sheet name="DocumentsDetails" sheetId="12" r:id="rId11"/>
+    <sheet name="Notes" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="754">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -1569,6 +1571,744 @@
   </si>
   <si>
     <t>Automated updates on Property Information from Property Information.</t>
+  </si>
+  <si>
+    <t>ShortDescriptor</t>
+  </si>
+  <si>
+    <t>CivicAddress</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>IndianReserveOrNationalPark</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>PropertyIdentifier</t>
+  </si>
+  <si>
+    <t>CrownGrant</t>
+  </si>
+  <si>
+    <t>HighwayDistrict</t>
+  </si>
+  <si>
+    <t>DistrictLot</t>
+  </si>
+  <si>
+    <t>FieldBook</t>
+  </si>
+  <si>
+    <t>LandDistrict</t>
+  </si>
+  <si>
+    <t>GazetteDate</t>
+  </si>
+  <si>
+    <t>GazettePage</t>
+  </si>
+  <si>
+    <t>GazettePublishedDate</t>
+  </si>
+  <si>
+    <t>GazetteType</t>
+  </si>
+  <si>
+    <t>LegalSurveyPlan</t>
+  </si>
+  <si>
+    <t>LTSAScheduleFiling</t>
+  </si>
+  <si>
+    <t>MoTIPlan</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>PhysicalLocation</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>PlanType</t>
+  </si>
+  <si>
+    <t>DateSigned</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MoTIFile</t>
+  </si>
+  <si>
+    <t>PublishedDate</t>
+  </si>
+  <si>
+    <t>RelatedGazette</t>
+  </si>
+  <si>
+    <t>OIC</t>
+  </si>
+  <si>
+    <t>OICRoute</t>
+  </si>
+  <si>
+    <t>OICType</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>PlanRevision</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>YearPrivyCouncil</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>CanadaLandSurvey</t>
+  </si>
+  <si>
+    <t>DigitalDocumentDetailsRowStart</t>
+  </si>
+  <si>
+    <t>DigitalDocumentsRowEnd</t>
+  </si>
+  <si>
+    <t>Insert Digital Documents into a Research File</t>
+  </si>
+  <si>
+    <t>Update Digital Documents in a Research File</t>
+  </si>
+  <si>
+    <t>Insert Digital Documents into a Lease/License</t>
+  </si>
+  <si>
+    <t>Update Digital Documents into a Lease/License</t>
+  </si>
+  <si>
+    <t>Insert Digital Documents into an Acquisition File</t>
+  </si>
+  <si>
+    <t>Update Digital Documents in an Acquisition File</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>Affidavit of service</t>
+  </si>
+  <si>
+    <t>Appraisal/Review</t>
+  </si>
+  <si>
+    <t>Approval of expropriation (From 5)</t>
+  </si>
+  <si>
+    <t>BC assessment search</t>
+  </si>
+  <si>
+    <t>Briefing notes</t>
+  </si>
+  <si>
+    <t>Canada lands survey</t>
+  </si>
+  <si>
+    <t>Certificate of Insurance (H0111)</t>
+  </si>
+  <si>
+    <t>Company search</t>
+  </si>
+  <si>
+    <t>Correspondence</t>
+  </si>
+  <si>
+    <t>Compensation cheque</t>
+  </si>
+  <si>
+    <t>Compensation requisition (H0120)</t>
+  </si>
+  <si>
+    <t>Condition of entry (H0443)</t>
+  </si>
+  <si>
+    <t>Conveyance closing documents (ex: PTT forms, Form A etc.)</t>
+  </si>
+  <si>
+    <t>Crown grant</t>
+  </si>
+  <si>
+    <t>District road register</t>
+  </si>
+  <si>
+    <t>Field notes</t>
+  </si>
+  <si>
+    <t>First nations consultation</t>
+  </si>
+  <si>
+    <t>Gazette</t>
+  </si>
+  <si>
+    <t>Historical file</t>
+  </si>
+  <si>
+    <t>Lease / License (H1005/H1005A)</t>
+  </si>
+  <si>
+    <t>Legal correspondence (ex: to AG/external lawyers)</t>
+  </si>
+  <si>
+    <t>Legal survey plan</t>
+  </si>
+  <si>
+    <t>Licensing approval/sign-off</t>
+  </si>
+  <si>
+    <t>LTSA documents and plans (except title search)</t>
+  </si>
+  <si>
+    <t>Ministerial order</t>
+  </si>
+  <si>
+    <t>Miscellaneous notes (LTSA)</t>
+  </si>
+  <si>
+    <t>MoTI plan</t>
+  </si>
+  <si>
+    <t>Notice of advanced payment (Form 8)</t>
+  </si>
+  <si>
+    <t>Notice of claims/Litigation documents</t>
+  </si>
+  <si>
+    <t>Notice of expropriation (Form 1)</t>
+  </si>
+  <si>
+    <t>Notice of possible entry (H0224)</t>
+  </si>
+  <si>
+    <t>Owner agreement/offer</t>
+  </si>
+  <si>
+    <t>PA plans / Design drawings</t>
+  </si>
+  <si>
+    <t>Photos / Images / Video</t>
+  </si>
+  <si>
+    <t>Privy council</t>
+  </si>
+  <si>
+    <t>Professional reports (ex: engineering, environmental etc.)</t>
+  </si>
+  <si>
+    <t>Record of negotiation</t>
+  </si>
+  <si>
+    <t>Release of claims</t>
+  </si>
+  <si>
+    <t>Spending authority approval (SAA)</t>
+  </si>
+  <si>
+    <t>Surplus property declaration</t>
+  </si>
+  <si>
+    <t>Tax notices and assessments</t>
+  </si>
+  <si>
+    <t>Temporary license for construction access (H0074)</t>
+  </si>
+  <si>
+    <t>Title search / Historical title</t>
+  </si>
+  <si>
+    <t>Transfer of administration</t>
+  </si>
+  <si>
+    <t>Vesting notice (Form 9)</t>
+  </si>
+  <si>
+    <t>Creating a Affidavit of service document type</t>
+  </si>
+  <si>
+    <t>Creating a Appraisal/Review document type</t>
+  </si>
+  <si>
+    <t>Creating a Approval of expropriation (From 5) document type</t>
+  </si>
+  <si>
+    <t>Creating a BC assessment search document type</t>
+  </si>
+  <si>
+    <t>Creating a Briefing notes document type</t>
+  </si>
+  <si>
+    <t>Creating a Canada lands survey document type</t>
+  </si>
+  <si>
+    <t>Creating a Certificate of Insurance (H0111) document type</t>
+  </si>
+  <si>
+    <t>Creating a Company search document type</t>
+  </si>
+  <si>
+    <t>Creating a Correspondence document type</t>
+  </si>
+  <si>
+    <t>Creating a Compensation cheque document type</t>
+  </si>
+  <si>
+    <t>Creating a Compensation requisition (H0120) document type</t>
+  </si>
+  <si>
+    <t>Creating a Condition of entry (H0443) document type</t>
+  </si>
+  <si>
+    <t>Creating a Conveyance closing documents (ex: PTT forms, Form A etc.) document type</t>
+  </si>
+  <si>
+    <t>Creating a Crown grant document type</t>
+  </si>
+  <si>
+    <t>Creating a District road register document type</t>
+  </si>
+  <si>
+    <t>Creating a Field notes document type</t>
+  </si>
+  <si>
+    <t>Creating a First nations consultation document type</t>
+  </si>
+  <si>
+    <t>Creating a Gazette document type</t>
+  </si>
+  <si>
+    <t>Creating a Historical file document type</t>
+  </si>
+  <si>
+    <t>Creating a Lease / License (H1005/H1005A) document type</t>
+  </si>
+  <si>
+    <t>Creating a Legal correspondence (ex: to AG/external lawyers) document type</t>
+  </si>
+  <si>
+    <t>Creating a Legal survey plan document type</t>
+  </si>
+  <si>
+    <t>Creating a Licensing approval/sign-off document type</t>
+  </si>
+  <si>
+    <t>Creating a LTSA documents and plans (except title search) document type</t>
+  </si>
+  <si>
+    <t>Creating a Ministerial order document type</t>
+  </si>
+  <si>
+    <t>Creating a Miscellaneous notes (LTSA) document type</t>
+  </si>
+  <si>
+    <t>Creating a MoTI plan document type</t>
+  </si>
+  <si>
+    <t>Creating a Notice of advanced payment (Form 8) document type</t>
+  </si>
+  <si>
+    <t>Creating a Notice of claims/Litigation documents document type</t>
+  </si>
+  <si>
+    <t>Creating a Notice of expropriation (Form 1) document type</t>
+  </si>
+  <si>
+    <t>Creating a Notice of possible entry (H0224) document type</t>
+  </si>
+  <si>
+    <t>Creating a OIC document type</t>
+  </si>
+  <si>
+    <t>Creating a Other document type</t>
+  </si>
+  <si>
+    <t>Creating a Owner agreement/offer document type</t>
+  </si>
+  <si>
+    <t>Creating a PA plans / Design drawings document type</t>
+  </si>
+  <si>
+    <t>Creating a Photos / Images / Video document type</t>
+  </si>
+  <si>
+    <t>Creating a Privy council document type</t>
+  </si>
+  <si>
+    <t>Creating a Professional reports (ex: engineering, environmental etc.) document type</t>
+  </si>
+  <si>
+    <t>Creating a Record of negotiation document type</t>
+  </si>
+  <si>
+    <t>Creating a Release of claims document type</t>
+  </si>
+  <si>
+    <t>Creating a Spending authority approval (SAA) document type</t>
+  </si>
+  <si>
+    <t>Creating a Surplus property declaration document type</t>
+  </si>
+  <si>
+    <t>Creating a Tax notices and assessments document type</t>
+  </si>
+  <si>
+    <t>Creating a Temporary license for construction access (H0074) document type</t>
+  </si>
+  <si>
+    <t>Creating a Title search / Historical title document type</t>
+  </si>
+  <si>
+    <t>Creating a Transfer of administration document type</t>
+  </si>
+  <si>
+    <t>Creating a Vesting notice (Form 9) document type</t>
+  </si>
+  <si>
+    <t>Create automatic Affidavit of service document</t>
+  </si>
+  <si>
+    <t>Create automatic Appraisal/Review document</t>
+  </si>
+  <si>
+    <t>Create automatic Approval of expropriation (From 5) document</t>
+  </si>
+  <si>
+    <t>Create automatic Briefing notes document</t>
+  </si>
+  <si>
+    <t>Create automatic Canada lands survey document</t>
+  </si>
+  <si>
+    <t>Create automatic Certificate of Insurance (H0111) document</t>
+  </si>
+  <si>
+    <t>Create automatic Company search document</t>
+  </si>
+  <si>
+    <t>Create automatic Correspondence document</t>
+  </si>
+  <si>
+    <t>Create automatic Compensation cheque document</t>
+  </si>
+  <si>
+    <t>Create automatic Compensation requisition (H0120) document</t>
+  </si>
+  <si>
+    <t>Create automatic Condition of entry (H0443) document</t>
+  </si>
+  <si>
+    <t>Create automatic Conveyance closing documents (ex: PTT forms, Form A etc.) document</t>
+  </si>
+  <si>
+    <t>Create automatic District road register document</t>
+  </si>
+  <si>
+    <t>Create automatic Field notes document</t>
+  </si>
+  <si>
+    <t>Create automatic First nations consultation document</t>
+  </si>
+  <si>
+    <t>Create automatic Lease / License (H1005/H1005A) document</t>
+  </si>
+  <si>
+    <t>Create automatic Legal correspondence (ex: to AG/external lawyers) document</t>
+  </si>
+  <si>
+    <t>Create automatic Licensing approval/sign-off document</t>
+  </si>
+  <si>
+    <t>Create automatic LTSA documents and plans (except title search) document</t>
+  </si>
+  <si>
+    <t>Create automatic MoTI plan document</t>
+  </si>
+  <si>
+    <t>Create automatic Notice of advanced payment (Form 8) document</t>
+  </si>
+  <si>
+    <t>Create automatic Notice of claims/Litigation documents document</t>
+  </si>
+  <si>
+    <t>Create automatic Notice of expropriation (Form 1) document</t>
+  </si>
+  <si>
+    <t>Create automatic Notice of possible entry (H0224) document</t>
+  </si>
+  <si>
+    <t>Create automatic Other document</t>
+  </si>
+  <si>
+    <t>Create automatic Owner agreement/offer document</t>
+  </si>
+  <si>
+    <t>Create automatic Photos / Images / Video document</t>
+  </si>
+  <si>
+    <t>Create automatic Professional reports (ex: engineering, environmental etc.) document</t>
+  </si>
+  <si>
+    <t>Create automatic Record of negotiation document</t>
+  </si>
+  <si>
+    <t>Create automatic Release of claims document</t>
+  </si>
+  <si>
+    <t>Create automatic Spending authority approval (SAA) document</t>
+  </si>
+  <si>
+    <t>Create automatic Surplus property declaration document</t>
+  </si>
+  <si>
+    <t>Create automatic Tax notices and assessments document</t>
+  </si>
+  <si>
+    <t>Create automatic Temporary license for construction access (H0074) document</t>
+  </si>
+  <si>
+    <t>Create automatic Vesting notice (Form 9) document</t>
+  </si>
+  <si>
+    <t>890 Main St.</t>
+  </si>
+  <si>
+    <t>123-456</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Signed</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Amended</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>123-9090</t>
+  </si>
+  <si>
+    <t>Stanley Park</t>
+  </si>
+  <si>
+    <t>1233-1700 Fox St.</t>
+  </si>
+  <si>
+    <t>Allan Cooke</t>
+  </si>
+  <si>
+    <t>789-098-000</t>
+  </si>
+  <si>
+    <t>CR-000988-890</t>
+  </si>
+  <si>
+    <t>100 House Test</t>
+  </si>
+  <si>
+    <t>The Automation Road</t>
+  </si>
+  <si>
+    <t>2002-03</t>
+  </si>
+  <si>
+    <t>Nanaimo</t>
+  </si>
+  <si>
+    <t>Test Gazette</t>
+  </si>
+  <si>
+    <t>7889-000</t>
+  </si>
+  <si>
+    <t>LTSA 001-233</t>
+  </si>
+  <si>
+    <t>The Happy Automation Road</t>
+  </si>
+  <si>
+    <t>FL-12345678</t>
+  </si>
+  <si>
+    <t>At the Nartional Big Library</t>
+  </si>
+  <si>
+    <t>Sec 009-99345</t>
+  </si>
+  <si>
+    <t>7898887-099</t>
+  </si>
+  <si>
+    <t>Testing Plan</t>
+  </si>
+  <si>
+    <t>MF 90878-893466329</t>
+  </si>
+  <si>
+    <t>The Bernie Main Bridge</t>
+  </si>
+  <si>
+    <t>789-567-122</t>
+  </si>
+  <si>
+    <t>367273-000</t>
+  </si>
+  <si>
+    <t>8966554-98898</t>
+  </si>
+  <si>
+    <t>12334-7668</t>
+  </si>
+  <si>
+    <t>The main Gazette</t>
+  </si>
+  <si>
+    <t>4545-8437743</t>
+  </si>
+  <si>
+    <t>345-097436</t>
+  </si>
+  <si>
+    <t>Testing OIC</t>
+  </si>
+  <si>
+    <t>Burrard Bridge</t>
+  </si>
+  <si>
+    <t>345-097-000</t>
+  </si>
+  <si>
+    <t>The Main Canada Highway</t>
+  </si>
+  <si>
+    <t>2344-PA-8999</t>
+  </si>
+  <si>
+    <t>The plan was revisioned on May 2022</t>
+  </si>
+  <si>
+    <t>Automation Project</t>
+  </si>
+  <si>
+    <t>767 Main Beach Ave.</t>
+  </si>
+  <si>
+    <t>Joe Doe</t>
+  </si>
+  <si>
+    <t>456-090-900</t>
+  </si>
+  <si>
+    <t>Betty White</t>
+  </si>
+  <si>
+    <t>678-000-989</t>
+  </si>
+  <si>
+    <t>The automation creation of a Title search</t>
+  </si>
+  <si>
+    <t>123-909000</t>
+  </si>
+  <si>
+    <t>789-789-789</t>
+  </si>
+  <si>
+    <t>Yew St. New upcoming road</t>
+  </si>
+  <si>
+    <t>191-094-876363736-0-78</t>
+  </si>
+  <si>
+    <t>003-799-565</t>
+  </si>
+  <si>
+    <t>DocumentStatus</t>
+  </si>
+  <si>
+    <t>ContactStatus</t>
+  </si>
+  <si>
+    <t>ProjectStatus</t>
+  </si>
+  <si>
+    <t>PIDNumber</t>
+  </si>
+  <si>
+    <t>PINNumber</t>
+  </si>
+  <si>
+    <t>Updating a Affidavit of service document type</t>
+  </si>
+  <si>
+    <t>Update automatic Affidavit of service document - edited</t>
+  </si>
+  <si>
+    <t>Updating a Field notes document type</t>
+  </si>
+  <si>
+    <t>2002-11</t>
+  </si>
+  <si>
+    <t>Nanaimo Station</t>
+  </si>
+  <si>
+    <t>Updating automatic Field notes document</t>
+  </si>
+  <si>
+    <t>Updating a Notice of possible entry (H0224) document type</t>
+  </si>
+  <si>
+    <t>Updating automatic Notice of possible entry (H0224) document - edited</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +2370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1641,6 +2381,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1925,7 +2667,7 @@
   <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1936,7 +2678,7 @@
     <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="16.6328125" customWidth="1"/>
@@ -1996,7 +2738,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>118</v>
+        <v>742</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -2569,6 +3311,1172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69AB3B-3A11-477C-A201-8388519D3807}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665AEC9-C942-4A65-984C-CAD52F4E2CCE}">
+  <dimension ref="A1:AX51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="75.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="19.1796875" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="19.1796875" customWidth="1"/>
+    <col min="31" max="31" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="19.1796875" customWidth="1"/>
+    <col min="35" max="35" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="19.1796875" customWidth="1"/>
+    <col min="42" max="42" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="19.1796875" customWidth="1"/>
+    <col min="45" max="45" width="77" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.26953125" customWidth="1"/>
+    <col min="47" max="47" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" t="s">
+        <v>692</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D7" t="s">
+        <v>695</v>
+      </c>
+      <c r="S7" t="s">
+        <v>696</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C8" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C9" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" t="s">
+        <v>689</v>
+      </c>
+      <c r="E10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G10" s="4">
+        <v>37388</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>698</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>699</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C12" t="s">
+        <v>691</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>615</v>
+      </c>
+      <c r="B13" t="s">
+        <v>570</v>
+      </c>
+      <c r="C13" t="s">
+        <v>692</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B16" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" t="s">
+        <v>688</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>701</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>702</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" t="s">
+        <v>689</v>
+      </c>
+      <c r="I17" t="s">
+        <v>695</v>
+      </c>
+      <c r="L17" t="s">
+        <v>703</v>
+      </c>
+      <c r="U17" t="s">
+        <v>704</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C18" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>621</v>
+      </c>
+      <c r="B19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" t="s">
+        <v>691</v>
+      </c>
+      <c r="N19" s="4">
+        <v>40128</v>
+      </c>
+      <c r="O19" s="8">
+        <v>12</v>
+      </c>
+      <c r="P19" s="4">
+        <v>40169</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>705</v>
+      </c>
+      <c r="V19" t="s">
+        <v>706</v>
+      </c>
+      <c r="W19" t="s">
+        <v>707</v>
+      </c>
+      <c r="Z19">
+        <v>1276877</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>622</v>
+      </c>
+      <c r="B20" t="s">
+        <v>577</v>
+      </c>
+      <c r="C20" t="s">
+        <v>692</v>
+      </c>
+      <c r="K20" s="4">
+        <v>36763</v>
+      </c>
+      <c r="M20" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>710</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>711</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" t="s">
+        <v>578</v>
+      </c>
+      <c r="C21" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>624</v>
+      </c>
+      <c r="B22" t="s">
+        <v>579</v>
+      </c>
+      <c r="C22" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>625</v>
+      </c>
+      <c r="B23" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" t="s">
+        <v>688</v>
+      </c>
+      <c r="V23" t="s">
+        <v>712</v>
+      </c>
+      <c r="Z23">
+        <v>3435555</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>626</v>
+      </c>
+      <c r="B24" t="s">
+        <v>581</v>
+      </c>
+      <c r="C24" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>627</v>
+      </c>
+      <c r="B25" t="s">
+        <v>582</v>
+      </c>
+      <c r="C25" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>628</v>
+      </c>
+      <c r="B26" t="s">
+        <v>583</v>
+      </c>
+      <c r="C26" t="s">
+        <v>691</v>
+      </c>
+      <c r="H26" s="4">
+        <v>36534</v>
+      </c>
+      <c r="X26">
+        <v>23456789</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>714</v>
+      </c>
+      <c r="AM26">
+        <v>2334568</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>629</v>
+      </c>
+      <c r="B27" t="s">
+        <v>584</v>
+      </c>
+      <c r="C27" t="s">
+        <v>692</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>718</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>719</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>716</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>36412</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>630</v>
+      </c>
+      <c r="B28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C28" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>631</v>
+      </c>
+      <c r="B29" t="s">
+        <v>586</v>
+      </c>
+      <c r="C29" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>632</v>
+      </c>
+      <c r="B30" t="s">
+        <v>587</v>
+      </c>
+      <c r="C30" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>633</v>
+      </c>
+      <c r="B31" t="s">
+        <v>588</v>
+      </c>
+      <c r="C31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>634</v>
+      </c>
+      <c r="B32" t="s">
+        <v>589</v>
+      </c>
+      <c r="C32" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>635</v>
+      </c>
+      <c r="B33" t="s">
+        <v>539</v>
+      </c>
+      <c r="C33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>721</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>723</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>724</v>
+      </c>
+      <c r="AW33">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>636</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG34">
+        <v>34567588</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>725</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>726</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>637</v>
+      </c>
+      <c r="B35" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>638</v>
+      </c>
+      <c r="B36" t="s">
+        <v>591</v>
+      </c>
+      <c r="C36" t="s">
+        <v>694</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>727</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>728</v>
+      </c>
+      <c r="AK36">
+        <v>9222</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>639</v>
+      </c>
+      <c r="B37" t="s">
+        <v>592</v>
+      </c>
+      <c r="C37" t="s">
+        <v>688</v>
+      </c>
+      <c r="E37" t="s">
+        <v>730</v>
+      </c>
+      <c r="G37" s="4">
+        <v>42239</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>731</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>732</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>640</v>
+      </c>
+      <c r="B38" t="s">
+        <v>593</v>
+      </c>
+      <c r="C38" t="s">
+        <v>689</v>
+      </c>
+      <c r="AX38">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>641</v>
+      </c>
+      <c r="B39" t="s">
+        <v>594</v>
+      </c>
+      <c r="C39" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>642</v>
+      </c>
+      <c r="B40" t="s">
+        <v>595</v>
+      </c>
+      <c r="C40" t="s">
+        <v>691</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>643</v>
+      </c>
+      <c r="B41" t="s">
+        <v>596</v>
+      </c>
+      <c r="C41" t="s">
+        <v>692</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>644</v>
+      </c>
+      <c r="B42" t="s">
+        <v>597</v>
+      </c>
+      <c r="C42" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>645</v>
+      </c>
+      <c r="B43" t="s">
+        <v>598</v>
+      </c>
+      <c r="C43" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>646</v>
+      </c>
+      <c r="B44" t="s">
+        <v>599</v>
+      </c>
+      <c r="C44" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>647</v>
+      </c>
+      <c r="B45" t="s">
+        <v>600</v>
+      </c>
+      <c r="C45" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>648</v>
+      </c>
+      <c r="B46" t="s">
+        <v>601</v>
+      </c>
+      <c r="C46" t="s">
+        <v>690</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>733</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>734</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>649</v>
+      </c>
+      <c r="B47" t="s">
+        <v>602</v>
+      </c>
+      <c r="C47" t="s">
+        <v>691</v>
+      </c>
+      <c r="H47" s="4">
+        <v>36495</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>736</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>737</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>738</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>650</v>
+      </c>
+      <c r="B48" t="s">
+        <v>603</v>
+      </c>
+      <c r="C48" t="s">
+        <v>692</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>746</v>
+      </c>
+      <c r="B49" t="s">
+        <v>559</v>
+      </c>
+      <c r="C49" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>748</v>
+      </c>
+      <c r="B50" t="s">
+        <v>574</v>
+      </c>
+      <c r="C50" t="s">
+        <v>692</v>
+      </c>
+      <c r="I50" t="s">
+        <v>695</v>
+      </c>
+      <c r="L50" t="s">
+        <v>749</v>
+      </c>
+      <c r="U50" t="s">
+        <v>750</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>752</v>
+      </c>
+      <c r="B51" t="s">
+        <v>589</v>
+      </c>
+      <c r="C51" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0191B-A695-44B6-B8DB-539DF91B46C4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2633,7 +4541,7 @@
   <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2695,7 +4603,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>118</v>
+        <v>742</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>40</v>
@@ -3181,7 +5089,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3213,7 +5121,7 @@
         <v>219</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>118</v>
+        <v>743</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>203</v>
@@ -3928,7 +5836,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4222,7 +6130,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4276,7 +6184,7 @@
         <v>352</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>740</v>
       </c>
       <c r="C2">
         <v>8157500</v>
@@ -4590,8 +6498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C06CC6-F4FE-40D2-83AD-202A49A1CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6623D3A9-EC12-4BEA-B350-EBA7CB14CF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" tabRatio="868" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="868" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,15 @@
     <sheet name="Projects" sheetId="3" r:id="rId4"/>
     <sheet name="ProjectsProducts" sheetId="4" r:id="rId5"/>
     <sheet name="ResearchFiles" sheetId="5" r:id="rId6"/>
-    <sheet name="SearchProperties" sheetId="8" r:id="rId7"/>
-    <sheet name="PropertyResearch" sheetId="9" r:id="rId8"/>
-    <sheet name="Properties" sheetId="6" r:id="rId9"/>
-    <sheet name="Notes" sheetId="10" r:id="rId10"/>
+    <sheet name="PropertyResearch" sheetId="9" r:id="rId7"/>
+    <sheet name="Leases" sheetId="12" r:id="rId8"/>
+    <sheet name="LeasesTenants" sheetId="13" r:id="rId9"/>
+    <sheet name="LeasesDeposits" sheetId="14" r:id="rId10"/>
+    <sheet name="LeasesTerms" sheetId="15" r:id="rId11"/>
+    <sheet name="LeasesPayments" sheetId="16" r:id="rId12"/>
+    <sheet name="SearchProperties" sheetId="8" r:id="rId13"/>
+    <sheet name="Properties" sheetId="6" r:id="rId14"/>
+    <sheet name="Notes" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="651">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -1569,6 +1574,435 @@
   </si>
   <si>
     <t>Automated updates on Property Information from Property Information.</t>
+  </si>
+  <si>
+    <t>MinistryProject</t>
+  </si>
+  <si>
+    <t>LeaseStatus</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>LeaseStartDate</t>
+  </si>
+  <si>
+    <t>LeaseExpiryDate</t>
+  </si>
+  <si>
+    <t>MOTIContact</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>AdminType</t>
+  </si>
+  <si>
+    <t>PurposeOther</t>
+  </si>
+  <si>
+    <t>Initiator</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>IntendedUse</t>
+  </si>
+  <si>
+    <t>FirstNation</t>
+  </si>
+  <si>
+    <t>StrategicRealEstate</t>
+  </si>
+  <si>
+    <t>RegionalPlanning</t>
+  </si>
+  <si>
+    <t>RegionalPropertyServices</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Headquarter</t>
+  </si>
+  <si>
+    <t>ConsultationOther</t>
+  </si>
+  <si>
+    <t>ConsultationOtherDetails</t>
+  </si>
+  <si>
+    <t>PhysicalLeaseExist</t>
+  </si>
+  <si>
+    <t>DigitalLeaseExist</t>
+  </si>
+  <si>
+    <t>DocumentLotation</t>
+  </si>
+  <si>
+    <t>LISNumber</t>
+  </si>
+  <si>
+    <t>PSNumber</t>
+  </si>
+  <si>
+    <t>LeaseNotes</t>
+  </si>
+  <si>
+    <t>TenantsNumber</t>
+  </si>
+  <si>
+    <t>RepresentativeNumber</t>
+  </si>
+  <si>
+    <t>PropertyManagerNumber</t>
+  </si>
+  <si>
+    <t>UnknownNumber</t>
+  </si>
+  <si>
+    <t>PrimaryContact</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TenantStartRow</t>
+  </si>
+  <si>
+    <t>TenantsQuantity</t>
+  </si>
+  <si>
+    <t>CommercialImprovementUnit</t>
+  </si>
+  <si>
+    <t>CommercialImprovementBuildingSize</t>
+  </si>
+  <si>
+    <t>CommercialImprovementsDescription</t>
+  </si>
+  <si>
+    <t>ResidentialImprovementsUnit</t>
+  </si>
+  <si>
+    <t>ResidentialImprovementsBuildingSize</t>
+  </si>
+  <si>
+    <t>ResidentialImprovementsDescription</t>
+  </si>
+  <si>
+    <t>OtherImprovementsUnit</t>
+  </si>
+  <si>
+    <t>OtherImprovementsBuildingSize</t>
+  </si>
+  <si>
+    <t>OtherImprovementsDescription</t>
+  </si>
+  <si>
+    <t>AircraftInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>AircraftLimit</t>
+  </si>
+  <si>
+    <t>AircraftPolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>AircraftDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>CGLLimit</t>
+  </si>
+  <si>
+    <t>CGLPolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>CGLDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>CGLInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>MarineInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>MarineLimit</t>
+  </si>
+  <si>
+    <t>MarinePolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>MarineDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>VehicleInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>VehicleLimit</t>
+  </si>
+  <si>
+    <t>VehiclePolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>VehicleDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>OtherInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>OtherLimit</t>
+  </si>
+  <si>
+    <t>OtherPolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>OtherDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>DepositsStartRow</t>
+  </si>
+  <si>
+    <t>DepositsCount</t>
+  </si>
+  <si>
+    <t>DepositType</t>
+  </si>
+  <si>
+    <t>DepositDescription</t>
+  </si>
+  <si>
+    <t>DepositAmount</t>
+  </si>
+  <si>
+    <t>DepositPaidDate</t>
+  </si>
+  <si>
+    <t>DepositHolder</t>
+  </si>
+  <si>
+    <t>DepositTypeOther</t>
+  </si>
+  <si>
+    <t>ReturnTerminationDate</t>
+  </si>
+  <si>
+    <t>TerminationClaimDeposit</t>
+  </si>
+  <si>
+    <t>ReturnedAmount</t>
+  </si>
+  <si>
+    <t>ReturnInterestPaid</t>
+  </si>
+  <si>
+    <t>ReturnedDate</t>
+  </si>
+  <si>
+    <t>ReturnPayeeName</t>
+  </si>
+  <si>
+    <t>TermStartDate</t>
+  </si>
+  <si>
+    <t>TermEndDate</t>
+  </si>
+  <si>
+    <t>TermPaymentFrequency</t>
+  </si>
+  <si>
+    <t>TermAgreedPayment</t>
+  </si>
+  <si>
+    <t>TermPaymentsDue</t>
+  </si>
+  <si>
+    <t>PaymentGST</t>
+  </si>
+  <si>
+    <t>TermStatus</t>
+  </si>
+  <si>
+    <t>PaymentsCount</t>
+  </si>
+  <si>
+    <t>PaymentsStartRow</t>
+  </si>
+  <si>
+    <t>TermsStartRow</t>
+  </si>
+  <si>
+    <t>TermsCount</t>
+  </si>
+  <si>
+    <t>PaymentSentDate</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>PaymentTotalReceived</t>
+  </si>
+  <si>
+    <t>PaymentExpectedPayment</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>Create a new complete lease</t>
+  </si>
+  <si>
+    <t>Edit lease</t>
+  </si>
+  <si>
+    <t>Create minimum lease</t>
+  </si>
+  <si>
+    <t>AU-0001 Automation Project 01</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>BC Ferries</t>
+  </si>
+  <si>
+    <t>Automation Test Intention of use</t>
+  </si>
+  <si>
+    <t>1948-0000-1</t>
+  </si>
+  <si>
+    <t>135-256-001</t>
+  </si>
+  <si>
+    <t>Automation Test Notes</t>
+  </si>
+  <si>
+    <t>Automation Test Intented use - Edited by automation</t>
+  </si>
+  <si>
+    <t>Automation Test Notes - Edited by automation</t>
+  </si>
+  <si>
+    <t>Lease Add Properties</t>
+  </si>
+  <si>
+    <t>001-192-396</t>
+  </si>
+  <si>
+    <t>2525 Mill Bay Rd</t>
+  </si>
+  <si>
+    <t>VAP7495</t>
+  </si>
+  <si>
+    <t>LOT 3 DISTRICT LOT 118 GROUP 1</t>
+  </si>
+  <si>
+    <t>010-598-103</t>
+  </si>
+  <si>
+    <t>Create Complete Lease</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>District of Saanich</t>
+  </si>
+  <si>
+    <t>Sakwi Creek Hydro LP</t>
+  </si>
+  <si>
+    <t>Bishop of Victoria</t>
+  </si>
+  <si>
+    <t>1688 Blanshard St. Victoria, BC, V7C 1B7</t>
+  </si>
+  <si>
+    <t>256 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test - Commercial Improvement Description</t>
+  </si>
+  <si>
+    <t>2301-1155 Nanaimo St. Vancouver, BC V6Z 2C7</t>
+  </si>
+  <si>
+    <t>175.69 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test - Residential Improvement Description</t>
+  </si>
+  <si>
+    <t>Stanley Park, Vancouver, BC, V6Z 8J9</t>
+  </si>
+  <si>
+    <t>Automation Test - Other Improvement Description</t>
+  </si>
+  <si>
+    <t>2256 sqft</t>
+  </si>
+  <si>
+    <t>Vancouver Aquarium, Vancouver, BC, V6Z 8J9</t>
+  </si>
+  <si>
+    <t>225 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test Edition - Other Improvement Description edited</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Automation Test - Aircraft Insurance Description</t>
+  </si>
+  <si>
+    <t>Automation Test - Commercial General Liability Insurance Description</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Automation Test - Marine Insurance Description</t>
+  </si>
+  <si>
+    <t>Automation Test - Vehicle Insurance Description</t>
+  </si>
+  <si>
+    <t>OtherInsuranceType</t>
+  </si>
+  <si>
+    <t>Pets Insurance</t>
+  </si>
+  <si>
+    <t>Pet insurance pending by the tenant to acquire</t>
+  </si>
+  <si>
+    <t>Security deposit</t>
+  </si>
+  <si>
+    <t>Other deposit</t>
+  </si>
+  <si>
+    <t>Automation Test - Deposit Description</t>
+  </si>
+  <si>
+    <t>Special Levy</t>
+  </si>
+  <si>
+    <t>Automation - Special Levy required on the first payment</t>
   </si>
 </sst>
 </file>
@@ -2569,6 +3003,639 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FE9F5A-6A1D-4D03-96CA-C2D54355ED65}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187E3A8-99EE-41F5-8068-99D3A61A7221}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A848C-E4C5-471D-AB23-F2DFE26E7030}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2">
+        <v>8157500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10">
+        <v>90054791</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B12" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12">
+        <v>553490</v>
+      </c>
+      <c r="D12" t="s">
+        <v>616</v>
+      </c>
+      <c r="E12" t="s">
+        <v>617</v>
+      </c>
+      <c r="F12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="27.36328125" customWidth="1"/>
+    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="83.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" t="s">
+        <v>340</v>
+      </c>
+      <c r="O3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>341</v>
+      </c>
+      <c r="S3" t="s">
+        <v>342</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>343</v>
+      </c>
+      <c r="X3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N4" t="s">
+        <v>493</v>
+      </c>
+      <c r="T4">
+        <v>65</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>103.59</v>
+      </c>
+      <c r="W4" t="s">
+        <v>343</v>
+      </c>
+      <c r="X4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0191B-A695-44B6-B8DB-539DF91B46C4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -3181,7 +4248,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4218,166 +5285,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2">
-        <v>8157500</v>
-      </c>
-      <c r="D2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10">
-        <v>90054791</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -4586,240 +5493,534 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
-  <dimension ref="A1:X4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3370A8BD-FD35-4031-A9B1-CC86D2D47DF5}">
+  <dimension ref="A1:BR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="27.36328125" customWidth="1"/>
-    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="83.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="50" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.6328125" customWidth="1"/>
+    <col min="53" max="53" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>329</v>
+        <v>508</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>283</v>
+        <v>509</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>284</v>
+        <v>510</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>511</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>286</v>
+        <v>512</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>287</v>
+        <v>513</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>289</v>
+        <v>514</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>290</v>
+        <v>515</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>292</v>
+        <v>516</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>293</v>
+        <v>517</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>294</v>
+        <v>518</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>295</v>
+        <v>498</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>296</v>
+        <v>519</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>297</v>
+        <v>520</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>412</v>
+        <v>521</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>345</v>
+        <v>522</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>298</v>
+        <v>523</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>299</v>
+        <v>524</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>300</v>
+        <v>525</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>301</v>
+        <v>526</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>601</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+      <c r="C2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44614</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45373</v>
+      </c>
+      <c r="G2" t="s">
+        <v>606</v>
+      </c>
+      <c r="I2" t="s">
+        <v>607</v>
+      </c>
+      <c r="O2" s="4">
+        <v>44615</v>
+      </c>
+      <c r="P2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>631</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AU2">
+        <v>25000</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>46003</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>638</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AY2">
+        <v>205000</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>46368</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>639</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>640</v>
+      </c>
+      <c r="BC2">
+        <v>125000</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>46733</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>641</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>637</v>
+      </c>
+      <c r="BG2">
+        <v>11000</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>45272</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>642</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>644</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>640</v>
+      </c>
+      <c r="BL2">
+        <v>100000</v>
+      </c>
+      <c r="BM2" s="4"/>
+      <c r="BN2" t="s">
+        <v>645</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I3" t="s">
-        <v>336</v>
-      </c>
-      <c r="J3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L3" t="s">
-        <v>337</v>
-      </c>
-      <c r="M3" t="s">
-        <v>416</v>
-      </c>
-      <c r="N3" t="s">
-        <v>340</v>
-      </c>
-      <c r="O3" t="s">
-        <v>430</v>
+        <v>602</v>
       </c>
       <c r="P3" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>341</v>
-      </c>
-      <c r="S3" t="s">
-        <v>342</v>
-      </c>
-      <c r="T3">
-        <v>100</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>50</v>
-      </c>
-      <c r="W3" t="s">
-        <v>343</v>
-      </c>
-      <c r="X3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>492</v>
-      </c>
-      <c r="N4" t="s">
-        <v>493</v>
-      </c>
-      <c r="T4">
-        <v>65</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>103.59</v>
-      </c>
-      <c r="W4" t="s">
-        <v>343</v>
-      </c>
-      <c r="X4" t="s">
-        <v>507</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EFBAB7-0B9C-4FDD-929C-413CFAE2BBDE}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6623D3A9-EC12-4BEA-B350-EBA7CB14CF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43938BF-49A9-4825-9D0F-FE2C41916990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="868" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" tabRatio="868" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="725">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -1642,9 +1642,6 @@
     <t>DigitalLeaseExist</t>
   </si>
   <si>
-    <t>DocumentLotation</t>
-  </si>
-  <si>
     <t>LISNumber</t>
   </si>
   <si>
@@ -1669,12 +1666,6 @@
     <t>PrimaryContact</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>TenantStartRow</t>
-  </si>
-  <si>
     <t>TenantsQuantity</t>
   </si>
   <si>
@@ -1684,9 +1675,6 @@
     <t>CommercialImprovementBuildingSize</t>
   </si>
   <si>
-    <t>CommercialImprovementsDescription</t>
-  </si>
-  <si>
     <t>ResidentialImprovementsUnit</t>
   </si>
   <si>
@@ -1894,9 +1882,6 @@
     <t>Automation Test Notes - Edited by automation</t>
   </si>
   <si>
-    <t>Lease Add Properties</t>
-  </si>
-  <si>
     <t>001-192-396</t>
   </si>
   <si>
@@ -2003,6 +1988,243 @@
   </si>
   <si>
     <t>Automation - Special Levy required on the first payment</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>DepositNotes</t>
+  </si>
+  <si>
+    <t>Automation Test - Deposit Notes</t>
+  </si>
+  <si>
+    <t>Edit Lease</t>
+  </si>
+  <si>
+    <t>Pet deposit</t>
+  </si>
+  <si>
+    <t>Create new complete lease</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Credit / Debit</t>
+  </si>
+  <si>
+    <t>Automation Test Edition - Deposit Description edited</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Edit created lease</t>
+  </si>
+  <si>
+    <t>Create a lease from a green pin</t>
+  </si>
+  <si>
+    <t>Create a lease from a blue pin</t>
+  </si>
+  <si>
+    <t>Create a lease from a purple pin</t>
+  </si>
+  <si>
+    <t>Create new Lease</t>
+  </si>
+  <si>
+    <t>Create Lease from green pin</t>
+  </si>
+  <si>
+    <t>Create Lease from blue pin</t>
+  </si>
+  <si>
+    <t>Create Lease from purple pin</t>
+  </si>
+  <si>
+    <t>015-254-241</t>
+  </si>
+  <si>
+    <t>000-228-729</t>
+  </si>
+  <si>
+    <t>Payable (BCTFA as tenant)</t>
+  </si>
+  <si>
+    <t>Payable (MOTI as tenant)</t>
+  </si>
+  <si>
+    <t>Receivable</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Discarded</t>
+  </si>
+  <si>
+    <t>MOTI Project Use License</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Headquarters</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Required, not completed</t>
+  </si>
+  <si>
+    <t>Required, completed</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>Other required documents</t>
+  </si>
+  <si>
+    <t>The documents has been scanned and saved on the main server</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Property manager</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>No contacts available</t>
+  </si>
+  <si>
+    <t>Paul Schincariol</t>
+  </si>
+  <si>
+    <t>Chris Pease</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>DocumentLocation</t>
+  </si>
+  <si>
+    <t>Automation Test - Vehicle Insurance no longer in place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>TMEP</t>
+  </si>
+  <si>
+    <t>TypeOther</t>
+  </si>
+  <si>
+    <t>Automated Purpose</t>
+  </si>
+  <si>
+    <t>1663 Fox St. Nanaimo, BC, B9N 2H8</t>
+  </si>
+  <si>
+    <t>54 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test - Minimum Lease creation</t>
+  </si>
+  <si>
+    <t>Automation Test - Minimum Insurance test</t>
+  </si>
+  <si>
+    <t>Automation Test - Creating minimum lease with one deposit</t>
+  </si>
+  <si>
+    <t>Every 15th of the month</t>
+  </si>
+  <si>
+    <t>Every Friday</t>
+  </si>
+  <si>
+    <t>Exercised</t>
+  </si>
+  <si>
+    <t>Not Exercised</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>January 1st</t>
+  </si>
+  <si>
+    <t>Edit a lease</t>
+  </si>
+  <si>
+    <t>EFT</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>ContactType</t>
+  </si>
+  <si>
+    <t>Allan Benson</t>
+  </si>
+  <si>
+    <t>Create minimum Lease</t>
+  </si>
+  <si>
+    <t>Pauline Faulkes</t>
+  </si>
+  <si>
+    <t>Automation - Minimum lease with one insurance</t>
+  </si>
+  <si>
+    <t>Bernadette Miller</t>
+  </si>
+  <si>
+    <t>Alicia Ortega</t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>Overpaid</t>
+  </si>
+  <si>
+    <t>ProgramOther</t>
+  </si>
+  <si>
+    <t>TenantsStartRow</t>
+  </si>
+  <si>
+    <t>CommercialImprovementDescription</t>
+  </si>
+  <si>
+    <t>TenantType</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>CategoryOther</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>ParentTerm</t>
   </si>
 </sst>
 </file>
@@ -3004,10 +3226,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FE9F5A-6A1D-4D03-96CA-C2D54355ED65}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3015,10 +3237,10 @@
     <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
@@ -3032,65 +3254,141 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D2" t="s">
-        <v>648</v>
+        <v>643</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44617</v>
+      </c>
+      <c r="G2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44645</v>
+      </c>
+      <c r="I2">
+        <v>75</v>
+      </c>
+      <c r="J2" s="4">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4">
+        <v>44650</v>
+      </c>
+      <c r="M2" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>649</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>650</v>
+      </c>
+      <c r="E4">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E5">
+        <v>3500.79</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45058</v>
+      </c>
+      <c r="G5" t="s">
+        <v>713</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45076</v>
+      </c>
+      <c r="I5">
+        <v>3000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>45078</v>
+      </c>
+      <c r="M5" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -3100,10 +3398,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187E3A8-99EE-41F5-8068-99D3A61A7221}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3113,51 +3411,122 @@
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>597</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44614</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>699</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44703</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E3">
+        <v>3500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45058</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E5">
+        <v>120000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>703</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -3167,65 +3536,175 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A848C-E4C5-471D-AB23-F2DFE26E7030}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44615</v>
+      </c>
+      <c r="C2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D2">
+        <v>2625</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>706</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>285.70999999999998</v>
+      </c>
+      <c r="F3">
+        <v>14.29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44674</v>
+      </c>
+      <c r="C4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>2857.14</v>
+      </c>
+      <c r="F4">
+        <v>142.86000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>716</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>599</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>600</v>
+      <c r="B5" s="4">
+        <v>45061</v>
+      </c>
+      <c r="C5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D5">
+        <v>130000</v>
+      </c>
+      <c r="E5">
+        <v>123809.52</v>
+      </c>
+      <c r="F5">
+        <v>6190.48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>716</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
@@ -3369,27 +3848,54 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C12">
         <v>553490</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E12" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F12" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>649</v>
+      </c>
       <c r="B13" t="s">
-        <v>619</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B16" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -4994,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5495,86 +6001,92 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3370A8BD-FD35-4031-A9B1-CC86D2D47DF5}">
-  <dimension ref="A1:BR4"/>
+  <dimension ref="A1:BZ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BX18" sqref="BX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="50" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.6328125" customWidth="1"/>
-    <col min="53" max="53" width="61.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="42.26953125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="42.6328125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="22.453125" customWidth="1"/>
+    <col min="15" max="15" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="56" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="50" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.6328125" customWidth="1"/>
+    <col min="58" max="58" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="42.26953125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -5603,198 +6115,225 @@
         <v>514</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="BD1" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AW1" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AY1" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="BP1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="BJ1" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="BU1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="BM1" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BW1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
         <v>601</v>
       </c>
-      <c r="B2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C2" t="s">
-        <v>605</v>
+      <c r="D2" t="s">
+        <v>666</v>
       </c>
       <c r="E2" s="4">
         <v>44614</v>
@@ -5803,153 +6342,521 @@
         <v>45373</v>
       </c>
       <c r="G2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" t="s">
+        <v>603</v>
+      </c>
+      <c r="K2" t="s">
+        <v>671</v>
+      </c>
+      <c r="O2" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>673</v>
+      </c>
+      <c r="R2" t="s">
+        <v>674</v>
+      </c>
+      <c r="S2" s="4">
+        <v>44615</v>
+      </c>
+      <c r="T2" t="s">
+        <v>604</v>
+      </c>
+      <c r="U2" t="s">
+        <v>675</v>
+      </c>
+      <c r="V2" t="s">
+        <v>380</v>
+      </c>
+      <c r="W2" t="s">
+        <v>676</v>
+      </c>
+      <c r="X2" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG2" t="s">
         <v>606</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AH2" t="s">
         <v>607</v>
       </c>
-      <c r="O2" s="4">
-        <v>44615</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="AI2">
+        <v>11</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>4</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AZ2">
+        <v>25000</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>46003</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>633</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>632</v>
+      </c>
+      <c r="BD2">
+        <v>205000</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>46368</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>634</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>635</v>
+      </c>
+      <c r="BH2">
+        <v>125000</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>46733</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>636</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>632</v>
+      </c>
+      <c r="BL2">
+        <v>11000</v>
+      </c>
+      <c r="BM2" s="4">
+        <v>45272</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>637</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>639</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>635</v>
+      </c>
+      <c r="BQ2">
+        <v>100000</v>
+      </c>
+      <c r="BR2" s="4">
+        <v>45729</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>640</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>648</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>2</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>2</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>598</v>
+      </c>
+      <c r="T3" t="s">
         <v>608</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="U3" t="s">
+        <v>677</v>
+      </c>
+      <c r="V3" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH3" t="s">
         <v>609</v>
       </c>
-      <c r="AC2" t="s">
-        <v>610</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE2">
+      <c r="AI3">
+        <v>12</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
         <v>1</v>
       </c>
-      <c r="AF2">
-        <v>4</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>625</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>626</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>627</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>628</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="s">
         <v>629</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AW3" t="s">
         <v>630</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AX3" t="s">
         <v>631</v>
       </c>
-      <c r="AR2" t="s">
-        <v>633</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>632</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>637</v>
-      </c>
-      <c r="AU2">
-        <v>25000</v>
-      </c>
-      <c r="AV2" s="4">
-        <v>46003</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>638</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>637</v>
-      </c>
-      <c r="AY2">
-        <v>205000</v>
-      </c>
-      <c r="AZ2" s="4">
-        <v>46368</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>639</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>640</v>
-      </c>
-      <c r="BC2">
-        <v>125000</v>
-      </c>
-      <c r="BD2" s="4">
-        <v>46733</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>641</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>637</v>
-      </c>
-      <c r="BG2">
-        <v>11000</v>
-      </c>
-      <c r="BH2" s="4">
-        <v>45272</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>642</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>644</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>640</v>
-      </c>
-      <c r="BL2">
-        <v>100000</v>
-      </c>
-      <c r="BM2" s="4"/>
-      <c r="BN2" t="s">
-        <v>645</v>
-      </c>
-      <c r="BO2">
+      <c r="BK3" t="s">
+        <v>635</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>44897</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>688</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>654</v>
+      </c>
+      <c r="BU3">
+        <v>3</v>
+      </c>
+      <c r="BV3">
         <v>1</v>
       </c>
-      <c r="BP2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>602</v>
-      </c>
-      <c r="P3" t="s">
-        <v>612</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>613</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>635</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C4" t="s">
         <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45058</v>
+      </c>
+      <c r="F4" t="s">
+        <v>689</v>
+      </c>
+      <c r="H4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" t="s">
+        <v>690</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>602</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>692</v>
+      </c>
+      <c r="AJ4">
+        <v>6</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>695</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>632</v>
+      </c>
+      <c r="BL4">
+        <v>35000</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>45650</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>696</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>697</v>
+      </c>
+      <c r="BU4">
+        <v>4</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>3</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>3</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>668</v>
+      </c>
+      <c r="AI5">
+        <v>13</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>4</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>668</v>
+      </c>
+      <c r="AI6">
+        <v>14</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" t="s">
+        <v>670</v>
+      </c>
+      <c r="D7" t="s">
+        <v>666</v>
+      </c>
+      <c r="AI7">
+        <v>15</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5960,64 +6867,138 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EFBAB7-0B9C-4FDD-929C-413CFAE2BBDE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+      <c r="C2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B7" t="s">
+        <v>723</v>
+      </c>
+      <c r="C7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E7" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4814C91-07EE-4F73-A421-EF825998BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CED0E-0604-4AE7-A36B-B854BF09258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="868" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,18 @@
     <sheet name="FinancialCodes" sheetId="11" r:id="rId3"/>
     <sheet name="Projects" sheetId="3" r:id="rId4"/>
     <sheet name="ProjectsProducts" sheetId="4" r:id="rId5"/>
-    <sheet name="ResearchFiles" sheetId="5" r:id="rId6"/>
-    <sheet name="SearchProperties" sheetId="8" r:id="rId7"/>
+    <sheet name="Leases" sheetId="14" r:id="rId6"/>
+    <sheet name="ResearchFiles" sheetId="5" r:id="rId7"/>
     <sheet name="PropertyResearch" sheetId="9" r:id="rId8"/>
-    <sheet name="Properties" sheetId="6" r:id="rId9"/>
-    <sheet name="DocumentsIndex" sheetId="13" r:id="rId10"/>
-    <sheet name="DocumentsDetails" sheetId="12" r:id="rId11"/>
-    <sheet name="Notes" sheetId="10" r:id="rId12"/>
+    <sheet name="LeasesTenants" sheetId="15" r:id="rId9"/>
+    <sheet name="LeasesDeposits" sheetId="16" r:id="rId10"/>
+    <sheet name="LeasesTerms" sheetId="17" r:id="rId11"/>
+    <sheet name="LeasesPayments" sheetId="18" r:id="rId12"/>
+    <sheet name="SearchProperties" sheetId="8" r:id="rId13"/>
+    <sheet name="Properties" sheetId="6" r:id="rId14"/>
+    <sheet name="DocumentsIndex" sheetId="13" r:id="rId15"/>
+    <sheet name="DocumentsDetails" sheetId="12" r:id="rId16"/>
+    <sheet name="Notes" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="992">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -2309,14 +2314,729 @@
   </si>
   <si>
     <t>Updating automatic Notice of possible entry (H0224) document - edited</t>
+  </si>
+  <si>
+    <t>MinistryProject</t>
+  </si>
+  <si>
+    <t>LeaseStatus</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>LeaseStartDate</t>
+  </si>
+  <si>
+    <t>LeaseExpiryDate</t>
+  </si>
+  <si>
+    <t>MOTIContact</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>ProgramOther</t>
+  </si>
+  <si>
+    <t>AdminType</t>
+  </si>
+  <si>
+    <t>TypeOther</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>CategoryOther</t>
+  </si>
+  <si>
+    <t>PurposeOther</t>
+  </si>
+  <si>
+    <t>Initiator</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>IntendedUse</t>
+  </si>
+  <si>
+    <t>FirstNation</t>
+  </si>
+  <si>
+    <t>StrategicRealEstate</t>
+  </si>
+  <si>
+    <t>RegionalPlanning</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Headquarter</t>
+  </si>
+  <si>
+    <t>ConsultationOther</t>
+  </si>
+  <si>
+    <t>ConsultationOtherDetails</t>
+  </si>
+  <si>
+    <t>PhysicalLeaseExist</t>
+  </si>
+  <si>
+    <t>DigitalLeaseExist</t>
+  </si>
+  <si>
+    <t>DocumentLocation</t>
+  </si>
+  <si>
+    <t>LISNumber</t>
+  </si>
+  <si>
+    <t>PSNumber</t>
+  </si>
+  <si>
+    <t>LeaseNotes</t>
+  </si>
+  <si>
+    <t>TenantsStartRow</t>
+  </si>
+  <si>
+    <t>TenantsQuantity</t>
+  </si>
+  <si>
+    <t>TenantsNumber</t>
+  </si>
+  <si>
+    <t>RepresentativeNumber</t>
+  </si>
+  <si>
+    <t>PropertyManagerNumber</t>
+  </si>
+  <si>
+    <t>UnknownNumber</t>
+  </si>
+  <si>
+    <t>CommercialImprovementUnit</t>
+  </si>
+  <si>
+    <t>CommercialImprovementBuildingSize</t>
+  </si>
+  <si>
+    <t>CommercialImprovementDescription</t>
+  </si>
+  <si>
+    <t>AircraftInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>AircraftLimit</t>
+  </si>
+  <si>
+    <t>AircraftPolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>AircraftDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>CGLInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>CGLLimit</t>
+  </si>
+  <si>
+    <t>CGLPolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>CGLDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>MarineInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>MarineLimit</t>
+  </si>
+  <si>
+    <t>MarinePolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>MarineDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>VehicleInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>VehicleLimit</t>
+  </si>
+  <si>
+    <t>VehiclePolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>VehicleDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>OtherInsuranceType</t>
+  </si>
+  <si>
+    <t>OtherInsuranceInPlace</t>
+  </si>
+  <si>
+    <t>OtherLimit</t>
+  </si>
+  <si>
+    <t>OtherPolicyExpiryDate</t>
+  </si>
+  <si>
+    <t>OtherDescriptionCoverage</t>
+  </si>
+  <si>
+    <t>DepositNotes</t>
+  </si>
+  <si>
+    <t>DepositsStartRow</t>
+  </si>
+  <si>
+    <t>DepositsCount</t>
+  </si>
+  <si>
+    <t>TermsStartRow</t>
+  </si>
+  <si>
+    <t>TermsCount</t>
+  </si>
+  <si>
+    <t>PaymentsStartRow</t>
+  </si>
+  <si>
+    <t>PaymentsCount</t>
+  </si>
+  <si>
+    <t>Create a new complete lease</t>
+  </si>
+  <si>
+    <t>Payable (BCTFA as tenant)</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>BC Ferries</t>
+  </si>
+  <si>
+    <t>MOTI Project Use License</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Headquarters</t>
+  </si>
+  <si>
+    <t>Automation Test Intention of use</t>
+  </si>
+  <si>
+    <t>Required, not completed</t>
+  </si>
+  <si>
+    <t>Required, completed</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>Other required documents</t>
+  </si>
+  <si>
+    <t>The documents has been scanned and saved on the main server</t>
+  </si>
+  <si>
+    <t>1948-0000-1</t>
+  </si>
+  <si>
+    <t>135-256-001</t>
+  </si>
+  <si>
+    <t>Automation Test Notes</t>
+  </si>
+  <si>
+    <t>1688 Blanshard St. Victoria, BC, V7C 1B7</t>
+  </si>
+  <si>
+    <t>256 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test - Commercial Improvement Description</t>
+  </si>
+  <si>
+    <t>2301-1155 Nanaimo St. Vancouver, BC V6Z 2C7</t>
+  </si>
+  <si>
+    <t>175.69 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test - Residential Improvement Description</t>
+  </si>
+  <si>
+    <t>Stanley Park, Vancouver, BC, V6Z 8J9</t>
+  </si>
+  <si>
+    <t>2256 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test - Other Improvement Description</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Automation Test - Aircraft Insurance Description</t>
+  </si>
+  <si>
+    <t>Automation Test - Commercial General Liability Insurance Description</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Automation Test - Marine Insurance Description</t>
+  </si>
+  <si>
+    <t>Automation Test - Vehicle Insurance Description</t>
+  </si>
+  <si>
+    <t>Pets Insurance</t>
+  </si>
+  <si>
+    <t>Pet insurance pending by the tenant to acquire</t>
+  </si>
+  <si>
+    <t>Automation Test - Deposit Notes</t>
+  </si>
+  <si>
+    <t>Edit lease</t>
+  </si>
+  <si>
+    <t>Automation Test Intented use - Edited by automation</t>
+  </si>
+  <si>
+    <t>Automation Test Notes - Edited by automation</t>
+  </si>
+  <si>
+    <t>Vancouver Aquarium, Vancouver, BC, V6Z 8J9</t>
+  </si>
+  <si>
+    <t>225 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test Edition - Other Improvement Description edited</t>
+  </si>
+  <si>
+    <t>Automation Test - Vehicle Insurance no longer in place.</t>
+  </si>
+  <si>
+    <t>Automation Test Edition - Deposit Description edited</t>
+  </si>
+  <si>
+    <t>Create minimum lease</t>
+  </si>
+  <si>
+    <t>Payable (MOTI as tenant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>TMEP</t>
+  </si>
+  <si>
+    <t>Automated Purpose</t>
+  </si>
+  <si>
+    <t>1663 Fox St. Nanaimo, BC, B9N 2H8</t>
+  </si>
+  <si>
+    <t>54 sqft</t>
+  </si>
+  <si>
+    <t>Automation Test - Minimum Lease creation</t>
+  </si>
+  <si>
+    <t>Automation Test - Minimum Insurance test</t>
+  </si>
+  <si>
+    <t>Automation Test - Creating minimum lease with one deposit</t>
+  </si>
+  <si>
+    <t>Create a lease from a green pin</t>
+  </si>
+  <si>
+    <t>Receivable</t>
+  </si>
+  <si>
+    <t>Create a lease from a blue pin</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Create a lease from a purple pin</t>
+  </si>
+  <si>
+    <t>Discarded</t>
+  </si>
+  <si>
+    <t>ContactType</t>
+  </si>
+  <si>
+    <t>PrimaryContact</t>
+  </si>
+  <si>
+    <t>TenantType</t>
+  </si>
+  <si>
+    <t>Create Complete Lease</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>District of Saanich</t>
+  </si>
+  <si>
+    <t>Chris Pease</t>
+  </si>
+  <si>
+    <t>Sakwi Creek Hydro LP</t>
+  </si>
+  <si>
+    <t>Paul Schincariol</t>
+  </si>
+  <si>
+    <t>Property manager</t>
+  </si>
+  <si>
+    <t>Bishop of Victoria</t>
+  </si>
+  <si>
+    <t>No contacts available</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>Edit Lease</t>
+  </si>
+  <si>
+    <t>Create minimum Lease</t>
+  </si>
+  <si>
+    <t>Pauline Faulkes</t>
+  </si>
+  <si>
+    <t>DepositType</t>
+  </si>
+  <si>
+    <t>DepositTypeOther</t>
+  </si>
+  <si>
+    <t>DepositDescription</t>
+  </si>
+  <si>
+    <t>DepositAmount</t>
+  </si>
+  <si>
+    <t>DepositPaidDate</t>
+  </si>
+  <si>
+    <t>DepositHolder</t>
+  </si>
+  <si>
+    <t>ReturnTerminationDate</t>
+  </si>
+  <si>
+    <t>TerminationClaimDeposit</t>
+  </si>
+  <si>
+    <t>ReturnedAmount</t>
+  </si>
+  <si>
+    <t>ReturnInterestPaid</t>
+  </si>
+  <si>
+    <t>ReturnedDate</t>
+  </si>
+  <si>
+    <t>ReturnPayeeName</t>
+  </si>
+  <si>
+    <t>Security deposit</t>
+  </si>
+  <si>
+    <t>Automation Test - Deposit Description</t>
+  </si>
+  <si>
+    <t>Other deposit</t>
+  </si>
+  <si>
+    <t>Special Levy</t>
+  </si>
+  <si>
+    <t>Automation - Special Levy required on the first payment</t>
+  </si>
+  <si>
+    <t>Pet deposit</t>
+  </si>
+  <si>
+    <t>Automation - Minimum lease with one insurance</t>
+  </si>
+  <si>
+    <t>Bernadette Miller</t>
+  </si>
+  <si>
+    <t>Alicia Ortega</t>
+  </si>
+  <si>
+    <t>TermStartDate</t>
+  </si>
+  <si>
+    <t>TermEndDate</t>
+  </si>
+  <si>
+    <t>TermPaymentFrequency</t>
+  </si>
+  <si>
+    <t>TermAgreedPayment</t>
+  </si>
+  <si>
+    <t>TermPaymentsDue</t>
+  </si>
+  <si>
+    <t>PaymentGST</t>
+  </si>
+  <si>
+    <t>TermStatus</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Every Friday</t>
+  </si>
+  <si>
+    <t>Exercised</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Every 15th of the month</t>
+  </si>
+  <si>
+    <t>Not Exercised</t>
+  </si>
+  <si>
+    <t>Edit a lease</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>January 1st</t>
+  </si>
+  <si>
+    <t>PaymentSentDate</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>PaymentTotalReceived</t>
+  </si>
+  <si>
+    <t>PaymentExpectedPayment</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>ParentTerm</t>
+  </si>
+  <si>
+    <t>Create new complete lease</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Credit / Debit</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Edit created lease</t>
+  </si>
+  <si>
+    <t>EFT</t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>Create new Lease</t>
+  </si>
+  <si>
+    <t>001-192-396</t>
+  </si>
+  <si>
+    <t>2525 Mill Bay Rd</t>
+  </si>
+  <si>
+    <t>VAP7495</t>
+  </si>
+  <si>
+    <t>LOT 3 DISTRICT LOT 118 GROUP 1</t>
+  </si>
+  <si>
+    <t>010-598-103</t>
+  </si>
+  <si>
+    <t>Create Lease from green pin</t>
+  </si>
+  <si>
+    <t>015-254-241</t>
+  </si>
+  <si>
+    <t>Create Lease from blue pin</t>
+  </si>
+  <si>
+    <t>Create Lease from purple pin</t>
+  </si>
+  <si>
+    <t>000-228-729</t>
+  </si>
+  <si>
+    <t>Leases - Create new notes</t>
+  </si>
+  <si>
+    <t>Leases Automation Functional Testing - Note 1,Leases Automation Functional Testing - Note 2,Leases Automation Functional Testing - Note 3,Leases Automation Functional Testing - Note 4,Leases Automation Functional Testing - Note 5,Leases Automation Functional Testing - Note 6,Leases Automation Functional Testing - Note 7,Leases Automation Functional Testing - Note 8,Leases Automation Functional Testing - Note 9,Leases Automation Functional Testing - Note 10,Leases Automation Functional Testing - Note 11,Leases Automation Functional Testing - Note 12</t>
+  </si>
+  <si>
+    <t>Every Monday</t>
+  </si>
+  <si>
+    <t>RegionalPropertyService</t>
+  </si>
+  <si>
+    <t>ResidentialImprovementUnit</t>
+  </si>
+  <si>
+    <t>ResidentialImprovementBuildingSize</t>
+  </si>
+  <si>
+    <t>ResidentialImprovementDescription</t>
+  </si>
+  <si>
+    <t>OtherImprovementUnit</t>
+  </si>
+  <si>
+    <t>OtherImprovementBuildingSize</t>
+  </si>
+  <si>
+    <t>OtherImprovementDescription</t>
+  </si>
+  <si>
+    <t>Automation - Update previously created Deposit</t>
+  </si>
+  <si>
+    <t>Jacqueline Pamela Baker</t>
+  </si>
+  <si>
+    <t>IsGSTEligible</t>
+  </si>
+  <si>
+    <t>Overpayment</t>
+  </si>
+  <si>
+    <t>Create from green pin</t>
+  </si>
+  <si>
+    <t>Mid June</t>
+  </si>
+  <si>
+    <t>Post-dated cheque</t>
+  </si>
+  <si>
+    <t>Local Government/RCMP</t>
+  </si>
+  <si>
+    <t>Rail Trails</t>
+  </si>
+  <si>
+    <t>Automation Program</t>
+  </si>
+  <si>
+    <t>Ground Lease</t>
+  </si>
+  <si>
+    <t>Agricultural</t>
+  </si>
+  <si>
+    <t>Park and Ride</t>
+  </si>
+  <si>
+    <t>Road Crossing</t>
+  </si>
+  <si>
+    <t>Maintenance Yard</t>
+  </si>
+  <si>
+    <t>TransLink</t>
+  </si>
+  <si>
+    <t>Lease - Unregistered</t>
+  </si>
+  <si>
+    <t>Gov't to Gov't</t>
+  </si>
+  <si>
+    <t>Encroachment</t>
+  </si>
+  <si>
+    <t>Other Licencing</t>
+  </si>
+  <si>
+    <t>MinistryProjectCode</t>
+  </si>
+  <si>
+    <t>TotalImprovementCount</t>
+  </si>
+  <si>
+    <t>TotalInsuranceCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2370,7 +3090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2383,6 +3103,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3311,11 +4035,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59063E35-2744-4A83-A0B3-24C7FD044C62}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E2" s="11">
+        <v>250</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44617</v>
+      </c>
+      <c r="G2" t="s">
+        <v>883</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44645</v>
+      </c>
+      <c r="I2" s="11">
+        <v>75</v>
+      </c>
+      <c r="J2" s="11">
+        <v>50</v>
+      </c>
+      <c r="K2" s="11">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4">
+        <v>44650</v>
+      </c>
+      <c r="M2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E3" s="11">
+        <v>632</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44645</v>
+      </c>
+      <c r="G3" t="s">
+        <v>970</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44666</v>
+      </c>
+      <c r="I3" s="11">
+        <v>150</v>
+      </c>
+      <c r="J3" s="11">
+        <v>150</v>
+      </c>
+      <c r="K3" s="11">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44681</v>
+      </c>
+      <c r="M3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D4" t="s">
+        <v>969</v>
+      </c>
+      <c r="E4" s="11">
+        <v>50.99</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44645</v>
+      </c>
+      <c r="G4" t="s">
+        <v>970</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44666</v>
+      </c>
+      <c r="I4" s="11">
+        <v>150</v>
+      </c>
+      <c r="J4" s="11">
+        <v>150</v>
+      </c>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="L4" s="4">
+        <v>44681</v>
+      </c>
+      <c r="M4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B5" t="s">
+        <v>909</v>
+      </c>
+      <c r="D5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3500.79</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45058</v>
+      </c>
+      <c r="G5" t="s">
+        <v>916</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45076</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3000</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>45078</v>
+      </c>
+      <c r="M5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC2A471-385A-4133-9FB5-E00CEEFCFD2D}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44614</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44703</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E3">
+        <v>3500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>929</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44614</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D4" t="s">
+        <v>925</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>961</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45058</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E5">
+        <v>120000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>933</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B6" s="4">
+        <v>36690</v>
+      </c>
+      <c r="C6" s="4">
+        <v>36720</v>
+      </c>
+      <c r="D6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>974</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4E3335-5C1A-476B-8F34-CC44F557D991}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44616</v>
+      </c>
+      <c r="C2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D2">
+        <v>2625</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>285.70999999999998</v>
+      </c>
+      <c r="F3">
+        <v>14.29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>944</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44630</v>
+      </c>
+      <c r="C4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>2857.14</v>
+      </c>
+      <c r="F4">
+        <v>142.86000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>972</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45061</v>
+      </c>
+      <c r="C5" t="s">
+        <v>947</v>
+      </c>
+      <c r="D5">
+        <v>130000</v>
+      </c>
+      <c r="E5">
+        <v>123809.52</v>
+      </c>
+      <c r="F5">
+        <v>6190.48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>972</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B6" s="4">
+        <v>36692</v>
+      </c>
+      <c r="C6" t="s">
+        <v>975</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>942</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2">
+        <v>8157500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10">
+        <v>90054791</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>948</v>
+      </c>
+      <c r="B12" t="s">
+        <v>949</v>
+      </c>
+      <c r="C12">
+        <v>553490</v>
+      </c>
+      <c r="D12" t="s">
+        <v>950</v>
+      </c>
+      <c r="E12" t="s">
+        <v>951</v>
+      </c>
+      <c r="F12" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B13" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>954</v>
+      </c>
+      <c r="B14" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>956</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>957</v>
+      </c>
+      <c r="B16" t="s">
+        <v>958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="27.36328125" customWidth="1"/>
+    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="83.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" t="s">
+        <v>340</v>
+      </c>
+      <c r="O3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>341</v>
+      </c>
+      <c r="S3" t="s">
+        <v>342</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>343</v>
+      </c>
+      <c r="X3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N4" t="s">
+        <v>493</v>
+      </c>
+      <c r="T4">
+        <v>65</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>103.59</v>
+      </c>
+      <c r="W4" t="s">
+        <v>343</v>
+      </c>
+      <c r="X4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69AB3B-3A11-477C-A201-8388519D3807}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3407,12 +5173,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665AEC9-C942-4A65-984C-CAD52F4E2CCE}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3420,8 +5186,14 @@
     <col min="1" max="1" width="75.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="19.1796875" customWidth="1"/>
-    <col min="16" max="16" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="8" width="19.1796875" style="13" customWidth="1"/>
+    <col min="9" max="10" width="19.1796875" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="13" customWidth="1"/>
+    <col min="12" max="13" width="19.1796875" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="19.1796875" customWidth="1"/>
     <col min="19" max="19" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="30" width="19.1796875" customWidth="1"/>
@@ -3432,7 +5204,7 @@
     <col min="42" max="42" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="19.1796875" customWidth="1"/>
     <col min="45" max="45" width="77" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.26953125" customWidth="1"/>
+    <col min="46" max="46" width="14.26953125" style="13" customWidth="1"/>
     <col min="47" max="47" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15.26953125" bestFit="1" customWidth="1"/>
@@ -3457,10 +5229,10 @@
       <c r="F1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>534</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -3469,7 +5241,7 @@
       <c r="J1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="12" t="s">
         <v>529</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -3478,13 +5250,13 @@
       <c r="M1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="12" t="s">
         <v>522</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="12" t="s">
         <v>524</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -3574,7 +5346,7 @@
       <c r="AS1" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="12" t="s">
         <v>212</v>
       </c>
       <c r="AU1" s="3" t="s">
@@ -3730,7 +5502,7 @@
       <c r="E10" t="s">
         <v>697</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="13">
         <v>37388</v>
       </c>
       <c r="AD10" t="s">
@@ -3883,13 +5655,13 @@
       <c r="C19" t="s">
         <v>691</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="13">
         <v>40128</v>
       </c>
       <c r="O19" s="8">
         <v>12</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="13">
         <v>40169</v>
       </c>
       <c r="Q19" t="s">
@@ -3918,7 +5690,7 @@
       <c r="C20" t="s">
         <v>692</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="13">
         <v>36763</v>
       </c>
       <c r="M20" t="s">
@@ -3930,7 +5702,7 @@
       <c r="AR20" t="s">
         <v>711</v>
       </c>
-      <c r="AT20" s="4">
+      <c r="AT20" s="13">
         <v>36100</v>
       </c>
     </row>
@@ -4020,7 +5792,7 @@
       <c r="C26" t="s">
         <v>691</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="13">
         <v>36534</v>
       </c>
       <c r="X26">
@@ -4234,7 +6006,7 @@
       <c r="E37" t="s">
         <v>730</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="13">
         <v>42239</v>
       </c>
       <c r="AD37" t="s">
@@ -4389,7 +6161,7 @@
       <c r="C47" t="s">
         <v>691</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="13">
         <v>36495</v>
       </c>
       <c r="Y47" t="s">
@@ -4476,12 +6248,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0191B-A695-44B6-B8DB-539DF91B46C4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4528,6 +6300,14 @@
       </c>
       <c r="B5" t="s">
         <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>959</v>
+      </c>
+      <c r="B6" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -5832,11 +7612,993 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
+  <dimension ref="A1:CC7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="22.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="56" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="50" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.6328125" customWidth="1"/>
+    <col min="60" max="60" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44614</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45373</v>
+      </c>
+      <c r="H2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>823</v>
+      </c>
+      <c r="L2" t="s">
+        <v>824</v>
+      </c>
+      <c r="P2" t="s">
+        <v>825</v>
+      </c>
+      <c r="R2" t="s">
+        <v>826</v>
+      </c>
+      <c r="S2" t="s">
+        <v>544</v>
+      </c>
+      <c r="T2" s="4">
+        <v>44615</v>
+      </c>
+      <c r="U2" t="s">
+        <v>827</v>
+      </c>
+      <c r="V2" t="s">
+        <v>828</v>
+      </c>
+      <c r="W2" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>830</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>828</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>832</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>833</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>834</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>835</v>
+      </c>
+      <c r="AJ2">
+        <v>11</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>836</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>837</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>839</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>840</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>841</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>842</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>843</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>844</v>
+      </c>
+      <c r="AZ2">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>845</v>
+      </c>
+      <c r="BB2">
+        <v>25000</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>46003</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>846</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>845</v>
+      </c>
+      <c r="BF2">
+        <v>205000</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>46368</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>847</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>848</v>
+      </c>
+      <c r="BJ2">
+        <v>125000</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>46733</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>849</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>845</v>
+      </c>
+      <c r="BN2">
+        <v>11000</v>
+      </c>
+      <c r="BO2" s="4">
+        <v>45272</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>850</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>851</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>848</v>
+      </c>
+      <c r="BS2">
+        <v>100000</v>
+      </c>
+      <c r="BT2" s="4">
+        <v>45729</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>852</v>
+      </c>
+      <c r="BV2">
+        <v>5</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>853</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>2</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>2</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" t="s">
+        <v>875</v>
+      </c>
+      <c r="U3" t="s">
+        <v>855</v>
+      </c>
+      <c r="V3" t="s">
+        <v>830</v>
+      </c>
+      <c r="W3" t="s">
+        <v>830</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>856</v>
+      </c>
+      <c r="AJ3">
+        <v>12</v>
+      </c>
+      <c r="AK3">
+        <v>5</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>857</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>859</v>
+      </c>
+      <c r="AZ3">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>848</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>44897</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>860</v>
+      </c>
+      <c r="BV3">
+        <v>4</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>861</v>
+      </c>
+      <c r="BX3">
+        <v>3</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>3</v>
+      </c>
+      <c r="CC3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45058</v>
+      </c>
+      <c r="G4" t="s">
+        <v>864</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" t="s">
+        <v>865</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>822</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>866</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>6</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>867</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>868</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>869</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>845</v>
+      </c>
+      <c r="BN4">
+        <v>35000</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>45650</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>870</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>871</v>
+      </c>
+      <c r="BX4">
+        <v>4</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>3</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>3</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>872</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45064</v>
+      </c>
+      <c r="J5" t="s">
+        <v>988</v>
+      </c>
+      <c r="K5" t="s">
+        <v>978</v>
+      </c>
+      <c r="L5" t="s">
+        <v>979</v>
+      </c>
+      <c r="N5" t="s">
+        <v>980</v>
+      </c>
+      <c r="P5" t="s">
+        <v>981</v>
+      </c>
+      <c r="AJ5">
+        <v>13</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>4</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D6" t="s">
+        <v>875</v>
+      </c>
+      <c r="E6" t="s">
+        <v>873</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45063</v>
+      </c>
+      <c r="J6" t="s">
+        <v>976</v>
+      </c>
+      <c r="L6" t="s">
+        <v>982</v>
+      </c>
+      <c r="P6" t="s">
+        <v>983</v>
+      </c>
+      <c r="AJ6">
+        <v>14</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>876</v>
+      </c>
+      <c r="D7" t="s">
+        <v>877</v>
+      </c>
+      <c r="E7" t="s">
+        <v>821</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45062</v>
+      </c>
+      <c r="J7" t="s">
+        <v>977</v>
+      </c>
+      <c r="K7" t="s">
+        <v>984</v>
+      </c>
+      <c r="L7" t="s">
+        <v>985</v>
+      </c>
+      <c r="N7" t="s">
+        <v>986</v>
+      </c>
+      <c r="P7" t="s">
+        <v>987</v>
+      </c>
+      <c r="AJ7">
+        <v>15</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6125,172 +8887,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C2">
-        <v>8157500</v>
-      </c>
-      <c r="D2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10">
-        <v>90054791</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6495,239 +9097,142 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E3AF99-B285-4872-B012-0C94F438EBF8}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="27.36328125" customWidth="1"/>
-    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="83.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>329</v>
+        <v>878</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>881</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>882</v>
+      </c>
+      <c r="C2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>881</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>886</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I3" t="s">
-        <v>336</v>
-      </c>
-      <c r="J3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L3" t="s">
-        <v>337</v>
-      </c>
-      <c r="M3" t="s">
-        <v>416</v>
-      </c>
-      <c r="N3" t="s">
-        <v>340</v>
-      </c>
-      <c r="O3" t="s">
-        <v>430</v>
-      </c>
-      <c r="P3" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>341</v>
-      </c>
-      <c r="S3" t="s">
-        <v>342</v>
-      </c>
-      <c r="T3">
-        <v>100</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>50</v>
-      </c>
-      <c r="W3" t="s">
-        <v>343</v>
-      </c>
-      <c r="X3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+      <c r="E3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>881</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>888</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>492</v>
-      </c>
-      <c r="N4" t="s">
-        <v>493</v>
-      </c>
-      <c r="T4">
-        <v>65</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>103.59</v>
-      </c>
-      <c r="W4" t="s">
-        <v>343</v>
-      </c>
-      <c r="X4" t="s">
-        <v>507</v>
+        <v>889</v>
+      </c>
+      <c r="E4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>891</v>
+      </c>
+      <c r="D5" t="s">
+        <v>892</v>
+      </c>
+      <c r="E5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D6" t="s">
+        <v>889</v>
+      </c>
+      <c r="E6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>882</v>
+      </c>
+      <c r="C7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D7" t="s">
+        <v>884</v>
+      </c>
+      <c r="E7" t="s">
+        <v>890</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CED0E-0604-4AE7-A36B-B854BF09258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B6C41-DAE2-451D-A348-D01CED9A18F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,20 @@
     <sheet name="Projects" sheetId="3" r:id="rId4"/>
     <sheet name="ProjectsProducts" sheetId="4" r:id="rId5"/>
     <sheet name="Leases" sheetId="14" r:id="rId6"/>
-    <sheet name="ResearchFiles" sheetId="5" r:id="rId7"/>
-    <sheet name="PropertyResearch" sheetId="9" r:id="rId8"/>
-    <sheet name="LeasesTenants" sheetId="15" r:id="rId9"/>
-    <sheet name="LeasesDeposits" sheetId="16" r:id="rId10"/>
-    <sheet name="LeasesTerms" sheetId="17" r:id="rId11"/>
-    <sheet name="LeasesPayments" sheetId="18" r:id="rId12"/>
-    <sheet name="SearchProperties" sheetId="8" r:id="rId13"/>
-    <sheet name="Properties" sheetId="6" r:id="rId14"/>
-    <sheet name="DocumentsIndex" sheetId="13" r:id="rId15"/>
-    <sheet name="DocumentsDetails" sheetId="12" r:id="rId16"/>
-    <sheet name="Notes" sheetId="10" r:id="rId17"/>
+    <sheet name="LeasesTenants" sheetId="15" r:id="rId7"/>
+    <sheet name="LeasesDeposits" sheetId="16" r:id="rId8"/>
+    <sheet name="LeasesTerms" sheetId="17" r:id="rId9"/>
+    <sheet name="LeasesPayments" sheetId="18" r:id="rId10"/>
+    <sheet name="ResearchFiles" sheetId="5" r:id="rId11"/>
+    <sheet name="AcquisitionFiles" sheetId="19" r:id="rId12"/>
+    <sheet name="AcquisitionTeams" sheetId="20" r:id="rId13"/>
+    <sheet name="AcquisitionOwners" sheetId="21" r:id="rId14"/>
+    <sheet name="PropertyResearch" sheetId="9" r:id="rId15"/>
+    <sheet name="SearchProperties" sheetId="8" r:id="rId16"/>
+    <sheet name="Properties" sheetId="6" r:id="rId17"/>
+    <sheet name="DocumentsIndex" sheetId="13" r:id="rId18"/>
+    <sheet name="DocumentsDetails" sheetId="12" r:id="rId19"/>
+    <sheet name="Notes" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1098">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -3028,6 +3031,324 @@
   </si>
   <si>
     <t>TotalInsuranceCount</t>
+  </si>
+  <si>
+    <t>AcquisitionProjProduct</t>
+  </si>
+  <si>
+    <t>AcquisitionProjFunding</t>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
+  </si>
+  <si>
+    <t>AcquisitionCompletedDate</t>
+  </si>
+  <si>
+    <t>AcquisitionFileName</t>
+  </si>
+  <si>
+    <t>HistoricalFileNumber</t>
+  </si>
+  <si>
+    <t>PhysicalFileStatus</t>
+  </si>
+  <si>
+    <t>AcquisitionType</t>
+  </si>
+  <si>
+    <t>AcquisitionTeamCount</t>
+  </si>
+  <si>
+    <t>AcquisitionTeamStartRow</t>
+  </si>
+  <si>
+    <t>OwnerStartRow</t>
+  </si>
+  <si>
+    <t>OwnerCount</t>
+  </si>
+  <si>
+    <t>Highway 1 Widening - 216th Street Interchange</t>
+  </si>
+  <si>
+    <t>12570LANG TOWNSHIP OF LANGLEY</t>
+  </si>
+  <si>
+    <t>Edit Property Details within a AF</t>
+  </si>
+  <si>
+    <t>Complete new AF</t>
+  </si>
+  <si>
+    <t>Complete Automated Acquisition File</t>
+  </si>
+  <si>
+    <t>123-8888-00</t>
+  </si>
+  <si>
+    <t>Major Projects</t>
+  </si>
+  <si>
+    <t>AcquisitionStatus</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Consensual Agreement</t>
+  </si>
+  <si>
+    <t>TeamRole</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Expropriation agent</t>
+  </si>
+  <si>
+    <t>MoTI Solicitor</t>
+  </si>
+  <si>
+    <t>Negotiation agent</t>
+  </si>
+  <si>
+    <t>Property coordinator</t>
+  </si>
+  <si>
+    <t>Property analyst</t>
+  </si>
+  <si>
+    <t>Carol A Swift</t>
+  </si>
+  <si>
+    <t>Alejandro Sanchez</t>
+  </si>
+  <si>
+    <t>Praveen Kumar</t>
+  </si>
+  <si>
+    <t>Alison June Nichols</t>
+  </si>
+  <si>
+    <t>isPrimary</t>
+  </si>
+  <si>
+    <t>GivenNames</t>
+  </si>
+  <si>
+    <t>OtherName</t>
+  </si>
+  <si>
+    <t>CorporationName</t>
+  </si>
+  <si>
+    <t>RegistrationNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>OwnerSolicitor</t>
+  </si>
+  <si>
+    <t>Bobbi Bjornholt</t>
+  </si>
+  <si>
+    <t>AF Add Properties</t>
+  </si>
+  <si>
+    <t>014-929-791</t>
+  </si>
+  <si>
+    <t>65 VICTORIA DISTRICT PLAN 33395</t>
+  </si>
+  <si>
+    <t>12411 Trites Rd, Richmond, BC</t>
+  </si>
+  <si>
+    <t>EPP92028</t>
+  </si>
+  <si>
+    <t>1239 Automated St.</t>
+  </si>
+  <si>
+    <t>Automation AF Property</t>
+  </si>
+  <si>
+    <t>Office 4566</t>
+  </si>
+  <si>
+    <t>V8P 1A1</t>
+  </si>
+  <si>
+    <t>Automated Acquisition zone</t>
+  </si>
+  <si>
+    <t>Automated Acquisition files - Notes for Property Information</t>
+  </si>
+  <si>
+    <t>Sub-surface</t>
+  </si>
+  <si>
+    <t>AF Filters Search</t>
+  </si>
+  <si>
+    <t>014-083-736</t>
+  </si>
+  <si>
+    <t>Edit existing AF</t>
+  </si>
+  <si>
+    <t>000-750-166</t>
+  </si>
+  <si>
+    <t>Create AF from pin</t>
+  </si>
+  <si>
+    <t>025-710-176</t>
+  </si>
+  <si>
+    <t>Edit AF</t>
+  </si>
+  <si>
+    <t>Create minimum AF</t>
+  </si>
+  <si>
+    <t>Minimum Acquisition File - Automated</t>
+  </si>
+  <si>
+    <t>Section 3 Agreement</t>
+  </si>
+  <si>
+    <t>Elizabeth Manuel</t>
+  </si>
+  <si>
+    <t>AF minimum fields</t>
+  </si>
+  <si>
+    <t>009-583-530</t>
+  </si>
+  <si>
+    <t>AcquisitionProject</t>
+  </si>
+  <si>
+    <t>AcquisitionFundingOther</t>
+  </si>
+  <si>
+    <t>Buzzer 199</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Manrique</t>
+  </si>
+  <si>
+    <t>Big Balloons Corp.</t>
+  </si>
+  <si>
+    <t>BC123456788</t>
+  </si>
+  <si>
+    <t>REG-0909150</t>
+  </si>
+  <si>
+    <t>Balloons for Fun!</t>
+  </si>
+  <si>
+    <t>1595 WEST 10TH AVENUE</t>
+  </si>
+  <si>
+    <t>1768 NORTH 18TH AVENUE</t>
+  </si>
+  <si>
+    <t>OFFICE 1266</t>
+  </si>
+  <si>
+    <t>BUZZER 123</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>V7X H8K</t>
+  </si>
+  <si>
+    <t>juan.manrique@test.ca</t>
+  </si>
+  <si>
+    <t>info@balloons.com</t>
+  </si>
+  <si>
+    <t>Testing Fundings</t>
+  </si>
+  <si>
+    <t>LOT 1, SECTION 12, RANGE 7, MOUNTAIN DISTRICT, PLAN 49025</t>
+  </si>
+  <si>
+    <t>E&amp;F clause</t>
+  </si>
+  <si>
+    <t>Highway/Road</t>
+  </si>
+  <si>
+    <t>Provincial Public Highway (PPH)</t>
+  </si>
+  <si>
+    <t>107 Explanatory Plan,Arterial</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File from pin</t>
+  </si>
+  <si>
+    <t>Archive - Offsite</t>
+  </si>
+  <si>
+    <t>Section 6 Expropriation</t>
+  </si>
+  <si>
+    <t>Property agent</t>
+  </si>
+  <si>
+    <t>Amanda Helen Gaylard</t>
+  </si>
+  <si>
+    <t>225 INVESTMENTS LTD</t>
+  </si>
+  <si>
+    <t>123-0009</t>
+  </si>
+  <si>
+    <t>19049 LOUGHEED HWY</t>
+  </si>
+  <si>
+    <t>PITT MEADOWS</t>
+  </si>
+  <si>
+    <t>V3Y 2J6</t>
+  </si>
+  <si>
+    <t>info@investments.ca</t>
+  </si>
+  <si>
+    <t>AcquisitionProjCode</t>
+  </si>
+  <si>
+    <t>Financial records (invoices, journal vouchers etc.)</t>
+  </si>
+  <si>
+    <t>Create automatic Financial record for research files</t>
+  </si>
+  <si>
+    <t>Creating a Financial records document type</t>
+  </si>
+  <si>
+    <t>Order in Council (OIC)</t>
   </si>
 </sst>
 </file>
@@ -3090,7 +3411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3107,6 +3428,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3390,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4035,421 +4358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59063E35-2744-4A83-A0B3-24C7FD044C62}">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>904</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>905</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>906</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D2" t="s">
-        <v>910</v>
-      </c>
-      <c r="E2" s="11">
-        <v>250</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44617</v>
-      </c>
-      <c r="G2" t="s">
-        <v>883</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44645</v>
-      </c>
-      <c r="I2" s="11">
-        <v>75</v>
-      </c>
-      <c r="J2" s="11">
-        <v>50</v>
-      </c>
-      <c r="K2" s="11">
-        <v>25</v>
-      </c>
-      <c r="L2" s="4">
-        <v>44650</v>
-      </c>
-      <c r="M2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B3" t="s">
-        <v>911</v>
-      </c>
-      <c r="C3" t="s">
-        <v>912</v>
-      </c>
-      <c r="D3" t="s">
-        <v>913</v>
-      </c>
-      <c r="E3" s="11">
-        <v>632</v>
-      </c>
-      <c r="F3" s="4">
-        <v>44645</v>
-      </c>
-      <c r="G3" t="s">
-        <v>970</v>
-      </c>
-      <c r="H3" s="4">
-        <v>44666</v>
-      </c>
-      <c r="I3" s="11">
-        <v>150</v>
-      </c>
-      <c r="J3" s="11">
-        <v>150</v>
-      </c>
-      <c r="K3" s="11">
-        <v>50</v>
-      </c>
-      <c r="L3" s="4">
-        <v>44681</v>
-      </c>
-      <c r="M3" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>894</v>
-      </c>
-      <c r="B4" t="s">
-        <v>914</v>
-      </c>
-      <c r="D4" t="s">
-        <v>969</v>
-      </c>
-      <c r="E4" s="11">
-        <v>50.99</v>
-      </c>
-      <c r="F4" s="4">
-        <v>44645</v>
-      </c>
-      <c r="G4" t="s">
-        <v>970</v>
-      </c>
-      <c r="H4" s="4">
-        <v>44666</v>
-      </c>
-      <c r="I4" s="11">
-        <v>150</v>
-      </c>
-      <c r="J4" s="11">
-        <v>150</v>
-      </c>
-      <c r="K4" s="11">
-        <v>50</v>
-      </c>
-      <c r="L4" s="4">
-        <v>44681</v>
-      </c>
-      <c r="M4" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>862</v>
-      </c>
-      <c r="B5" t="s">
-        <v>909</v>
-      </c>
-      <c r="D5" t="s">
-        <v>915</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3500.79</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45058</v>
-      </c>
-      <c r="G5" t="s">
-        <v>916</v>
-      </c>
-      <c r="H5" s="4">
-        <v>45076</v>
-      </c>
-      <c r="I5" s="11">
-        <v>3000</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3000</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>45078</v>
-      </c>
-      <c r="M5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC2A471-385A-4133-9FB5-E00CEEFCFD2D}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44614</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44673</v>
-      </c>
-      <c r="D2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E2">
-        <v>2500</v>
-      </c>
-      <c r="F2" t="s">
-        <v>926</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44703</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D3" t="s">
-        <v>928</v>
-      </c>
-      <c r="E3">
-        <v>3500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>929</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>931</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44614</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44673</v>
-      </c>
-      <c r="D4" t="s">
-        <v>925</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>961</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>862</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45058</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>932</v>
-      </c>
-      <c r="E5">
-        <v>120000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>933</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>973</v>
-      </c>
-      <c r="B6" s="4">
-        <v>36690</v>
-      </c>
-      <c r="C6" s="4">
-        <v>36720</v>
-      </c>
-      <c r="D6" t="s">
-        <v>928</v>
-      </c>
-      <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>974</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4E3335-5C1A-476B-8F34-CC44F557D991}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4626,12 +4539,1113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
-  <dimension ref="A1:F16"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="Q1" sqref="Q1:R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44625</v>
+      </c>
+      <c r="I2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L2" s="4">
+        <v>44631</v>
+      </c>
+      <c r="M2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44651</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>394</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44254</v>
+      </c>
+      <c r="I4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K4" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="4">
+        <v>44703</v>
+      </c>
+      <c r="M4" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>427</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.36328125" customWidth="1"/>
+    <col min="10" max="10" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C2">
+        <v>12570</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45287</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45352</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>393</v>
+      </c>
+      <c r="T3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B4" t="s">
+        <v>689</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N4" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EAAF30-BD78-4D23-AEBC-1D6C37D138A6}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5453F532-21B6-4188-9011-0BA56E95151F}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.90625" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.36328125" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S2">
+        <v>4568853286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>40000</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S3">
+        <v>2348876890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="S4">
+        <v>6780909654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q5" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{24A681F5-B896-46DB-8E3E-138D18F52FB7}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{858A41CC-ACFC-43FB-BEE3-8D458ADE80BE}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{075C8FB6-1BE2-49B1-A2FD-08CAD8D51C56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4639,9 +5653,9 @@
     <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="54.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.90625" bestFit="1" customWidth="1"/>
@@ -4833,27 +5847,82 @@
         <v>958</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C17">
+        <v>90077451</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" customWidth="1"/>
     <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
@@ -5070,13 +6139,66 @@
         <v>507</v>
       </c>
     </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="T5">
+        <v>89.87</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>125.78</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69AB3B-3A11-477C-A201-8388519D3807}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5173,12 +6295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665AEC9-C942-4A65-984C-CAD52F4E2CCE}">
-  <dimension ref="A1:AX51"/>
+  <dimension ref="A1:AX102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5364,950 +6486,1099 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C2" t="s">
-        <v>688</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>651</v>
+        <v>691</v>
+      </c>
+      <c r="E2" t="s">
+        <v>686</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW2">
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AS3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C4" t="s">
-        <v>690</v>
+        <v>693</v>
+      </c>
+      <c r="D4" t="s">
+        <v>695</v>
+      </c>
+      <c r="S4" t="s">
+        <v>696</v>
       </c>
       <c r="AS4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
-        <v>691</v>
-      </c>
-      <c r="E5" t="s">
-        <v>686</v>
-      </c>
-      <c r="T5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>687</v>
-      </c>
-      <c r="AW5">
-        <v>2000</v>
+        <v>688</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C6" t="s">
         <v>692</v>
       </c>
       <c r="AS6" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C7" t="s">
-        <v>693</v>
-      </c>
-      <c r="D7" t="s">
-        <v>695</v>
-      </c>
-      <c r="S7" t="s">
-        <v>696</v>
+        <v>689</v>
+      </c>
+      <c r="E7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G7" s="13">
+        <v>37388</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>698</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>699</v>
       </c>
       <c r="AS7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s">
         <v>694</v>
       </c>
-      <c r="AS8" t="s">
-        <v>656</v>
+      <c r="F8" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C9" t="s">
         <v>688</v>
       </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" t="s">
+        <v>701</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>702</v>
+      </c>
       <c r="AS9" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B10" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C10" t="s">
         <v>689</v>
       </c>
-      <c r="E10" t="s">
-        <v>697</v>
-      </c>
-      <c r="G10" s="13">
-        <v>37388</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>698</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>699</v>
+      <c r="I10" t="s">
+        <v>695</v>
+      </c>
+      <c r="L10" t="s">
+        <v>703</v>
+      </c>
+      <c r="U10" t="s">
+        <v>704</v>
       </c>
       <c r="AS10" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>613</v>
-      </c>
-      <c r="B11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C11" t="s">
-        <v>690</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>659</v>
-      </c>
+        <v>1096</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="AS11" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AT11" s="15"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AS12" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C13" t="s">
-        <v>692</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>661</v>
+        <v>691</v>
+      </c>
+      <c r="N13" s="13">
+        <v>40128</v>
+      </c>
+      <c r="O13" s="8">
+        <v>12</v>
+      </c>
+      <c r="P13" s="13">
+        <v>40169</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>705</v>
+      </c>
+      <c r="V13" t="s">
+        <v>706</v>
+      </c>
+      <c r="W13" t="s">
+        <v>707</v>
+      </c>
+      <c r="Z13">
+        <v>1276877</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B14" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C14" t="s">
-        <v>693</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>662</v>
+        <v>692</v>
+      </c>
+      <c r="K14" s="13">
+        <v>36763</v>
+      </c>
+      <c r="M14" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>710</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>711</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>36100</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C15" t="s">
-        <v>694</v>
-      </c>
-      <c r="F15" t="s">
-        <v>700</v>
+        <v>693</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C16" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C17" t="s">
         <v>688</v>
       </c>
-      <c r="J16" t="s">
-        <v>89</v>
-      </c>
-      <c r="R16" t="s">
-        <v>701</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>702</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>619</v>
-      </c>
-      <c r="B17" t="s">
-        <v>574</v>
-      </c>
-      <c r="C17" t="s">
-        <v>689</v>
-      </c>
-      <c r="I17" t="s">
-        <v>695</v>
-      </c>
-      <c r="L17" t="s">
-        <v>703</v>
-      </c>
-      <c r="U17" t="s">
-        <v>704</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="V17" t="s">
+        <v>712</v>
+      </c>
+      <c r="Z17">
+        <v>3435555</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B18" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C18" t="s">
         <v>690</v>
       </c>
       <c r="AS18" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B19" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C19" t="s">
         <v>691</v>
       </c>
-      <c r="N19" s="13">
-        <v>40128</v>
-      </c>
-      <c r="O19" s="8">
-        <v>12</v>
-      </c>
-      <c r="P19" s="13">
-        <v>40169</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>705</v>
-      </c>
-      <c r="V19" t="s">
-        <v>706</v>
-      </c>
-      <c r="W19" t="s">
-        <v>707</v>
-      </c>
-      <c r="Z19">
-        <v>1276877</v>
+      <c r="H19" s="13">
+        <v>36534</v>
+      </c>
+      <c r="X19">
+        <v>23456789</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>714</v>
+      </c>
+      <c r="AM19">
+        <v>2334568</v>
       </c>
       <c r="AP19" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="B20" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C20" t="s">
         <v>692</v>
       </c>
-      <c r="K20" s="13">
-        <v>36763</v>
-      </c>
-      <c r="M20" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>710</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>711</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>36100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="V20" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>718</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>719</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>716</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>36412</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B21" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C21" t="s">
         <v>693</v>
       </c>
       <c r="AS21" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B22" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C22" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>634</v>
+      </c>
+      <c r="B23" t="s">
+        <v>589</v>
+      </c>
+      <c r="C23" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C24" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>721</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>723</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>724</v>
+      </c>
+      <c r="AW24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>636</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG25">
+        <v>34567588</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>725</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>726</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>637</v>
+      </c>
+      <c r="B26" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>638</v>
+      </c>
+      <c r="B27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C27" t="s">
         <v>694</v>
       </c>
-      <c r="AS22" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>625</v>
-      </c>
-      <c r="B23" t="s">
-        <v>580</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="AH27" t="s">
+        <v>727</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>728</v>
+      </c>
+      <c r="AK27">
+        <v>9222</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="AT28" s="12"/>
+    </row>
+    <row r="29" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="AT29" s="12"/>
+    </row>
+    <row r="30" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="AT30" s="12"/>
+    </row>
+    <row r="31" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="AT31" s="12"/>
+    </row>
+    <row r="32" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="AT32" s="12"/>
+    </row>
+    <row r="33" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="AT33" s="12"/>
+    </row>
+    <row r="34" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="AT34" s="12"/>
+    </row>
+    <row r="35" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="AT35" s="12"/>
+    </row>
+    <row r="36" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="AT36" s="12"/>
+    </row>
+    <row r="37" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="AT37" s="12"/>
+    </row>
+    <row r="38" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="AT38" s="12"/>
+    </row>
+    <row r="39" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="AT39" s="12"/>
+    </row>
+    <row r="40" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="AT40" s="12"/>
+    </row>
+    <row r="41" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="AT41" s="12"/>
+    </row>
+    <row r="42" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="AT42" s="12"/>
+    </row>
+    <row r="43" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="AT43" s="12"/>
+    </row>
+    <row r="44" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="AT44" s="12"/>
+    </row>
+    <row r="45" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="AT45" s="12"/>
+    </row>
+    <row r="46" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="AT46" s="12"/>
+    </row>
+    <row r="47" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="AT47" s="12"/>
+    </row>
+    <row r="48" spans="7:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="AT48" s="12"/>
+    </row>
+    <row r="49" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="AT49" s="12"/>
+    </row>
+    <row r="50" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="AT50" s="12"/>
+    </row>
+    <row r="51" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="AT51" s="12"/>
+    </row>
+    <row r="52" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="AT52" s="12"/>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>604</v>
+      </c>
+      <c r="B53" t="s">
+        <v>559</v>
+      </c>
+      <c r="C53" t="s">
         <v>688</v>
       </c>
-      <c r="V23" t="s">
-        <v>712</v>
-      </c>
-      <c r="Z23">
-        <v>3435555</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="AS53" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>605</v>
+      </c>
+      <c r="B54" t="s">
+        <v>560</v>
+      </c>
+      <c r="C54" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>606</v>
+      </c>
+      <c r="B55" t="s">
+        <v>561</v>
+      </c>
+      <c r="C55" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>610</v>
+      </c>
+      <c r="B59" t="s">
+        <v>565</v>
+      </c>
+      <c r="C59" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>613</v>
+      </c>
+      <c r="B62" t="s">
+        <v>568</v>
+      </c>
+      <c r="C62" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>614</v>
+      </c>
+      <c r="B63" t="s">
+        <v>569</v>
+      </c>
+      <c r="C63" t="s">
+        <v>691</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B65" t="s">
+        <v>571</v>
+      </c>
+      <c r="C65" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>626</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B75" t="s">
         <v>581</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C75" t="s">
         <v>689</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AS75" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>582</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>631</v>
+      </c>
+      <c r="B80" t="s">
+        <v>586</v>
+      </c>
+      <c r="C80" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>633</v>
+      </c>
+      <c r="B82" t="s">
+        <v>588</v>
+      </c>
+      <c r="C82" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>639</v>
+      </c>
+      <c r="B88" t="s">
+        <v>592</v>
+      </c>
+      <c r="C88" t="s">
+        <v>688</v>
+      </c>
+      <c r="E88" t="s">
+        <v>730</v>
+      </c>
+      <c r="G88" s="13">
+        <v>42239</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>731</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>732</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>640</v>
+      </c>
+      <c r="B89" t="s">
+        <v>593</v>
+      </c>
+      <c r="C89" t="s">
+        <v>689</v>
+      </c>
+      <c r="AX89">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>641</v>
+      </c>
+      <c r="B90" t="s">
+        <v>594</v>
+      </c>
+      <c r="C90" t="s">
         <v>690</v>
       </c>
-      <c r="AS25" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>628</v>
-      </c>
-      <c r="B26" t="s">
-        <v>583</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="AS90" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>642</v>
+      </c>
+      <c r="B91" t="s">
+        <v>595</v>
+      </c>
+      <c r="C91" t="s">
         <v>691</v>
       </c>
-      <c r="H26" s="13">
-        <v>36534</v>
-      </c>
-      <c r="X26">
-        <v>23456789</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>714</v>
-      </c>
-      <c r="AM26">
-        <v>2334568</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>629</v>
-      </c>
-      <c r="B27" t="s">
-        <v>584</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="AS91" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>643</v>
+      </c>
+      <c r="B92" t="s">
+        <v>596</v>
+      </c>
+      <c r="C92" t="s">
         <v>692</v>
       </c>
-      <c r="V27" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>718</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>719</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>716</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>36412</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>630</v>
-      </c>
-      <c r="B28" t="s">
-        <v>585</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="AS92" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>644</v>
+      </c>
+      <c r="B93" t="s">
+        <v>597</v>
+      </c>
+      <c r="C93" t="s">
         <v>693</v>
       </c>
-      <c r="AS28" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>631</v>
-      </c>
-      <c r="B29" t="s">
-        <v>586</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="AS93" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>645</v>
+      </c>
+      <c r="B94" t="s">
+        <v>598</v>
+      </c>
+      <c r="C94" t="s">
         <v>694</v>
       </c>
-      <c r="AS29" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>632</v>
-      </c>
-      <c r="B30" t="s">
-        <v>587</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="AS94" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>646</v>
+      </c>
+      <c r="B95" t="s">
+        <v>599</v>
+      </c>
+      <c r="C95" t="s">
         <v>688</v>
       </c>
-      <c r="AS30" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>633</v>
-      </c>
-      <c r="B31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="AS95" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>647</v>
+      </c>
+      <c r="B96" t="s">
+        <v>600</v>
+      </c>
+      <c r="C96" t="s">
         <v>689</v>
       </c>
-      <c r="AS31" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>634</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="AS96" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>648</v>
+      </c>
+      <c r="B97" t="s">
+        <v>601</v>
+      </c>
+      <c r="C97" t="s">
+        <v>690</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>733</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>734</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="98" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>649</v>
+      </c>
+      <c r="B98" t="s">
+        <v>602</v>
+      </c>
+      <c r="C98" t="s">
+        <v>691</v>
+      </c>
+      <c r="H98" s="13">
+        <v>36495</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>736</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>737</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>738</v>
+      </c>
+      <c r="AV98" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>650</v>
+      </c>
+      <c r="B99" t="s">
+        <v>603</v>
+      </c>
+      <c r="C99" t="s">
+        <v>692</v>
+      </c>
+      <c r="AS99" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>746</v>
+      </c>
+      <c r="B100" t="s">
+        <v>559</v>
+      </c>
+      <c r="C100" t="s">
+        <v>690</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="101" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>748</v>
+      </c>
+      <c r="B101" t="s">
+        <v>574</v>
+      </c>
+      <c r="C101" t="s">
+        <v>692</v>
+      </c>
+      <c r="I101" t="s">
+        <v>695</v>
+      </c>
+      <c r="L101" t="s">
+        <v>749</v>
+      </c>
+      <c r="U101" t="s">
+        <v>750</v>
+      </c>
+      <c r="AS101" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>752</v>
+      </c>
+      <c r="B102" t="s">
         <v>589</v>
       </c>
-      <c r="C32" t="s">
-        <v>690</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>635</v>
-      </c>
-      <c r="B33" t="s">
-        <v>539</v>
-      </c>
-      <c r="C33" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>721</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>723</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>724</v>
-      </c>
-      <c r="AW33">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>636</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>692</v>
-      </c>
-      <c r="AG34">
-        <v>34567588</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>725</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>726</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>637</v>
-      </c>
-      <c r="B35" t="s">
-        <v>590</v>
-      </c>
-      <c r="C35" t="s">
-        <v>693</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>638</v>
-      </c>
-      <c r="B36" t="s">
-        <v>591</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C102" t="s">
         <v>694</v>
       </c>
-      <c r="AH36" t="s">
-        <v>727</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>728</v>
-      </c>
-      <c r="AK36">
-        <v>9222</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>639</v>
-      </c>
-      <c r="B37" t="s">
-        <v>592</v>
-      </c>
-      <c r="C37" t="s">
-        <v>688</v>
-      </c>
-      <c r="E37" t="s">
-        <v>730</v>
-      </c>
-      <c r="G37" s="13">
-        <v>42239</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>732</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>640</v>
-      </c>
-      <c r="B38" t="s">
-        <v>593</v>
-      </c>
-      <c r="C38" t="s">
-        <v>689</v>
-      </c>
-      <c r="AX38">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>641</v>
-      </c>
-      <c r="B39" t="s">
-        <v>594</v>
-      </c>
-      <c r="C39" t="s">
-        <v>690</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>642</v>
-      </c>
-      <c r="B40" t="s">
-        <v>595</v>
-      </c>
-      <c r="C40" t="s">
-        <v>691</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>643</v>
-      </c>
-      <c r="B41" t="s">
-        <v>596</v>
-      </c>
-      <c r="C41" t="s">
-        <v>692</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>644</v>
-      </c>
-      <c r="B42" t="s">
-        <v>597</v>
-      </c>
-      <c r="C42" t="s">
-        <v>693</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>645</v>
-      </c>
-      <c r="B43" t="s">
-        <v>598</v>
-      </c>
-      <c r="C43" t="s">
-        <v>694</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>646</v>
-      </c>
-      <c r="B44" t="s">
-        <v>599</v>
-      </c>
-      <c r="C44" t="s">
-        <v>688</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>647</v>
-      </c>
-      <c r="B45" t="s">
-        <v>600</v>
-      </c>
-      <c r="C45" t="s">
-        <v>689</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>648</v>
-      </c>
-      <c r="B46" t="s">
-        <v>601</v>
-      </c>
-      <c r="C46" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>733</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>734</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>649</v>
-      </c>
-      <c r="B47" t="s">
-        <v>602</v>
-      </c>
-      <c r="C47" t="s">
-        <v>691</v>
-      </c>
-      <c r="H47" s="13">
-        <v>36495</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>736</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>737</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>738</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>650</v>
-      </c>
-      <c r="B48" t="s">
-        <v>603</v>
-      </c>
-      <c r="C48" t="s">
-        <v>692</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>746</v>
-      </c>
-      <c r="B49" t="s">
-        <v>559</v>
-      </c>
-      <c r="C49" t="s">
-        <v>690</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>748</v>
-      </c>
-      <c r="B50" t="s">
-        <v>574</v>
-      </c>
-      <c r="C50" t="s">
-        <v>692</v>
-      </c>
-      <c r="I50" t="s">
-        <v>695</v>
-      </c>
-      <c r="L50" t="s">
-        <v>749</v>
-      </c>
-      <c r="U50" t="s">
-        <v>750</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>752</v>
-      </c>
-      <c r="B51" t="s">
-        <v>589</v>
-      </c>
-      <c r="C51" t="s">
-        <v>694</v>
-      </c>
-      <c r="AS51" t="s">
+      <c r="AS102" t="s">
         <v>753</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0191B-A695-44B6-B8DB-539DF91B46C4}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>959</v>
-      </c>
-      <c r="B6" t="s">
-        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -6785,6 +8056,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0191B-A695-44B6-B8DB-539DF91B46C4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>959</v>
+      </c>
+      <c r="B6" t="s">
+        <v>960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9776329E-4018-44A5-82B8-B8248C5C0C9C}">
   <dimension ref="A1:G3"/>
@@ -7114,7 +8453,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7615,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8594,509 +9933,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
-  <dimension ref="A1:R6"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="63.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44625</v>
-      </c>
-      <c r="I2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L2" s="4">
-        <v>44631</v>
-      </c>
-      <c r="M2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K3" t="s">
-        <v>320</v>
-      </c>
-      <c r="L3" s="4">
-        <v>44651</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>394</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G4" t="s">
-        <v>379</v>
-      </c>
-      <c r="H4" s="4">
-        <v>44254</v>
-      </c>
-      <c r="I4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K4" t="s">
-        <v>404</v>
-      </c>
-      <c r="L4" s="4">
-        <v>44703</v>
-      </c>
-      <c r="M4" t="s">
-        <v>405</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" t="s">
-        <v>309</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" t="s">
-        <v>427</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F8" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E3AF99-B285-4872-B012-0C94F438EBF8}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -9235,4 +10071,414 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59063E35-2744-4A83-A0B3-24C7FD044C62}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E2" s="11">
+        <v>250</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44617</v>
+      </c>
+      <c r="G2" t="s">
+        <v>883</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44645</v>
+      </c>
+      <c r="I2" s="11">
+        <v>75</v>
+      </c>
+      <c r="J2" s="11">
+        <v>50</v>
+      </c>
+      <c r="K2" s="11">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4">
+        <v>44650</v>
+      </c>
+      <c r="M2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E3" s="11">
+        <v>632</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44645</v>
+      </c>
+      <c r="G3" t="s">
+        <v>970</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44666</v>
+      </c>
+      <c r="I3" s="11">
+        <v>150</v>
+      </c>
+      <c r="J3" s="11">
+        <v>150</v>
+      </c>
+      <c r="K3" s="11">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44681</v>
+      </c>
+      <c r="M3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D4" t="s">
+        <v>969</v>
+      </c>
+      <c r="E4" s="11">
+        <v>50.99</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44645</v>
+      </c>
+      <c r="G4" t="s">
+        <v>970</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44666</v>
+      </c>
+      <c r="I4" s="11">
+        <v>150</v>
+      </c>
+      <c r="J4" s="11">
+        <v>150</v>
+      </c>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="L4" s="4">
+        <v>44681</v>
+      </c>
+      <c r="M4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B5" t="s">
+        <v>909</v>
+      </c>
+      <c r="D5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3500.79</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45058</v>
+      </c>
+      <c r="G5" t="s">
+        <v>916</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45076</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3000</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>45078</v>
+      </c>
+      <c r="M5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC2A471-385A-4133-9FB5-E00CEEFCFD2D}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44614</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44703</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E3">
+        <v>3500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>929</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44614</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D4" t="s">
+        <v>925</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>961</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45058</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E5">
+        <v>120000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>933</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B6" s="4">
+        <v>36690</v>
+      </c>
+      <c r="C6" s="4">
+        <v>36720</v>
+      </c>
+      <c r="D6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>974</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0EA797-3261-4B24-99D7-C78C632CB5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3769A-A24F-46CE-88B0-4E67B05D7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29844" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="934" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1110">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -1026,9 +1026,6 @@
     <t>099-123-677</t>
   </si>
   <si>
-    <t>004-537-360</t>
-  </si>
-  <si>
     <t>18TR2_RUPERT</t>
   </si>
   <si>
@@ -3214,6 +3211,180 @@
   </si>
   <si>
     <t>Insert Digital Documents into a minimal Lease/License</t>
+  </si>
+  <si>
+    <t>Insert Digital Documents into a Project</t>
+  </si>
+  <si>
+    <t>Project - Briefing Notes</t>
+  </si>
+  <si>
+    <t>Inserting a new Brifing notes to a project</t>
+  </si>
+  <si>
+    <t>Project - Correspondence</t>
+  </si>
+  <si>
+    <t>1818 Cornwell St.</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Inserting a new Correspondence to a project</t>
+  </si>
+  <si>
+    <t>Project - Financial records</t>
+  </si>
+  <si>
+    <t>Inserting a new Financial records to a project</t>
+  </si>
+  <si>
+    <t>Project - Historical File</t>
+  </si>
+  <si>
+    <t>18-0909-19200</t>
+  </si>
+  <si>
+    <t>123-909008</t>
+  </si>
+  <si>
+    <t>Project - Legal correspondence</t>
+  </si>
+  <si>
+    <t>Inserting a legal correspondence to a project</t>
+  </si>
+  <si>
+    <t>Project - Legal survey plan</t>
+  </si>
+  <si>
+    <t>344545-09</t>
+  </si>
+  <si>
+    <t>Projects Test plan</t>
+  </si>
+  <si>
+    <t>Project - MoTI plan</t>
+  </si>
+  <si>
+    <t>123-Testing</t>
+  </si>
+  <si>
+    <t>01-09876-006</t>
+  </si>
+  <si>
+    <t>344545-10</t>
+  </si>
+  <si>
+    <t>The testing Gazette</t>
+  </si>
+  <si>
+    <t>091-786-677</t>
+  </si>
+  <si>
+    <t>Project - Other</t>
+  </si>
+  <si>
+    <t>Cambie Bridge</t>
+  </si>
+  <si>
+    <t>Inserting a Other documengt to a project</t>
+  </si>
+  <si>
+    <t>Project - PA plans / Design drawings</t>
+  </si>
+  <si>
+    <t>7866-SAU-8900</t>
+  </si>
+  <si>
+    <t>Plan pending for double revision</t>
+  </si>
+  <si>
+    <t>The Automation Ultimate Project</t>
+  </si>
+  <si>
+    <t>Project - Photos / Images / Video</t>
+  </si>
+  <si>
+    <t>1190 Hornby St.</t>
+  </si>
+  <si>
+    <t>Inserting  photos on a project</t>
+  </si>
+  <si>
+    <t>Project - Spending authority approval (SAA)</t>
+  </si>
+  <si>
+    <t>Inserting Spending authority approval in a project</t>
+  </si>
+  <si>
+    <t>Project - Surplus property declaration</t>
+  </si>
+  <si>
+    <t>Inserting Surplus property declaration in a project</t>
+  </si>
+  <si>
+    <t>AssignedDate</t>
+  </si>
+  <si>
+    <t>Update existing Individual</t>
+  </si>
+  <si>
+    <t>Seline</t>
+  </si>
+  <si>
+    <t>seline.white2@yahoo.com</t>
+  </si>
+  <si>
+    <t>(778) 567-5555</t>
+  </si>
+  <si>
+    <t>7891 Yew St.</t>
+  </si>
+  <si>
+    <t>Apt 1231</t>
+  </si>
+  <si>
+    <t>Updated individual Contact</t>
+  </si>
+  <si>
+    <t>AcquisitionMOTIRegion</t>
+  </si>
+  <si>
+    <t>011-126-752</t>
+  </si>
+  <si>
+    <t>2835 12TH AVE E</t>
+  </si>
+  <si>
+    <t>Update existing Organization contact</t>
+  </si>
+  <si>
+    <t>Automation Test Corp III</t>
+  </si>
+  <si>
+    <t>AutoCorpIII</t>
+  </si>
+  <si>
+    <t>BC8999098</t>
+  </si>
+  <si>
+    <t>info@testcorpinc.ca</t>
+  </si>
+  <si>
+    <t>(604) 999-9001</t>
+  </si>
+  <si>
+    <t>678 Alfonso de la Legua</t>
+  </si>
+  <si>
+    <t>Oficina 22</t>
+  </si>
+  <si>
+    <t>Lima 18</t>
+  </si>
+  <si>
+    <t>Automated existing organization - updated</t>
   </si>
 </sst>
 </file>
@@ -3276,7 +3447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3293,8 +3464,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3576,10 +3746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW6"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3650,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -3942,7 +4112,7 @@
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>67</v>
@@ -4197,15 +4367,81 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="R6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="X6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>178</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>192</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>193</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4217,6 +4453,7 @@
     <hyperlink ref="I3" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
     <hyperlink ref="I5" r:id="rId5" xr:uid="{3BF8C400-BAC1-4978-8D41-326CBC17576E}"/>
     <hyperlink ref="L5" r:id="rId6" xr:uid="{9CA6DE06-BA42-496F-902B-6B9113678CE6}"/>
+    <hyperlink ref="I6" r:id="rId7" xr:uid="{B25FEFEA-0800-4243-A177-1E1D3B4F1661}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4227,7 +4464,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4247,36 +4484,36 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B2" s="4">
         <v>44616</v>
       </c>
       <c r="C2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D2">
         <v>2625</v>
@@ -4289,7 +4526,7 @@
         <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4297,13 +4534,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B3" s="4">
         <v>44623</v>
       </c>
       <c r="C3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -4315,7 +4552,7 @@
         <v>14.29</v>
       </c>
       <c r="G3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4323,13 +4560,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B4" s="4">
         <v>44630</v>
       </c>
       <c r="C4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -4341,7 +4578,7 @@
         <v>142.86000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4349,13 +4586,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" s="4">
         <v>45061</v>
       </c>
       <c r="C5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D5">
         <v>130000</v>
@@ -4367,7 +4604,7 @@
         <v>6190.48</v>
       </c>
       <c r="G5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4375,13 +4612,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B6" s="4">
         <v>36692</v>
       </c>
       <c r="C6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -4393,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4438,13 +4675,13 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>268</v>
@@ -4474,19 +4711,19 @@
         <v>276</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -4500,7 +4737,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
@@ -4509,7 +4746,7 @@
         <v>312</v>
       </c>
       <c r="G2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H2" s="4">
         <v>44625</v>
@@ -4556,16 +4793,16 @@
         <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F3" t="s">
         <v>318</v>
       </c>
       <c r="G3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J3" t="s">
         <v>391</v>
-      </c>
-      <c r="J3" t="s">
-        <v>392</v>
       </c>
       <c r="K3" t="s">
         <v>319</v>
@@ -4577,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -4603,31 +4840,31 @@
         <v>222</v>
       </c>
       <c r="E4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" t="s">
         <v>399</v>
       </c>
-      <c r="F4" t="s">
-        <v>400</v>
-      </c>
       <c r="G4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H4" s="4">
         <v>44254</v>
       </c>
       <c r="I4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J4" t="s">
         <v>401</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>402</v>
-      </c>
-      <c r="K4" t="s">
-        <v>403</v>
       </c>
       <c r="L4" s="4">
         <v>44703</v>
       </c>
       <c r="M4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -4644,7 +4881,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
         <v>306</v>
@@ -4667,7 +4904,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>305</v>
@@ -4700,10 +4937,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4713,240 +4950,245 @@
     <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" customWidth="1"/>
-    <col min="10" max="10" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.36328125" customWidth="1"/>
+    <col min="11" max="11" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>915</v>
+        <v>1097</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>914</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>946</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C2">
         <v>12570</v>
       </c>
       <c r="D2" t="s">
+        <v>917</v>
+      </c>
+      <c r="E2" t="s">
         <v>918</v>
       </c>
-      <c r="E2" t="s">
-        <v>919</v>
-      </c>
       <c r="F2" t="s">
-        <v>924</v>
-      </c>
-      <c r="H2" s="4">
+        <v>923</v>
+      </c>
+      <c r="I2" s="4">
         <v>45287</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>45352</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>921</v>
+      </c>
+      <c r="L2" t="s">
         <v>922</v>
       </c>
-      <c r="K2" t="s">
-        <v>923</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>308</v>
       </c>
-      <c r="M2" t="s">
-        <v>927</v>
-      </c>
       <c r="N2" t="s">
+        <v>926</v>
+      </c>
+      <c r="O2" t="s">
         <v>231</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
-        <v>947</v>
-      </c>
-      <c r="T2">
+      <c r="T2" t="s">
+        <v>946</v>
+      </c>
+      <c r="U2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H3" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45098</v>
+      </c>
+      <c r="I3" s="4">
         <v>45318</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>45292</v>
       </c>
-      <c r="J3" t="s">
-        <v>922</v>
-      </c>
-      <c r="O3">
+      <c r="K3" t="s">
+        <v>921</v>
+      </c>
+      <c r="P3">
         <v>6</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
-        <v>392</v>
-      </c>
-      <c r="T3">
+      <c r="T3" t="s">
+        <v>391</v>
+      </c>
+      <c r="U3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
-      </c>
-      <c r="J4" t="s">
+        <v>612</v>
+      </c>
+      <c r="K4" t="s">
+        <v>995</v>
+      </c>
+      <c r="M4" t="s">
         <v>996</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>997</v>
       </c>
-      <c r="M4" t="s">
-        <v>998</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>232</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="S4" t="s">
-        <v>970</v>
-      </c>
-      <c r="T4">
+      <c r="T4" t="s">
+        <v>969</v>
+      </c>
+      <c r="U4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B5" t="s">
         <v>308</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>967</v>
+      </c>
+      <c r="N5" t="s">
         <v>968</v>
       </c>
-      <c r="M5" t="s">
-        <v>969</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>233</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4957,7 +5199,10 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>19</v>
       </c>
     </row>
@@ -4986,29 +5231,29 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>928</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C3" t="s">
         <v>313</v>
@@ -5016,46 +5261,46 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C7" t="s">
         <v>999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -5098,28 +5343,28 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>940</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>942</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -5146,30 +5391,30 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>975</v>
+      </c>
+      <c r="E2" t="s">
         <v>976</v>
       </c>
-      <c r="E2" t="s">
-        <v>977</v>
-      </c>
       <c r="J2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M2" t="s">
         <v>89</v>
@@ -5181,10 +5426,10 @@
         <v>54</v>
       </c>
       <c r="Q2" t="s">
+        <v>986</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="S2">
         <v>4568853286</v>
@@ -5192,7 +5437,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5201,31 +5446,31 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G3" t="s">
+        <v>977</v>
+      </c>
+      <c r="H3" t="s">
         <v>978</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>979</v>
       </c>
-      <c r="I3" t="s">
-        <v>980</v>
-      </c>
       <c r="J3" t="s">
+        <v>982</v>
+      </c>
+      <c r="K3" t="s">
         <v>983</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>984</v>
-      </c>
-      <c r="L3" t="s">
-        <v>985</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -5237,7 +5482,7 @@
         <v>40000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="S3">
         <v>2348876890</v>
@@ -5245,7 +5490,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5254,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="s">
         <v>1001</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1002</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>1003</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1004</v>
       </c>
       <c r="N4" t="s">
         <v>56</v>
@@ -5272,10 +5517,10 @@
         <v>54</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="S4">
         <v>6780909654</v>
@@ -5317,183 +5562,183 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" t="s">
         <v>368</v>
       </c>
-      <c r="B2" t="s">
-        <v>369</v>
-      </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" t="s">
         <v>379</v>
-      </c>
-      <c r="F2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" t="s">
         <v>394</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>395</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" t="s">
         <v>396</v>
       </c>
-      <c r="D7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>397</v>
-      </c>
-      <c r="G7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" t="s">
         <v>405</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>406</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" t="s">
         <v>407</v>
       </c>
-      <c r="D8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>408</v>
-      </c>
-      <c r="G8" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5507,7 +5752,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5558,62 +5803,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2">
         <v>8157500</v>
       </c>
       <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" t="s">
         <v>325</v>
-      </c>
-      <c r="E2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" t="s">
         <v>412</v>
-      </c>
-      <c r="B3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" t="s">
         <v>357</v>
-      </c>
-      <c r="B4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" t="s">
         <v>359</v>
       </c>
-      <c r="B6" t="s">
-        <v>360</v>
-      </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>322</v>
@@ -5621,7 +5866,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
         <v>321</v>
@@ -5629,7 +5874,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>320</v>
@@ -5637,65 +5882,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C10">
-        <v>90054791</v>
+        <v>1098</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>861</v>
+      </c>
+      <c r="B12" t="s">
         <v>862</v>
-      </c>
-      <c r="B12" t="s">
-        <v>863</v>
       </c>
       <c r="C12">
         <v>553490</v>
       </c>
       <c r="D12" t="s">
+        <v>863</v>
+      </c>
+      <c r="E12" t="s">
         <v>864</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>865</v>
-      </c>
-      <c r="F12" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B13" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>867</v>
+      </c>
+      <c r="B14" t="s">
         <v>868</v>
-      </c>
-      <c r="B14" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B15" t="s">
         <v>320</v>
@@ -5703,73 +5945,73 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>870</v>
+      </c>
+      <c r="B16" t="s">
         <v>871</v>
-      </c>
-      <c r="B16" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B17" t="s">
         <v>1019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>947</v>
+      </c>
+      <c r="B18" t="s">
         <v>948</v>
-      </c>
-      <c r="B18" t="s">
-        <v>949</v>
       </c>
       <c r="C18">
         <v>90077451</v>
       </c>
       <c r="D18" t="s">
+        <v>950</v>
+      </c>
+      <c r="E18" t="s">
         <v>951</v>
       </c>
-      <c r="E18" t="s">
-        <v>952</v>
-      </c>
       <c r="F18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>961</v>
+      </c>
+      <c r="B19" t="s">
         <v>962</v>
       </c>
-      <c r="B19" t="s">
-        <v>963</v>
-      </c>
       <c r="F19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>970</v>
+      </c>
+      <c r="B20" t="s">
         <v>971</v>
-      </c>
-      <c r="B20" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>959</v>
+      </c>
+      <c r="B21" t="s">
         <v>960</v>
-      </c>
-      <c r="B21" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>963</v>
+      </c>
+      <c r="B22" t="s">
         <v>964</v>
-      </c>
-      <c r="B22" t="s">
-        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -5781,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5832,7 +6074,7 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>282</v>
@@ -5880,10 +6122,10 @@
         <v>296</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>297</v>
@@ -5903,60 +6145,60 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" t="s">
         <v>330</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>331</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>332</v>
-      </c>
-      <c r="G3" t="s">
-        <v>333</v>
       </c>
       <c r="H3" t="s">
         <v>231</v>
       </c>
       <c r="I3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="J3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>414</v>
+      </c>
+      <c r="N3" t="s">
         <v>338</v>
       </c>
-      <c r="L3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>426</v>
+      </c>
+      <c r="P3" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q3" t="s">
         <v>339</v>
       </c>
-      <c r="O3" t="s">
-        <v>427</v>
-      </c>
-      <c r="P3" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>340</v>
-      </c>
-      <c r="S3" t="s">
-        <v>341</v>
       </c>
       <c r="T3">
         <v>100</v>
@@ -5968,30 +6210,30 @@
         <v>50</v>
       </c>
       <c r="W3" t="s">
+        <v>341</v>
+      </c>
+      <c r="X3" t="s">
         <v>342</v>
-      </c>
-      <c r="X3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" t="s">
         <v>486</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>487</v>
-      </c>
-      <c r="D4" t="s">
-        <v>488</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
       </c>
       <c r="G4" t="s">
+        <v>488</v>
+      </c>
+      <c r="N4" t="s">
         <v>489</v>
-      </c>
-      <c r="N4" t="s">
-        <v>490</v>
       </c>
       <c r="T4">
         <v>65</v>
@@ -6003,48 +6245,48 @@
         <v>103.59</v>
       </c>
       <c r="W4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C5" t="s">
+        <v>952</v>
+      </c>
+      <c r="D5" t="s">
         <v>954</v>
       </c>
-      <c r="C5" t="s">
-        <v>953</v>
-      </c>
-      <c r="D5" t="s">
-        <v>955</v>
-      </c>
       <c r="E5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
+        <v>955</v>
+      </c>
+      <c r="N5" t="s">
         <v>956</v>
       </c>
-      <c r="N5" t="s">
-        <v>957</v>
-      </c>
       <c r="O5" t="s">
+        <v>991</v>
+      </c>
+      <c r="P5" t="s">
         <v>992</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>993</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>994</v>
-      </c>
-      <c r="R5" t="s">
-        <v>995</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -6056,10 +6298,10 @@
         <v>125.78</v>
       </c>
       <c r="W5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="X5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -6070,10 +6312,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69AB3B-3A11-477C-A201-8388519D3807}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6088,15 +6330,15 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6107,7 +6349,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -6118,7 +6360,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -6129,7 +6371,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -6140,7 +6382,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -6151,7 +6393,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -6162,13 +6404,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B8">
         <v>52</v>
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B11">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6178,10 +6464,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665AEC9-C942-4A65-984C-CAD52F4E2CCE}">
-  <dimension ref="A1:AX53"/>
+  <dimension ref="A1:AX65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A50"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6218,346 +6505,340 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>289</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>268</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AT1" s="12" t="s">
         <v>211</v>
       </c>
       <c r="AU1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="AW1" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="str">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
         <f>CONCATENATE("Lease &amp; Licenses - ",B2)</f>
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>1016</v>
+      <c r="B2" t="s">
+        <v>1015</v>
       </c>
       <c r="C2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="AS2" s="14" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AT2" s="15"/>
+        <v>611</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="str">
+      <c r="A3" t="str">
         <f t="shared" ref="A3:A18" si="0">CONCATENATE("Lease &amp; Licenses - ",B3)</f>
         <v>Lease &amp; Licenses - BC assessment search</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T3" t="s">
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AW3">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="str">
+      <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Briefing notes</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="str">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Canada lands survey</v>
       </c>
       <c r="B5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D5" t="s">
+        <v>618</v>
+      </c>
+      <c r="S5" t="s">
         <v>619</v>
       </c>
-      <c r="S5" t="s">
-        <v>620</v>
-      </c>
       <c r="AS5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="str">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Certificate of Insurance (H0111)</v>
       </c>
       <c r="B6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AS6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="str">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Company search</v>
       </c>
       <c r="B7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
       </c>
       <c r="B8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AS8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Correspondence</v>
       </c>
       <c r="B9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G9" s="13">
         <v>37388</v>
       </c>
       <c r="AD9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM9" t="s">
         <v>622</v>
       </c>
-      <c r="AM9" t="s">
-        <v>623</v>
-      </c>
       <c r="AS9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
       </c>
       <c r="B10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>612</v>
+      </c>
+      <c r="AS10" t="s">
         <v>1008</v>
       </c>
-      <c r="C10" t="s">
-        <v>613</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>1009</v>
-      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - First nations consultation</v>
       </c>
       <c r="B11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Gazette</v>
       </c>
       <c r="B12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N12" s="13">
         <v>40128</v>
@@ -6569,217 +6850,217 @@
         <v>40169</v>
       </c>
       <c r="Q12" t="s">
+        <v>628</v>
+      </c>
+      <c r="V12" t="s">
         <v>629</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>630</v>
-      </c>
-      <c r="W12" t="s">
-        <v>631</v>
       </c>
       <c r="Z12">
         <v>1276877</v>
       </c>
       <c r="AP12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="str">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Historical file</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K13" s="13">
         <v>36763</v>
       </c>
       <c r="M13" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE13" t="s">
         <v>633</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AR13" t="s">
         <v>634</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>635</v>
       </c>
       <c r="AT13" s="13">
         <v>36100</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="str">
+      <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="str">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Legal correspondence (ex: to AG/external lawyers)</v>
       </c>
       <c r="B15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AS15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="str">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Legal survey plan</v>
       </c>
       <c r="B16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="V16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Z16">
         <v>3435555</v>
       </c>
       <c r="AJ16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="str">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Licensing approval/sign-off</v>
       </c>
       <c r="B17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AS17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="str">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - LTSA documents and plans (except title search)</v>
       </c>
       <c r="B18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C18" t="s">
+        <v>613</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" ref="A19:A24" si="1">CONCATENATE("Research File - ",B19)</f>
+        <v>Research File - Condition of entry (H0443)</v>
+      </c>
+      <c r="B19" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" t="s">
         <v>614</v>
       </c>
-      <c r="AS18" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="str">
-        <f>CONCATENATE("Research File - ",B19)</f>
-        <v>Research File - Condition of entry (H0443)</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="AS19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>Research File - Crown grant</v>
+      </c>
+      <c r="B20" t="s">
         <v>562</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>615</v>
       </c>
-      <c r="AS19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="str">
-        <f>CONCATENATE("Research File - ",B20)</f>
-        <v>Research File - Crown grant</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>Research File - District road register</v>
+      </c>
+      <c r="B21" t="s">
         <v>563</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>616</v>
-      </c>
-      <c r="F20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="str">
-        <f>CONCATENATE("Research File - ",B21)</f>
-        <v>Research File - District road register</v>
-      </c>
-      <c r="B21" t="s">
-        <v>564</v>
-      </c>
-      <c r="C21" t="s">
-        <v>617</v>
       </c>
       <c r="J21" t="s">
         <v>89</v>
       </c>
       <c r="R21" t="s">
+        <v>624</v>
+      </c>
+      <c r="AP21" t="s">
         <v>625</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AS21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>Research File - Field notes</v>
+      </c>
+      <c r="B22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C22" t="s">
+        <v>617</v>
+      </c>
+      <c r="I22" t="s">
+        <v>618</v>
+      </c>
+      <c r="L22" t="s">
         <v>626</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="U22" t="s">
+        <v>627</v>
+      </c>
+      <c r="AS22" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="str">
-        <f>CONCATENATE("Research File - ",B22)</f>
-        <v>Research File - Field notes</v>
-      </c>
-      <c r="B22" t="s">
-        <v>565</v>
-      </c>
-      <c r="C22" t="s">
-        <v>618</v>
-      </c>
-      <c r="I22" t="s">
-        <v>619</v>
-      </c>
-      <c r="L22" t="s">
-        <v>627</v>
-      </c>
-      <c r="U22" t="s">
-        <v>628</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>596</v>
-      </c>
-    </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="str">
-        <f>CONCATENATE("Research File - ",B23)</f>
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
         <v>Research File - Ministerial order</v>
       </c>
       <c r="B23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H23" s="13">
         <v>36534</v>
@@ -6788,550 +7069,781 @@
         <v>23456789</v>
       </c>
       <c r="Y23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM23">
         <v>2334568</v>
       </c>
       <c r="AP23" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>Research File - Miscellaneous notes (LTSA)</v>
+      </c>
+      <c r="B24" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF24" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="str">
-        <f>CONCATENATE("Research File - ",B24)</f>
-        <v>Research File - Miscellaneous notes (LTSA)</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f t="shared" ref="A25:A34" si="2">CONCATENATE("Research File - ",B25)</f>
+        <v>Research File - MoTI plan</v>
+      </c>
+      <c r="B25" t="s">
         <v>575</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>613</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="V25" s="9" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="str">
-        <f t="shared" ref="A25:A34" si="1">CONCATENATE("Research File - ",B25)</f>
-        <v>Research File - MoTI plan</v>
-      </c>
-      <c r="B25" t="s">
-        <v>576</v>
-      </c>
-      <c r="C25" t="s">
-        <v>614</v>
-      </c>
-      <c r="V25" s="9" t="s">
+      <c r="Y25" t="s">
         <v>641</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>642</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>643</v>
       </c>
       <c r="AN25" s="4">
         <v>36412</v>
       </c>
       <c r="AO25" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f t="shared" si="2"/>
+        <v>Research File - Notice of claims/Litigation documents</v>
+      </c>
+      <c r="B26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26" t="s">
+        <v>614</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f t="shared" si="2"/>
+        <v>Research File - Notice of possible entry (H0224)</v>
+      </c>
+      <c r="B27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f t="shared" si="2"/>
+        <v>Research File - Order in Council (OIC)</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C28" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB28" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Research File - Notice of claims/Litigation documents</v>
-      </c>
-      <c r="B26" t="s">
-        <v>577</v>
-      </c>
-      <c r="C26" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Research File - Notice of possible entry (H0224)</v>
-      </c>
-      <c r="B27" t="s">
-        <v>578</v>
-      </c>
-      <c r="C27" t="s">
-        <v>616</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Research File - Order in Council (OIC)</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C28" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AC28" t="s">
         <v>646</v>
       </c>
-      <c r="AB28" t="s">
-        <v>645</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AP28" t="s">
         <v>647</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>648</v>
       </c>
       <c r="AW28">
         <v>2023</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="A29" t="str">
+        <f t="shared" si="2"/>
         <v>Research File - Other</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG29">
         <v>34567588</v>
       </c>
       <c r="AM29" t="s">
+        <v>648</v>
+      </c>
+      <c r="AP29" t="s">
         <v>649</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AS29" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f t="shared" si="2"/>
+        <v>Research File - Owner agreement/offer</v>
+      </c>
+      <c r="B30" t="s">
+        <v>578</v>
+      </c>
+      <c r="C30" t="s">
+        <v>611</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f t="shared" si="2"/>
+        <v>Research File - PA plans / Design drawings</v>
+      </c>
+      <c r="B31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C31" t="s">
+        <v>612</v>
+      </c>
+      <c r="AH31" t="s">
         <v>650</v>
       </c>
-      <c r="AS29" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Research File - Owner agreement/offer</v>
-      </c>
-      <c r="B30" t="s">
-        <v>579</v>
-      </c>
-      <c r="C30" t="s">
-        <v>612</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Research File - PA plans / Design drawings</v>
-      </c>
-      <c r="B31" t="s">
-        <v>580</v>
-      </c>
-      <c r="C31" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>651</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>652</v>
       </c>
       <c r="AK31">
         <v>9222</v>
       </c>
       <c r="AL31" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f t="shared" si="2"/>
+        <v>Research File - Photos / Images / Video</v>
+      </c>
+      <c r="B32" t="s">
+        <v>580</v>
+      </c>
+      <c r="C32" t="s">
+        <v>613</v>
+      </c>
+      <c r="E32" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Research File - Photos / Images / Video</v>
-      </c>
-      <c r="B32" t="s">
-        <v>581</v>
-      </c>
-      <c r="C32" t="s">
-        <v>614</v>
-      </c>
-      <c r="E32" t="s">
-        <v>654</v>
       </c>
       <c r="G32" s="13">
         <v>42239</v>
       </c>
       <c r="AD32" t="s">
+        <v>654</v>
+      </c>
+      <c r="AM32" t="s">
         <v>655</v>
       </c>
-      <c r="AM32" t="s">
-        <v>656</v>
-      </c>
       <c r="AS32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="A33" t="str">
+        <f t="shared" si="2"/>
         <v>Research File - Privy council</v>
       </c>
       <c r="B33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AX33">
         <v>1997</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
         <v>Research File - Transfer of administration</v>
       </c>
       <c r="B34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H34" s="13">
         <v>36841</v>
       </c>
       <c r="Y34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AM34" t="s">
         <v>1037</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AP34" t="s">
         <v>1038</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AV34" t="s">
         <v>1039</v>
       </c>
-      <c r="AV34" t="s">
-        <v>1040</v>
-      </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="str">
+      <c r="A35" t="str">
         <f>CONCATENATE("Acquisition File - ",B35)</f>
         <v>Acquisition File - Affidavit of service</v>
       </c>
       <c r="B35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="str">
+      <c r="A36" t="str">
         <f>CONCATENATE("Acquisition File - ",B36)</f>
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
       </c>
       <c r="B36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AS36" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="str">
+      <c r="A37" t="str">
         <f>CONCATENATE("Acquisition File - ",B37)</f>
         <v>Acquisition File - Compensation cheque</v>
       </c>
       <c r="B37" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS37" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="str">
+      <c r="A38" t="str">
         <f>CONCATENATE("Acquisition File - ",B38)</f>
         <v>Acquisition File - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C38" t="s">
+        <v>612</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f t="shared" ref="A39:A50" si="3">CONCATENATE("Acquisition File - ",B39)</f>
+        <v>Acquisition File - Notice of advanced payment (Form 8)</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C39" t="s">
         <v>613</v>
       </c>
-      <c r="AS38" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="str">
-        <f t="shared" ref="A39:A50" si="2">CONCATENATE("Acquisition File - ",B39)</f>
-        <v>Acquisition File - Notice of advanced payment (Form 8)</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="AS39" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Notice of expropriation (Form 1)</v>
+      </c>
+      <c r="B40" t="s">
         <v>1026</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>614</v>
       </c>
-      <c r="AS39" t="s">
+      <c r="AS40" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Notice of expropriation (Form 1)</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C41" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C42" t="s">
+        <v>616</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Record of negotiation</v>
+      </c>
+      <c r="B43" t="s">
         <v>1027</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
+        <v>617</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Release of claims</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C44" t="s">
+        <v>611</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Spending authority approval (SAA)</v>
+      </c>
+      <c r="B45" t="s">
+        <v>582</v>
+      </c>
+      <c r="C45" t="s">
+        <v>612</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Surplus property declaration</v>
+      </c>
+      <c r="B46" t="s">
+        <v>583</v>
+      </c>
+      <c r="C46" t="s">
+        <v>613</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Tax notices and assessments</v>
+      </c>
+      <c r="B47" t="s">
+        <v>584</v>
+      </c>
+      <c r="C47" t="s">
+        <v>614</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Temporary license for construction access (H0074)</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C48" t="s">
         <v>615</v>
       </c>
-      <c r="AS40" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="AS48" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Title search / Historical title</v>
+      </c>
+      <c r="B49" t="s">
+        <v>585</v>
+      </c>
+      <c r="C49" t="s">
         <v>616</v>
       </c>
-      <c r="AS41" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="AD49" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>657</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f t="shared" si="3"/>
+        <v>Acquisition File - Vesting notice (Form 9)</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C50" t="s">
         <v>617</v>
       </c>
-      <c r="AS42" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Record of negotiation</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C43" t="s">
-        <v>618</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Release of claims</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C44" t="s">
-        <v>612</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Spending authority approval (SAA)</v>
-      </c>
-      <c r="B45" t="s">
-        <v>583</v>
-      </c>
-      <c r="C45" t="s">
-        <v>613</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Surplus property declaration</v>
-      </c>
-      <c r="B46" t="s">
-        <v>584</v>
-      </c>
-      <c r="C46" t="s">
-        <v>614</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Tax notices and assessments</v>
-      </c>
-      <c r="B47" t="s">
-        <v>585</v>
-      </c>
-      <c r="C47" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Temporary license for construction access (H0074)</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C48" t="s">
-        <v>616</v>
-      </c>
-      <c r="AS48" t="s">
+      <c r="AS50" t="s">
         <v>1049</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Title search / Historical title</v>
-      </c>
-      <c r="B49" t="s">
-        <v>586</v>
-      </c>
-      <c r="C49" t="s">
-        <v>617</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>657</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>658</v>
-      </c>
-      <c r="AU49" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Acquisition File - Vesting notice (Form 9)</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C50" t="s">
-        <v>618</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG51">
         <v>676767776</v>
       </c>
       <c r="AM51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AP51" t="s">
         <v>1012</v>
       </c>
-      <c r="AP51" t="s">
+      <c r="AS51" t="s">
         <v>1013</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B52" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I52" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L52" t="s">
+        <v>665</v>
+      </c>
+      <c r="U52" t="s">
         <v>666</v>
       </c>
-      <c r="U52" t="s">
+      <c r="AS52" t="s">
         <v>667</v>
-      </c>
-      <c r="AS52" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C53" t="s">
+        <v>613</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>556</v>
+      </c>
+      <c r="C54" t="s">
         <v>614</v>
       </c>
-      <c r="AS53" t="s">
-        <v>669</v>
+      <c r="AS54" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B55" t="s">
+        <v>560</v>
+      </c>
+      <c r="C55" t="s">
+        <v>615</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G55" s="13">
+        <v>44174</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C56" t="s">
+        <v>616</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B57" t="s">
+        <v>567</v>
+      </c>
+      <c r="C57" t="s">
+        <v>617</v>
+      </c>
+      <c r="K57" s="13">
+        <v>36872</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AT57" s="13">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C58" t="s">
+        <v>611</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B59" t="s">
+        <v>570</v>
+      </c>
+      <c r="C59" t="s">
+        <v>612</v>
+      </c>
+      <c r="V59">
+        <v>2347987</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B60" t="s">
+        <v>575</v>
+      </c>
+      <c r="C60" t="s">
+        <v>613</v>
+      </c>
+      <c r="V60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AN60" s="4">
+        <v>36872</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG61">
+        <v>765356</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B62" t="s">
+        <v>579</v>
+      </c>
+      <c r="C62" t="s">
+        <v>615</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AK62">
+        <v>333</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B63" t="s">
+        <v>580</v>
+      </c>
+      <c r="C63" t="s">
+        <v>616</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G63" s="13">
+        <v>45085</v>
+      </c>
+      <c r="AM63">
+        <v>678998</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C64" t="s">
+        <v>617</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B65" t="s">
+        <v>583</v>
+      </c>
+      <c r="C65" t="s">
+        <v>611</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -7342,10 +7854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9B3A8-42C1-4A9C-B1C1-5E5E07CE0539}">
-  <dimension ref="A1:AT5"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7407,7 +7919,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>40</v>
@@ -7722,7 +8234,7 @@
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>1101</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -7790,9 +8302,63 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7803,9 +8369,10 @@
     <hyperlink ref="F3" r:id="rId3" xr:uid="{7537BC25-0749-4A34-9FD8-9F423E0202C6}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{4078AD70-0085-443C-BDA0-BD2ECBB8DD3B}"/>
     <hyperlink ref="I4" r:id="rId5" xr:uid="{ED87B454-F8FB-4903-82F0-44C2BB74A551}"/>
+    <hyperlink ref="I5" r:id="rId6" xr:uid="{C2EB0E13-A168-49C4-8001-C198483226AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -7825,7 +8392,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>301</v>
@@ -7833,42 +8400,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>872</v>
+      </c>
+      <c r="B6" t="s">
         <v>873</v>
-      </c>
-      <c r="B6" t="s">
-        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -7901,36 +8468,36 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" t="s">
         <v>500</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>501</v>
-      </c>
-      <c r="D2" t="s">
-        <v>502</v>
       </c>
       <c r="F2" s="4">
         <v>45701</v>
@@ -7941,13 +8508,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7960,8 +8527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12A4D20-CBEC-42E3-9A24-C9C857FE01F3}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7993,7 +8560,7 @@
         <v>218</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>202</v>
@@ -8160,7 +8727,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
         <v>219</v>
@@ -8253,7 +8820,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>242</v>
@@ -8282,7 +8849,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>243</v>
@@ -8311,7 +8878,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>244</v>
@@ -8340,16 +8907,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
         <v>449</v>
       </c>
-      <c r="C5" t="s">
-        <v>450</v>
-      </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E5" s="4">
         <v>45075</v>
@@ -8361,21 +8928,21 @@
         <v>45076</v>
       </c>
       <c r="H5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E6" s="4">
         <v>43831</v>
@@ -8387,21 +8954,21 @@
         <v>43832</v>
       </c>
       <c r="H6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E7" s="4">
         <v>43862</v>
@@ -8413,21 +8980,21 @@
         <v>43863</v>
       </c>
       <c r="I7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E8" s="4">
         <v>43891</v>
@@ -8439,21 +9006,21 @@
         <v>43892</v>
       </c>
       <c r="H8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E9" s="4">
         <v>43922</v>
@@ -8465,21 +9032,21 @@
         <v>43923</v>
       </c>
       <c r="H9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E10" s="4">
         <v>43952</v>
@@ -8493,16 +9060,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E11" s="4">
         <v>43983</v>
@@ -8514,21 +9081,21 @@
         <v>43984</v>
       </c>
       <c r="H11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E12" s="4">
         <v>44013</v>
@@ -8540,21 +9107,21 @@
         <v>44014</v>
       </c>
       <c r="H12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E13" s="4">
         <v>44044</v>
@@ -8566,21 +9133,21 @@
         <v>44045</v>
       </c>
       <c r="I13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E14" s="4">
         <v>44075</v>
@@ -8592,21 +9159,21 @@
         <v>44076</v>
       </c>
       <c r="H14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E15" s="4">
         <v>44105</v>
@@ -8618,12 +9185,12 @@
         <v>44106</v>
       </c>
       <c r="H15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>250</v>
@@ -8652,7 +9219,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -8675,7 +9242,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
         <v>252</v>
@@ -8707,8 +9274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="CB2" sqref="CB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8798,261 +9365,261 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="BA1" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="BV1" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" t="s">
         <v>736</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E2" t="s">
-        <v>737</v>
       </c>
       <c r="F2" s="4">
         <v>44614</v>
@@ -9061,73 +9628,73 @@
         <v>45373</v>
       </c>
       <c r="H2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I2" t="s">
         <v>231</v>
       </c>
       <c r="J2" t="s">
+        <v>738</v>
+      </c>
+      <c r="L2" t="s">
         <v>739</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>740</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>741</v>
       </c>
-      <c r="R2" t="s">
-        <v>742</v>
-      </c>
       <c r="S2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T2" s="4">
         <v>44615</v>
       </c>
       <c r="U2" t="s">
+        <v>742</v>
+      </c>
+      <c r="V2" t="s">
         <v>743</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>378</v>
+      </c>
+      <c r="X2" t="s">
         <v>744</v>
       </c>
-      <c r="W2" t="s">
-        <v>379</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>745</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>743</v>
+      </c>
+      <c r="AC2" t="s">
         <v>746</v>
       </c>
-      <c r="Z2" t="s">
-        <v>744</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>744</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF2" t="s">
         <v>747</v>
       </c>
-      <c r="AD2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>748</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>749</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>750</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>751</v>
       </c>
       <c r="AJ2">
         <v>11</v>
@@ -9151,37 +9718,37 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
+        <v>751</v>
+      </c>
+      <c r="AR2" t="s">
         <v>752</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>753</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>754</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>755</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>756</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>757</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>758</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>759</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>760</v>
       </c>
       <c r="AZ2">
         <v>3</v>
       </c>
       <c r="BA2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="BB2">
         <v>25000</v>
@@ -9190,10 +9757,10 @@
         <v>46003</v>
       </c>
       <c r="BD2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="BE2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="BF2">
         <v>205000</v>
@@ -9202,10 +9769,10 @@
         <v>46368</v>
       </c>
       <c r="BH2" t="s">
+        <v>762</v>
+      </c>
+      <c r="BI2" t="s">
         <v>763</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>764</v>
       </c>
       <c r="BJ2">
         <v>125000</v>
@@ -9214,10 +9781,10 @@
         <v>46733</v>
       </c>
       <c r="BL2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BM2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="BN2">
         <v>11000</v>
@@ -9226,13 +9793,13 @@
         <v>45272</v>
       </c>
       <c r="BP2" t="s">
+        <v>765</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>766</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>767</v>
-      </c>
       <c r="BR2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="BS2">
         <v>100000</v>
@@ -9241,13 +9808,13 @@
         <v>45729</v>
       </c>
       <c r="BU2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="BV2">
         <v>5</v>
       </c>
       <c r="BW2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BX2">
         <v>1</v>
@@ -9270,25 +9837,25 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D3" t="s">
+        <v>789</v>
+      </c>
+      <c r="U3" t="s">
         <v>770</v>
       </c>
-      <c r="D3" t="s">
-        <v>790</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>745</v>
+      </c>
+      <c r="W3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI3" t="s">
         <v>771</v>
-      </c>
-      <c r="V3" t="s">
-        <v>746</v>
-      </c>
-      <c r="W3" t="s">
-        <v>746</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>772</v>
       </c>
       <c r="AJ3">
         <v>12</v>
@@ -9312,19 +9879,19 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
+        <v>772</v>
+      </c>
+      <c r="AX3" t="s">
         <v>773</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>774</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>775</v>
       </c>
       <c r="AZ3">
         <v>3</v>
       </c>
       <c r="BM3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -9333,13 +9900,13 @@
         <v>44897</v>
       </c>
       <c r="BP3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="BV3">
         <v>4</v>
       </c>
       <c r="BW3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="BX3">
         <v>3</v>
@@ -9362,13 +9929,13 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D4" t="s">
         <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F4" s="4">
         <v>45058</v>
@@ -9377,19 +9944,19 @@
         <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Q4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AJ4">
         <v>16</v>
@@ -9413,19 +9980,19 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
+        <v>781</v>
+      </c>
+      <c r="AR4" t="s">
         <v>782</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>783</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>784</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BM4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="BN4">
         <v>35000</v>
@@ -9434,13 +10001,13 @@
         <v>45650</v>
       </c>
       <c r="BP4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BX4">
         <v>4</v>
@@ -9463,31 +10030,31 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D5" t="s">
         <v>308</v>
       </c>
       <c r="E5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F5" s="4">
         <v>45064</v>
       </c>
       <c r="J5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K5" t="s">
+        <v>891</v>
+      </c>
+      <c r="L5" t="s">
         <v>892</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>893</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>894</v>
-      </c>
-      <c r="P5" t="s">
-        <v>895</v>
       </c>
       <c r="AJ5">
         <v>13</v>
@@ -9537,25 +10104,25 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D6" t="s">
         <v>789</v>
       </c>
-      <c r="D6" t="s">
-        <v>790</v>
-      </c>
       <c r="E6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F6" s="4">
         <v>45063</v>
       </c>
       <c r="J6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L6" t="s">
+        <v>895</v>
+      </c>
+      <c r="P6" t="s">
         <v>896</v>
-      </c>
-      <c r="P6" t="s">
-        <v>897</v>
       </c>
       <c r="AJ6">
         <v>14</v>
@@ -9605,31 +10172,31 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D7" t="s">
         <v>791</v>
       </c>
-      <c r="D7" t="s">
-        <v>792</v>
-      </c>
       <c r="E7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F7" s="4">
         <v>45062</v>
       </c>
       <c r="J7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K7" t="s">
+        <v>897</v>
+      </c>
+      <c r="L7" t="s">
         <v>898</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>899</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>900</v>
-      </c>
-      <c r="P7" t="s">
-        <v>901</v>
       </c>
       <c r="AJ7">
         <v>15</v>
@@ -9704,118 +10271,118 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B2" t="s">
         <v>796</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>797</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>798</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>799</v>
-      </c>
-      <c r="E2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D3" t="s">
         <v>801</v>
       </c>
-      <c r="D3" t="s">
-        <v>802</v>
-      </c>
       <c r="E3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D4" t="s">
         <v>803</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>804</v>
-      </c>
-      <c r="E4" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D5" t="s">
         <v>806</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>807</v>
-      </c>
-      <c r="E5" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>802</v>
+      </c>
+      <c r="D6" t="s">
         <v>803</v>
       </c>
-      <c r="D6" t="s">
-        <v>804</v>
-      </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C7" t="s">
         <v>810</v>
       </c>
-      <c r="B7" t="s">
-        <v>797</v>
-      </c>
-      <c r="C7" t="s">
-        <v>811</v>
-      </c>
       <c r="D7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -9853,51 +10420,51 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D2" t="s">
         <v>824</v>
-      </c>
-      <c r="D2" t="s">
-        <v>825</v>
       </c>
       <c r="E2" s="11">
         <v>250</v>
@@ -9906,7 +10473,7 @@
         <v>44617</v>
       </c>
       <c r="G2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2" s="4">
         <v>44645</v>
@@ -9924,21 +10491,21 @@
         <v>44650</v>
       </c>
       <c r="M2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C3" t="s">
         <v>826</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>827</v>
-      </c>
-      <c r="D3" t="s">
-        <v>828</v>
       </c>
       <c r="E3" s="11">
         <v>632</v>
@@ -9947,7 +10514,7 @@
         <v>44645</v>
       </c>
       <c r="G3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H3" s="4">
         <v>44666</v>
@@ -9965,18 +10532,18 @@
         <v>44681</v>
       </c>
       <c r="M3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E4" s="11">
         <v>50.99</v>
@@ -9985,7 +10552,7 @@
         <v>44645</v>
       </c>
       <c r="G4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H4" s="4">
         <v>44666</v>
@@ -10003,18 +10570,18 @@
         <v>44681</v>
       </c>
       <c r="M4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E5" s="11">
         <v>3500.79</v>
@@ -10023,7 +10590,7 @@
         <v>45058</v>
       </c>
       <c r="G5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H5" s="4">
         <v>45076</v>
@@ -10041,7 +10608,7 @@
         <v>45078</v>
       </c>
       <c r="M5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -10055,7 +10622,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10077,30 +10644,30 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>836</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B2" s="4">
         <v>44614</v>
@@ -10109,24 +10676,24 @@
         <v>44673</v>
       </c>
       <c r="D2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E2">
         <v>2500</v>
       </c>
       <c r="F2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B3" s="4">
         <v>44703</v>
@@ -10135,24 +10702,24 @@
         <v>44742</v>
       </c>
       <c r="D3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E3">
         <v>3500</v>
       </c>
       <c r="F3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B4" s="4">
         <v>44614</v>
@@ -10161,24 +10728,24 @@
         <v>44673</v>
       </c>
       <c r="D4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
       <c r="F4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" s="4">
         <v>45058</v>
@@ -10187,24 +10754,24 @@
         <v>45334</v>
       </c>
       <c r="D5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E5">
         <v>120000</v>
       </c>
       <c r="F5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B6" s="4">
         <v>36690</v>
@@ -10213,19 +10780,19 @@
         <v>36720</v>
       </c>
       <c r="D6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E6">
         <v>3000</v>
       </c>
       <c r="F6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3769A-A24F-46CE-88B0-4E67B05D7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FAFDF-04FA-4688-9BF1-7A30397D9735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29844" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="934" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1118">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -1293,9 +1293,6 @@
     <t>RF Edit</t>
   </si>
   <si>
-    <t>007-310-374</t>
-  </si>
-  <si>
     <t>PropertyResearchRowEnd</t>
   </si>
   <si>
@@ -3385,6 +3382,33 @@
   </si>
   <si>
     <t>Automated existing organization - updated</t>
+  </si>
+  <si>
+    <t>CostType</t>
+  </si>
+  <si>
+    <t>WorkActivity</t>
+  </si>
+  <si>
+    <t>BusinessFunction</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>TRAINING</t>
+  </si>
+  <si>
+    <t>OPERATING CONTRACTS</t>
+  </si>
+  <si>
+    <t>FACILITIES REPAIR &amp; MAINTENANCE</t>
+  </si>
+  <si>
+    <t>COVID19</t>
+  </si>
+  <si>
+    <t>008-982-961</t>
   </si>
 </sst>
 </file>
@@ -3447,7 +3471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3464,7 +3488,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3820,7 +3843,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -4112,7 +4135,7 @@
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>67</v>
@@ -4367,7 +4390,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
@@ -4379,13 +4402,13 @@
         <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G6" t="s">
         <v>151</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
@@ -4395,7 +4418,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="R6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="S6" t="s">
         <v>114</v>
@@ -4404,10 +4427,10 @@
         <v>150</v>
       </c>
       <c r="U6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="V6" t="s">
         <v>1094</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1095</v>
       </c>
       <c r="X6" t="s">
         <v>188</v>
@@ -4428,7 +4451,7 @@
         <v>190</v>
       </c>
       <c r="AW6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
@@ -4484,36 +4507,36 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>851</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B2" s="4">
         <v>44616</v>
       </c>
       <c r="C2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D2">
         <v>2625</v>
@@ -4526,7 +4549,7 @@
         <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4534,13 +4557,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B3" s="4">
         <v>44623</v>
       </c>
       <c r="C3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -4552,7 +4575,7 @@
         <v>14.29</v>
       </c>
       <c r="G3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4560,13 +4583,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B4" s="4">
         <v>44630</v>
       </c>
       <c r="C4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -4578,7 +4601,7 @@
         <v>142.86000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4586,13 +4609,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" s="4">
         <v>45061</v>
       </c>
       <c r="C5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D5">
         <v>130000</v>
@@ -4604,7 +4627,7 @@
         <v>6190.48</v>
       </c>
       <c r="G5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4612,13 +4635,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B6" s="4">
         <v>36692</v>
       </c>
       <c r="C6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -4630,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4645,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4723,7 +4746,7 @@
         <v>366</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -4737,7 +4760,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
@@ -4793,7 +4816,7 @@
         <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F3" t="s">
         <v>318</v>
@@ -4904,7 +4927,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>305</v>
@@ -4972,61 +4995,61 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>916</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>351</v>
@@ -5034,22 +5057,22 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C2">
         <v>12570</v>
       </c>
       <c r="D2" t="s">
+        <v>916</v>
+      </c>
+      <c r="E2" t="s">
         <v>917</v>
       </c>
-      <c r="E2" t="s">
-        <v>918</v>
-      </c>
       <c r="F2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I2" s="4">
         <v>45287</v>
@@ -5058,16 +5081,16 @@
         <v>45352</v>
       </c>
       <c r="K2" t="s">
+        <v>920</v>
+      </c>
+      <c r="L2" t="s">
         <v>921</v>
-      </c>
-      <c r="L2" t="s">
-        <v>922</v>
       </c>
       <c r="M2" t="s">
         <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O2" t="s">
         <v>231</v>
@@ -5085,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="U2">
         <v>17</v>
@@ -5093,20 +5116,20 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
+        <v>45124</v>
       </c>
       <c r="I3" s="4">
         <v>45318</v>
@@ -5115,7 +5138,7 @@
         <v>45292</v>
       </c>
       <c r="K3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -5138,19 +5161,19 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K4" t="s">
+        <v>994</v>
+      </c>
+      <c r="M4" t="s">
         <v>995</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>996</v>
-      </c>
-      <c r="N4" t="s">
-        <v>997</v>
       </c>
       <c r="O4" t="s">
         <v>232</v>
@@ -5168,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="U4">
         <v>21</v>
@@ -5176,16 +5199,16 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B5" t="s">
         <v>308</v>
       </c>
       <c r="K5" t="s">
+        <v>966</v>
+      </c>
+      <c r="N5" t="s">
         <v>967</v>
-      </c>
-      <c r="N5" t="s">
-        <v>968</v>
       </c>
       <c r="O5" t="s">
         <v>233</v>
@@ -5231,29 +5254,29 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C3" t="s">
         <v>313</v>
@@ -5261,46 +5284,46 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B7" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7" t="s">
         <v>998</v>
-      </c>
-      <c r="C7" t="s">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -5343,28 +5366,28 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>938</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>939</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>941</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -5391,30 +5414,30 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>974</v>
+      </c>
+      <c r="E2" t="s">
         <v>975</v>
       </c>
-      <c r="E2" t="s">
-        <v>976</v>
-      </c>
       <c r="J2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M2" t="s">
         <v>89</v>
@@ -5426,10 +5449,10 @@
         <v>54</v>
       </c>
       <c r="Q2" t="s">
+        <v>985</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="S2">
         <v>4568853286</v>
@@ -5437,7 +5460,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5446,31 +5469,31 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G3" t="s">
+        <v>976</v>
+      </c>
+      <c r="H3" t="s">
         <v>977</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>978</v>
       </c>
-      <c r="I3" t="s">
-        <v>979</v>
-      </c>
       <c r="J3" t="s">
+        <v>981</v>
+      </c>
+      <c r="K3" t="s">
         <v>982</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>983</v>
-      </c>
-      <c r="L3" t="s">
-        <v>984</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -5482,7 +5505,7 @@
         <v>40000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="S3">
         <v>2348876890</v>
@@ -5490,7 +5513,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5499,16 +5522,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>999</v>
+      </c>
+      <c r="I4" t="s">
         <v>1000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1001</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>1002</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1003</v>
       </c>
       <c r="N4" t="s">
         <v>56</v>
@@ -5517,10 +5540,10 @@
         <v>54</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="S4">
         <v>6780909654</v>
@@ -5751,8 +5774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5806,7 +5829,7 @@
         <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2">
         <v>8157500</v>
@@ -5826,7 +5849,7 @@
         <v>411</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -5842,7 +5865,7 @@
         <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -5882,18 +5905,21 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C10">
+        <v>90077451</v>
+      </c>
+      <c r="D10" t="s">
         <v>1098</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
         <v>359</v>
@@ -5901,43 +5927,43 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>860</v>
+      </c>
+      <c r="B12" t="s">
         <v>861</v>
-      </c>
-      <c r="B12" t="s">
-        <v>862</v>
       </c>
       <c r="C12">
         <v>553490</v>
       </c>
       <c r="D12" t="s">
+        <v>862</v>
+      </c>
+      <c r="E12" t="s">
         <v>863</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>864</v>
-      </c>
-      <c r="F12" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>866</v>
+      </c>
+      <c r="B14" t="s">
         <v>867</v>
-      </c>
-      <c r="B14" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B15" t="s">
         <v>320</v>
@@ -5945,73 +5971,73 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>869</v>
+      </c>
+      <c r="B16" t="s">
         <v>870</v>
-      </c>
-      <c r="B16" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B17" t="s">
         <v>1018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>946</v>
+      </c>
+      <c r="B18" t="s">
         <v>947</v>
-      </c>
-      <c r="B18" t="s">
-        <v>948</v>
       </c>
       <c r="C18">
         <v>90077451</v>
       </c>
       <c r="D18" t="s">
+        <v>949</v>
+      </c>
+      <c r="E18" t="s">
         <v>950</v>
       </c>
-      <c r="E18" t="s">
-        <v>951</v>
-      </c>
       <c r="F18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>960</v>
+      </c>
+      <c r="B19" t="s">
         <v>961</v>
       </c>
-      <c r="B19" t="s">
-        <v>962</v>
-      </c>
       <c r="F19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>969</v>
+      </c>
+      <c r="B20" t="s">
         <v>970</v>
-      </c>
-      <c r="B20" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B21" t="s">
         <v>959</v>
-      </c>
-      <c r="B21" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>962</v>
+      </c>
+      <c r="B22" t="s">
         <v>963</v>
-      </c>
-      <c r="B22" t="s">
-        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -6183,16 +6209,16 @@
         <v>335</v>
       </c>
       <c r="M3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N3" t="s">
         <v>338</v>
       </c>
       <c r="O3" t="s">
+        <v>425</v>
+      </c>
+      <c r="P3" t="s">
         <v>426</v>
-      </c>
-      <c r="P3" t="s">
-        <v>427</v>
       </c>
       <c r="Q3" t="s">
         <v>339</v>
@@ -6218,22 +6244,22 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" t="s">
         <v>485</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>486</v>
-      </c>
-      <c r="D4" t="s">
-        <v>487</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
       </c>
       <c r="G4" t="s">
+        <v>487</v>
+      </c>
+      <c r="N4" t="s">
         <v>488</v>
-      </c>
-      <c r="N4" t="s">
-        <v>489</v>
       </c>
       <c r="T4">
         <v>65</v>
@@ -6248,45 +6274,45 @@
         <v>341</v>
       </c>
       <c r="X4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C5" t="s">
+        <v>951</v>
+      </c>
+      <c r="D5" t="s">
         <v>953</v>
       </c>
-      <c r="C5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D5" t="s">
-        <v>954</v>
-      </c>
       <c r="E5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
+        <v>954</v>
+      </c>
+      <c r="N5" t="s">
         <v>955</v>
       </c>
-      <c r="N5" t="s">
-        <v>956</v>
-      </c>
       <c r="O5" t="s">
+        <v>990</v>
+      </c>
+      <c r="P5" t="s">
         <v>991</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>992</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>993</v>
-      </c>
-      <c r="R5" t="s">
-        <v>994</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -6298,10 +6324,10 @@
         <v>125.78</v>
       </c>
       <c r="W5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="X5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -6315,7 +6341,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6330,15 +6356,15 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6349,7 +6375,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -6360,7 +6386,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -6371,7 +6397,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -6382,7 +6408,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -6393,7 +6419,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -6404,7 +6430,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B8">
         <v>52</v>
@@ -6415,7 +6441,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -6426,7 +6452,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B10">
         <v>57</v>
@@ -6437,7 +6463,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B11">
         <v>61</v>
@@ -6448,7 +6474,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B12">
         <v>64</v>
@@ -6466,9 +6492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665AEC9-C942-4A65-984C-CAD52F4E2CCE}">
   <dimension ref="A1:AX65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6505,151 +6531,151 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>289</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>268</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT1" s="12" t="s">
         <v>211</v>
       </c>
       <c r="AU1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>544</v>
-      </c>
       <c r="AW1" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
@@ -6658,13 +6684,13 @@
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
       </c>
       <c r="B2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
@@ -6673,19 +6699,19 @@
         <v>Lease &amp; Licenses - BC assessment search</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T3" t="s">
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AW3">
         <v>2000</v>
@@ -6697,13 +6723,13 @@
         <v>Lease &amp; Licenses - Briefing notes</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AS4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
@@ -6712,19 +6738,19 @@
         <v>Lease &amp; Licenses - Canada lands survey</v>
       </c>
       <c r="B5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D5" t="s">
+        <v>617</v>
+      </c>
+      <c r="S5" t="s">
         <v>618</v>
       </c>
-      <c r="S5" t="s">
-        <v>619</v>
-      </c>
       <c r="AS5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
@@ -6733,13 +6759,13 @@
         <v>Lease &amp; Licenses - Certificate of Insurance (H0111)</v>
       </c>
       <c r="B6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AS6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
@@ -6748,13 +6774,13 @@
         <v>Lease &amp; Licenses - Company search</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AS7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
@@ -6763,13 +6789,13 @@
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
       </c>
       <c r="B8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
@@ -6778,25 +6804,25 @@
         <v>Lease &amp; Licenses - Correspondence</v>
       </c>
       <c r="B9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G9" s="13">
         <v>37388</v>
       </c>
       <c r="AD9" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM9" t="s">
         <v>621</v>
       </c>
-      <c r="AM9" t="s">
-        <v>622</v>
-      </c>
       <c r="AS9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -6805,13 +6831,13 @@
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
       </c>
       <c r="B10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AS10" t="s">
         <v>1007</v>
-      </c>
-      <c r="C10" t="s">
-        <v>612</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -6820,13 +6846,13 @@
         <v>Lease &amp; Licenses - First nations consultation</v>
       </c>
       <c r="B11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AS11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
@@ -6835,10 +6861,10 @@
         <v>Lease &amp; Licenses - Gazette</v>
       </c>
       <c r="B12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N12" s="13">
         <v>40128</v>
@@ -6850,19 +6876,19 @@
         <v>40169</v>
       </c>
       <c r="Q12" t="s">
+        <v>627</v>
+      </c>
+      <c r="V12" t="s">
         <v>628</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>629</v>
-      </c>
-      <c r="W12" t="s">
-        <v>630</v>
       </c>
       <c r="Z12">
         <v>1276877</v>
       </c>
       <c r="AP12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -6871,22 +6897,22 @@
         <v>Lease &amp; Licenses - Historical file</v>
       </c>
       <c r="B13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K13" s="13">
         <v>36763</v>
       </c>
       <c r="M13" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE13" t="s">
         <v>632</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AR13" t="s">
         <v>633</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>634</v>
       </c>
       <c r="AT13" s="13">
         <v>36100</v>
@@ -6898,13 +6924,13 @@
         <v>Lease &amp; Licenses - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AS14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
@@ -6913,13 +6939,13 @@
         <v>Lease &amp; Licenses - Legal correspondence (ex: to AG/external lawyers)</v>
       </c>
       <c r="B15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
@@ -6928,19 +6954,19 @@
         <v>Lease &amp; Licenses - Legal survey plan</v>
       </c>
       <c r="B16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="V16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z16">
         <v>3435555</v>
       </c>
       <c r="AJ16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.35">
@@ -6949,13 +6975,13 @@
         <v>Lease &amp; Licenses - Licensing approval/sign-off</v>
       </c>
       <c r="B17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.35">
@@ -6964,13 +6990,13 @@
         <v>Lease &amp; Licenses - LTSA documents and plans (except title search)</v>
       </c>
       <c r="B18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AS18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.35">
@@ -6979,13 +7005,13 @@
         <v>Research File - Condition of entry (H0443)</v>
       </c>
       <c r="B19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.35">
@@ -6994,13 +7020,13 @@
         <v>Research File - Crown grant</v>
       </c>
       <c r="B20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.35">
@@ -7009,22 +7035,22 @@
         <v>Research File - District road register</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J21" t="s">
         <v>89</v>
       </c>
       <c r="R21" t="s">
+        <v>623</v>
+      </c>
+      <c r="AP21" t="s">
         <v>624</v>
       </c>
-      <c r="AP21" t="s">
-        <v>625</v>
-      </c>
       <c r="AS21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.35">
@@ -7033,22 +7059,22 @@
         <v>Research File - Field notes</v>
       </c>
       <c r="B22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C22" t="s">
+        <v>616</v>
+      </c>
+      <c r="I22" t="s">
         <v>617</v>
       </c>
-      <c r="I22" t="s">
-        <v>618</v>
-      </c>
       <c r="L22" t="s">
+        <v>625</v>
+      </c>
+      <c r="U22" t="s">
         <v>626</v>
       </c>
-      <c r="U22" t="s">
-        <v>627</v>
-      </c>
       <c r="AS22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.35">
@@ -7057,10 +7083,10 @@
         <v>Research File - Ministerial order</v>
       </c>
       <c r="B23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H23" s="13">
         <v>36534</v>
@@ -7069,13 +7095,13 @@
         <v>23456789</v>
       </c>
       <c r="Y23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AM23">
         <v>2334568</v>
       </c>
       <c r="AP23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.35">
@@ -7084,13 +7110,13 @@
         <v>Research File - Miscellaneous notes (LTSA)</v>
       </c>
       <c r="B24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.35">
@@ -7099,25 +7125,25 @@
         <v>Research File - MoTI plan</v>
       </c>
       <c r="B25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="V25" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y25" t="s">
         <v>640</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>641</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>642</v>
       </c>
       <c r="AN25" s="4">
         <v>36412</v>
       </c>
       <c r="AO25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.35">
@@ -7126,13 +7152,13 @@
         <v>Research File - Notice of claims/Litigation documents</v>
       </c>
       <c r="B26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.35">
@@ -7141,13 +7167,13 @@
         <v>Research File - Notice of possible entry (H0224)</v>
       </c>
       <c r="B27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AS27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
@@ -7156,22 +7182,22 @@
         <v>Research File - Order in Council (OIC)</v>
       </c>
       <c r="B28" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA28" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC28" t="s">
         <v>645</v>
       </c>
-      <c r="AB28" t="s">
-        <v>644</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AP28" t="s">
         <v>646</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>647</v>
       </c>
       <c r="AW28">
         <v>2023</v>
@@ -7186,19 +7212,19 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG29">
         <v>34567588</v>
       </c>
       <c r="AM29" t="s">
+        <v>647</v>
+      </c>
+      <c r="AP29" t="s">
         <v>648</v>
       </c>
-      <c r="AP29" t="s">
-        <v>649</v>
-      </c>
       <c r="AS29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
@@ -7207,13 +7233,13 @@
         <v>Research File - Owner agreement/offer</v>
       </c>
       <c r="B30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.35">
@@ -7222,22 +7248,22 @@
         <v>Research File - PA plans / Design drawings</v>
       </c>
       <c r="B31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AH31" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI31" t="s">
         <v>650</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>651</v>
       </c>
       <c r="AK31">
         <v>9222</v>
       </c>
       <c r="AL31" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.35">
@@ -7246,25 +7272,25 @@
         <v>Research File - Photos / Images / Video</v>
       </c>
       <c r="B32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G32" s="13">
         <v>42239</v>
       </c>
       <c r="AD32" t="s">
+        <v>653</v>
+      </c>
+      <c r="AM32" t="s">
         <v>654</v>
       </c>
-      <c r="AM32" t="s">
-        <v>655</v>
-      </c>
       <c r="AS32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
@@ -7273,10 +7299,10 @@
         <v>Research File - Privy council</v>
       </c>
       <c r="B33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AX33">
         <v>1997</v>
@@ -7288,25 +7314,25 @@
         <v>Research File - Transfer of administration</v>
       </c>
       <c r="B34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H34" s="13">
         <v>36841</v>
       </c>
       <c r="Y34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AM34" t="s">
         <v>1036</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AP34" t="s">
         <v>1037</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AV34" t="s">
         <v>1038</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -7315,13 +7341,13 @@
         <v>Acquisition File - Affidavit of service</v>
       </c>
       <c r="B35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AS35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -7330,13 +7356,13 @@
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
       </c>
       <c r="B36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS36" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -7345,13 +7371,13 @@
         <v>Acquisition File - Compensation cheque</v>
       </c>
       <c r="B37" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS37" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -7360,13 +7386,13 @@
         <v>Acquisition File - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS38" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
@@ -7375,13 +7401,13 @@
         <v>Acquisition File - Notice of advanced payment (Form 8)</v>
       </c>
       <c r="B39" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AS39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
@@ -7390,13 +7416,13 @@
         <v>Acquisition File - Notice of expropriation (Form 1)</v>
       </c>
       <c r="B40" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS40" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
@@ -7405,13 +7431,13 @@
         <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
       </c>
       <c r="B41" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AS41" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
@@ -7420,13 +7446,13 @@
         <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
       </c>
       <c r="B42" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AS42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
@@ -7435,13 +7461,13 @@
         <v>Acquisition File - Record of negotiation</v>
       </c>
       <c r="B43" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS43" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
@@ -7450,13 +7476,13 @@
         <v>Acquisition File - Release of claims</v>
       </c>
       <c r="B44" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
@@ -7465,13 +7491,13 @@
         <v>Acquisition File - Spending authority approval (SAA)</v>
       </c>
       <c r="B45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
@@ -7480,13 +7506,13 @@
         <v>Acquisition File - Surplus property declaration</v>
       </c>
       <c r="B46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AS46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
@@ -7495,13 +7521,13 @@
         <v>Acquisition File - Tax notices and assessments</v>
       </c>
       <c r="B47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C47" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
@@ -7510,13 +7536,13 @@
         <v>Acquisition File - Temporary license for construction access (H0074)</v>
       </c>
       <c r="B48" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AS48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.35">
@@ -7525,19 +7551,19 @@
         <v>Acquisition File - Title search / Historical title</v>
       </c>
       <c r="B49" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C49" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AD49" t="s">
+        <v>655</v>
+      </c>
+      <c r="AF49" t="s">
         <v>656</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AU49" t="s">
         <v>657</v>
-      </c>
-      <c r="AU49" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.35">
@@ -7546,144 +7572,144 @@
         <v>Acquisition File - Vesting notice (Form 9)</v>
       </c>
       <c r="B50" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AS50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG51">
         <v>676767776</v>
       </c>
       <c r="AM51" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AP51" t="s">
         <v>1011</v>
       </c>
-      <c r="AP51" t="s">
+      <c r="AS51" t="s">
         <v>1012</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C52" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I52" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L52" t="s">
+        <v>664</v>
+      </c>
+      <c r="U52" t="s">
         <v>665</v>
       </c>
-      <c r="U52" t="s">
+      <c r="AS52" t="s">
         <v>666</v>
-      </c>
-      <c r="AS52" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AS53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B54" t="s">
+        <v>555</v>
+      </c>
+      <c r="C54" t="s">
+        <v>613</v>
+      </c>
+      <c r="AS54" t="s">
         <v>1053</v>
-      </c>
-      <c r="B54" t="s">
-        <v>556</v>
-      </c>
-      <c r="C54" t="s">
-        <v>614</v>
-      </c>
-      <c r="AS54" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>559</v>
+      </c>
+      <c r="C55" t="s">
+        <v>614</v>
+      </c>
+      <c r="E55" t="s">
         <v>1055</v>
-      </c>
-      <c r="B55" t="s">
-        <v>560</v>
-      </c>
-      <c r="C55" t="s">
-        <v>615</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1056</v>
       </c>
       <c r="G55" s="13">
         <v>44174</v>
       </c>
       <c r="AD55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AS55" t="s">
         <v>1057</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C56" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS56" t="s">
         <v>1059</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C56" t="s">
-        <v>616</v>
-      </c>
-      <c r="AS56" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K57" s="13">
         <v>36872</v>
       </c>
       <c r="M57" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AR57" t="s">
         <v>1062</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>1063</v>
       </c>
       <c r="AT57" s="13">
         <v>36892</v>
@@ -7691,122 +7717,122 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B58" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" t="s">
+        <v>610</v>
+      </c>
+      <c r="AS58" t="s">
         <v>1064</v>
-      </c>
-      <c r="B58" t="s">
-        <v>569</v>
-      </c>
-      <c r="C58" t="s">
-        <v>611</v>
-      </c>
-      <c r="AS58" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B59" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C59" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="V59">
         <v>2347987</v>
       </c>
       <c r="Z59" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AJ59" t="s">
         <v>1067</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B60" t="s">
+        <v>574</v>
+      </c>
+      <c r="C60" t="s">
+        <v>612</v>
+      </c>
+      <c r="V60" t="s">
         <v>1069</v>
       </c>
-      <c r="B60" t="s">
-        <v>575</v>
-      </c>
-      <c r="C60" t="s">
-        <v>613</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="Y60" t="s">
         <v>1070</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>1071</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>1072</v>
       </c>
       <c r="AN60" s="4">
         <v>36872</v>
       </c>
       <c r="AO60" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AG61">
         <v>765356</v>
       </c>
       <c r="AM61" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AP61" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AS61" t="s">
         <v>1076</v>
-      </c>
-      <c r="AS61" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B62" t="s">
+        <v>578</v>
+      </c>
+      <c r="C62" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH62" t="s">
         <v>1078</v>
       </c>
-      <c r="B62" t="s">
-        <v>579</v>
-      </c>
-      <c r="C62" t="s">
-        <v>615</v>
-      </c>
-      <c r="AH62" t="s">
+      <c r="AI62" t="s">
         <v>1079</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>1080</v>
       </c>
       <c r="AK62">
         <v>333</v>
       </c>
       <c r="AL62" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B63" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63" t="s">
+        <v>615</v>
+      </c>
+      <c r="E63" t="s">
         <v>1082</v>
-      </c>
-      <c r="B63" t="s">
-        <v>580</v>
-      </c>
-      <c r="C63" t="s">
-        <v>616</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1083</v>
       </c>
       <c r="G63" s="13">
         <v>45085</v>
@@ -7815,35 +7841,35 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B64" t="s">
+        <v>581</v>
+      </c>
+      <c r="C64" t="s">
+        <v>616</v>
+      </c>
+      <c r="AS64" t="s">
         <v>1085</v>
-      </c>
-      <c r="B64" t="s">
-        <v>582</v>
-      </c>
-      <c r="C64" t="s">
-        <v>617</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B65" t="s">
+        <v>582</v>
+      </c>
+      <c r="C65" t="s">
+        <v>610</v>
+      </c>
+      <c r="AS65" t="s">
         <v>1087</v>
-      </c>
-      <c r="B65" t="s">
-        <v>583</v>
-      </c>
-      <c r="C65" t="s">
-        <v>611</v>
-      </c>
-      <c r="AS65" t="s">
-        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -7856,8 +7882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9B3A8-42C1-4A9C-B1C1-5E5E07CE0539}">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7919,7 +7945,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>40</v>
@@ -8234,7 +8260,7 @@
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -8302,23 +8328,23 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B5" t="s">
         <v>1100</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1103</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -8327,13 +8353,13 @@
         <v>130</v>
       </c>
       <c r="L5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AB5" t="s">
         <v>1105</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>1106</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1107</v>
       </c>
       <c r="AE5" t="s">
         <v>60</v>
@@ -8348,17 +8374,17 @@
         <v>61</v>
       </c>
       <c r="AJ5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AT5" t="s">
         <v>1108</v>
       </c>
-      <c r="AT5" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8392,7 +8418,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>301</v>
@@ -8400,7 +8426,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
         <v>345</v>
@@ -8408,34 +8434,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B6" t="s">
         <v>872</v>
-      </c>
-      <c r="B6" t="s">
-        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -8468,36 +8494,36 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" t="s">
         <v>499</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>500</v>
-      </c>
-      <c r="D2" t="s">
-        <v>501</v>
       </c>
       <c r="F2" s="4">
         <v>45701</v>
@@ -8508,13 +8534,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8525,10 +8551,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12A4D20-CBEC-42E3-9A24-C9C857FE01F3}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8540,13 +8566,14 @@
     <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="22.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>201</v>
       </c>
@@ -8560,7 +8587,7 @@
         <v>218</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>202</v>
@@ -8568,20 +8595,29 @@
       <c r="G1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8604,20 +8640,29 @@
       <c r="G2" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>238</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -8640,20 +8685,23 @@
       <c r="G3" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>238</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -8676,20 +8724,23 @@
       <c r="G4" t="s">
         <v>236</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>238</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -8712,22 +8763,25 @@
       <c r="G5" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>238</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>219</v>
@@ -8748,16 +8802,16 @@
       <c r="G6" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>238</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>3</v>
       </c>
     </row>
@@ -8820,7 +8874,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
         <v>242</v>
@@ -8849,7 +8903,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
         <v>243</v>
@@ -8878,7 +8932,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
         <v>244</v>
@@ -8907,16 +8961,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" t="s">
         <v>448</v>
       </c>
-      <c r="C5" t="s">
-        <v>449</v>
-      </c>
       <c r="D5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E5" s="4">
         <v>45075</v>
@@ -8928,21 +8982,21 @@
         <v>45076</v>
       </c>
       <c r="H5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E6" s="4">
         <v>43831</v>
@@ -8954,21 +9008,21 @@
         <v>43832</v>
       </c>
       <c r="H6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E7" s="4">
         <v>43862</v>
@@ -8980,21 +9034,21 @@
         <v>43863</v>
       </c>
       <c r="I7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E8" s="4">
         <v>43891</v>
@@ -9006,21 +9060,21 @@
         <v>43892</v>
       </c>
       <c r="H8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E9" s="4">
         <v>43922</v>
@@ -9032,21 +9086,21 @@
         <v>43923</v>
       </c>
       <c r="H9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E10" s="4">
         <v>43952</v>
@@ -9060,16 +9114,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E11" s="4">
         <v>43983</v>
@@ -9081,21 +9135,21 @@
         <v>43984</v>
       </c>
       <c r="H11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E12" s="4">
         <v>44013</v>
@@ -9107,21 +9161,21 @@
         <v>44014</v>
       </c>
       <c r="H12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E13" s="4">
         <v>44044</v>
@@ -9133,21 +9187,21 @@
         <v>44045</v>
       </c>
       <c r="I13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E14" s="4">
         <v>44075</v>
@@ -9159,21 +9213,21 @@
         <v>44076</v>
       </c>
       <c r="H14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E15" s="4">
         <v>44105</v>
@@ -9185,12 +9239,12 @@
         <v>44106</v>
       </c>
       <c r="H15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s">
         <v>250</v>
@@ -9219,7 +9273,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -9242,7 +9296,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" t="s">
         <v>252</v>
@@ -9274,8 +9328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9365,249 +9419,249 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>361</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>351</v>
       </c>
       <c r="AK1" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="BA1" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="BV1" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
         <v>225</v>
@@ -9616,10 +9670,10 @@
         <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F2" s="4">
         <v>44614</v>
@@ -9628,55 +9682,55 @@
         <v>45373</v>
       </c>
       <c r="H2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I2" t="s">
         <v>231</v>
       </c>
       <c r="J2" t="s">
+        <v>737</v>
+      </c>
+      <c r="L2" t="s">
         <v>738</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>739</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>740</v>
       </c>
-      <c r="R2" t="s">
-        <v>741</v>
-      </c>
       <c r="S2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T2" s="4">
         <v>44615</v>
       </c>
       <c r="U2" t="s">
+        <v>741</v>
+      </c>
+      <c r="V2" t="s">
         <v>742</v>
-      </c>
-      <c r="V2" t="s">
-        <v>743</v>
       </c>
       <c r="W2" t="s">
         <v>378</v>
       </c>
       <c r="X2" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y2" t="s">
         <v>744</v>
       </c>
-      <c r="Y2" t="s">
-        <v>745</v>
-      </c>
       <c r="Z2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AA2" t="s">
         <v>378</v>
       </c>
       <c r="AB2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AC2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AD2" t="s">
         <v>335</v>
@@ -9685,16 +9739,16 @@
         <v>337</v>
       </c>
       <c r="AF2" t="s">
+        <v>746</v>
+      </c>
+      <c r="AG2" t="s">
         <v>747</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>748</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>749</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>750</v>
       </c>
       <c r="AJ2">
         <v>11</v>
@@ -9718,37 +9772,37 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
+        <v>750</v>
+      </c>
+      <c r="AR2" t="s">
         <v>751</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>752</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>753</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>754</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>755</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>756</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>757</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>758</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>759</v>
       </c>
       <c r="AZ2">
         <v>3</v>
       </c>
       <c r="BA2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="BB2">
         <v>25000</v>
@@ -9757,10 +9811,10 @@
         <v>46003</v>
       </c>
       <c r="BD2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="BE2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="BF2">
         <v>205000</v>
@@ -9769,10 +9823,10 @@
         <v>46368</v>
       </c>
       <c r="BH2" t="s">
+        <v>761</v>
+      </c>
+      <c r="BI2" t="s">
         <v>762</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>763</v>
       </c>
       <c r="BJ2">
         <v>125000</v>
@@ -9781,10 +9835,10 @@
         <v>46733</v>
       </c>
       <c r="BL2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="BM2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="BN2">
         <v>11000</v>
@@ -9793,13 +9847,13 @@
         <v>45272</v>
       </c>
       <c r="BP2" t="s">
+        <v>764</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>765</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>766</v>
-      </c>
       <c r="BR2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="BS2">
         <v>100000</v>
@@ -9808,13 +9862,13 @@
         <v>45729</v>
       </c>
       <c r="BU2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="BV2">
         <v>5</v>
       </c>
       <c r="BW2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="BX2">
         <v>1</v>
@@ -9837,25 +9891,25 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D3" t="s">
+        <v>788</v>
+      </c>
+      <c r="U3" t="s">
         <v>769</v>
       </c>
-      <c r="D3" t="s">
-        <v>789</v>
-      </c>
-      <c r="U3" t="s">
-        <v>770</v>
-      </c>
       <c r="V3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AE3" t="s">
         <v>335</v>
       </c>
       <c r="AI3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AJ3">
         <v>12</v>
@@ -9879,19 +9933,19 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
+        <v>771</v>
+      </c>
+      <c r="AX3" t="s">
         <v>772</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>773</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>774</v>
       </c>
       <c r="AZ3">
         <v>3</v>
       </c>
       <c r="BM3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -9900,13 +9954,13 @@
         <v>44897</v>
       </c>
       <c r="BP3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="BV3">
         <v>4</v>
       </c>
       <c r="BW3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="BX3">
         <v>3</v>
@@ -9929,13 +9983,13 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D4" t="s">
         <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F4" s="4">
         <v>45058</v>
@@ -9944,19 +9998,19 @@
         <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Q4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AJ4">
         <v>16</v>
@@ -9980,19 +10034,19 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
+        <v>780</v>
+      </c>
+      <c r="AR4" t="s">
         <v>781</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>782</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>783</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BM4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="BN4">
         <v>35000</v>
@@ -10001,13 +10055,13 @@
         <v>45650</v>
       </c>
       <c r="BP4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="BX4">
         <v>4</v>
@@ -10030,31 +10084,31 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D5" t="s">
         <v>308</v>
       </c>
       <c r="E5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F5" s="4">
         <v>45064</v>
       </c>
       <c r="J5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K5" t="s">
+        <v>890</v>
+      </c>
+      <c r="L5" t="s">
         <v>891</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>892</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>893</v>
-      </c>
-      <c r="P5" t="s">
-        <v>894</v>
       </c>
       <c r="AJ5">
         <v>13</v>
@@ -10104,25 +10158,25 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" t="s">
         <v>788</v>
       </c>
-      <c r="D6" t="s">
-        <v>789</v>
-      </c>
       <c r="E6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F6" s="4">
         <v>45063</v>
       </c>
       <c r="J6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L6" t="s">
+        <v>894</v>
+      </c>
+      <c r="P6" t="s">
         <v>895</v>
-      </c>
-      <c r="P6" t="s">
-        <v>896</v>
       </c>
       <c r="AJ6">
         <v>14</v>
@@ -10172,31 +10226,31 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D7" t="s">
         <v>790</v>
       </c>
-      <c r="D7" t="s">
-        <v>791</v>
-      </c>
       <c r="E7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F7" s="4">
         <v>45062</v>
       </c>
       <c r="J7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K7" t="s">
+        <v>896</v>
+      </c>
+      <c r="L7" t="s">
         <v>897</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>898</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>899</v>
-      </c>
-      <c r="P7" t="s">
-        <v>900</v>
       </c>
       <c r="AJ7">
         <v>15</v>
@@ -10254,7 +10308,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10271,98 +10325,98 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2" t="s">
         <v>795</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>796</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>797</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>798</v>
-      </c>
-      <c r="E2" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D3" t="s">
         <v>800</v>
       </c>
-      <c r="D3" t="s">
-        <v>801</v>
-      </c>
       <c r="E3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4" t="s">
         <v>802</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>803</v>
-      </c>
-      <c r="E4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D5" t="s">
         <v>805</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>806</v>
-      </c>
-      <c r="E5" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D6" t="s">
         <v>802</v>
-      </c>
-      <c r="D6" t="s">
-        <v>803</v>
       </c>
       <c r="E6" t="s">
         <v>378</v>
@@ -10370,19 +10424,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C7" t="s">
         <v>809</v>
       </c>
-      <c r="B7" t="s">
-        <v>796</v>
-      </c>
-      <c r="C7" t="s">
-        <v>810</v>
-      </c>
       <c r="D7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -10420,51 +10474,51 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D2" t="s">
         <v>823</v>
-      </c>
-      <c r="D2" t="s">
-        <v>824</v>
       </c>
       <c r="E2" s="11">
         <v>250</v>
@@ -10473,7 +10527,7 @@
         <v>44617</v>
       </c>
       <c r="G2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2" s="4">
         <v>44645</v>
@@ -10491,21 +10545,21 @@
         <v>44650</v>
       </c>
       <c r="M2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C3" t="s">
         <v>825</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>826</v>
-      </c>
-      <c r="D3" t="s">
-        <v>827</v>
       </c>
       <c r="E3" s="11">
         <v>632</v>
@@ -10514,7 +10568,7 @@
         <v>44645</v>
       </c>
       <c r="G3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H3" s="4">
         <v>44666</v>
@@ -10532,18 +10586,18 @@
         <v>44681</v>
       </c>
       <c r="M3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E4" s="11">
         <v>50.99</v>
@@ -10552,7 +10606,7 @@
         <v>44645</v>
       </c>
       <c r="G4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H4" s="4">
         <v>44666</v>
@@ -10570,18 +10624,18 @@
         <v>44681</v>
       </c>
       <c r="M4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E5" s="11">
         <v>3500.79</v>
@@ -10590,7 +10644,7 @@
         <v>45058</v>
       </c>
       <c r="G5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H5" s="4">
         <v>45076</v>
@@ -10608,7 +10662,7 @@
         <v>45078</v>
       </c>
       <c r="M5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -10622,7 +10676,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10644,30 +10698,30 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>835</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2" s="4">
         <v>44614</v>
@@ -10676,50 +10730,50 @@
         <v>44673</v>
       </c>
       <c r="D2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E2">
         <v>2500</v>
       </c>
       <c r="F2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B3" s="4">
-        <v>44703</v>
+        <v>44704</v>
       </c>
       <c r="C3" s="4">
         <v>44742</v>
       </c>
       <c r="D3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E3">
         <v>3500</v>
       </c>
       <c r="F3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B4" s="4">
         <v>44614</v>
@@ -10728,24 +10782,24 @@
         <v>44673</v>
       </c>
       <c r="D4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
       <c r="F4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" s="4">
         <v>45058</v>
@@ -10754,24 +10808,24 @@
         <v>45334</v>
       </c>
       <c r="D5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E5">
         <v>120000</v>
       </c>
       <c r="F5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B6" s="4">
         <v>36690</v>
@@ -10780,19 +10834,19 @@
         <v>36720</v>
       </c>
       <c r="D6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E6">
         <v>3000</v>
       </c>
       <c r="F6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FAFDF-04FA-4688-9BF1-7A30397D9735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C4B24C-6824-416A-AE05-91DBF0379261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1122">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -3306,9 +3306,6 @@
     <t>1190 Hornby St.</t>
   </si>
   <si>
-    <t>Inserting  photos on a project</t>
-  </si>
-  <si>
     <t>Project - Spending authority approval (SAA)</t>
   </si>
   <si>
@@ -3409,6 +3406,21 @@
   </si>
   <si>
     <t>008-982-961</t>
+  </si>
+  <si>
+    <t>Inserting photos on a project</t>
+  </si>
+  <si>
+    <t>ProjectMOTIRegion</t>
+  </si>
+  <si>
+    <t>Update Digital Document into a Project</t>
+  </si>
+  <si>
+    <t>Project - Briefing notes</t>
+  </si>
+  <si>
+    <t>Updating previously inserted Document in a project</t>
   </si>
 </sst>
 </file>
@@ -3772,58 +3784,59 @@
   <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.6328125" customWidth="1"/>
-    <col min="12" max="12" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.36328125" customWidth="1"/>
-    <col min="18" max="18" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.36328125" customWidth="1"/>
-    <col min="21" max="21" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.90625" customWidth="1"/>
-    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="19.90625" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="19.85546875" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19" customWidth="1"/>
-    <col min="45" max="45" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="67.90625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -3972,7 +3985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -4243,7 +4256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -4308,7 +4321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -4388,9 +4401,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
@@ -4402,13 +4415,13 @@
         <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G6" t="s">
         <v>151</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
@@ -4418,7 +4431,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="R6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="S6" t="s">
         <v>114</v>
@@ -4427,10 +4440,10 @@
         <v>150</v>
       </c>
       <c r="U6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="V6" t="s">
         <v>1093</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1094</v>
       </c>
       <c r="X6" t="s">
         <v>188</v>
@@ -4451,10 +4464,10 @@
         <v>190</v>
       </c>
       <c r="AW6" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -4490,19 +4503,19 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -4528,7 +4541,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>852</v>
       </c>
@@ -4555,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>852</v>
       </c>
@@ -4581,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>857</v>
       </c>
@@ -4607,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -4633,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>885</v>
       </c>
@@ -4672,28 +4685,28 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="63.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -4749,7 +4762,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -4805,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -4849,7 +4862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -4902,7 +4915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -4925,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>422</v>
       </c>
@@ -4962,35 +4975,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.36328125" customWidth="1"/>
-    <col min="11" max="11" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.54296875" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -5013,7 +5026,7 @@
         <v>972</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>906</v>
@@ -5034,7 +5047,7 @@
         <v>911</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>913</v>
@@ -5055,7 +5068,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>919</v>
       </c>
@@ -5063,7 +5076,7 @@
         <v>924</v>
       </c>
       <c r="C2">
-        <v>12570</v>
+        <v>5512570</v>
       </c>
       <c r="D2" t="s">
         <v>916</v>
@@ -5114,7 +5127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>964</v>
       </c>
@@ -5129,7 +5142,7 @@
       </c>
       <c r="H3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="I3" s="4">
         <v>45318</v>
@@ -5159,7 +5172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>962</v>
       </c>
@@ -5197,7 +5210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>965</v>
       </c>
@@ -5243,13 +5256,13 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -5260,7 +5273,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>919</v>
       </c>
@@ -5271,7 +5284,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>919</v>
       </c>
@@ -5282,7 +5295,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>919</v>
       </c>
@@ -5293,7 +5306,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>919</v>
       </c>
@@ -5304,7 +5317,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>919</v>
       </c>
@@ -5315,7 +5328,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>960</v>
       </c>
@@ -5339,29 +5352,29 @@
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.90625" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -5420,7 +5433,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>919</v>
       </c>
@@ -5458,7 +5471,7 @@
         <v>4568853286</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>919</v>
       </c>
@@ -5511,7 +5524,7 @@
         <v>2348876890</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>960</v>
       </c>
@@ -5549,7 +5562,7 @@
         <v>6780909654</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q5" s="2"/>
     </row>
   </sheetData>
@@ -5569,18 +5582,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -5603,7 +5616,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>367</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>367</v>
       </c>
@@ -5649,7 +5662,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>367</v>
       </c>
@@ -5672,7 +5685,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>367</v>
       </c>
@@ -5695,7 +5708,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>367</v>
       </c>
@@ -5718,7 +5731,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -5741,7 +5754,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -5774,37 +5787,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="54.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -5824,7 +5837,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -5844,15 +5857,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>411</v>
       </c>
       <c r="B3" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>356</v>
       </c>
@@ -5860,7 +5873,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -5868,7 +5881,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>358</v>
       </c>
@@ -5879,7 +5892,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>349</v>
       </c>
@@ -5887,7 +5900,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -5895,7 +5908,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>348</v>
       </c>
@@ -5903,21 +5916,21 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>483</v>
       </c>
       <c r="B10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>489</v>
       </c>
@@ -5925,7 +5938,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>860</v>
       </c>
@@ -5945,7 +5958,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>807</v>
       </c>
@@ -5953,7 +5966,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>866</v>
       </c>
@@ -5961,7 +5974,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>868</v>
       </c>
@@ -5969,7 +5982,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>869</v>
       </c>
@@ -5977,7 +5990,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1017</v>
       </c>
@@ -5985,7 +5998,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>946</v>
       </c>
@@ -6005,7 +6018,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>960</v>
       </c>
@@ -6016,7 +6029,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>969</v>
       </c>
@@ -6024,7 +6037,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>958</v>
       </c>
@@ -6032,7 +6045,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>962</v>
       </c>
@@ -6053,49 +6066,49 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="27.36328125" customWidth="1"/>
-    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="83.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="27.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -6169,7 +6182,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>409</v>
       </c>
@@ -6177,7 +6190,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>333</v>
       </c>
@@ -6242,7 +6255,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>484</v>
       </c>
@@ -6277,7 +6290,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>918</v>
       </c>
@@ -6338,20 +6351,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69AB3B-3A11-477C-A201-8388519D3807}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -6362,7 +6375,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1049</v>
       </c>
@@ -6373,7 +6386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1050</v>
       </c>
@@ -6384,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>547</v>
       </c>
@@ -6395,7 +6408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>550</v>
       </c>
@@ -6406,7 +6419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>549</v>
       </c>
@@ -6417,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>548</v>
       </c>
@@ -6428,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>551</v>
       </c>
@@ -6439,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1051</v>
       </c>
@@ -6450,37 +6463,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1051</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1051</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1051</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6490,43 +6514,43 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665AEC9-C942-4A65-984C-CAD52F4E2CCE}">
-  <dimension ref="A1:AX65"/>
+  <dimension ref="A1:AX66"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA53" sqref="AA53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.1796875" customWidth="1"/>
-    <col min="7" max="8" width="19.1796875" style="13" customWidth="1"/>
-    <col min="9" max="10" width="19.1796875" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="13" customWidth="1"/>
-    <col min="12" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="13" customWidth="1"/>
-    <col min="15" max="15" width="19.1796875" customWidth="1"/>
-    <col min="16" max="16" width="20.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.1796875" customWidth="1"/>
-    <col min="19" max="19" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="30" width="19.1796875" customWidth="1"/>
-    <col min="31" max="31" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="19.1796875" customWidth="1"/>
-    <col min="35" max="35" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="41" width="19.1796875" customWidth="1"/>
-    <col min="42" max="42" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="19.1796875" customWidth="1"/>
+    <col min="4" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" style="13" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="13" customWidth="1"/>
+    <col min="12" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="19.140625" customWidth="1"/>
+    <col min="31" max="31" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="19.140625" customWidth="1"/>
+    <col min="35" max="35" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="19.140625" customWidth="1"/>
+    <col min="42" max="42" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="19.140625" customWidth="1"/>
     <col min="45" max="45" width="77" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -6678,7 +6702,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("Lease &amp; Licenses - ",B2)</f>
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
@@ -6693,7 +6717,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A18" si="0">CONCATENATE("Lease &amp; Licenses - ",B3)</f>
         <v>Lease &amp; Licenses - BC assessment search</v>
@@ -6717,7 +6741,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Briefing notes</v>
@@ -6732,7 +6756,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Canada lands survey</v>
@@ -6753,7 +6777,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Certificate of Insurance (H0111)</v>
@@ -6768,7 +6792,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Company search</v>
@@ -6783,7 +6807,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
@@ -6798,7 +6822,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Correspondence</v>
@@ -6825,7 +6849,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
@@ -6840,7 +6864,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - First nations consultation</v>
@@ -6855,7 +6879,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Gazette</v>
@@ -6891,7 +6915,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Historical file</v>
@@ -6918,7 +6942,7 @@
         <v>36100</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Lease / License (H1005/H1005A)</v>
@@ -6933,7 +6957,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Legal correspondence (ex: to AG/external lawyers)</v>
@@ -6948,7 +6972,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Legal survey plan</v>
@@ -6969,7 +6993,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Licensing approval/sign-off</v>
@@ -6984,7 +7008,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - LTSA documents and plans (except title search)</v>
@@ -6999,7 +7023,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A24" si="1">CONCATENATE("Research File - ",B19)</f>
         <v>Research File - Condition of entry (H0443)</v>
@@ -7014,7 +7038,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Crown grant</v>
@@ -7029,7 +7053,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v>Research File - District road register</v>
@@ -7053,7 +7077,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Field notes</v>
@@ -7077,7 +7101,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Ministerial order</v>
@@ -7104,7 +7128,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Miscellaneous notes (LTSA)</v>
@@ -7119,7 +7143,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A34" si="2">CONCATENATE("Research File - ",B25)</f>
         <v>Research File - MoTI plan</v>
@@ -7146,7 +7170,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Notice of claims/Litigation documents</v>
@@ -7161,7 +7185,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Notice of possible entry (H0224)</v>
@@ -7176,7 +7200,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Order in Council (OIC)</v>
@@ -7203,7 +7227,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Other</v>
@@ -7227,7 +7251,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Owner agreement/offer</v>
@@ -7242,7 +7266,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>Research File - PA plans / Design drawings</v>
@@ -7266,7 +7290,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Photos / Images / Video</v>
@@ -7293,7 +7317,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Privy council</v>
@@ -7308,7 +7332,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Transfer of administration</v>
@@ -7335,7 +7359,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>CONCATENATE("Acquisition File - ",B35)</f>
         <v>Acquisition File - Affidavit of service</v>
@@ -7350,7 +7374,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>CONCATENATE("Acquisition File - ",B36)</f>
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
@@ -7365,7 +7389,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>CONCATENATE("Acquisition File - ",B37)</f>
         <v>Acquisition File - Compensation cheque</v>
@@ -7380,7 +7404,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>CONCATENATE("Acquisition File - ",B38)</f>
         <v>Acquisition File - Lease / License (H1005/H1005A)</v>
@@ -7395,7 +7419,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A50" si="3">CONCATENATE("Acquisition File - ",B39)</f>
         <v>Acquisition File - Notice of advanced payment (Form 8)</v>
@@ -7410,7 +7434,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Notice of expropriation (Form 1)</v>
@@ -7425,7 +7449,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
@@ -7440,7 +7464,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
@@ -7455,7 +7479,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Record of negotiation</v>
@@ -7470,7 +7494,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Release of claims</v>
@@ -7485,7 +7509,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Spending authority approval (SAA)</v>
@@ -7500,7 +7524,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Surplus property declaration</v>
@@ -7515,7 +7539,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Tax notices and assessments</v>
@@ -7530,7 +7554,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Temporary license for construction access (H0074)</v>
@@ -7545,7 +7569,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Title search / Historical title</v>
@@ -7566,7 +7590,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Vesting notice (Form 9)</v>
@@ -7581,7 +7605,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1030</v>
       </c>
@@ -7604,7 +7628,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1031</v>
       </c>
@@ -7627,7 +7651,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1032</v>
       </c>
@@ -7641,7 +7665,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1052</v>
       </c>
@@ -7655,7 +7679,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1054</v>
       </c>
@@ -7678,7 +7702,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1058</v>
       </c>
@@ -7692,7 +7716,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1060</v>
       </c>
@@ -7715,7 +7739,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1063</v>
       </c>
@@ -7729,7 +7753,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1065</v>
       </c>
@@ -7749,7 +7773,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1068</v>
       </c>
@@ -7775,7 +7799,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1074</v>
       </c>
@@ -7798,7 +7822,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1077</v>
       </c>
@@ -7821,7 +7845,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1081</v>
       </c>
@@ -7841,12 +7865,12 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>1083</v>
-      </c>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>1084</v>
       </c>
       <c r="B64" t="s">
         <v>581</v>
@@ -7855,12 +7879,12 @@
         <v>616</v>
       </c>
       <c r="AS64" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>1085</v>
-      </c>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>1086</v>
       </c>
       <c r="B65" t="s">
         <v>582</v>
@@ -7869,7 +7893,21 @@
         <v>610</v>
       </c>
       <c r="AS65" t="s">
-        <v>1087</v>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>555</v>
+      </c>
+      <c r="C66" t="s">
+        <v>614</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -7883,55 +7921,55 @@
   <dimension ref="A1:AT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.81640625" customWidth="1"/>
-    <col min="21" max="21" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="20.1796875" customWidth="1"/>
-    <col min="31" max="31" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="18.1796875" customWidth="1"/>
-    <col min="40" max="40" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="55.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="20.140625" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="18.140625" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -8071,7 +8109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -8202,7 +8240,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -8255,12 +8293,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -8326,25 +8364,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B5" t="s">
         <v>1099</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1100</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1102</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -8353,13 +8391,19 @@
         <v>130</v>
       </c>
       <c r="L5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB5" t="s">
         <v>1104</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>1105</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1106</v>
       </c>
       <c r="AE5" t="s">
         <v>60</v>
@@ -8374,13 +8418,13 @@
         <v>61</v>
       </c>
       <c r="AJ5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AT5" t="s">
         <v>1107</v>
       </c>
-      <c r="AT5" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -8410,13 +8454,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>427</v>
       </c>
@@ -8424,7 +8468,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -8432,7 +8476,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -8440,7 +8484,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -8448,7 +8492,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -8456,7 +8500,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>871</v>
       </c>
@@ -8478,18 +8522,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -8512,7 +8556,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -8532,7 +8576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>497</v>
       </c>
@@ -8554,26 +8598,26 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="22.7265625" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>201</v>
       </c>
@@ -8590,19 +8634,19 @@
         <v>661</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>202</v>
+        <v>1118</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>208</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1110</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1111</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>209</v>
@@ -8617,7 +8661,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8641,13 +8685,13 @@
         <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J2" t="s">
         <v>1115</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1116</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>238</v>
@@ -8662,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -8686,7 +8730,7 @@
         <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>238</v>
@@ -8701,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -8725,7 +8769,7 @@
         <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>238</v>
@@ -8740,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -8764,7 +8808,7 @@
         <v>237</v>
       </c>
       <c r="J5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>238</v>
@@ -8779,7 +8823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>435</v>
       </c>
@@ -8830,20 +8874,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -8872,7 +8916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>415</v>
       </c>
@@ -8901,7 +8945,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>416</v>
       </c>
@@ -8930,7 +8974,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>417</v>
       </c>
@@ -8959,7 +9003,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -8985,7 +9029,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>437</v>
       </c>
@@ -9011,7 +9055,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>438</v>
       </c>
@@ -9037,7 +9081,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>439</v>
       </c>
@@ -9063,7 +9107,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>440</v>
       </c>
@@ -9089,7 +9133,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -9112,7 +9156,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>442</v>
       </c>
@@ -9138,7 +9182,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>443</v>
       </c>
@@ -9164,7 +9208,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>444</v>
       </c>
@@ -9190,7 +9234,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>445</v>
       </c>
@@ -9216,7 +9260,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>446</v>
       </c>
@@ -9242,7 +9286,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -9271,7 +9315,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>419</v>
       </c>
@@ -9294,7 +9338,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>420</v>
       </c>
@@ -9328,93 +9372,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="22.453125" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="56" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="50" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.6328125" customWidth="1"/>
-    <col min="60" max="60" width="61.1796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="42.26953125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="48.81640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="53.26953125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" customWidth="1"/>
+    <col min="60" max="60" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="17" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -9659,7 +9703,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>734</v>
       </c>
@@ -9889,7 +9933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>768</v>
       </c>
@@ -9981,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>776</v>
       </c>
@@ -10082,7 +10126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>785</v>
       </c>
@@ -10156,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -10224,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>789</v>
       </c>
@@ -10311,16 +10355,15 @@
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -10337,7 +10380,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>794</v>
       </c>
@@ -10354,7 +10397,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>794</v>
       </c>
@@ -10371,7 +10414,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>794</v>
       </c>
@@ -10388,7 +10431,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>794</v>
       </c>
@@ -10405,7 +10448,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>807</v>
       </c>
@@ -10422,7 +10465,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>808</v>
       </c>
@@ -10452,24 +10495,24 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -10510,7 +10553,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>734</v>
       </c>
@@ -10548,7 +10591,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>734</v>
       </c>
@@ -10589,7 +10632,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>807</v>
       </c>
@@ -10627,7 +10670,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -10679,21 +10722,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -10719,7 +10762,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>734</v>
       </c>
@@ -10745,7 +10788,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>734</v>
       </c>
@@ -10771,7 +10814,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>843</v>
       </c>
@@ -10797,7 +10840,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -10823,7 +10866,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>885</v>
       </c>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C4B24C-6824-416A-AE05-91DBF0379261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24E76D-9993-449B-987D-176E71F78A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualContacts" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,19 @@
     <sheet name="LeasesTerms" sheetId="17" r:id="rId9"/>
     <sheet name="LeasesPayments" sheetId="18" r:id="rId10"/>
     <sheet name="ResearchFiles" sheetId="5" r:id="rId11"/>
-    <sheet name="AcquisitionFiles" sheetId="19" r:id="rId12"/>
-    <sheet name="AcquisitionTeams" sheetId="20" r:id="rId13"/>
-    <sheet name="AcquisitionOwners" sheetId="21" r:id="rId14"/>
-    <sheet name="PropertyResearch" sheetId="9" r:id="rId15"/>
+    <sheet name="PropertyResearch" sheetId="9" r:id="rId12"/>
+    <sheet name="AcquisitionFiles" sheetId="19" r:id="rId13"/>
+    <sheet name="AcquisitionTeams" sheetId="20" r:id="rId14"/>
+    <sheet name="AcquisitionOwners" sheetId="21" r:id="rId15"/>
     <sheet name="SearchProperties" sheetId="8" r:id="rId16"/>
     <sheet name="Properties" sheetId="6" r:id="rId17"/>
     <sheet name="DocumentsIndex" sheetId="13" r:id="rId18"/>
     <sheet name="DocumentsDetails" sheetId="12" r:id="rId19"/>
     <sheet name="Notes" sheetId="10" r:id="rId20"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">DocumentsDetails!$A$1:$AX$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1120">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -1077,9 +1080,6 @@
     <t>Combination (PPH &amp; Non-PPH)</t>
   </si>
   <si>
-    <t>Crown</t>
-  </si>
-  <si>
     <t>Airspace</t>
   </si>
   <si>
@@ -1299,9 +1299,6 @@
     <t>Hwy / Road</t>
   </si>
   <si>
-    <t>11183 Gurney Road: Cutlas Lake,11325 Secret Cove to Earls Cove</t>
-  </si>
-  <si>
     <t>Complete Product 1 for Project 1</t>
   </si>
   <si>
@@ -1329,15 +1326,9 @@
     <t>010-087-346</t>
   </si>
   <si>
-    <t>02867 Rapid Bus Transit Pullouts,11016 Salmon Slough Bridge,11920 Henderson Road - Chalmers</t>
-  </si>
-  <si>
     <t>Assignment of rent,Potential for business loss claims,Building liens</t>
   </si>
   <si>
-    <t>Closed Road,Adjacent Land</t>
-  </si>
-  <si>
     <t>Test case Description</t>
   </si>
   <si>
@@ -1716,9 +1707,6 @@
     <t>DocumentType</t>
   </si>
   <si>
-    <t>Appraisal/Review</t>
-  </si>
-  <si>
     <t>BC assessment search</t>
   </si>
   <si>
@@ -3036,9 +3024,6 @@
     <t>Provincial Public Highway (PPH)</t>
   </si>
   <si>
-    <t>107 Explanatory Plan,Arterial</t>
-  </si>
-  <si>
     <t>Automated Acquisition File from pin</t>
   </si>
   <si>
@@ -3093,9 +3078,6 @@
     <t>The Main Canada Highway - updated</t>
   </si>
   <si>
-    <t>Updating digital document on Research File</t>
-  </si>
-  <si>
     <t>Professional reports (ex: engineering/environmental etc.)</t>
   </si>
   <si>
@@ -3417,10 +3399,25 @@
     <t>Update Digital Document into a Project</t>
   </si>
   <si>
-    <t>Project - Briefing notes</t>
-  </si>
-  <si>
     <t>Updating previously inserted Document in a project</t>
+  </si>
+  <si>
+    <t>Updating digital document on a Lease</t>
+  </si>
+  <si>
+    <t>Don Cavers</t>
+  </si>
+  <si>
+    <t>Section 107 Plan,Arterial</t>
+  </si>
+  <si>
+    <t>5502867 Rapid Bus Transit Pullouts,5511016 Salmon Slough Bridge,5511920 Henderson Road - Chalmers</t>
+  </si>
+  <si>
+    <t>5511183 Gurney Road: Cutlas Lake,5511325 Secret Cove to Earls Cove</t>
+  </si>
+  <si>
+    <t>Leased/Licensed,Indian Reserve (IR)</t>
   </si>
 </sst>
 </file>
@@ -3784,59 +3781,59 @@
   <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.453125" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.453125" customWidth="1"/>
+    <col min="21" max="21" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.81640625" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.453125" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="19.85546875" customWidth="1"/>
+    <col min="40" max="40" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="19.81640625" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19" customWidth="1"/>
-    <col min="45" max="45" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="67.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -3985,7 +3982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -4125,7 +4122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>67</v>
@@ -4256,7 +4253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -4401,9 +4398,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
@@ -4415,13 +4412,13 @@
         <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="G6" t="s">
         <v>151</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
@@ -4431,7 +4428,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="R6" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="S6" t="s">
         <v>114</v>
@@ -4440,10 +4437,10 @@
         <v>150</v>
       </c>
       <c r="U6" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="V6" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="X6" t="s">
         <v>188</v>
@@ -4464,10 +4461,10 @@
         <v>190</v>
       </c>
       <c r="AW6" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -4503,53 +4500,53 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>847</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>852</v>
       </c>
       <c r="B2" s="4">
         <v>44616</v>
       </c>
       <c r="C2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D2">
         <v>2625</v>
@@ -4562,21 +4559,21 @@
         <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B3" s="4">
         <v>44623</v>
       </c>
       <c r="C3" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -4588,21 +4585,21 @@
         <v>14.29</v>
       </c>
       <c r="G3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B4" s="4">
         <v>44630</v>
       </c>
       <c r="C4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -4614,21 +4611,21 @@
         <v>142.86000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B5" s="4">
         <v>45061</v>
       </c>
       <c r="C5" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D5">
         <v>130000</v>
@@ -4640,21 +4637,21 @@
         <v>6190.48</v>
       </c>
       <c r="G5" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B6" s="4">
         <v>36692</v>
       </c>
       <c r="C6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -4666,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4681,43 +4678,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>268</v>
@@ -4747,22 +4744,22 @@
         <v>276</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -4773,7 +4770,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>1117</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
@@ -4782,7 +4779,7 @@
         <v>312</v>
       </c>
       <c r="G2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H2" s="4">
         <v>44625</v>
@@ -4818,7 +4815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -4829,16 +4826,16 @@
         <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>414</v>
+        <v>1118</v>
       </c>
       <c r="F3" t="s">
         <v>318</v>
       </c>
       <c r="G3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3" t="s">
         <v>390</v>
-      </c>
-      <c r="J3" t="s">
-        <v>391</v>
       </c>
       <c r="K3" t="s">
         <v>319</v>
@@ -4850,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -4862,7 +4859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -4876,31 +4873,31 @@
         <v>222</v>
       </c>
       <c r="E4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" t="s">
         <v>398</v>
       </c>
-      <c r="F4" t="s">
-        <v>399</v>
-      </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H4" s="4">
         <v>44254</v>
       </c>
       <c r="I4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J4" t="s">
         <v>400</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>401</v>
-      </c>
-      <c r="K4" t="s">
-        <v>402</v>
       </c>
       <c r="L4" s="4">
         <v>44703</v>
       </c>
       <c r="M4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -4915,9 +4912,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
         <v>306</v>
@@ -4938,9 +4935,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>305</v>
@@ -4972,120 +4969,329 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>923</v>
+        <v>359</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1005</v>
+        <v>360</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>971</v>
+        <v>361</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>914</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>919</v>
-      </c>
-      <c r="B2" t="s">
-        <v>924</v>
       </c>
       <c r="C2">
         <v>5512570</v>
       </c>
       <c r="D2" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E2" t="s">
+        <v>912</v>
+      </c>
+      <c r="F2" t="s">
         <v>917</v>
-      </c>
-      <c r="F2" t="s">
-        <v>922</v>
       </c>
       <c r="I2" s="4">
         <v>45287</v>
@@ -5094,16 +5300,16 @@
         <v>45352</v>
       </c>
       <c r="K2" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="L2" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="M2" t="s">
         <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="O2" t="s">
         <v>231</v>
@@ -5121,28 +5327,28 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="U2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B3" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45155</v>
       </c>
       <c r="I3" s="4">
         <v>45318</v>
@@ -5151,7 +5357,7 @@
         <v>45292</v>
       </c>
       <c r="K3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -5166,27 +5372,27 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K4" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="M4" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="N4" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="O4" t="s">
         <v>232</v>
@@ -5204,24 +5410,24 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="U4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B5" t="s">
         <v>308</v>
       </c>
       <c r="K5" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="N5" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="O5" t="s">
         <v>233</v>
@@ -5248,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EAAF30-BD78-4D23-AEBC-1D6C37D138A6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5256,87 +5462,87 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C2" t="s">
         <v>928</v>
       </c>
-      <c r="C2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B3" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C5" t="s">
         <v>930</v>
       </c>
-      <c r="C4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>919</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B6" t="s">
+        <v>927</v>
+      </c>
+      <c r="C6" t="s">
         <v>931</v>
       </c>
-      <c r="C5" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>919</v>
-      </c>
-      <c r="B6" t="s">
-        <v>932</v>
-      </c>
-      <c r="C6" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B7" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C7" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -5344,7 +5550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5453F532-21B6-4188-9011-0BA56E95151F}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -5352,55 +5558,55 @@
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.453125" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -5427,30 +5633,30 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E2" t="s">
+        <v>970</v>
+      </c>
+      <c r="J2" t="s">
         <v>975</v>
-      </c>
-      <c r="J2" t="s">
-        <v>980</v>
       </c>
       <c r="M2" t="s">
         <v>89</v>
@@ -5462,18 +5668,18 @@
         <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="S2">
         <v>4568853286</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5482,31 +5688,31 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="G3" t="s">
+        <v>971</v>
+      </c>
+      <c r="H3" t="s">
+        <v>972</v>
+      </c>
+      <c r="I3" t="s">
+        <v>973</v>
+      </c>
+      <c r="J3" t="s">
         <v>976</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>977</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>978</v>
-      </c>
-      <c r="J3" t="s">
-        <v>981</v>
-      </c>
-      <c r="K3" t="s">
-        <v>982</v>
-      </c>
-      <c r="L3" t="s">
-        <v>983</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -5518,15 +5724,15 @@
         <v>40000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="S3">
         <v>2348876890</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5535,16 +5741,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="I4" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="J4" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="M4" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="N4" t="s">
         <v>56</v>
@@ -5553,16 +5759,16 @@
         <v>54</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="S4">
         <v>6780909654</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="Q5" s="2"/>
     </row>
   </sheetData>
@@ -5576,248 +5782,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56704E8-1DAE-4D99-86A6-0D11D370D1F9}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" t="s">
-        <v>387</v>
-      </c>
-      <c r="G5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F8" t="s">
-        <v>407</v>
-      </c>
-      <c r="G8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -5837,12 +5836,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C2">
         <v>8157500</v>
@@ -5857,200 +5856,200 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
         <v>356</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>358</v>
-      </c>
-      <c r="B6" t="s">
-        <v>359</v>
       </c>
       <c r="F6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B12" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C12">
         <v>553490</v>
       </c>
       <c r="D12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E12" t="s">
+        <v>858</v>
+      </c>
+      <c r="F12" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B13" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>861</v>
+      </c>
+      <c r="B14" t="s">
         <v>862</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>863</v>
-      </c>
-      <c r="F12" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>807</v>
-      </c>
-      <c r="B13" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>866</v>
-      </c>
-      <c r="B14" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>868</v>
       </c>
       <c r="B15" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B16" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B17" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B18" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C18">
         <v>90077451</v>
       </c>
       <c r="D18" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E18" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="F18" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B19" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F19" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B20" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>953</v>
+      </c>
+      <c r="B21" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>957</v>
+      </c>
+      <c r="B22" t="s">
         <v>958</v>
-      </c>
-      <c r="B21" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>962</v>
-      </c>
-      <c r="B22" t="s">
-        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -6062,53 +6061,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="27.42578125" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="27.453125" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="83.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -6161,10 +6160,10 @@
         <v>296</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>297</v>
@@ -6182,15 +6181,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>333</v>
       </c>
@@ -6222,23 +6221,20 @@
         <v>335</v>
       </c>
       <c r="M3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N3" t="s">
         <v>338</v>
       </c>
       <c r="O3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P3" t="s">
-        <v>426</v>
+        <v>1119</v>
       </c>
       <c r="Q3" t="s">
         <v>339</v>
       </c>
-      <c r="S3" t="s">
-        <v>340</v>
-      </c>
       <c r="T3">
         <v>100</v>
       </c>
@@ -6249,30 +6245,30 @@
         <v>50</v>
       </c>
       <c r="W3" t="s">
+        <v>340</v>
+      </c>
+      <c r="X3" t="s">
         <v>341</v>
       </c>
-      <c r="X3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="T4">
         <v>65</v>
@@ -6284,48 +6280,48 @@
         <v>103.59</v>
       </c>
       <c r="W4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B5" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C5" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D5" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E5" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="N5" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="O5" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="P5" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="Q5" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="R5" t="s">
-        <v>993</v>
+        <v>1116</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -6337,10 +6333,10 @@
         <v>125.78</v>
       </c>
       <c r="W5" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="X5" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -6354,30 +6350,30 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6386,9 +6382,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -6397,9 +6393,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -6408,9 +6404,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -6419,9 +6415,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -6430,9 +6426,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -6441,9 +6437,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B8">
         <v>52</v>
@@ -6452,9 +6448,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -6463,9 +6459,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -6474,9 +6470,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -6485,9 +6481,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B12">
         <v>62</v>
@@ -6496,9 +6492,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -6517,378 +6513,378 @@
   <dimension ref="A1:AX66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="8" width="19.140625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="13" customWidth="1"/>
-    <col min="12" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="30" width="19.140625" customWidth="1"/>
-    <col min="31" max="31" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="19.140625" customWidth="1"/>
-    <col min="35" max="35" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="41" width="19.140625" customWidth="1"/>
-    <col min="42" max="42" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="19.140625" customWidth="1"/>
+    <col min="4" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="8" width="19.1796875" style="13" customWidth="1"/>
+    <col min="9" max="10" width="19.1796875" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="13" customWidth="1"/>
+    <col min="12" max="13" width="19.1796875" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="19.1796875" customWidth="1"/>
+    <col min="31" max="31" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="19.1796875" customWidth="1"/>
+    <col min="35" max="35" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="19.1796875" customWidth="1"/>
+    <col min="42" max="42" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="19.1796875" customWidth="1"/>
     <col min="45" max="45" width="77" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>289</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>532</v>
-      </c>
       <c r="AO1" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>268</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AT1" s="12" t="s">
         <v>211</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE("Lease &amp; Licenses - ",B2)</f>
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
       </c>
       <c r="B2" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AS2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A18" si="0">CONCATENATE("Lease &amp; Licenses - ",B3)</f>
         <v>Lease &amp; Licenses - BC assessment search</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="T3" t="s">
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AW3">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Briefing notes</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AS4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Canada lands survey</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" t="s">
+        <v>612</v>
+      </c>
+      <c r="S5" t="s">
         <v>613</v>
       </c>
-      <c r="D5" t="s">
-        <v>617</v>
-      </c>
-      <c r="S5" t="s">
-        <v>618</v>
-      </c>
       <c r="AS5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Certificate of Insurance (H0111)</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AS6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Company search</v>
       </c>
       <c r="B7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AS7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
       </c>
       <c r="B8" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="C8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AS8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Correspondence</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E9" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G9" s="13">
         <v>37388</v>
       </c>
       <c r="AD9" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AM9" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AS9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
       </c>
       <c r="B10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C10" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AS10" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - First nations consultation</v>
       </c>
       <c r="B11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C11" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AS11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Gazette</v>
       </c>
       <c r="B12" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C12" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="N12" s="13">
         <v>40128</v>
@@ -6900,217 +6896,217 @@
         <v>40169</v>
       </c>
       <c r="Q12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="V12" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="W12" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Z12">
         <v>1276877</v>
       </c>
       <c r="AP12" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Historical file</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C13" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K13" s="13">
         <v>36763</v>
       </c>
       <c r="M13" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AE13" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AR13" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AT13" s="13">
         <v>36100</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B14" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C14" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AS14" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Legal correspondence (ex: to AG/external lawyers)</v>
       </c>
       <c r="B15" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C15" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AS15" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Legal survey plan</v>
       </c>
       <c r="B16" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C16" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="V16" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="Z16">
         <v>3435555</v>
       </c>
       <c r="AJ16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - Licensing approval/sign-off</v>
       </c>
       <c r="B17" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C17" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AS17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Lease &amp; Licenses - LTSA documents and plans (except title search)</v>
       </c>
       <c r="B18" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C18" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AS18" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A24" si="1">CONCATENATE("Research File - ",B19)</f>
         <v>Research File - Condition of entry (H0443)</v>
       </c>
       <c r="B19" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C19" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AS19" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Crown grant</v>
       </c>
       <c r="B20" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C20" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F20" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v>Research File - District road register</v>
       </c>
       <c r="B21" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C21" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J21" t="s">
         <v>89</v>
       </c>
       <c r="R21" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AP21" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AS21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Field notes</v>
       </c>
       <c r="B22" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C22" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="I22" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L22" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="U22" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AS22" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Ministerial order</v>
       </c>
       <c r="B23" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C23" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H23" s="13">
         <v>36534</v>
@@ -7119,115 +7115,115 @@
         <v>23456789</v>
       </c>
       <c r="Y23" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM23">
         <v>2334568</v>
       </c>
       <c r="AP23" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>Research File - Miscellaneous notes (LTSA)</v>
       </c>
       <c r="B24" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C24" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AF24" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A34" si="2">CONCATENATE("Research File - ",B25)</f>
         <v>Research File - MoTI plan</v>
       </c>
       <c r="B25" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C25" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="Y25" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="Z25" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AN25" s="4">
         <v>36412</v>
       </c>
       <c r="AO25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Notice of claims/Litigation documents</v>
       </c>
       <c r="B26" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C26" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AS26" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Notice of possible entry (H0224)</v>
       </c>
       <c r="B27" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C27" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AS27" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Order in Council (OIC)</v>
       </c>
       <c r="B28" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C28" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AA28" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AB28" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AC28" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AP28" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AW28">
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Other</v>
@@ -7236,627 +7232,627 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AG29">
         <v>34567588</v>
       </c>
       <c r="AM29" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AP29" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AS29" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Owner agreement/offer</v>
       </c>
       <c r="B30" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C30" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AS30" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>Research File - PA plans / Design drawings</v>
       </c>
       <c r="B31" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C31" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AH31" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AI31" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AK31">
         <v>9222</v>
       </c>
       <c r="AL31" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Photos / Images / Video</v>
       </c>
       <c r="B32" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C32" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E32" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G32" s="13">
         <v>42239</v>
       </c>
       <c r="AD32" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AM32" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AS32" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Privy council</v>
       </c>
       <c r="B33" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C33" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AX33">
         <v>1997</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>Research File - Transfer of administration</v>
       </c>
       <c r="B34" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="C34" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H34" s="13">
         <v>36841</v>
       </c>
       <c r="Y34" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="AM34" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="AP34" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="AV34" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE("Acquisition File - ",B35)</f>
         <v>Acquisition File - Affidavit of service</v>
       </c>
       <c r="B35" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C35" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AS35" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE("Acquisition File - ",B36)</f>
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
       </c>
       <c r="B36" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="C36" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AS36" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CONCATENATE("Acquisition File - ",B37)</f>
         <v>Acquisition File - Compensation cheque</v>
       </c>
       <c r="B37" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C37" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AS37" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE("Acquisition File - ",B38)</f>
         <v>Acquisition File - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B38" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C38" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AS38" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A50" si="3">CONCATENATE("Acquisition File - ",B39)</f>
         <v>Acquisition File - Notice of advanced payment (Form 8)</v>
       </c>
       <c r="B39" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="C39" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AS39" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Notice of expropriation (Form 1)</v>
       </c>
       <c r="B40" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="C40" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AS40" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
       </c>
       <c r="B41" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C41" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AS41" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
       </c>
       <c r="B42" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C42" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AS42" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Record of negotiation</v>
       </c>
       <c r="B43" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C43" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AS43" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Release of claims</v>
       </c>
       <c r="B44" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C44" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AS44" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Spending authority approval (SAA)</v>
       </c>
       <c r="B45" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AS45" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Surplus property declaration</v>
       </c>
       <c r="B46" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C46" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AS46" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Tax notices and assessments</v>
       </c>
       <c r="B47" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C47" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AS47" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Temporary license for construction access (H0074)</v>
       </c>
       <c r="B48" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="C48" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AS48" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Title search / Historical title</v>
       </c>
       <c r="B49" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C49" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AD49" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AF49" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AU49" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="3"/>
         <v>Acquisition File - Vesting notice (Form 9)</v>
       </c>
       <c r="B50" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C50" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AS50" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>565</v>
       </c>
       <c r="C51" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AG51">
         <v>676767776</v>
       </c>
       <c r="AM51" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="AP51" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="AS51" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B52" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C52" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="I52" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L52" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="U52" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AS52" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B53" t="s">
-        <v>553</v>
+        <v>1007</v>
       </c>
       <c r="C53" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AS53" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="B54" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C54" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AS54" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="B55" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C55" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E55" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="G55" s="13">
         <v>44174</v>
       </c>
       <c r="AD55" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="AS55" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="B56" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C56" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AS56" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="B57" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C57" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="K57" s="13">
         <v>36872</v>
       </c>
       <c r="M57" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="AR57" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="AT57" s="13">
         <v>36892</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="B58" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C58" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AS58" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="B59" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C59" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="V59">
         <v>2347987</v>
       </c>
       <c r="Z59" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="AJ59" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B60" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C60" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="V60" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Y60" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="Z60" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="AN60" s="4">
         <v>36872</v>
       </c>
       <c r="AO60" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AG61">
         <v>765356</v>
       </c>
       <c r="AM61" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="AP61" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="AS61" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B62" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C62" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AH62" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="AI62" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="AK62">
         <v>333</v>
       </c>
       <c r="AL62" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B63" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C63" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E63" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="G63" s="13">
         <v>45085</v>
@@ -7865,49 +7861,49 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B64" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C64" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AS64" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B65" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C65" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AS65" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="B66" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C66" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="AS66" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -7920,56 +7916,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9B3A8-42C1-4A9C-B1C1-5E5E07CE0539}">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.81640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="20.140625" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="18.140625" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="20.1796875" customWidth="1"/>
+    <col min="31" max="31" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="18.1796875" customWidth="1"/>
+    <col min="40" max="40" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -7983,7 +7979,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>40</v>
@@ -8109,7 +8105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -8240,7 +8236,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -8293,12 +8289,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -8364,25 +8360,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B5" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="C5" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="D5" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -8391,24 +8387,24 @@
         <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="AB5" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="AC5" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="AE5" t="s">
         <v>60</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>60</v>
       </c>
       <c r="AH5" t="s">
@@ -8418,13 +8414,13 @@
         <v>61</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="AT5" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -8454,58 +8450,58 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
         <v>428</v>
       </c>
-      <c r="B2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
         <v>430</v>
       </c>
-      <c r="B4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B6" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -8522,52 +8518,52 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>492</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B2" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="C2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>496</v>
-      </c>
-      <c r="B2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" t="s">
-        <v>500</v>
       </c>
       <c r="F2" s="4">
         <v>45701</v>
@@ -8576,15 +8572,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" t="s">
         <v>497</v>
-      </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8601,23 +8597,23 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="22.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>201</v>
       </c>
@@ -8631,22 +8627,22 @@
         <v>218</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>208</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>209</v>
@@ -8661,7 +8657,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -8685,13 +8681,13 @@
         <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="I2" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="J2" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>238</v>
@@ -8706,7 +8702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -8730,7 +8726,7 @@
         <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>238</v>
@@ -8745,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -8769,7 +8765,7 @@
         <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>238</v>
@@ -8784,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -8808,7 +8804,7 @@
         <v>237</v>
       </c>
       <c r="J5" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>238</v>
@@ -8823,9 +8819,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s">
         <v>219</v>
@@ -8874,20 +8870,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
@@ -8916,9 +8912,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>242</v>
@@ -8945,9 +8941,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>243</v>
@@ -8974,9 +8970,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>244</v>
@@ -9003,18 +8999,18 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E5" s="4">
         <v>45075</v>
@@ -9026,21 +9022,21 @@
         <v>45076</v>
       </c>
       <c r="H5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E6" s="4">
         <v>43831</v>
@@ -9052,21 +9048,21 @@
         <v>43832</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E7" s="4">
         <v>43862</v>
@@ -9078,21 +9074,21 @@
         <v>43863</v>
       </c>
       <c r="I7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E8" s="4">
         <v>43891</v>
@@ -9104,21 +9100,21 @@
         <v>43892</v>
       </c>
       <c r="H8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E9" s="4">
         <v>43922</v>
@@ -9130,21 +9126,21 @@
         <v>43923</v>
       </c>
       <c r="H9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E10" s="4">
         <v>43952</v>
@@ -9156,18 +9152,18 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E11" s="4">
         <v>43983</v>
@@ -9179,21 +9175,21 @@
         <v>43984</v>
       </c>
       <c r="H11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E12" s="4">
         <v>44013</v>
@@ -9205,21 +9201,21 @@
         <v>44014</v>
       </c>
       <c r="H12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E13" s="4">
         <v>44044</v>
@@ -9231,21 +9227,21 @@
         <v>44045</v>
       </c>
       <c r="I13" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E14" s="4">
         <v>44075</v>
@@ -9257,21 +9253,21 @@
         <v>44076</v>
       </c>
       <c r="H14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E15" s="4">
         <v>44105</v>
@@ -9283,12 +9279,12 @@
         <v>44106</v>
       </c>
       <c r="H15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s">
         <v>250</v>
@@ -9315,9 +9311,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -9338,9 +9334,9 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
         <v>252</v>
@@ -9372,340 +9368,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="22.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="22.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="56" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="50" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.5703125" customWidth="1"/>
-    <col min="60" max="60" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.54296875" customWidth="1"/>
+    <col min="60" max="60" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="17" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="BW1" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="BV1" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="BY1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>729</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>734</v>
       </c>
       <c r="B2" t="s">
         <v>225</v>
@@ -9714,10 +9710,10 @@
         <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F2" s="4">
         <v>44614</v>
@@ -9726,55 +9722,55 @@
         <v>45373</v>
       </c>
       <c r="H2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="I2" t="s">
         <v>231</v>
       </c>
       <c r="J2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="L2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="P2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="R2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="S2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="T2" s="4">
         <v>44615</v>
       </c>
       <c r="U2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="V2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="W2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="X2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="Y2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="Z2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="AA2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AB2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="AC2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="AD2" t="s">
         <v>335</v>
@@ -9783,16 +9779,16 @@
         <v>337</v>
       </c>
       <c r="AF2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="AG2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="AH2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="AI2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="AJ2">
         <v>11</v>
@@ -9816,37 +9812,37 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>746</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>747</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>748</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>749</v>
+      </c>
+      <c r="AV2" t="s">
         <v>750</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AW2" t="s">
         <v>751</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
         <v>752</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
         <v>753</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>754</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>755</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>756</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>757</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>758</v>
       </c>
       <c r="AZ2">
         <v>3</v>
       </c>
       <c r="BA2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BB2">
         <v>25000</v>
@@ -9855,10 +9851,10 @@
         <v>46003</v>
       </c>
       <c r="BD2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BE2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BF2">
         <v>205000</v>
@@ -9867,10 +9863,10 @@
         <v>46368</v>
       </c>
       <c r="BH2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BI2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BJ2">
         <v>125000</v>
@@ -9879,10 +9875,10 @@
         <v>46733</v>
       </c>
       <c r="BL2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="BM2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BN2">
         <v>11000</v>
@@ -9891,13 +9887,13 @@
         <v>45272</v>
       </c>
       <c r="BP2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="BQ2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="BR2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BS2">
         <v>100000</v>
@@ -9906,13 +9902,13 @@
         <v>45729</v>
       </c>
       <c r="BU2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="BV2">
         <v>5</v>
       </c>
       <c r="BW2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="BX2">
         <v>1</v>
@@ -9933,27 +9929,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D3" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="U3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="V3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="W3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="AE3" t="s">
         <v>335</v>
       </c>
       <c r="AI3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="AJ3">
         <v>12</v>
@@ -9977,19 +9973,19 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="AX3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="AY3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="AZ3">
         <v>3</v>
       </c>
       <c r="BM3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -9998,13 +9994,13 @@
         <v>44897</v>
       </c>
       <c r="BP3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="BV3">
         <v>4</v>
       </c>
       <c r="BW3" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="BX3">
         <v>3</v>
@@ -10025,15 +10021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D4" t="s">
         <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F4" s="4">
         <v>45058</v>
@@ -10042,19 +10038,19 @@
         <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="P4" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="Q4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="AJ4">
         <v>16</v>
@@ -10078,19 +10074,19 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="AR4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="AS4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BM4" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BN4">
         <v>35000</v>
@@ -10099,13 +10095,13 @@
         <v>45650</v>
       </c>
       <c r="BP4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="BX4">
         <v>4</v>
@@ -10126,33 +10122,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D5" t="s">
         <v>308</v>
       </c>
       <c r="E5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="F5" s="4">
         <v>45064</v>
       </c>
+      <c r="G5" s="4">
+        <v>45373</v>
+      </c>
       <c r="J5" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="K5" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="L5" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="N5" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="P5" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="AJ5">
         <v>13</v>
@@ -10200,27 +10199,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D6" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="F6" s="4">
         <v>45063</v>
       </c>
+      <c r="G6" s="4">
+        <v>45373</v>
+      </c>
       <c r="J6" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="L6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="P6" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="AJ6">
         <v>14</v>
@@ -10268,33 +10270,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F7" s="4">
         <v>45062</v>
       </c>
+      <c r="G7" s="4">
+        <v>45373</v>
+      </c>
       <c r="J7" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="K7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="L7" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="N7" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="P7" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="AJ7">
         <v>15</v>
@@ -10352,134 +10357,134 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D2" t="s">
         <v>792</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C2" t="s">
-        <v>796</v>
-      </c>
-      <c r="D2" t="s">
-        <v>797</v>
-      </c>
-      <c r="E2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D4" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E4" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D6" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C7" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D7" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E7" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -10495,73 +10500,73 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="I1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2" t="s">
         <v>817</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="D2" t="s">
         <v>818</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B2" t="s">
-        <v>822</v>
-      </c>
-      <c r="D2" t="s">
-        <v>823</v>
       </c>
       <c r="E2" s="11">
         <v>250</v>
@@ -10570,7 +10575,7 @@
         <v>44617</v>
       </c>
       <c r="G2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H2" s="4">
         <v>44645</v>
@@ -10588,21 +10593,21 @@
         <v>44650</v>
       </c>
       <c r="M2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B3" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E3" s="11">
         <v>632</v>
@@ -10611,7 +10616,7 @@
         <v>44645</v>
       </c>
       <c r="G3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="H3" s="4">
         <v>44666</v>
@@ -10629,18 +10634,18 @@
         <v>44681</v>
       </c>
       <c r="M3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B4" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D4" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E4" s="11">
         <v>50.99</v>
@@ -10649,7 +10654,7 @@
         <v>44645</v>
       </c>
       <c r="G4" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="H4" s="4">
         <v>44666</v>
@@ -10667,18 +10672,18 @@
         <v>44681</v>
       </c>
       <c r="M4" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D5" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E5" s="11">
         <v>3500.79</v>
@@ -10687,7 +10692,7 @@
         <v>45058</v>
       </c>
       <c r="G5" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="H5" s="4">
         <v>45076</v>
@@ -10705,7 +10710,7 @@
         <v>45078</v>
       </c>
       <c r="M5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -10719,52 +10724,52 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B2" s="4">
         <v>44614</v>
@@ -10773,24 +10778,24 @@
         <v>44673</v>
       </c>
       <c r="D2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E2">
         <v>2500</v>
       </c>
       <c r="F2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B3" s="4">
         <v>44704</v>
@@ -10799,24 +10804,24 @@
         <v>44742</v>
       </c>
       <c r="D3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E3">
         <v>3500</v>
       </c>
       <c r="F3" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B4" s="4">
         <v>44614</v>
@@ -10825,24 +10830,24 @@
         <v>44673</v>
       </c>
       <c r="D4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
       <c r="F4" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B5" s="4">
         <v>45058</v>
@@ -10851,24 +10856,24 @@
         <v>45334</v>
       </c>
       <c r="D5" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E5">
         <v>120000</v>
       </c>
       <c r="F5" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B6" s="4">
         <v>36690</v>
@@ -10877,19 +10882,19 @@
         <v>36720</v>
       </c>
       <c r="D6" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E6">
         <v>3000</v>
       </c>
       <c r="F6" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F34F0A-2521-467A-B51D-6492870470E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589699C-A37E-4F7B-B8E5-9FC23B966142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1256">
   <si>
     <t>BillingAddressLine1</t>
   </si>
@@ -2799,9 +2799,6 @@
     <t>Highway 1 Widening - 216th Street Interchange</t>
   </si>
   <si>
-    <t>12570LANG TOWNSHIP OF LANGLEY</t>
-  </si>
-  <si>
     <t>Edit Property Details within a AF</t>
   </si>
   <si>
@@ -3729,9 +3726,6 @@
     <t>License Of Occupation (H0074)</t>
   </si>
   <si>
-    <t>Update Acquisition File Stakeholder</t>
-  </si>
-  <si>
     <t>Automated Acquisition File Stakeholders</t>
   </si>
   <si>
@@ -3763,6 +3757,78 @@
   </si>
   <si>
     <t>Create AF with Stakeholders</t>
+  </si>
+  <si>
+    <t>TRANS MOUNTAIN PIPELINE INC.</t>
+  </si>
+  <si>
+    <t>Alder Steel Mart Ltd.</t>
+  </si>
+  <si>
+    <t>WILLA INVESTMENTS INC.</t>
+  </si>
+  <si>
+    <t>Trailermaster Inc.</t>
+  </si>
+  <si>
+    <t>TOYS R US(CANADA) LTD.</t>
+  </si>
+  <si>
+    <t>Alfred Garnette Pancake</t>
+  </si>
+  <si>
+    <t>ALICE SHEN</t>
+  </si>
+  <si>
+    <t>Wayne Coleman</t>
+  </si>
+  <si>
+    <t>Sou San Chiang</t>
+  </si>
+  <si>
+    <t>Ronald Mackenzie</t>
+  </si>
+  <si>
+    <t>008-357-412</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Agriculture Credit Act</t>
+  </si>
+  <si>
+    <t>Equitable Charge</t>
+  </si>
+  <si>
+    <t>Lis Pendens</t>
+  </si>
+  <si>
+    <t>Restrictive Covenant</t>
+  </si>
+  <si>
+    <t>Right of Way</t>
+  </si>
+  <si>
+    <t>Non-Interest Payee</t>
+  </si>
+  <si>
+    <t>Ali Thomson</t>
+  </si>
+  <si>
+    <t>No contacts available/selected</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>AcquisitionProjProductCode</t>
+  </si>
+  <si>
+    <t>TOWNSHIP OF LANGLEY</t>
+  </si>
+  <si>
+    <t>12570LANG</t>
   </si>
 </sst>
 </file>
@@ -3825,7 +3891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3845,8 +3911,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4167,19 +4231,19 @@
         <v>656</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>208</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1098</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1099</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>209</v>
@@ -4218,13 +4282,13 @@
         <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J2" t="s">
         <v>1103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1104</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>238</v>
@@ -4263,7 +4327,7 @@
         <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>238</v>
@@ -4302,7 +4366,7 @@
         <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>238</v>
@@ -4341,7 +4405,7 @@
         <v>237</v>
       </c>
       <c r="J5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>238</v>
@@ -4677,7 +4741,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
@@ -4733,7 +4797,7 @@
         <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F3" t="s">
         <v>318</v>
@@ -5086,10 +5150,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5097,124 +5161,128 @@
     <col min="1" max="1" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.54296875" customWidth="1"/>
-    <col min="24" max="24" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.453125" customWidth="1"/>
+    <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.54296875" customWidth="1"/>
+    <col min="25" max="25" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B2" t="s">
         <v>917</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>918</v>
       </c>
       <c r="C2">
         <v>5512570</v>
@@ -5223,53 +5291,53 @@
         <v>911</v>
       </c>
       <c r="E2" t="s">
-        <v>912</v>
+        <v>1255</v>
       </c>
       <c r="F2" t="s">
-        <v>916</v>
-      </c>
-      <c r="I2" s="4">
+        <v>1254</v>
+      </c>
+      <c r="G2" t="s">
+        <v>915</v>
+      </c>
+      <c r="J2" s="4">
         <v>45287</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" t="s">
-        <v>1174</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>915</v>
+        <v>1173</v>
       </c>
       <c r="M2" t="s">
+        <v>914</v>
+      </c>
+      <c r="N2" t="s">
         <v>308</v>
       </c>
-      <c r="N2" t="s">
-        <v>919</v>
-      </c>
       <c r="O2" t="s">
+        <v>918</v>
+      </c>
+      <c r="P2" t="s">
         <v>231</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2</v>
       </c>
-      <c r="T2" t="s">
-        <v>939</v>
-      </c>
       <c r="U2" t="s">
-        <v>1188</v>
+        <v>938</v>
       </c>
       <c r="V2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
+        <v>1187</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1172</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -5286,59 +5354,59 @@
       <c r="AB2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C3" s="14">
         <v>5500005</v>
       </c>
       <c r="D3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H3" s="4">
+        <v>1183</v>
+      </c>
+      <c r="I3" s="4">
         <f ca="1">TODAY()</f>
         <v>45175</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>45318</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>45352</v>
       </c>
-      <c r="K3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N3" t="s">
-        <v>986</v>
+      <c r="L3" t="s">
+        <v>1175</v>
       </c>
       <c r="O3" t="s">
+        <v>985</v>
+      </c>
+      <c r="P3" t="s">
         <v>233</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>6</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <v>1</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>3</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>1</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>390</v>
       </c>
-      <c r="V3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
+      <c r="W3" t="s">
+        <v>1185</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -5355,28 +5423,28 @@
       <c r="AB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B4" t="s">
         <v>309</v>
       </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="N4" t="s">
-        <v>960</v>
+      <c r="K4" s="4"/>
+      <c r="L4" t="s">
+        <v>1174</v>
       </c>
       <c r="O4" t="s">
+        <v>959</v>
+      </c>
+      <c r="P4" t="s">
         <v>232</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
@@ -5386,12 +5454,12 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>17</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -5404,26 +5472,26 @@
       <c r="AB4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B5" t="s">
         <v>308</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O5" t="s">
         <v>1157</v>
       </c>
-      <c r="N5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>231</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -5433,15 +5501,15 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="T5">
         <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
         <v>0</v>
       </c>
@@ -5451,26 +5519,26 @@
       <c r="AB5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B6" t="s">
         <v>606</v>
       </c>
-      <c r="K6" t="s">
-        <v>1190</v>
-      </c>
-      <c r="N6" t="s">
-        <v>919</v>
+      <c r="L6" t="s">
+        <v>1189</v>
       </c>
       <c r="O6" t="s">
+        <v>918</v>
+      </c>
+      <c r="P6" t="s">
         <v>231</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -5480,7 +5548,7 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="T6">
         <v>0</v>
       </c>
       <c r="X6">
@@ -5498,26 +5566,26 @@
       <c r="AB6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B7" t="s">
         <v>611</v>
       </c>
-      <c r="K7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="N7" t="s">
-        <v>960</v>
+      <c r="L7" t="s">
+        <v>1190</v>
       </c>
       <c r="O7" t="s">
+        <v>959</v>
+      </c>
+      <c r="P7" t="s">
         <v>233</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -5527,7 +5595,7 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="T7">
         <v>0</v>
       </c>
       <c r="X7">
@@ -5545,26 +5613,26 @@
       <c r="AB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B8" t="s">
         <v>611</v>
       </c>
-      <c r="K8" t="s">
-        <v>1191</v>
-      </c>
-      <c r="N8" t="s">
-        <v>960</v>
+      <c r="L8" t="s">
+        <v>1190</v>
       </c>
       <c r="O8" t="s">
+        <v>959</v>
+      </c>
+      <c r="P8" t="s">
         <v>233</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
@@ -5574,7 +5642,7 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="T8">
         <v>0</v>
       </c>
       <c r="X8">
@@ -5592,26 +5660,26 @@
       <c r="AB8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B9" t="s">
         <v>308</v>
       </c>
-      <c r="K9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="N9" t="s">
-        <v>986</v>
+      <c r="L9" t="s">
+        <v>1191</v>
       </c>
       <c r="O9" t="s">
+        <v>985</v>
+      </c>
+      <c r="P9" t="s">
         <v>232</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -5621,44 +5689,44 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="T9">
         <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>1</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>4</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B10" t="s">
         <v>308</v>
       </c>
-      <c r="K10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="N10" t="s">
-        <v>986</v>
+      <c r="L10" t="s">
+        <v>1209</v>
       </c>
       <c r="O10" t="s">
+        <v>985</v>
+      </c>
+      <c r="P10" t="s">
         <v>232</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
@@ -5668,44 +5736,44 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="T10">
         <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>5</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B11" t="s">
         <v>309</v>
       </c>
-      <c r="K11" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N11" t="s">
-        <v>919</v>
+      <c r="L11" t="s">
+        <v>1221</v>
       </c>
       <c r="O11" t="s">
+        <v>918</v>
+      </c>
+      <c r="P11" t="s">
         <v>231</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
         <v>0</v>
       </c>
@@ -5715,7 +5783,7 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="T11">
         <v>0</v>
       </c>
       <c r="X11">
@@ -5733,37 +5801,13 @@
       <c r="AB11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N12" t="s">
-        <v>919</v>
-      </c>
-      <c r="O12" t="s">
-        <v>231</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>22</v>
+        <v>1181</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -5775,72 +5819,102 @@
         <v>0</v>
       </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>955</v>
+      </c>
+      <c r="B16" t="s">
+        <v>606</v>
+      </c>
+      <c r="L16" t="s">
+        <v>983</v>
+      </c>
+      <c r="N16" t="s">
+        <v>984</v>
+      </c>
+      <c r="O16" t="s">
+        <v>985</v>
+      </c>
+      <c r="P16" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="AB12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1182</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1183</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1227</v>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>960</v>
+      </c>
+      <c r="X16">
+        <v>21</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -5848,46 +5922,40 @@
       <c r="AB16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B17" t="s">
-        <v>606</v>
-      </c>
-      <c r="K17" t="s">
-        <v>984</v>
-      </c>
-      <c r="M17" t="s">
-        <v>985</v>
-      </c>
-      <c r="N17" t="s">
-        <v>986</v>
+        <v>308</v>
+      </c>
+      <c r="L17" t="s">
+        <v>958</v>
       </c>
       <c r="O17" t="s">
-        <v>232</v>
-      </c>
-      <c r="P17">
-        <v>6</v>
+        <v>959</v>
+      </c>
+      <c r="P17" t="s">
+        <v>233</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17" t="s">
-        <v>961</v>
-      </c>
-      <c r="W17">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -5901,51 +5969,7 @@
       <c r="AB17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>958</v>
-      </c>
-      <c r="B18" t="s">
-        <v>308</v>
-      </c>
-      <c r="K18" t="s">
-        <v>959</v>
-      </c>
-      <c r="N18" t="s">
-        <v>960</v>
-      </c>
-      <c r="O18" t="s">
-        <v>233</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>19</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
+      <c r="AC17">
         <v>0</v>
       </c>
     </row>
@@ -5974,29 +5998,29 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" t="s">
         <v>313</v>
@@ -6004,46 +6028,46 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C7" t="s">
         <v>987</v>
-      </c>
-      <c r="C7" t="s">
-        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -6089,25 +6113,25 @@
         <v>786</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>932</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -6134,15 +6158,15 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>936</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B2" t="s">
         <v>790</v>
@@ -6151,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E2" t="s">
         <v>967</v>
       </c>
-      <c r="E2" t="s">
-        <v>968</v>
-      </c>
       <c r="J2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M2" t="s">
         <v>89</v>
@@ -6169,10 +6193,10 @@
         <v>54</v>
       </c>
       <c r="Q2" t="s">
+        <v>976</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="S2">
         <v>4568853286</v>
@@ -6180,7 +6204,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -6189,25 +6213,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G3" t="s">
+        <v>968</v>
+      </c>
+      <c r="H3" t="s">
         <v>969</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>970</v>
       </c>
-      <c r="I3" t="s">
-        <v>971</v>
-      </c>
       <c r="J3" t="s">
+        <v>973</v>
+      </c>
+      <c r="K3" t="s">
         <v>974</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>975</v>
-      </c>
-      <c r="L3" t="s">
-        <v>976</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -6222,7 +6246,7 @@
         <v>4000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S3">
         <v>2348876890</v>
@@ -6230,7 +6254,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -6239,16 +6263,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>988</v>
+      </c>
+      <c r="I4" t="s">
         <v>989</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>990</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>991</v>
-      </c>
-      <c r="M4" t="s">
-        <v>992</v>
       </c>
       <c r="N4" t="s">
         <v>56</v>
@@ -6257,10 +6281,10 @@
         <v>54</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="S4">
         <v>6780909654</v>
@@ -6306,288 +6330,288 @@
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>1150</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B2" t="s">
         <v>1152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1153</v>
       </c>
       <c r="C2" t="s">
         <v>792</v>
       </c>
       <c r="D2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F2" t="s">
         <v>792</v>
       </c>
       <c r="G2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I2" t="s">
         <v>792</v>
       </c>
       <c r="J2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L2" t="s">
         <v>792</v>
       </c>
       <c r="M2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="N2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O2" t="s">
         <v>792</v>
       </c>
       <c r="P2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R2" t="s">
         <v>792</v>
       </c>
       <c r="S2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="U2" t="s">
         <v>792</v>
       </c>
       <c r="V2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="W2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="X2" t="s">
         <v>792</v>
       </c>
       <c r="Y2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Z2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AA2" t="s">
         <v>792</v>
       </c>
       <c r="AB2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AC2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AD2" t="s">
         <v>792</v>
       </c>
       <c r="AE2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AF2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AG2" t="s">
         <v>792</v>
       </c>
       <c r="AH2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AI2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AJ2" t="s">
         <v>792</v>
       </c>
       <c r="AK2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AL2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AM2" t="s">
         <v>792</v>
       </c>
       <c r="AN2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AO2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AP2" t="s">
         <v>792</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AR2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AS2" t="s">
         <v>792</v>
       </c>
       <c r="AT2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AU2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AV2" t="s">
         <v>792</v>
@@ -6595,22 +6619,22 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="X3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AL3" t="s">
         <v>792</v>
       </c>
       <c r="AV3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -6629,7 +6653,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -6645,49 +6669,49 @@
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1202</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B2" t="s">
         <v>606</v>
       </c>
       <c r="C2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E2" s="4">
         <v>44440</v>
@@ -6710,16 +6734,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B3" s="15" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B3" t="s">
         <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E3" s="4">
         <v>44806</v>
@@ -6742,16 +6766,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B4" t="s">
         <v>606</v>
       </c>
       <c r="C4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E4" s="4">
         <v>44809</v>
@@ -6774,16 +6798,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B5" s="15" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B5" t="s">
         <v>609</v>
       </c>
       <c r="C5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E5" s="4">
         <v>44810</v>
@@ -6809,16 +6833,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C6" t="s">
         <v>1212</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1213</v>
-      </c>
       <c r="D6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E6" s="4">
         <v>44811</v>
@@ -6841,16 +6865,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B7" t="s">
         <v>606</v>
       </c>
       <c r="C7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D7" t="s">
         <v>1217</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1218</v>
       </c>
       <c r="E7" s="4">
         <v>44819</v>
@@ -6878,43 +6902,220 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073F58F-6509-4BF3-843F-237D06AC55C6}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D2" t="s">
         <v>1232</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1231</v>
       </c>
+      <c r="B3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6924,7 +7125,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6934,7 +7135,7 @@
     <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
@@ -6998,7 +7199,7 @@
         <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -7057,13 +7258,13 @@
         <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -7128,70 +7329,73 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B17" t="s">
         <v>1006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>939</v>
+      </c>
+      <c r="B18" t="s">
         <v>940</v>
-      </c>
-      <c r="B18" t="s">
-        <v>941</v>
       </c>
       <c r="C18">
         <v>90077451</v>
       </c>
       <c r="D18" t="s">
+        <v>942</v>
+      </c>
+      <c r="E18" t="s">
         <v>943</v>
       </c>
-      <c r="E18" t="s">
-        <v>944</v>
-      </c>
       <c r="F18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>953</v>
+      </c>
+      <c r="B19" t="s">
         <v>954</v>
       </c>
-      <c r="B19" t="s">
-        <v>955</v>
-      </c>
       <c r="F19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>961</v>
+      </c>
+      <c r="B20" t="s">
         <v>962</v>
-      </c>
-      <c r="B20" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>951</v>
+      </c>
+      <c r="B21" t="s">
         <v>952</v>
-      </c>
-      <c r="B21" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>955</v>
+      </c>
+      <c r="B22" t="s">
         <v>956</v>
-      </c>
-      <c r="B22" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1233</v>
+        <v>1231</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -7874,7 +8078,7 @@
         <v>422</v>
       </c>
       <c r="P3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="Q3" t="s">
         <v>339</v>
@@ -7932,40 +8136,40 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C5" t="s">
+        <v>944</v>
+      </c>
+      <c r="D5" t="s">
         <v>946</v>
       </c>
-      <c r="C5" t="s">
-        <v>945</v>
-      </c>
-      <c r="D5" t="s">
-        <v>947</v>
-      </c>
       <c r="E5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
+        <v>947</v>
+      </c>
+      <c r="N5" t="s">
         <v>948</v>
       </c>
-      <c r="N5" t="s">
-        <v>949</v>
-      </c>
       <c r="O5" t="s">
+        <v>980</v>
+      </c>
+      <c r="P5" t="s">
         <v>981</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>982</v>
       </c>
-      <c r="Q5" t="s">
-        <v>983</v>
-      </c>
       <c r="R5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -7977,10 +8181,10 @@
         <v>125.78</v>
       </c>
       <c r="W5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="X5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -8017,7 +8221,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8028,7 +8232,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -8094,7 +8298,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -8105,7 +8309,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -8116,7 +8320,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -8127,7 +8331,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B12">
         <v>62</v>
@@ -8138,7 +8342,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -8348,13 +8552,13 @@
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
       </c>
       <c r="B2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C2" t="s">
         <v>605</v>
       </c>
       <c r="AS2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
@@ -8453,7 +8657,7 @@
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
       </c>
       <c r="B8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C8" t="s">
         <v>611</v>
@@ -8495,13 +8699,13 @@
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
       </c>
       <c r="B10" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C10" t="s">
         <v>606</v>
       </c>
       <c r="AS10" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -8846,7 +9050,7 @@
         <v>Research File - Order in Council (OIC)</v>
       </c>
       <c r="B28" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C28" t="s">
         <v>610</v>
@@ -8888,7 +9092,7 @@
         <v>643</v>
       </c>
       <c r="AS29" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
@@ -8978,7 +9182,7 @@
         <v>Research File - Transfer of administration</v>
       </c>
       <c r="B34" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C34" t="s">
         <v>609</v>
@@ -8987,16 +9191,16 @@
         <v>36841</v>
       </c>
       <c r="Y34" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AM34" t="s">
         <v>1024</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AP34" t="s">
         <v>1025</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AV34" t="s">
         <v>1026</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -9005,13 +9209,13 @@
         <v>Acquisition File - Affidavit of service</v>
       </c>
       <c r="B35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C35" t="s">
         <v>610</v>
       </c>
       <c r="AS35" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -9020,13 +9224,13 @@
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
       </c>
       <c r="B36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C36" t="s">
         <v>611</v>
       </c>
       <c r="AS36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -9035,13 +9239,13 @@
         <v>Acquisition File - Compensation cheque</v>
       </c>
       <c r="B37" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C37" t="s">
         <v>605</v>
       </c>
       <c r="AS37" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -9065,13 +9269,13 @@
         <v>Acquisition File - Notice of advanced payment (Form 8)</v>
       </c>
       <c r="B39" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C39" t="s">
         <v>607</v>
       </c>
       <c r="AS39" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
@@ -9080,13 +9284,13 @@
         <v>Acquisition File - Notice of expropriation (Form 1)</v>
       </c>
       <c r="B40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C40" t="s">
         <v>608</v>
       </c>
       <c r="AS40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
@@ -9095,13 +9299,13 @@
         <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
       </c>
       <c r="B41" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C41" t="s">
         <v>609</v>
       </c>
       <c r="AS41" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
@@ -9110,7 +9314,7 @@
         <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
       </c>
       <c r="B42" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C42" t="s">
         <v>610</v>
@@ -9125,13 +9329,13 @@
         <v>Acquisition File - Record of negotiation</v>
       </c>
       <c r="B43" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C43" t="s">
         <v>611</v>
       </c>
       <c r="AS43" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
@@ -9140,13 +9344,13 @@
         <v>Acquisition File - Release of claims</v>
       </c>
       <c r="B44" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C44" t="s">
         <v>605</v>
       </c>
       <c r="AS44" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
@@ -9200,13 +9404,13 @@
         <v>Acquisition File - Temporary license for construction access (H0074)</v>
       </c>
       <c r="B48" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C48" t="s">
         <v>609</v>
       </c>
       <c r="AS48" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.35">
@@ -9236,18 +9440,18 @@
         <v>Acquisition File - Vesting notice (Form 9)</v>
       </c>
       <c r="B50" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C50" t="s">
         <v>611</v>
       </c>
       <c r="AS50" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B51" t="s">
         <v>565</v>
@@ -9259,18 +9463,18 @@
         <v>676767776</v>
       </c>
       <c r="AM51" t="s">
+        <v>999</v>
+      </c>
+      <c r="AP51" t="s">
         <v>1000</v>
       </c>
-      <c r="AP51" t="s">
-        <v>1001</v>
-      </c>
       <c r="AS51" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B52" t="s">
         <v>558</v>
@@ -9293,10 +9497,10 @@
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B53" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C53" t="s">
         <v>607</v>
@@ -9307,7 +9511,7 @@
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B54" t="s">
         <v>550</v>
@@ -9316,12 +9520,12 @@
         <v>608</v>
       </c>
       <c r="AS54" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B55" t="s">
         <v>554</v>
@@ -9330,35 +9534,35 @@
         <v>609</v>
       </c>
       <c r="E55" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G55" s="13">
         <v>44174</v>
       </c>
       <c r="AD55" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AS55" t="s">
         <v>1045</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B56" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C56" t="s">
         <v>610</v>
       </c>
       <c r="AS56" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B57" t="s">
         <v>561</v>
@@ -9370,10 +9574,10 @@
         <v>36872</v>
       </c>
       <c r="M57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AR57" t="s">
         <v>1050</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>1051</v>
       </c>
       <c r="AT57" s="13">
         <v>36892</v>
@@ -9381,7 +9585,7 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B58" t="s">
         <v>563</v>
@@ -9390,12 +9594,12 @@
         <v>605</v>
       </c>
       <c r="AS58" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B59" t="s">
         <v>564</v>
@@ -9407,15 +9611,15 @@
         <v>2347987</v>
       </c>
       <c r="Z59" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AJ59" t="s">
         <v>1055</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B60" t="s">
         <v>569</v>
@@ -9424,24 +9628,24 @@
         <v>607</v>
       </c>
       <c r="V60" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y60" t="s">
         <v>1058</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>1059</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>1060</v>
       </c>
       <c r="AN60" s="4">
         <v>36872</v>
       </c>
       <c r="AO60" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -9453,18 +9657,18 @@
         <v>765356</v>
       </c>
       <c r="AM61" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AP61" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AS61" t="s">
         <v>1064</v>
-      </c>
-      <c r="AS61" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B62" t="s">
         <v>573</v>
@@ -9473,21 +9677,21 @@
         <v>609</v>
       </c>
       <c r="AH62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AI62" t="s">
         <v>1067</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>1068</v>
       </c>
       <c r="AK62">
         <v>333</v>
       </c>
       <c r="AL62" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B63" t="s">
         <v>574</v>
@@ -9496,7 +9700,7 @@
         <v>610</v>
       </c>
       <c r="E63" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G63" s="13">
         <v>45085</v>
@@ -9505,12 +9709,12 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B64" t="s">
         <v>576</v>
@@ -9519,12 +9723,12 @@
         <v>611</v>
       </c>
       <c r="AS64" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B65" t="s">
         <v>577</v>
@@ -9533,12 +9737,12 @@
         <v>605</v>
       </c>
       <c r="AS65" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B66" t="s">
         <v>554</v>
@@ -9547,7 +9751,7 @@
         <v>605</v>
       </c>
       <c r="AS66" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -10327,7 +10531,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
@@ -10339,13 +10543,13 @@
         <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G6" t="s">
         <v>151</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
@@ -10355,7 +10559,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="R6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="S6" t="s">
         <v>114</v>
@@ -10364,10 +10568,10 @@
         <v>150</v>
       </c>
       <c r="U6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="V6" t="s">
         <v>1081</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1082</v>
       </c>
       <c r="X6" t="s">
         <v>188</v>
@@ -10388,7 +10592,7 @@
         <v>190</v>
       </c>
       <c r="AW6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
@@ -10801,7 +11005,7 @@
         <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -10869,23 +11073,23 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B5" t="s">
         <v>1087</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1088</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1089</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1090</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -10894,7 +11098,7 @@
         <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M5" t="s">
         <v>115</v>
@@ -10903,10 +11107,10 @@
         <v>133</v>
       </c>
       <c r="AB5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AC5" t="s">
         <v>1093</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1094</v>
       </c>
       <c r="AE5" t="s">
         <v>60</v>
@@ -10921,10 +11125,10 @@
         <v>61</v>
       </c>
       <c r="AJ5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AT5" t="s">
         <v>1095</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -11632,7 +11836,7 @@
         <v>731</v>
       </c>
       <c r="P4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q4" t="s">
         <v>774</v>
@@ -11978,7 +12182,7 @@
         <v>790</v>
       </c>
       <c r="C2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D2" t="s">
         <v>792</v>
@@ -12277,7 +12481,7 @@
         <v>45058</v>
       </c>
       <c r="G5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H5" s="4">
         <v>45076</v>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF7E8C-AD72-44E9-904E-009B42162858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A043F78-7FEB-4CC5-9BDD-DA0C021739E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1390">
   <si>
     <t>FirstName</t>
   </si>
@@ -2552,9 +2552,6 @@
     <t>Create Lease from green pin</t>
   </si>
   <si>
-    <t>015-254-241</t>
-  </si>
-  <si>
     <t>Create Lease from blue pin</t>
   </si>
   <si>
@@ -3476,18 +3473,12 @@
     <t>OwnerRepresentative</t>
   </si>
   <si>
-    <t>Acquisition File Details</t>
-  </si>
-  <si>
     <t>Acquisition File Properties</t>
   </si>
   <si>
     <t>Inserting owners in an automated Acquisition File</t>
   </si>
   <si>
-    <t>Automated Acquisition File Details</t>
-  </si>
-  <si>
     <t>Automated Acquisition File Properties</t>
   </si>
   <si>
@@ -3518,12 +3509,6 @@
     <t>Test Project 5</t>
   </si>
   <si>
-    <t>Update Acquisition File Details</t>
-  </si>
-  <si>
-    <t>Editing owners in an existing Acquisition File</t>
-  </si>
-  <si>
     <t>OwnerComment</t>
   </si>
   <si>
@@ -4224,6 +4209,30 @@
   </si>
   <si>
     <t>Test Project in Test environments</t>
+  </si>
+  <si>
+    <t>5500100 Darrell Bay Ferry Terminal</t>
+  </si>
+  <si>
+    <t>004-587-731</t>
+  </si>
+  <si>
+    <t>McKenzie Ave Hwy 1 Interchange Project</t>
+  </si>
+  <si>
+    <t>2023-23-0303</t>
+  </si>
+  <si>
+    <t>New complete Acquisition File</t>
+  </si>
+  <si>
+    <t>Update Acquisition File</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File</t>
+  </si>
+  <si>
+    <t>Editing existing Acquisition File</t>
   </si>
 </sst>
 </file>
@@ -4265,12 +4274,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4286,7 +4307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4306,9 +4327,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4629,19 +4660,19 @@
         <v>623</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1064</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1065</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>176</v>
@@ -4680,13 +4711,13 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J2" t="s">
         <v>1069</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1070</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>205</v>
@@ -4725,7 +4756,7 @@
         <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>205</v>
@@ -4764,7 +4795,7 @@
         <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>205</v>
@@ -4803,7 +4834,7 @@
         <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>205</v>
@@ -4980,7 +5011,7 @@
         <v>142.86000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5006,7 +5037,7 @@
         <v>6190.48</v>
       </c>
       <c r="G5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5014,13 +5045,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B6" s="4">
         <v>36692</v>
       </c>
       <c r="C6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -5047,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5139,7 +5170,7 @@
         <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E2" t="s">
         <v>278</v>
@@ -5195,7 +5226,7 @@
         <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F3" t="s">
         <v>285</v>
@@ -5238,8 +5269,8 @@
       <c r="C4" t="s">
         <v>277</v>
       </c>
-      <c r="D4" t="s">
-        <v>189</v>
+      <c r="D4" s="14" t="s">
+        <v>1382</v>
       </c>
       <c r="E4" t="s">
         <v>364</v>
@@ -5550,8 +5581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5594,136 +5625,139 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>877</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>317</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1137</v>
+        <v>1386</v>
       </c>
       <c r="B2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C2">
         <v>5512570</v>
       </c>
       <c r="D2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E2" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="F2" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="G2" t="s">
-        <v>882</v>
+        <v>881</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45170</v>
       </c>
       <c r="J2" s="4">
         <v>45287</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>1140</v>
+        <v>1388</v>
       </c>
       <c r="M2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N2" t="s">
         <v>275</v>
       </c>
       <c r="O2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P2" t="s">
         <v>198</v>
@@ -5741,37 +5775,37 @@
         <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="W2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="6">
         <v>0</v>
@@ -5779,20 +5813,29 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1151</v>
+        <v>1387</v>
       </c>
       <c r="B3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C3" s="14">
         <v>5500005</v>
       </c>
       <c r="D3" t="s">
-        <v>1150</v>
+        <v>1147</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>1251</v>
       </c>
       <c r="I3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="J3" s="4">
         <v>45318</v>
@@ -5801,10 +5844,10 @@
         <v>45352</v>
       </c>
       <c r="L3" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="O3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P3" t="s">
         <v>200</v>
@@ -5824,729 +5867,732 @@
       <c r="U3" t="s">
         <v>357</v>
       </c>
+      <c r="V3" t="s">
+        <v>1278</v>
+      </c>
       <c r="W3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="X3">
+        <v>18</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="16">
+        <v>5522333</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20">
+        <v>0</v>
+      </c>
+      <c r="S5" s="20">
+        <v>0</v>
+      </c>
+      <c r="T5" s="20">
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="L6" s="15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>1152</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5522333</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1386</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="O4" t="s">
-        <v>926</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O8" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <v>0</v>
+      </c>
+      <c r="X9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>17</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="O5" t="s">
-        <v>926</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="P11" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>18</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <v>0</v>
+      </c>
+      <c r="X11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="L6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1124</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="L12" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
         <v>1</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>573</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="O7" t="s">
-        <v>885</v>
-      </c>
-      <c r="P7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="AC12" s="15">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>1145</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="L8" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O8" t="s">
-        <v>926</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="C13" s="15">
+        <v>5500005</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I13" s="17">
+        <v>45170</v>
+      </c>
+      <c r="J13" s="17">
+        <v>45318</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="15" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="Q13" s="15">
+        <v>7</v>
+      </c>
+      <c r="R13" s="15">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15">
+        <v>4</v>
+      </c>
+      <c r="T13" s="15">
+        <v>2</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>1278</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>1280</v>
+      </c>
+      <c r="X13" s="15">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="L9" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O9" t="s">
-        <v>926</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="C14" s="20">
+        <v>5500005</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I14" s="21">
+        <v>45170</v>
+      </c>
+      <c r="J14" s="21">
+        <v>45318</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="P14" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O10" t="s">
-        <v>952</v>
-      </c>
-      <c r="P10" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <v>4</v>
+      </c>
+      <c r="T14" s="20">
+        <v>2</v>
+      </c>
+      <c r="U14" s="20" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="W14" s="20" t="s">
+        <v>1282</v>
+      </c>
+      <c r="X14" s="20">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="20">
         <v>1</v>
       </c>
-      <c r="AA10">
-        <v>4</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B11" t="s">
-        <v>275</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1176</v>
-      </c>
-      <c r="O11" t="s">
-        <v>952</v>
-      </c>
-      <c r="P11" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>5</v>
-      </c>
-      <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B12" t="s">
-        <v>275</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O12" t="s">
-        <v>885</v>
-      </c>
-      <c r="P12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>22</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>10</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13">
-        <v>5500005</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I13" s="4">
-        <v>45170</v>
-      </c>
-      <c r="J13" s="4">
-        <v>45318</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="O13" t="s">
-        <v>952</v>
-      </c>
-      <c r="P13" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-      <c r="U13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="V13" t="s">
-        <v>1283</v>
-      </c>
-      <c r="W13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="X13">
-        <v>23</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>11</v>
-      </c>
-      <c r="AC13">
-        <v>2</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14">
-        <v>5500005</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I14" s="4">
-        <v>45170</v>
-      </c>
-      <c r="J14" s="4">
-        <v>45318</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" t="s">
-        <v>1286</v>
-      </c>
-      <c r="O14" t="s">
-        <v>952</v>
-      </c>
-      <c r="P14" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>4</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14" t="s">
-        <v>1284</v>
-      </c>
-      <c r="V14" t="s">
-        <v>1283</v>
-      </c>
-      <c r="W14" t="s">
-        <v>1287</v>
-      </c>
-      <c r="X14">
-        <v>24</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>2</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="22">
         <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -6578,7 +6624,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -6598,19 +6644,19 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B17" t="s">
         <v>573</v>
       </c>
       <c r="L17" t="s">
+        <v>949</v>
+      </c>
+      <c r="N17" t="s">
         <v>950</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>951</v>
-      </c>
-      <c r="O17" t="s">
-        <v>952</v>
       </c>
       <c r="P17" t="s">
         <v>199</v>
@@ -6628,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="X17">
         <v>21</v>
@@ -6660,16 +6706,16 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B18" t="s">
         <v>275</v>
       </c>
       <c r="L18" t="s">
+        <v>924</v>
+      </c>
+      <c r="O18" t="s">
         <v>925</v>
-      </c>
-      <c r="O18" t="s">
-        <v>926</v>
       </c>
       <c r="P18" t="s">
         <v>200</v>
@@ -6739,29 +6785,29 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C3" t="s">
         <v>280</v>
@@ -6769,57 +6815,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
+        <v>952</v>
+      </c>
+      <c r="C7" t="s">
         <v>953</v>
-      </c>
-      <c r="C7" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="B8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C8" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -6865,25 +6911,25 @@
         <v>753</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>898</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>900</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
@@ -6910,15 +6956,15 @@
         <v>5</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B2" t="s">
         <v>757</v>
@@ -6927,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E2" t="s">
         <v>933</v>
       </c>
-      <c r="E2" t="s">
-        <v>934</v>
-      </c>
       <c r="J2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="M2" t="s">
         <v>72</v>
@@ -6945,10 +6991,10 @@
         <v>37</v>
       </c>
       <c r="Q2" t="s">
+        <v>942</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="S2">
         <v>4568853286</v>
@@ -6956,7 +7002,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -6965,25 +7011,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G3" t="s">
+        <v>934</v>
+      </c>
+      <c r="H3" t="s">
         <v>935</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>936</v>
       </c>
-      <c r="I3" t="s">
-        <v>937</v>
-      </c>
       <c r="J3" t="s">
+        <v>939</v>
+      </c>
+      <c r="K3" t="s">
         <v>940</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>941</v>
-      </c>
-      <c r="L3" t="s">
-        <v>942</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -6998,7 +7044,7 @@
         <v>4000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="S3">
         <v>2348876890</v>
@@ -7006,7 +7052,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -7015,16 +7061,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>954</v>
+      </c>
+      <c r="I4" t="s">
         <v>955</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>956</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>957</v>
-      </c>
-      <c r="M4" t="s">
-        <v>958</v>
       </c>
       <c r="N4" t="s">
         <v>39</v>
@@ -7033,10 +7079,10 @@
         <v>37</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="S4">
         <v>6780909654</v>
@@ -7044,7 +7090,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="B5" t="s">
         <v>757</v>
@@ -7053,16 +7099,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="E5" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="J5" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="K5" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -7074,10 +7120,10 @@
         <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="S5">
         <v>7896778787</v>
@@ -7085,7 +7131,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -7094,22 +7140,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="M6" t="s">
         <v>1267</v>
       </c>
-      <c r="H6" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1272</v>
-      </c>
       <c r="N6" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -7118,7 +7164,7 @@
         <v>19706</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="S6">
         <v>7780991098</v>
@@ -7163,288 +7209,288 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B2" t="s">
         <v>1118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1119</v>
       </c>
       <c r="C2" t="s">
         <v>759</v>
       </c>
       <c r="D2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F2" t="s">
         <v>759</v>
       </c>
       <c r="G2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I2" t="s">
         <v>759</v>
       </c>
       <c r="J2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="L2" t="s">
         <v>759</v>
       </c>
       <c r="M2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O2" t="s">
         <v>759</v>
       </c>
       <c r="P2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Q2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="R2" t="s">
         <v>759</v>
       </c>
       <c r="S2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="T2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="U2" t="s">
         <v>759</v>
       </c>
       <c r="V2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="W2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="X2" t="s">
         <v>759</v>
       </c>
       <c r="Y2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Z2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AA2" t="s">
         <v>759</v>
       </c>
       <c r="AB2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AC2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AD2" t="s">
         <v>759</v>
       </c>
       <c r="AE2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AF2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AG2" t="s">
         <v>759</v>
       </c>
       <c r="AH2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AI2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AJ2" t="s">
         <v>759</v>
       </c>
       <c r="AK2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AL2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AM2" t="s">
         <v>759</v>
       </c>
       <c r="AN2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AO2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AP2" t="s">
         <v>759</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AR2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AS2" t="s">
         <v>759</v>
       </c>
       <c r="AT2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AU2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AV2" t="s">
         <v>759</v>
@@ -7452,22 +7498,22 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="X3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AL3" t="s">
         <v>759</v>
       </c>
       <c r="AV3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -7505,48 +7551,48 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B2" t="s">
         <v>573</v>
       </c>
       <c r="C2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D2" t="s">
         <v>1179</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1184</v>
       </c>
       <c r="E2" s="4">
         <v>44440</v>
@@ -7569,16 +7615,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B3" t="s">
         <v>573</v>
       </c>
       <c r="C3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D3" t="s">
         <v>1180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1185</v>
       </c>
       <c r="E3" s="4">
         <v>44806</v>
@@ -7601,16 +7647,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B4" t="s">
         <v>573</v>
       </c>
       <c r="C4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D4" t="s">
         <v>1181</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1186</v>
       </c>
       <c r="E4" s="4">
         <v>44809</v>
@@ -7633,16 +7679,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B5" t="s">
         <v>576</v>
       </c>
       <c r="C5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D5" t="s">
         <v>1182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1187</v>
       </c>
       <c r="E5" s="4">
         <v>44810</v>
@@ -7668,16 +7714,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B6" t="s">
         <v>573</v>
       </c>
       <c r="C6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D6" t="s">
         <v>1179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1184</v>
       </c>
       <c r="E6" s="4">
         <v>44811</v>
@@ -7700,16 +7746,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="B7" t="s">
         <v>573</v>
       </c>
       <c r="C7" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="D7" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="E7" s="4">
         <v>44819</v>
@@ -7739,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073F58F-6509-4BF3-843F-237D06AC55C6}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7760,45 +7806,45 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>754</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B2" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F2" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="G2" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7806,22 +7852,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B3" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C3" t="s">
         <v>757</v>
       </c>
       <c r="E3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1215</v>
+        <v>1210</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1212</v>
       </c>
       <c r="G3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7829,22 +7875,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B4" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="F4" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="G4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -7852,22 +7898,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B5" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C5" t="s">
         <v>757</v>
       </c>
       <c r="E5" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="G5" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -7875,22 +7921,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B6" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C6" t="s">
         <v>757</v>
       </c>
       <c r="E6" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="G6" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -7898,16 +7944,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7915,16 +7961,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B8" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -7932,16 +7978,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B9" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C9" t="s">
         <v>757</v>
       </c>
       <c r="D9" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -7949,16 +7995,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B10" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C10" t="s">
         <v>757</v>
       </c>
       <c r="D10" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -7966,16 +8012,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B11" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C11" t="s">
         <v>757</v>
       </c>
       <c r="D11" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -7983,16 +8029,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="B12" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C12" t="s">
         <v>757</v>
       </c>
       <c r="D12" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8000,22 +8046,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="B13" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="F13" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="G13" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8067,69 +8113,69 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="B2">
         <v>1256918.8700000001</v>
@@ -8144,7 +8190,7 @@
         <v>573</v>
       </c>
       <c r="F2" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="G2" s="4">
         <v>45176</v>
@@ -8156,25 +8202,25 @@
         <v>45149</v>
       </c>
       <c r="J2" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="K2" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="L2" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="M2" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="N2" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="O2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="P2" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
@@ -8183,7 +8229,7 @@
         <v>12345</v>
       </c>
       <c r="S2" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -8194,7 +8240,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="E3" t="s">
         <v>576</v>
@@ -8203,7 +8249,7 @@
         <v>45178</v>
       </c>
       <c r="J3" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -8745,27 +8791,27 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B2" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="C2">
         <v>128.88999999999999</v>
@@ -8782,10 +8828,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B3" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C3">
         <v>1200000</v>
@@ -8799,10 +8845,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B4" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C4">
         <v>56789.98</v>
@@ -8819,10 +8865,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="B5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -8919,7 +8965,7 @@
         <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -8978,13 +9024,13 @@
         <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -9028,12 +9074,12 @@
         <v>828</v>
       </c>
       <c r="B14" t="s">
-        <v>829</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B15" t="s">
         <v>287</v>
@@ -9041,97 +9087,97 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>830</v>
+      </c>
+      <c r="B16" t="s">
         <v>831</v>
-      </c>
-      <c r="B16" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>971</v>
+      </c>
+      <c r="B17" t="s">
         <v>972</v>
-      </c>
-      <c r="B17" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>905</v>
+      </c>
+      <c r="B18" t="s">
         <v>906</v>
-      </c>
-      <c r="B18" t="s">
-        <v>907</v>
       </c>
       <c r="C18">
         <v>90077451</v>
       </c>
       <c r="D18" t="s">
+        <v>908</v>
+      </c>
+      <c r="E18" t="s">
         <v>909</v>
       </c>
-      <c r="E18" t="s">
-        <v>910</v>
-      </c>
       <c r="F18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>919</v>
+      </c>
+      <c r="B19" t="s">
         <v>920</v>
       </c>
-      <c r="B19" t="s">
-        <v>921</v>
-      </c>
       <c r="F19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>927</v>
+      </c>
+      <c r="B20" t="s">
         <v>928</v>
-      </c>
-      <c r="B20" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>917</v>
+      </c>
+      <c r="B21" t="s">
         <v>918</v>
-      </c>
-      <c r="B21" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>921</v>
+      </c>
+      <c r="B22" t="s">
         <v>922</v>
-      </c>
-      <c r="B22" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B23" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="B24" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="B25" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
@@ -9312,7 +9358,7 @@
         <v>389</v>
       </c>
       <c r="P3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q3" t="s">
         <v>306</v>
@@ -9370,40 +9416,40 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D5" t="s">
         <v>912</v>
       </c>
-      <c r="C5" t="s">
-        <v>911</v>
-      </c>
-      <c r="D5" t="s">
-        <v>913</v>
-      </c>
       <c r="E5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5" t="s">
+        <v>913</v>
+      </c>
+      <c r="N5" t="s">
         <v>914</v>
       </c>
-      <c r="N5" t="s">
-        <v>915</v>
-      </c>
       <c r="O5" t="s">
+        <v>946</v>
+      </c>
+      <c r="P5" t="s">
         <v>947</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>948</v>
       </c>
-      <c r="Q5" t="s">
-        <v>949</v>
-      </c>
       <c r="R5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -9415,10 +9461,10 @@
         <v>125.78</v>
       </c>
       <c r="W5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="X5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -9455,7 +9501,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9466,7 +9512,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -9532,7 +9578,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -9543,7 +9589,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -9554,7 +9600,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -9565,7 +9611,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B12">
         <v>62</v>
@@ -9576,7 +9622,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -9786,13 +9832,13 @@
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
       </c>
       <c r="B2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C2" t="s">
         <v>572</v>
       </c>
       <c r="AS2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
@@ -9891,7 +9937,7 @@
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
       </c>
       <c r="B8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C8" t="s">
         <v>578</v>
@@ -9933,13 +9979,13 @@
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
       </c>
       <c r="B10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C10" t="s">
         <v>573</v>
       </c>
       <c r="AS10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -10284,7 +10330,7 @@
         <v>Research File - Order in Council (OIC)</v>
       </c>
       <c r="B28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C28" t="s">
         <v>577</v>
@@ -10326,7 +10372,7 @@
         <v>610</v>
       </c>
       <c r="AS29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
@@ -10416,7 +10462,7 @@
         <v>Research File - Transfer of administration</v>
       </c>
       <c r="B34" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C34" t="s">
         <v>576</v>
@@ -10425,16 +10471,16 @@
         <v>36841</v>
       </c>
       <c r="Y34" t="s">
+        <v>989</v>
+      </c>
+      <c r="AM34" t="s">
         <v>990</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AP34" t="s">
         <v>991</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AV34" t="s">
         <v>992</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -10443,13 +10489,13 @@
         <v>Acquisition File - Affidavit of service</v>
       </c>
       <c r="B35" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C35" t="s">
         <v>577</v>
       </c>
       <c r="AS35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -10458,13 +10504,13 @@
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
       </c>
       <c r="B36" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C36" t="s">
         <v>578</v>
       </c>
       <c r="AS36" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -10473,13 +10519,13 @@
         <v>Acquisition File - Compensation cheque</v>
       </c>
       <c r="B37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C37" t="s">
         <v>572</v>
       </c>
       <c r="AS37" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -10503,13 +10549,13 @@
         <v>Acquisition File - Notice of advanced payment (Form 8)</v>
       </c>
       <c r="B39" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C39" t="s">
         <v>574</v>
       </c>
       <c r="AS39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
@@ -10518,13 +10564,13 @@
         <v>Acquisition File - Notice of expropriation (Form 1)</v>
       </c>
       <c r="B40" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C40" t="s">
         <v>575</v>
       </c>
       <c r="AS40" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
@@ -10533,13 +10579,13 @@
         <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
       </c>
       <c r="B41" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C41" t="s">
         <v>576</v>
       </c>
       <c r="AS41" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
@@ -10548,7 +10594,7 @@
         <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
       </c>
       <c r="B42" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C42" t="s">
         <v>577</v>
@@ -10563,13 +10609,13 @@
         <v>Acquisition File - Record of negotiation</v>
       </c>
       <c r="B43" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C43" t="s">
         <v>578</v>
       </c>
       <c r="AS43" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
@@ -10578,13 +10624,13 @@
         <v>Acquisition File - Release of claims</v>
       </c>
       <c r="B44" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C44" t="s">
         <v>572</v>
       </c>
       <c r="AS44" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
@@ -10638,13 +10684,13 @@
         <v>Acquisition File - Temporary license for construction access (H0074)</v>
       </c>
       <c r="B48" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C48" t="s">
         <v>576</v>
       </c>
       <c r="AS48" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.35">
@@ -10674,18 +10720,18 @@
         <v>Acquisition File - Vesting notice (Form 9)</v>
       </c>
       <c r="B50" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C50" t="s">
         <v>578</v>
       </c>
       <c r="AS50" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B51" t="s">
         <v>532</v>
@@ -10697,18 +10743,18 @@
         <v>676767776</v>
       </c>
       <c r="AM51" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP51" t="s">
         <v>966</v>
       </c>
-      <c r="AP51" t="s">
-        <v>967</v>
-      </c>
       <c r="AS51" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B52" t="s">
         <v>525</v>
@@ -10731,10 +10777,10 @@
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B53" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C53" t="s">
         <v>574</v>
@@ -10745,7 +10791,7 @@
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B54" t="s">
         <v>517</v>
@@ -10754,12 +10800,12 @@
         <v>575</v>
       </c>
       <c r="AS54" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B55" t="s">
         <v>521</v>
@@ -10768,35 +10814,35 @@
         <v>576</v>
       </c>
       <c r="E55" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G55" s="13">
         <v>44174</v>
       </c>
       <c r="AD55" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AS55" t="s">
         <v>1011</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B56" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C56" t="s">
         <v>577</v>
       </c>
       <c r="AS56" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B57" t="s">
         <v>528</v>
@@ -10808,10 +10854,10 @@
         <v>36872</v>
       </c>
       <c r="M57" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AR57" t="s">
         <v>1016</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>1017</v>
       </c>
       <c r="AT57" s="13">
         <v>36892</v>
@@ -10819,7 +10865,7 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B58" t="s">
         <v>530</v>
@@ -10828,12 +10874,12 @@
         <v>572</v>
       </c>
       <c r="AS58" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B59" t="s">
         <v>531</v>
@@ -10845,15 +10891,15 @@
         <v>2347987</v>
       </c>
       <c r="Z59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AJ59" t="s">
         <v>1021</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B60" t="s">
         <v>536</v>
@@ -10862,24 +10908,24 @@
         <v>574</v>
       </c>
       <c r="V60" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Y60" t="s">
         <v>1024</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>1025</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>1026</v>
       </c>
       <c r="AN60" s="4">
         <v>36872</v>
       </c>
       <c r="AO60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -10891,18 +10937,18 @@
         <v>765356</v>
       </c>
       <c r="AM61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AP61" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AS61" t="s">
         <v>1030</v>
-      </c>
-      <c r="AS61" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B62" t="s">
         <v>540</v>
@@ -10911,21 +10957,21 @@
         <v>576</v>
       </c>
       <c r="AH62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AI62" t="s">
         <v>1033</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>1034</v>
       </c>
       <c r="AK62">
         <v>333</v>
       </c>
       <c r="AL62" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B63" t="s">
         <v>541</v>
@@ -10934,7 +10980,7 @@
         <v>577</v>
       </c>
       <c r="E63" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G63" s="13">
         <v>45085</v>
@@ -10943,12 +10989,12 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B64" t="s">
         <v>543</v>
@@ -10957,12 +11003,12 @@
         <v>578</v>
       </c>
       <c r="AS64" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B65" t="s">
         <v>544</v>
@@ -10971,12 +11017,12 @@
         <v>572</v>
       </c>
       <c r="AS65" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B66" t="s">
         <v>521</v>
@@ -10985,7 +11031,7 @@
         <v>572</v>
       </c>
       <c r="AS66" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -11050,10 +11096,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B6" t="s">
         <v>833</v>
-      </c>
-      <c r="B6" t="s">
-        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -11222,127 +11268,127 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>1335</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
@@ -11763,7 +11809,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
@@ -11775,13 +11821,13 @@
         <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G6" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J6" t="s">
         <v>90</v>
@@ -11791,7 +11837,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="R6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="S6" t="s">
         <v>93</v>
@@ -11800,10 +11846,10 @@
         <v>120</v>
       </c>
       <c r="U6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V6" t="s">
         <v>1047</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1048</v>
       </c>
       <c r="X6" t="s">
         <v>155</v>
@@ -11824,7 +11870,7 @@
         <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
@@ -11926,127 +11972,127 @@
         <v>622</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1376</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -12238,7 +12284,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E4" t="s">
         <v>121</v>
@@ -12306,23 +12352,23 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B5" t="s">
         <v>1053</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1054</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1055</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1056</v>
       </c>
       <c r="E5" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J5" t="s">
         <v>89</v>
@@ -12331,7 +12377,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M5" t="s">
         <v>94</v>
@@ -12340,10 +12386,10 @@
         <v>103</v>
       </c>
       <c r="AB5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AC5" t="s">
         <v>1059</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1060</v>
       </c>
       <c r="AE5" t="s">
         <v>43</v>
@@ -12358,10 +12404,10 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AT5" t="s">
         <v>1061</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -12390,15 +12436,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BK2" sqref="BK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
     <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
@@ -12481,7 +12527,7 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>630</v>
@@ -12550,7 +12596,7 @@
         <v>648</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>649</v>
@@ -12613,25 +12659,25 @@
         <v>667</v>
       </c>
       <c r="AT1" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AY1" s="3" t="s">
-        <v>842</v>
-      </c>
       <c r="AZ1" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="BA1" s="3" t="s">
         <v>668</v>
@@ -12697,7 +12743,7 @@
         <v>688</v>
       </c>
       <c r="BV1" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="BW1" s="3" t="s">
         <v>689</v>
@@ -12726,10 +12772,10 @@
         <v>696</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>1385</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>1384</v>
       </c>
       <c r="D2" t="s">
         <v>573</v>
@@ -13069,7 +13115,7 @@
         <v>698</v>
       </c>
       <c r="P4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q4" t="s">
         <v>741</v>
@@ -13161,19 +13207,19 @@
         <v>45373</v>
       </c>
       <c r="J5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K5" t="s">
+        <v>851</v>
+      </c>
+      <c r="L5" t="s">
         <v>852</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>853</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>854</v>
-      </c>
-      <c r="P5" t="s">
-        <v>855</v>
       </c>
       <c r="AJ5">
         <v>13</v>
@@ -13238,13 +13284,13 @@
         <v>45373</v>
       </c>
       <c r="J6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L6" t="s">
+        <v>855</v>
+      </c>
+      <c r="P6" t="s">
         <v>856</v>
-      </c>
-      <c r="P6" t="s">
-        <v>857</v>
       </c>
       <c r="AJ6">
         <v>14</v>
@@ -13309,19 +13355,19 @@
         <v>45373</v>
       </c>
       <c r="J7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K7" t="s">
+        <v>857</v>
+      </c>
+      <c r="L7" t="s">
         <v>858</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>859</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>860</v>
-      </c>
-      <c r="P7" t="s">
-        <v>861</v>
       </c>
       <c r="AJ7">
         <v>15</v>
@@ -13415,7 +13461,7 @@
         <v>757</v>
       </c>
       <c r="C2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D2" t="s">
         <v>759</v>
@@ -13638,7 +13684,7 @@
         <v>44645</v>
       </c>
       <c r="G3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H3" s="4">
         <v>44666</v>
@@ -13656,7 +13702,7 @@
         <v>44681</v>
       </c>
       <c r="M3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -13667,7 +13713,7 @@
         <v>789</v>
       </c>
       <c r="D4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E4" s="11">
         <v>50.99</v>
@@ -13676,7 +13722,7 @@
         <v>44645</v>
       </c>
       <c r="G4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H4" s="4">
         <v>44666</v>
@@ -13694,7 +13740,7 @@
         <v>44681</v>
       </c>
       <c r="M4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -13714,7 +13760,7 @@
         <v>45058</v>
       </c>
       <c r="G5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H5" s="4">
         <v>45076</v>
@@ -13783,7 +13829,7 @@
         <v>796</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>798</v>
@@ -13858,7 +13904,7 @@
         <v>3000</v>
       </c>
       <c r="F4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -13895,7 +13941,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B6" s="4">
         <v>36690</v>
@@ -13910,7 +13956,7 @@
         <v>3000</v>
       </c>
       <c r="F6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A043F78-7FEB-4CC5-9BDD-DA0C021739E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9D466-ADA8-4F4A-AA91-FCE07CE1EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1368">
   <si>
     <t>FirstName</t>
   </si>
@@ -872,12 +872,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Complete RF Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit existing RF </t>
-  </si>
-  <si>
     <t>Create RF from Pin</t>
   </si>
   <si>
@@ -917,9 +911,6 @@
     <t>Automation Test - Description for the Result of the Research File request</t>
   </si>
   <si>
-    <t>Automation Test - Expropiation Notes</t>
-  </si>
-  <si>
     <t>Edited Automation Path</t>
   </si>
   <si>
@@ -1199,9 +1190,6 @@
     <t>RF Edit</t>
   </si>
   <si>
-    <t>PropertyResearchRowEnd</t>
-  </si>
-  <si>
     <t>Hwy / Road</t>
   </si>
   <si>
@@ -2783,9 +2771,6 @@
     <t>AF Add Properties</t>
   </si>
   <si>
-    <t>014-929-791</t>
-  </si>
-  <si>
     <t>65 VICTORIA DISTRICT PLAN 33395</t>
   </si>
   <si>
@@ -3431,12 +3416,6 @@
     <t>AcquisitionFileChecklistIndex</t>
   </si>
   <si>
-    <t>Automated Test Acquisition File with Checklist</t>
-  </si>
-  <si>
-    <t>Transferred</t>
-  </si>
-  <si>
     <t>Section6ExpropriationSelect1</t>
   </si>
   <si>
@@ -3473,36 +3452,12 @@
     <t>OwnerRepresentative</t>
   </si>
   <si>
-    <t>Acquisition File Properties</t>
-  </si>
-  <si>
     <t>Inserting owners in an automated Acquisition File</t>
   </si>
   <si>
-    <t>Automated Acquisition File Properties</t>
-  </si>
-  <si>
     <t>Update Automated Acquisition File</t>
   </si>
   <si>
-    <t>Acquisition File Checklist</t>
-  </si>
-  <si>
-    <t>Acquisition File Documents</t>
-  </si>
-  <si>
-    <t>Acquisition File Notes</t>
-  </si>
-  <si>
-    <t>Acquisition File Agreements</t>
-  </si>
-  <si>
-    <t>Acquisition File Stakeholders</t>
-  </si>
-  <si>
-    <t>Acquisition File Compensation</t>
-  </si>
-  <si>
     <t>Acquisition File Expropriation</t>
   </si>
   <si>
@@ -3515,18 +3470,6 @@
     <t>Cyril Charles Bubar</t>
   </si>
   <si>
-    <t>Update Acquisition File Notes</t>
-  </si>
-  <si>
-    <t>Automated Test Acquisition File Digital Documents</t>
-  </si>
-  <si>
-    <t>Automated Test Acquisition File Notes</t>
-  </si>
-  <si>
-    <t>Automated Acquisition File Agreements</t>
-  </si>
-  <si>
     <t>AgreementStartRow</t>
   </si>
   <si>
@@ -3575,12 +3518,6 @@
     <t>AgreementCommencementDate</t>
   </si>
   <si>
-    <t>Update Acquisition File Agreement</t>
-  </si>
-  <si>
-    <t>Automated Acquisition File Update Agreement</t>
-  </si>
-  <si>
     <t>Update Acquisition File Agreement (H179T)</t>
   </si>
   <si>
@@ -3614,18 +3551,12 @@
     <t>License Of Occupation (H0074)</t>
   </si>
   <si>
-    <t>Automated Acquisition File Stakeholders</t>
-  </si>
-  <si>
     <t>StakeholderStartRow</t>
   </si>
   <si>
     <t>StakeholderCount</t>
   </si>
   <si>
-    <t>Update Acquisition File Compensation</t>
-  </si>
-  <si>
     <t>Update Acquisition File Expropriation</t>
   </si>
   <si>
@@ -3821,9 +3752,6 @@
     <t>Federal</t>
   </si>
   <si>
-    <t>Automated Acquisition File with Compensation Requisition H120</t>
-  </si>
-  <si>
     <t>AF with H120</t>
   </si>
   <si>
@@ -3902,18 +3830,6 @@
     <t>Catherine Seel</t>
   </si>
   <si>
-    <t>Zaitamyn Poultry Inc.</t>
-  </si>
-  <si>
-    <t>Creating Acquisition File with Compensation</t>
-  </si>
-  <si>
-    <t>Update of Automated Acquisition File Compensation H120</t>
-  </si>
-  <si>
-    <t>Updating Acquisition File with Compensation</t>
-  </si>
-  <si>
     <t>CompensationAlternateProject</t>
   </si>
   <si>
@@ -3935,12 +3851,6 @@
     <t>CompensationTotalAllowableAmount</t>
   </si>
   <si>
-    <t>Aihong Cai(MoTI Solicitor)</t>
-  </si>
-  <si>
-    <t>Update Acquisition File Properties</t>
-  </si>
-  <si>
     <t>StakeholderIndex</t>
   </si>
   <si>
@@ -4208,9 +4118,6 @@
     <t>StakeholderContactType</t>
   </si>
   <si>
-    <t>Test Project in Test environments</t>
-  </si>
-  <si>
     <t>5500100 Darrell Bay Ferry Terminal</t>
   </si>
   <si>
@@ -4233,6 +4140,33 @@
   </si>
   <si>
     <t>Editing existing Acquisition File</t>
+  </si>
+  <si>
+    <t>Devin Smith(MoTI Solicitor)</t>
+  </si>
+  <si>
+    <t>010-344-250</t>
+  </si>
+  <si>
+    <t>PropertyResearchRowCount</t>
+  </si>
+  <si>
+    <t>ResearchFileMOTIRegion</t>
+  </si>
+  <si>
+    <t>RF Details Creation</t>
+  </si>
+  <si>
+    <t>RF Properties Creation</t>
+  </si>
+  <si>
+    <t>RF Properties Update</t>
+  </si>
+  <si>
+    <t>RF Details Update</t>
+  </si>
+  <si>
+    <t>Automation Test - Expropriation Notes</t>
   </si>
 </sst>
 </file>
@@ -4274,24 +4208,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4307,7 +4229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4327,19 +4249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4657,22 +4566,22 @@
         <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>176</v>
@@ -4711,13 +4620,13 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="I2" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="J2" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>205</v>
@@ -4756,7 +4665,7 @@
         <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>205</v>
@@ -4795,7 +4704,7 @@
         <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>205</v>
@@ -4834,7 +4743,7 @@
         <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>205</v>
@@ -4851,7 +4760,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
         <v>186</v>
@@ -4917,36 +4826,36 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B2" s="4">
         <v>44616</v>
       </c>
       <c r="C2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D2">
         <v>2625</v>
@@ -4959,7 +4868,7 @@
         <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4967,13 +4876,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B3" s="4">
         <v>44623</v>
       </c>
       <c r="C3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -4985,7 +4894,7 @@
         <v>14.29</v>
       </c>
       <c r="G3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4993,13 +4902,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B4" s="4">
         <v>44630</v>
       </c>
       <c r="C4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -5011,7 +4920,7 @@
         <v>142.86000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5019,13 +4928,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B5" s="4">
         <v>45061</v>
       </c>
       <c r="C5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D5">
         <v>130000</v>
@@ -5037,7 +4946,7 @@
         <v>6190.48</v>
       </c>
       <c r="G5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5045,13 +4954,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B6" s="4">
         <v>36692</v>
       </c>
       <c r="C6" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -5063,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5076,295 +4985,354 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="63.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>310</v>
+        <v>1362</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44625</v>
+      </c>
+      <c r="J2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="4">
+        <v>44631</v>
+      </c>
+      <c r="N2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="4">
+        <v>44651</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44625</v>
-      </c>
-      <c r="I2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="4">
-        <v>44631</v>
-      </c>
-      <c r="M2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>284</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K3" t="s">
-        <v>286</v>
-      </c>
-      <c r="L3" s="4">
-        <v>44651</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>358</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H4" s="4">
-        <v>44254</v>
-      </c>
-      <c r="I4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K4" t="s">
-        <v>368</v>
-      </c>
-      <c r="L4" s="4">
-        <v>44703</v>
-      </c>
-      <c r="M4" t="s">
-        <v>369</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" t="s">
-        <v>275</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>387</v>
       </c>
       <c r="B6" t="s">
         <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" t="s">
-        <v>278</v>
-      </c>
-      <c r="N6" t="b">
+        <v>275</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44254</v>
+      </c>
+      <c r="J6" t="s">
+        <v>363</v>
+      </c>
+      <c r="K6" t="s">
+        <v>364</v>
+      </c>
+      <c r="L6" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" s="4">
+        <v>44703</v>
+      </c>
+      <c r="N6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O6" t="b">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
+        <v>276</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="Q6">
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="R6">
-        <v>6</v>
+      <c r="S8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="Remoraid@1987" xr:uid="{6726979E-8687-41FB-A207-52B54165935B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5373,7 +5341,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5392,183 +5360,183 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
         <v>333</v>
       </c>
-      <c r="B4" t="s">
-        <v>336</v>
-      </c>
       <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" t="s">
         <v>341</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" t="s">
         <v>344</v>
-      </c>
-      <c r="E4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>360</v>
-      </c>
-      <c r="C7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" t="s">
         <v>370</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>371</v>
-      </c>
-      <c r="C8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5579,10 +5547,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AC2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5625,120 +5593,120 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>876</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>1154</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>1155</v>
+        <v>1136</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1184</v>
+        <v>1162</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>1273</v>
+        <v>1249</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1274</v>
+        <v>1250</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1386</v>
+        <v>1355</v>
       </c>
       <c r="B2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C2">
         <v>5512570</v>
       </c>
       <c r="D2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G2" t="s">
         <v>877</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>881</v>
       </c>
       <c r="I2" s="4">
         <v>45170</v>
@@ -5748,16 +5716,16 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>1388</v>
+        <v>1357</v>
       </c>
       <c r="M2" t="s">
+        <v>876</v>
+      </c>
+      <c r="N2" t="s">
+        <v>273</v>
+      </c>
+      <c r="O2" t="s">
         <v>880</v>
-      </c>
-      <c r="N2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O2" t="s">
-        <v>884</v>
       </c>
       <c r="P2" t="s">
         <v>198</v>
@@ -5775,13 +5743,13 @@
         <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="V2" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="W2" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="X2">
         <v>17</v>
@@ -5813,29 +5781,29 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1387</v>
+        <v>1356</v>
       </c>
       <c r="B3" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="14">
-        <v>5500005</v>
+        <v>5500001</v>
       </c>
       <c r="D3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>1251</v>
+        <v>1132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1228</v>
       </c>
       <c r="I3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45184</v>
+        <v>45210</v>
       </c>
       <c r="J3" s="4">
         <v>45318</v>
@@ -5844,10 +5812,10 @@
         <v>45352</v>
       </c>
       <c r="L3" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="O3" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="P3" t="s">
         <v>200</v>
@@ -5865,13 +5833,13 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="V3" t="s">
-        <v>1278</v>
+        <v>1254</v>
       </c>
       <c r="W3" t="s">
-        <v>1389</v>
+        <v>1358</v>
       </c>
       <c r="X3">
         <v>18</v>
@@ -5901,862 +5869,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="16">
-        <v>5522333</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>1381</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="15" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="P4" s="15" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B6" t="s">
+        <v>569</v>
+      </c>
+      <c r="L6" t="s">
+        <v>944</v>
+      </c>
+      <c r="N6" t="s">
+        <v>945</v>
+      </c>
+      <c r="O6" t="s">
+        <v>946</v>
+      </c>
+      <c r="P6" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>921</v>
+      </c>
+      <c r="X6">
+        <v>21</v>
+      </c>
+      <c r="Y6">
         <v>0</v>
       </c>
-      <c r="R4" s="15">
+      <c r="Z6">
         <v>0</v>
       </c>
-      <c r="S4" s="15">
+      <c r="AA6">
         <v>0</v>
       </c>
-      <c r="T4" s="15">
+      <c r="AB6">
         <v>0</v>
       </c>
-      <c r="X4" s="15">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="15">
+      <c r="AC6">
         <v>0</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="AD6">
         <v>0</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AE6">
         <v>0</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AF6" s="6">
         <v>0</v>
       </c>
-      <c r="AC4" s="15">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L7" t="s">
+        <v>919</v>
+      </c>
+      <c r="O7" t="s">
+        <v>920</v>
+      </c>
+      <c r="P7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="S7">
         <v>0</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="20" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q5" s="20">
+      <c r="X7">
+        <v>19</v>
+      </c>
+      <c r="Y7">
         <v>0</v>
       </c>
-      <c r="R5" s="20">
+      <c r="Z7">
         <v>0</v>
       </c>
-      <c r="S5" s="20">
+      <c r="AA7">
         <v>0</v>
       </c>
-      <c r="T5" s="20">
+      <c r="AB7">
         <v>0</v>
       </c>
-      <c r="X5" s="20">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="20">
+      <c r="AC7">
         <v>0</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="AD7">
         <v>0</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AE7">
         <v>0</v>
       </c>
-      <c r="AB5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="L6" s="15" t="s">
-        <v>1122</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>1123</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>0</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
-        <v>0</v>
-      </c>
-      <c r="X6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>1151</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
-        <v>0</v>
-      </c>
-      <c r="S7" s="15">
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
-        <v>0</v>
-      </c>
-      <c r="X7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>1152</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>0</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>0</v>
-      </c>
-      <c r="T8" s="15">
-        <v>0</v>
-      </c>
-      <c r="X8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>1152</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0</v>
-      </c>
-      <c r="R9" s="20">
-        <v>0</v>
-      </c>
-      <c r="S9" s="20">
-        <v>0</v>
-      </c>
-      <c r="T9" s="20">
-        <v>0</v>
-      </c>
-      <c r="X9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>1153</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>951</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>0</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>0</v>
-      </c>
-      <c r="T10" s="15">
-        <v>0</v>
-      </c>
-      <c r="X10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>1171</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>951</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>0</v>
-      </c>
-      <c r="R11" s="20">
-        <v>0</v>
-      </c>
-      <c r="S11" s="20">
-        <v>0</v>
-      </c>
-      <c r="T11" s="20">
-        <v>0</v>
-      </c>
-      <c r="X11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>1183</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
-        <v>0</v>
-      </c>
-      <c r="X12" s="15">
-        <v>22</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="15">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="15">
-        <v>5500005</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I13" s="17">
-        <v>45170</v>
-      </c>
-      <c r="J13" s="17">
-        <v>45318</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="15" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>951</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>7</v>
-      </c>
-      <c r="R13" s="15">
-        <v>1</v>
-      </c>
-      <c r="S13" s="15">
-        <v>4</v>
-      </c>
-      <c r="T13" s="15">
-        <v>2</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>1279</v>
-      </c>
-      <c r="V13" s="15" t="s">
-        <v>1278</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>1280</v>
-      </c>
-      <c r="X13" s="15">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>11</v>
-      </c>
-      <c r="AC13" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="18">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="20">
-        <v>5500005</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I14" s="21">
-        <v>45170</v>
-      </c>
-      <c r="J14" s="21">
-        <v>45318</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="20" t="s">
-        <v>1281</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>951</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>0</v>
-      </c>
-      <c r="R14" s="20">
-        <v>0</v>
-      </c>
-      <c r="S14" s="20">
-        <v>4</v>
-      </c>
-      <c r="T14" s="20">
-        <v>2</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>1279</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>1278</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>1282</v>
-      </c>
-      <c r="X14" s="20">
-        <v>24</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="22">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1146</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>921</v>
-      </c>
-      <c r="B17" t="s">
-        <v>573</v>
-      </c>
-      <c r="L17" t="s">
-        <v>949</v>
-      </c>
-      <c r="N17" t="s">
-        <v>950</v>
-      </c>
-      <c r="O17" t="s">
-        <v>951</v>
-      </c>
-      <c r="P17" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17" t="s">
-        <v>926</v>
-      </c>
-      <c r="X17">
-        <v>21</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>923</v>
-      </c>
-      <c r="B18" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" t="s">
-        <v>924</v>
-      </c>
-      <c r="O18" t="s">
-        <v>925</v>
-      </c>
-      <c r="P18" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>19</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="6">
+      <c r="AF7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6771,7 +6050,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6785,87 +6064,87 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C2" t="s">
-        <v>892</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C3" t="s">
         <v>888</v>
-      </c>
-      <c r="C3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C4" t="s">
         <v>889</v>
-      </c>
-      <c r="C4" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B5" t="s">
+        <v>886</v>
+      </c>
+      <c r="C5" t="s">
         <v>890</v>
-      </c>
-      <c r="C5" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" t="s">
         <v>891</v>
-      </c>
-      <c r="C6" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B7" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C7" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1253</v>
+        <v>1229</v>
       </c>
       <c r="B8" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C8" t="s">
-        <v>1254</v>
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
@@ -6908,28 +6187,28 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
@@ -6956,30 +6235,30 @@
         <v>5</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E2" t="s">
+        <v>928</v>
+      </c>
+      <c r="J2" t="s">
         <v>933</v>
-      </c>
-      <c r="J2" t="s">
-        <v>938</v>
       </c>
       <c r="M2" t="s">
         <v>72</v>
@@ -6991,10 +6270,10 @@
         <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="S2">
         <v>4568853286</v>
@@ -7002,7 +6281,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -7011,25 +6290,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="G3" t="s">
+        <v>929</v>
+      </c>
+      <c r="H3" t="s">
+        <v>930</v>
+      </c>
+      <c r="I3" t="s">
+        <v>931</v>
+      </c>
+      <c r="J3" t="s">
         <v>934</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>935</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>936</v>
-      </c>
-      <c r="J3" t="s">
-        <v>939</v>
-      </c>
-      <c r="K3" t="s">
-        <v>940</v>
-      </c>
-      <c r="L3" t="s">
-        <v>941</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -7044,7 +6323,7 @@
         <v>4000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="S3">
         <v>2348876890</v>
@@ -7052,7 +6331,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -7061,16 +6340,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="I4" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="J4" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="M4" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="N4" t="s">
         <v>39</v>
@@ -7079,10 +6358,10 @@
         <v>37</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="S4">
         <v>6780909654</v>
@@ -7090,25 +6369,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1255</v>
+        <v>1231</v>
       </c>
       <c r="B5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="E5" t="s">
-        <v>1257</v>
+        <v>1233</v>
       </c>
       <c r="J5" t="s">
-        <v>1258</v>
+        <v>1234</v>
       </c>
       <c r="K5" t="s">
-        <v>1259</v>
+        <v>1235</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -7120,10 +6399,10 @@
         <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1260</v>
+        <v>1236</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1261</v>
+        <v>1237</v>
       </c>
       <c r="S5">
         <v>7896778787</v>
@@ -7131,7 +6410,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1255</v>
+        <v>1231</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -7140,22 +6419,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>1262</v>
+        <v>1238</v>
       </c>
       <c r="H6" t="s">
-        <v>1263</v>
+        <v>1239</v>
       </c>
       <c r="I6" t="s">
-        <v>1264</v>
+        <v>1240</v>
       </c>
       <c r="J6" t="s">
-        <v>1265</v>
+        <v>1241</v>
       </c>
       <c r="M6" t="s">
-        <v>1267</v>
+        <v>1243</v>
       </c>
       <c r="N6" t="s">
-        <v>1266</v>
+        <v>1242</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -7164,7 +6443,7 @@
         <v>19706</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1268</v>
+        <v>1244</v>
       </c>
       <c r="S6">
         <v>7780991098</v>
@@ -7209,311 +6488,311 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="E2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="F2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="H2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="I2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="J2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="K2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="L2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="N2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="O2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="P2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="Q2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="R2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="S2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="T2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="U2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="V2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="W2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="X2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="Y2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="Z2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AA2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AB2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AC2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AD2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AE2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AF2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AG2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AH2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AI2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AJ2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AK2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AL2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AM2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AN2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AO2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AP2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AR2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AS2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AT2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AU2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AV2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B3" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C3" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="X3" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AL3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AV3" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -7551,48 +6830,48 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1156</v>
+        <v>1137</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1157</v>
+        <v>1138</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1158</v>
+        <v>1139</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1162</v>
+        <v>1143</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1163</v>
+        <v>1144</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C2" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="D2" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="E2" s="4">
         <v>44440</v>
@@ -7615,16 +6894,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="D3" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="E3" s="4">
         <v>44806</v>
@@ -7647,16 +6926,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1167</v>
+        <v>1148</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="D4" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="E4" s="4">
         <v>44809</v>
@@ -7679,16 +6958,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1168</v>
+        <v>1149</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C5" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="D5" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="E5" s="4">
         <v>44810</v>
@@ -7714,16 +6993,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="D6" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="E6" s="4">
         <v>44811</v>
@@ -7746,16 +7025,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="D7" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="E7" s="4">
         <v>44819</v>
@@ -7785,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073F58F-6509-4BF3-843F-237D06AC55C6}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7806,45 +7085,45 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1191</v>
+        <v>1168</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1380</v>
+        <v>1350</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1190</v>
+        <v>1167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1188</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1189</v>
+        <v>1166</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1292</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>1193</v>
+        <v>1170</v>
       </c>
       <c r="F2" t="s">
-        <v>1211</v>
+        <v>1188</v>
       </c>
       <c r="G2" t="s">
-        <v>1204</v>
+        <v>1181</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7852,22 +7131,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B3" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E3" t="s">
-        <v>1210</v>
+        <v>1187</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1212</v>
+        <v>1189</v>
       </c>
       <c r="G3" t="s">
-        <v>1205</v>
+        <v>1182</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7875,22 +7154,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B4" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1196</v>
+        <v>1173</v>
       </c>
       <c r="F4" t="s">
-        <v>1211</v>
+        <v>1188</v>
       </c>
       <c r="G4" t="s">
-        <v>1206</v>
+        <v>1183</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -7898,22 +7177,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B5" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="C5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E5" t="s">
-        <v>1198</v>
+        <v>1175</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1212</v>
+        <v>1189</v>
       </c>
       <c r="G5" t="s">
-        <v>1207</v>
+        <v>1184</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -7921,22 +7200,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B6" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="C6" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E6" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1212</v>
+        <v>1189</v>
       </c>
       <c r="G6" t="s">
-        <v>1208</v>
+        <v>1185</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -7944,16 +7223,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B7" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7961,16 +7240,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B8" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1195</v>
+        <v>1172</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -7978,16 +7257,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B9" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="C9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D9" t="s">
-        <v>1197</v>
+        <v>1174</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -7995,16 +7274,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B10" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="C10" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D10" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -8012,16 +7291,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B11" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="C11" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D11" t="s">
-        <v>1201</v>
+        <v>1178</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -8029,16 +7308,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1269</v>
+        <v>1245</v>
       </c>
       <c r="B12" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="C12" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D12" t="s">
-        <v>1270</v>
+        <v>1246</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8046,22 +7325,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1269</v>
+        <v>1245</v>
       </c>
       <c r="B13" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1271</v>
+        <v>1247</v>
       </c>
       <c r="F13" t="s">
-        <v>1272</v>
+        <v>1248</v>
       </c>
       <c r="G13" t="s">
-        <v>1293</v>
+        <v>1263</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8079,8 +7358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC3795-F36B-4D0F-8244-A4F4C3935686}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8113,69 +7392,69 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1286</v>
+        <v>1258</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1287</v>
+        <v>1259</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1288</v>
+        <v>1260</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1217</v>
+        <v>1194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1283</v>
+        <v>1255</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1218</v>
+        <v>1195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1219</v>
+        <v>1196</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1220</v>
+        <v>1197</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1221</v>
+        <v>1198</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1222</v>
+        <v>1199</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1223</v>
+        <v>1200</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1224</v>
+        <v>1201</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1225</v>
+        <v>1202</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1226</v>
+        <v>1203</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1294</v>
+        <v>1264</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1227</v>
+        <v>1204</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1229</v>
+        <v>1206</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>1230</v>
+        <v>1207</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1216</v>
+        <v>1193</v>
       </c>
       <c r="B2">
         <v>1256918.8700000001</v>
@@ -8187,10 +7466,10 @@
         <v>1259764.81</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F2" t="s">
-        <v>1284</v>
+        <v>1256</v>
       </c>
       <c r="G2" s="4">
         <v>45176</v>
@@ -8202,25 +7481,25 @@
         <v>45149</v>
       </c>
       <c r="J2" t="s">
-        <v>1243</v>
+        <v>1220</v>
       </c>
       <c r="K2" t="s">
-        <v>1244</v>
+        <v>1221</v>
       </c>
       <c r="L2" t="s">
-        <v>1245</v>
+        <v>1222</v>
       </c>
       <c r="M2" t="s">
-        <v>1246</v>
+        <v>1223</v>
       </c>
       <c r="N2" t="s">
-        <v>1247</v>
+        <v>1224</v>
       </c>
       <c r="O2" t="s">
-        <v>1290</v>
+        <v>1359</v>
       </c>
       <c r="P2" t="s">
-        <v>1254</v>
+        <v>278</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
@@ -8229,7 +7508,7 @@
         <v>12345</v>
       </c>
       <c r="S2" t="s">
-        <v>1248</v>
+        <v>1225</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -8240,16 +7519,16 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1285</v>
+        <v>1257</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G3" s="4">
         <v>45178</v>
       </c>
       <c r="J3" t="s">
-        <v>1377</v>
+        <v>1347</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -8318,7 +7597,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>209</v>
@@ -8347,7 +7626,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>210</v>
@@ -8376,7 +7655,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>211</v>
@@ -8405,16 +7684,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E5" s="4">
         <v>45075</v>
@@ -8426,21 +7705,21 @@
         <v>45076</v>
       </c>
       <c r="H5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E6" s="4">
         <v>43831</v>
@@ -8452,21 +7731,21 @@
         <v>43832</v>
       </c>
       <c r="H6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E7" s="4">
         <v>43862</v>
@@ -8478,21 +7757,21 @@
         <v>43863</v>
       </c>
       <c r="I7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E8" s="4">
         <v>43891</v>
@@ -8504,21 +7783,21 @@
         <v>43892</v>
       </c>
       <c r="H8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E9" s="4">
         <v>43922</v>
@@ -8530,21 +7809,21 @@
         <v>43923</v>
       </c>
       <c r="H9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E10" s="4">
         <v>43952</v>
@@ -8558,16 +7837,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E11" s="4">
         <v>43983</v>
@@ -8579,21 +7858,21 @@
         <v>43984</v>
       </c>
       <c r="H11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E12" s="4">
         <v>44013</v>
@@ -8605,21 +7884,21 @@
         <v>44014</v>
       </c>
       <c r="H12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E13" s="4">
         <v>44044</v>
@@ -8631,21 +7910,21 @@
         <v>44045</v>
       </c>
       <c r="I13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E14" s="4">
         <v>44075</v>
@@ -8657,21 +7936,21 @@
         <v>44076</v>
       </c>
       <c r="H14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E15" s="4">
         <v>44105</v>
@@ -8683,12 +7962,12 @@
         <v>44106</v>
       </c>
       <c r="H15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
         <v>217</v>
@@ -8717,7 +7996,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B17" t="s">
         <v>218</v>
@@ -8740,7 +8019,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
         <v>219</v>
@@ -8791,33 +8070,33 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1232</v>
+        <v>1209</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1233</v>
+        <v>1210</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1236</v>
+        <v>1213</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1235</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1237</v>
+        <v>1214</v>
       </c>
       <c r="B2" t="s">
-        <v>1240</v>
+        <v>1217</v>
       </c>
       <c r="C2">
         <v>128.88999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E2">
         <v>6.44</v>
@@ -8828,16 +8107,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1238</v>
+        <v>1215</v>
       </c>
       <c r="B3" t="s">
-        <v>1241</v>
+        <v>1218</v>
       </c>
       <c r="C3">
         <v>1200000</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F3">
         <v>1200000</v>
@@ -8845,16 +8124,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1239</v>
+        <v>1216</v>
       </c>
       <c r="B4" t="s">
-        <v>1242</v>
+        <v>1219</v>
       </c>
       <c r="C4">
         <v>56789.98</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E4">
         <v>2839.5</v>
@@ -8865,16 +8144,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1378</v>
+        <v>1348</v>
       </c>
       <c r="B5" t="s">
-        <v>1379</v>
+        <v>1349</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -8891,7 +8170,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8942,242 +8221,248 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C2">
         <v>8157500</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>1070</v>
+        <v>1065</v>
+      </c>
+      <c r="C3">
+        <v>2000000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C12">
         <v>553490</v>
       </c>
       <c r="D12" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E12" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F12" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B13" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B14" t="s">
-        <v>1383</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B16" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B17" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>906</v>
+        <v>1360</v>
       </c>
       <c r="C18">
         <v>90077451</v>
       </c>
       <c r="D18" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E18" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F18" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B19" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F19" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B20" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B21" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B22" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B23" t="s">
-        <v>1202</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1269</v>
+        <v>1245</v>
       </c>
       <c r="B24" t="s">
-        <v>1276</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1275</v>
+        <v>1251</v>
       </c>
       <c r="B25" t="s">
-        <v>1277</v>
+        <v>1253</v>
       </c>
     </row>
   </sheetData>
@@ -9240,7 +8525,7 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>249</v>
@@ -9288,10 +8573,10 @@
         <v>263</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>264</v>
@@ -9311,57 +8596,57 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" t="s">
         <v>296</v>
-      </c>
-      <c r="D3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" t="s">
-        <v>299</v>
       </c>
       <c r="H3" t="s">
         <v>198</v>
       </c>
       <c r="I3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
         <v>301</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M3" t="s">
+        <v>375</v>
+      </c>
+      <c r="N3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" t="s">
+        <v>385</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q3" t="s">
         <v>303</v>
-      </c>
-      <c r="K3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" t="s">
-        <v>302</v>
-      </c>
-      <c r="M3" t="s">
-        <v>379</v>
-      </c>
-      <c r="N3" t="s">
-        <v>305</v>
-      </c>
-      <c r="O3" t="s">
-        <v>389</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>306</v>
       </c>
       <c r="T3">
         <v>100</v>
@@ -9373,30 +8658,30 @@
         <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="X3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
         <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="T4">
         <v>65</v>
@@ -9408,48 +8693,48 @@
         <v>103.59</v>
       </c>
       <c r="W4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="X4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B5" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C5" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D5" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E5" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="N5" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="O5" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="P5" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="Q5" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="R5" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -9461,10 +8746,10 @@
         <v>125.78</v>
       </c>
       <c r="W5" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="X5" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -9478,7 +8763,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9493,15 +8778,15 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9512,7 +8797,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -9523,7 +8808,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -9534,7 +8819,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -9545,7 +8830,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9556,7 +8841,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -9567,7 +8852,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B8">
         <v>52</v>
@@ -9578,7 +8863,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -9589,7 +8874,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -9600,7 +8885,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -9611,7 +8896,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B12">
         <v>62</v>
@@ -9622,7 +8907,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -9642,7 +8927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD50"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9679,151 +8964,151 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>256</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="AO1" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>235</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AT1" s="12" t="s">
         <v>178</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
@@ -9832,13 +9117,13 @@
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
       </c>
       <c r="B2" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AS2" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
@@ -9847,19 +9132,19 @@
         <v>Lease &amp; Licenses - BC assessment search</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="T3" t="s">
         <v>36</v>
       </c>
       <c r="AQ3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AW3">
         <v>2000</v>
@@ -9871,13 +9156,13 @@
         <v>Lease &amp; Licenses - Briefing notes</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AS4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
@@ -9886,19 +9171,19 @@
         <v>Lease &amp; Licenses - Canada lands survey</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" t="s">
         <v>575</v>
       </c>
-      <c r="D5" t="s">
-        <v>579</v>
-      </c>
       <c r="S5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AS5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
@@ -9907,13 +9192,13 @@
         <v>Lease &amp; Licenses - Certificate of Insurance (H0111)</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AS6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
@@ -9922,13 +9207,13 @@
         <v>Lease &amp; Licenses - Company search</v>
       </c>
       <c r="B7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AS7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
@@ -9937,13 +9222,13 @@
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
       </c>
       <c r="B8" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AS8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
@@ -9952,25 +9237,25 @@
         <v>Lease &amp; Licenses - Correspondence</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G9" s="13">
         <v>37388</v>
       </c>
       <c r="AD9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AM9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AS9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -9979,13 +9264,13 @@
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
       </c>
       <c r="B10" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AS10" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -9994,13 +9279,13 @@
         <v>Lease &amp; Licenses - First nations consultation</v>
       </c>
       <c r="B11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AS11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
@@ -10009,10 +9294,10 @@
         <v>Lease &amp; Licenses - Gazette</v>
       </c>
       <c r="B12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C12" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N12" s="13">
         <v>40128</v>
@@ -10024,19 +9309,19 @@
         <v>40169</v>
       </c>
       <c r="Q12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="V12" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="W12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Z12">
         <v>1276877</v>
       </c>
       <c r="AP12" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -10045,22 +9330,22 @@
         <v>Lease &amp; Licenses - Historical file</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C13" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K13" s="13">
         <v>36763</v>
       </c>
       <c r="M13" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AE13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AR13" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="AT13" s="13">
         <v>36100</v>
@@ -10072,13 +9357,13 @@
         <v>Lease &amp; Licenses - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AS14" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
@@ -10087,13 +9372,13 @@
         <v>Lease &amp; Licenses - Legal correspondence (ex: to AG/external lawyers)</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AS15" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
@@ -10102,19 +9387,19 @@
         <v>Lease &amp; Licenses - Legal survey plan</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="V16" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Z16">
         <v>3435555</v>
       </c>
       <c r="AJ16" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.35">
@@ -10123,13 +9408,13 @@
         <v>Lease &amp; Licenses - Licensing approval/sign-off</v>
       </c>
       <c r="B17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C17" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AS17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.35">
@@ -10138,13 +9423,13 @@
         <v>Lease &amp; Licenses - LTSA documents and plans (except title search)</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AS18" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.35">
@@ -10153,13 +9438,13 @@
         <v>Research File - Condition of entry (H0443)</v>
       </c>
       <c r="B19" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C19" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AS19" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.35">
@@ -10168,13 +9453,13 @@
         <v>Research File - Crown grant</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C20" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F20" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.35">
@@ -10183,22 +9468,22 @@
         <v>Research File - District road register</v>
       </c>
       <c r="B21" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C21" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J21" t="s">
         <v>72</v>
       </c>
       <c r="R21" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AP21" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AS21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.35">
@@ -10207,22 +9492,22 @@
         <v>Research File - Field notes</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C22" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I22" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L22" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="U22" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AS22" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.35">
@@ -10231,10 +9516,10 @@
         <v>Research File - Ministerial order</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C23" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H23" s="13">
         <v>36534</v>
@@ -10243,13 +9528,13 @@
         <v>23456789</v>
       </c>
       <c r="Y23" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AM23">
         <v>2334568</v>
       </c>
       <c r="AP23" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.35">
@@ -10258,13 +9543,13 @@
         <v>Research File - Miscellaneous notes (LTSA)</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C24" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AF24" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.35">
@@ -10273,25 +9558,25 @@
         <v>Research File - MoTI plan</v>
       </c>
       <c r="B25" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="Y25" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Z25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AN25" s="4">
         <v>36412</v>
       </c>
       <c r="AO25" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.35">
@@ -10300,13 +9585,13 @@
         <v>Research File - Notice of claims/Litigation documents</v>
       </c>
       <c r="B26" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C26" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AS26" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.35">
@@ -10315,13 +9600,13 @@
         <v>Research File - Notice of possible entry (H0224)</v>
       </c>
       <c r="B27" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AS27" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
@@ -10330,22 +9615,22 @@
         <v>Research File - Order in Council (OIC)</v>
       </c>
       <c r="B28" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C28" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AA28" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AB28" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AC28" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AP28" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AW28">
         <v>2023</v>
@@ -10360,19 +9645,19 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AG29">
         <v>34567588</v>
       </c>
       <c r="AM29" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AP29" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AS29" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
@@ -10381,13 +9666,13 @@
         <v>Research File - Owner agreement/offer</v>
       </c>
       <c r="B30" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C30" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AS30" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.35">
@@ -10396,22 +9681,22 @@
         <v>Research File - PA plans / Design drawings</v>
       </c>
       <c r="B31" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C31" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AH31" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AI31" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AK31">
         <v>9222</v>
       </c>
       <c r="AL31" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.35">
@@ -10420,25 +9705,25 @@
         <v>Research File - Photos / Images / Video</v>
       </c>
       <c r="B32" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C32" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E32" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G32" s="13">
         <v>42239</v>
       </c>
       <c r="AD32" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AM32" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AS32" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
@@ -10447,10 +9732,10 @@
         <v>Research File - Privy council</v>
       </c>
       <c r="B33" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C33" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AX33">
         <v>1997</v>
@@ -10462,25 +9747,25 @@
         <v>Research File - Transfer of administration</v>
       </c>
       <c r="B34" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C34" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H34" s="13">
         <v>36841</v>
       </c>
       <c r="Y34" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="AM34" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="AP34" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="AV34" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -10489,13 +9774,13 @@
         <v>Acquisition File - Affidavit of service</v>
       </c>
       <c r="B35" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C35" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AS35" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -10504,13 +9789,13 @@
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
       </c>
       <c r="B36" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C36" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AS36" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -10519,13 +9804,13 @@
         <v>Acquisition File - Compensation cheque</v>
       </c>
       <c r="B37" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C37" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AS37" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -10534,13 +9819,13 @@
         <v>Acquisition File - Lease / License (H1005/H1005A)</v>
       </c>
       <c r="B38" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C38" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AS38" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
@@ -10549,13 +9834,13 @@
         <v>Acquisition File - Notice of advanced payment (Form 8)</v>
       </c>
       <c r="B39" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C39" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AS39" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
@@ -10564,13 +9849,13 @@
         <v>Acquisition File - Notice of expropriation (Form 1)</v>
       </c>
       <c r="B40" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C40" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AS40" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
@@ -10579,13 +9864,13 @@
         <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
       </c>
       <c r="B41" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C41" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AS41" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
@@ -10594,13 +9879,13 @@
         <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
       </c>
       <c r="B42" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C42" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AS42" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
@@ -10609,13 +9894,13 @@
         <v>Acquisition File - Record of negotiation</v>
       </c>
       <c r="B43" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C43" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AS43" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
@@ -10624,13 +9909,13 @@
         <v>Acquisition File - Release of claims</v>
       </c>
       <c r="B44" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C44" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AS44" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
@@ -10639,13 +9924,13 @@
         <v>Acquisition File - Spending authority approval (SAA)</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C45" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AS45" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
@@ -10654,13 +9939,13 @@
         <v>Acquisition File - Surplus property declaration</v>
       </c>
       <c r="B46" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C46" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AS46" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
@@ -10669,13 +9954,13 @@
         <v>Acquisition File - Tax notices and assessments</v>
       </c>
       <c r="B47" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C47" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AS47" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
@@ -10684,13 +9969,13 @@
         <v>Acquisition File - Temporary license for construction access (H0074)</v>
       </c>
       <c r="B48" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C48" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AS48" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.35">
@@ -10699,19 +9984,19 @@
         <v>Acquisition File - Title search / Historical title</v>
       </c>
       <c r="B49" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C49" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AD49" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AF49" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AU49" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.35">
@@ -10720,144 +10005,144 @@
         <v>Acquisition File - Vesting notice (Form 9)</v>
       </c>
       <c r="B50" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C50" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AS50" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B51" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C51" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AG51">
         <v>676767776</v>
       </c>
       <c r="AM51" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AP51" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AS51" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B52" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C52" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I52" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L52" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="U52" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AS52" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B53" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C53" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AS53" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B54" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C54" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AS54" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B55" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C55" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E55" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="G55" s="13">
         <v>44174</v>
       </c>
       <c r="AD55" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="AS55" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B56" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C56" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AS56" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B57" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C57" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K57" s="13">
         <v>36872</v>
       </c>
       <c r="M57" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AR57" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AT57" s="13">
         <v>36892</v>
@@ -10865,122 +10150,122 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B58" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C58" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AS58" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B59" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C59" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="V59">
         <v>2347987</v>
       </c>
       <c r="Z59" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="AJ59" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B60" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C60" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="V60" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="Y60" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="Z60" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="AN60" s="4">
         <v>36872</v>
       </c>
       <c r="AO60" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AG61">
         <v>765356</v>
       </c>
       <c r="AM61" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="AP61" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="AS61" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B62" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C62" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AH62" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="AI62" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="AK62">
         <v>333</v>
       </c>
       <c r="AL62" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B63" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C63" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E63" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G63" s="13">
         <v>45085</v>
@@ -10989,49 +10274,49 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B64" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C64" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AS64" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B65" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C65" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AS65" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B66" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C66" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AS66" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -11045,7 +10330,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11056,7 +10341,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>268</v>
@@ -11064,42 +10349,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" t="s">
         <v>392</v>
-      </c>
-      <c r="B3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B6" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -11132,36 +10417,36 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" t="s">
         <v>459</v>
-      </c>
-      <c r="B2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D2" t="s">
-        <v>463</v>
       </c>
       <c r="F2" s="4">
         <v>45701</v>
@@ -11172,13 +10457,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" t="s">
         <v>460</v>
-      </c>
-      <c r="C3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D3" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -11262,133 +10547,133 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>1305</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
@@ -11554,7 +10839,7 @@
         <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
@@ -11809,7 +11094,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
@@ -11821,13 +11106,13 @@
         <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="G6" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="J6" t="s">
         <v>90</v>
@@ -11837,7 +11122,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="R6" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="S6" t="s">
         <v>93</v>
@@ -11846,10 +11131,10 @@
         <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="V6" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="X6" t="s">
         <v>155</v>
@@ -11870,7 +11155,7 @@
         <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
@@ -11969,130 +11254,130 @@
         <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -12284,7 +11569,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E4" t="s">
         <v>121</v>
@@ -12352,23 +11637,23 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B5" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C5" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D5" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E5" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="J5" t="s">
         <v>89</v>
@@ -12377,7 +11662,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="M5" t="s">
         <v>94</v>
@@ -12386,10 +11671,10 @@
         <v>103</v>
       </c>
       <c r="AB5" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AC5" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AE5" t="s">
         <v>43</v>
@@ -12404,10 +11689,10 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="AT5" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -12437,7 +11722,7 @@
   <dimension ref="A1:CC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12527,261 +11812,261 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>169</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="BW1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="BV1" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>1385</v>
+        <v>1354</v>
       </c>
       <c r="C2" t="s">
-        <v>1384</v>
+        <v>1353</v>
       </c>
       <c r="D2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F2" s="4">
         <v>44614</v>
@@ -12790,73 +12075,73 @@
         <v>45373</v>
       </c>
       <c r="H2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="I2" t="s">
         <v>198</v>
       </c>
       <c r="J2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="P2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="R2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="S2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T2" s="4">
         <v>44615</v>
       </c>
       <c r="U2" t="s">
+        <v>699</v>
+      </c>
+      <c r="V2" t="s">
+        <v>700</v>
+      </c>
+      <c r="W2" t="s">
+        <v>341</v>
+      </c>
+      <c r="X2" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>702</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>700</v>
+      </c>
+      <c r="AC2" t="s">
         <v>703</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AD2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF2" t="s">
         <v>704</v>
       </c>
-      <c r="W2" t="s">
-        <v>344</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AG2" t="s">
         <v>705</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AH2" t="s">
         <v>706</v>
       </c>
-      <c r="Z2" t="s">
-        <v>704</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>704</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AI2" t="s">
         <v>707</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>708</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>709</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>710</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>711</v>
       </c>
       <c r="AJ2">
         <v>11</v>
@@ -12880,37 +12165,37 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
+        <v>708</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>710</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>711</v>
+      </c>
+      <c r="AU2" t="s">
         <v>712</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>713</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>714</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>715</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>716</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>717</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>718</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>719</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>720</v>
       </c>
       <c r="AZ2">
         <v>3</v>
       </c>
       <c r="BA2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="BB2">
         <v>25000</v>
@@ -12919,10 +12204,10 @@
         <v>46003</v>
       </c>
       <c r="BD2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="BE2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="BF2">
         <v>205000</v>
@@ -12931,10 +12216,10 @@
         <v>46368</v>
       </c>
       <c r="BH2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="BI2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="BJ2">
         <v>125000</v>
@@ -12943,10 +12228,10 @@
         <v>46733</v>
       </c>
       <c r="BL2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="BM2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="BN2">
         <v>11000</v>
@@ -12955,13 +12240,13 @@
         <v>45272</v>
       </c>
       <c r="BP2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="BQ2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="BR2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="BS2">
         <v>100000</v>
@@ -12970,13 +12255,13 @@
         <v>45729</v>
       </c>
       <c r="BU2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="BV2">
         <v>5</v>
       </c>
       <c r="BW2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="BX2">
         <v>1</v>
@@ -12999,25 +12284,31 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D3" t="s">
-        <v>750</v>
+        <v>746</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45373</v>
+      </c>
+      <c r="J3" t="s">
+        <v>695</v>
       </c>
       <c r="U3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="V3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="W3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AE3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AI3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="AJ3">
         <v>12</v>
@@ -13041,19 +12332,19 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="AX3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="AY3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AZ3">
         <v>3</v>
       </c>
       <c r="BM3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -13062,13 +12353,13 @@
         <v>44897</v>
       </c>
       <c r="BP3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="BV3">
         <v>4</v>
       </c>
       <c r="BW3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="BX3">
         <v>3</v>
@@ -13091,34 +12382,37 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F4" s="4">
         <v>45058</v>
       </c>
+      <c r="G4" s="4">
+        <v>45373</v>
+      </c>
       <c r="I4" t="s">
         <v>199</v>
       </c>
       <c r="J4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="P4" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="Q4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="AJ4">
         <v>16</v>
@@ -13142,19 +12436,19 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AR4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="AS4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BM4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="BN4">
         <v>35000</v>
@@ -13163,13 +12457,13 @@
         <v>45650</v>
       </c>
       <c r="BP4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="BX4">
         <v>4</v>
@@ -13192,13 +12486,13 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F5" s="4">
         <v>45064</v>
@@ -13207,19 +12501,19 @@
         <v>45373</v>
       </c>
       <c r="J5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="K5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="L5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="N5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="P5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="AJ5">
         <v>13</v>
@@ -13269,13 +12563,13 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F6" s="4">
         <v>45063</v>
@@ -13284,13 +12578,13 @@
         <v>45373</v>
       </c>
       <c r="J6" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="L6" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="P6" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AJ6">
         <v>14</v>
@@ -13340,13 +12634,13 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F7" s="4">
         <v>45062</v>
@@ -13355,19 +12649,19 @@
         <v>45373</v>
       </c>
       <c r="J7" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="K7" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="L7" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="N7" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="P7" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="AJ7">
         <v>15</v>
@@ -13441,118 +12735,118 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E2" t="s">
         <v>756</v>
-      </c>
-      <c r="B2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D2" t="s">
-        <v>759</v>
-      </c>
-      <c r="E2" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D6" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -13590,51 +12884,51 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E2" s="11">
         <v>250</v>
@@ -13643,7 +12937,7 @@
         <v>44617</v>
       </c>
       <c r="G2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H2" s="4">
         <v>44645</v>
@@ -13661,21 +12955,21 @@
         <v>44650</v>
       </c>
       <c r="M2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E3" s="11">
         <v>632</v>
@@ -13684,7 +12978,7 @@
         <v>44645</v>
       </c>
       <c r="G3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H3" s="4">
         <v>44666</v>
@@ -13702,18 +12996,18 @@
         <v>44681</v>
       </c>
       <c r="M3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E4" s="11">
         <v>50.99</v>
@@ -13722,7 +13016,7 @@
         <v>44645</v>
       </c>
       <c r="G4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H4" s="4">
         <v>44666</v>
@@ -13740,18 +13034,18 @@
         <v>44681</v>
       </c>
       <c r="M4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E5" s="11">
         <v>3500.79</v>
@@ -13760,7 +13054,7 @@
         <v>45058</v>
       </c>
       <c r="G5" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="H5" s="4">
         <v>45076</v>
@@ -13778,7 +13072,7 @@
         <v>45078</v>
       </c>
       <c r="M5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -13814,30 +13108,30 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B2" s="4">
         <v>44614</v>
@@ -13846,24 +13140,24 @@
         <v>44673</v>
       </c>
       <c r="D2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E2">
         <v>2500</v>
       </c>
       <c r="F2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B3" s="4">
         <v>44704</v>
@@ -13872,24 +13166,24 @@
         <v>44742</v>
       </c>
       <c r="D3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E3">
         <v>3500</v>
       </c>
       <c r="F3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B4" s="4">
         <v>44614</v>
@@ -13898,24 +13192,24 @@
         <v>44673</v>
       </c>
       <c r="D4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
       <c r="F4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B5" s="4">
         <v>45058</v>
@@ -13924,24 +13218,24 @@
         <v>45334</v>
       </c>
       <c r="D5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E5">
         <v>120000</v>
       </c>
       <c r="F5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B6" s="4">
         <v>36690</v>
@@ -13950,19 +13244,19 @@
         <v>36720</v>
       </c>
       <c r="D6" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E6">
         <v>3000</v>
       </c>
       <c r="F6" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9D466-ADA8-4F4A-AA91-FCE07CE1EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE484E5-3112-43F7-BF1C-E1F7430A9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -33,14 +33,17 @@
     <sheet name="AcquisitionStakeholder" sheetId="24" r:id="rId18"/>
     <sheet name="AcquisitionCompensation" sheetId="25" r:id="rId19"/>
     <sheet name="CompensationActivities" sheetId="26" r:id="rId20"/>
-    <sheet name="SearchProperties" sheetId="8" r:id="rId21"/>
-    <sheet name="Properties" sheetId="6" r:id="rId22"/>
-    <sheet name="DocumentsIndex" sheetId="13" r:id="rId23"/>
-    <sheet name="DocumentsDetails" sheetId="12" r:id="rId24"/>
-    <sheet name="Notes" sheetId="10" r:id="rId25"/>
+    <sheet name="AcquisitionExpropriationForm8" sheetId="28" r:id="rId21"/>
+    <sheet name="ExpropriationPayment" sheetId="29" r:id="rId22"/>
+    <sheet name="SearchProperties" sheetId="8" r:id="rId23"/>
+    <sheet name="Properties" sheetId="6" r:id="rId24"/>
+    <sheet name="Takes" sheetId="27" r:id="rId25"/>
+    <sheet name="DocumentsIndex" sheetId="13" r:id="rId26"/>
+    <sheet name="DocumentsDetails" sheetId="12" r:id="rId27"/>
+    <sheet name="Notes" sheetId="10" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">DocumentsDetails!$A$1:$AX$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">DocumentsDetails!$A$1:$AX$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1482">
   <si>
     <t>FirstName</t>
   </si>
@@ -2771,15 +2774,9 @@
     <t>AF Add Properties</t>
   </si>
   <si>
-    <t>65 VICTORIA DISTRICT PLAN 33395</t>
-  </si>
-  <si>
     <t>12411 Trites Rd, Richmond, BC</t>
   </si>
   <si>
-    <t>EPP92028</t>
-  </si>
-  <si>
     <t>1239 Automated St.</t>
   </si>
   <si>
@@ -3455,9 +3452,6 @@
     <t>Inserting owners in an automated Acquisition File</t>
   </si>
   <si>
-    <t>Update Automated Acquisition File</t>
-  </si>
-  <si>
     <t>Acquisition File Expropriation</t>
   </si>
   <si>
@@ -4130,15 +4124,6 @@
     <t>2023-23-0303</t>
   </si>
   <si>
-    <t>New complete Acquisition File</t>
-  </si>
-  <si>
-    <t>Update Acquisition File</t>
-  </si>
-  <si>
-    <t>Automated Acquisition File</t>
-  </si>
-  <si>
     <t>Editing existing Acquisition File</t>
   </si>
   <si>
@@ -4167,6 +4152,366 @@
   </si>
   <si>
     <t>Automation Test - Expropriation Notes</t>
+  </si>
+  <si>
+    <t>TakeType</t>
+  </si>
+  <si>
+    <t>TakeStatus</t>
+  </si>
+  <si>
+    <t>SiteContamination</t>
+  </si>
+  <si>
+    <t>TakeDescription</t>
+  </si>
+  <si>
+    <t>IsNewRightWay</t>
+  </si>
+  <si>
+    <t>IsNewRightWayArea</t>
+  </si>
+  <si>
+    <t>IsStatutoryRightWay</t>
+  </si>
+  <si>
+    <t>IsStatutoryRightWayArea</t>
+  </si>
+  <si>
+    <t>IsLandNotation</t>
+  </si>
+  <si>
+    <t>IsLandNotationDetail</t>
+  </si>
+  <si>
+    <t>IsLandNotationArea</t>
+  </si>
+  <si>
+    <t>IsLandNotationDate</t>
+  </si>
+  <si>
+    <t>IsLicenseConstruct</t>
+  </si>
+  <si>
+    <t>IsLicenseConstructArea</t>
+  </si>
+  <si>
+    <t>IsLicenseConstructDate</t>
+  </si>
+  <si>
+    <t>IsSurplus</t>
+  </si>
+  <si>
+    <t>IsSurplusArea</t>
+  </si>
+  <si>
+    <t>FromProperty</t>
+  </si>
+  <si>
+    <t>TakesCount</t>
+  </si>
+  <si>
+    <t>TakesStartRow</t>
+  </si>
+  <si>
+    <t>Complete AF</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>In-progress</t>
+  </si>
+  <si>
+    <t>Take 1 - Basic Info</t>
+  </si>
+  <si>
+    <t>Take 2 - Complete info</t>
+  </si>
+  <si>
+    <t>Update Take from AF</t>
+  </si>
+  <si>
+    <t>Take 3 - Belong to different property</t>
+  </si>
+  <si>
+    <t>Section 15 Order in Council Reserve</t>
+  </si>
+  <si>
+    <t>NOI Notation of Interest</t>
+  </si>
+  <si>
+    <t>Section 66 Prohibited Use Area</t>
+  </si>
+  <si>
+    <t>Editing a previous created Take</t>
+  </si>
+  <si>
+    <t>Take 4</t>
+  </si>
+  <si>
+    <t>Take 5</t>
+  </si>
+  <si>
+    <t>Automated Research File Creation - Create with Properties</t>
+  </si>
+  <si>
+    <t>Automated Research File Update Details</t>
+  </si>
+  <si>
+    <t>RF Digital Documents</t>
+  </si>
+  <si>
+    <t>Automated Research File Creation - Digital Documents</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>TakeCounter</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Details</t>
+  </si>
+  <si>
+    <t>Update Acquisition File Details</t>
+  </si>
+  <si>
+    <t>Update Automated Acquisition File Details</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Details</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Properties</t>
+  </si>
+  <si>
+    <t>Update Automated Acquisition File Properties</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Takes</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Properties</t>
+  </si>
+  <si>
+    <t>Update Acquisition File Properties</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Takes</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Checklists</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Checklist</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Digital Documents</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Digital Documents</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Notes</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Notes</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Agreements</t>
+  </si>
+  <si>
+    <t>Update Acquisition File Agreements</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Agreements</t>
+  </si>
+  <si>
+    <t>Update Automated Acquisition File Agreements</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Stakeholders</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Stakeholders</t>
+  </si>
+  <si>
+    <t>New Acquisition File to test Compensation</t>
+  </si>
+  <si>
+    <t>Update Acquisition File Compensation</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Compensation</t>
+  </si>
+  <si>
+    <t>Update Automated Acquisition File Compensation</t>
+  </si>
+  <si>
+    <t>VIP40744</t>
+  </si>
+  <si>
+    <t>LOT 42 SECTION 3 TOWNSHIP 5 NEW WESTMINSTER DISTRICT PLAN 17906</t>
+  </si>
+  <si>
+    <t>Update Automated Acquisition File Takes</t>
+  </si>
+  <si>
+    <t>Automated Acquisition File - Expropriation</t>
+  </si>
+  <si>
+    <t>Update Automated Acquisition File Expropriation</t>
+  </si>
+  <si>
+    <t>Form8Payee</t>
+  </si>
+  <si>
+    <t>Form8ExpropriationAuthority</t>
+  </si>
+  <si>
+    <t>Form8Description</t>
+  </si>
+  <si>
+    <t>ExpropriationStartRow</t>
+  </si>
+  <si>
+    <t>ExpropriationCount</t>
+  </si>
+  <si>
+    <t>ExpPaymentItem</t>
+  </si>
+  <si>
+    <t>ExpPaymentAmount</t>
+  </si>
+  <si>
+    <t>ExpPaymentGSTApplicable</t>
+  </si>
+  <si>
+    <t>ExpPaymentGSTAmount</t>
+  </si>
+  <si>
+    <t>ExpPaymentTotalAmount</t>
+  </si>
+  <si>
+    <t>Abdullah Sumeli</t>
+  </si>
+  <si>
+    <t>Abma Monica</t>
+  </si>
+  <si>
+    <t>AF with Expropriation</t>
+  </si>
+  <si>
+    <t>Agnes Leslie Cruickshank</t>
+  </si>
+  <si>
+    <t>LINDA SUSAN SCHOBER</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>1233 Hornby St.</t>
+  </si>
+  <si>
+    <t>Apt 2100</t>
+  </si>
+  <si>
+    <t>V6Z 7U8</t>
+  </si>
+  <si>
+    <t>maria.hayes@yahooo.com</t>
+  </si>
+  <si>
+    <t>Inserting owners to test Expropriation forms</t>
+  </si>
+  <si>
+    <t>Create AF with Expropriation</t>
+  </si>
+  <si>
+    <t>Andreas Michael Matusza</t>
+  </si>
+  <si>
+    <t>Life Estate</t>
+  </si>
+  <si>
+    <t>Budget Truck and Car Rental</t>
+  </si>
+  <si>
+    <t>Update AF with Expropriation</t>
+  </si>
+  <si>
+    <t>Abdullah Sumeli (Owner's Solicitor)</t>
+  </si>
+  <si>
+    <t>Abma Monica (Owner's Representative)</t>
+  </si>
+  <si>
+    <t>Andreas Michael Matusza (Life Estate)</t>
+  </si>
+  <si>
+    <t>Budget Truck and Car Rental (Non-Interest Payee)</t>
+  </si>
+  <si>
+    <t>Wyld, David &amp; Colleen</t>
+  </si>
+  <si>
+    <t>US Border Services - Paid by Clipper</t>
+  </si>
+  <si>
+    <t>South Coast British Columbia Transportation Authority (Translink)</t>
+  </si>
+  <si>
+    <t>Albaraka Investments Inc.</t>
+  </si>
+  <si>
+    <t>Creating 3rd Form 8</t>
+  </si>
+  <si>
+    <t>Creating 1st Form 8</t>
+  </si>
+  <si>
+    <t>Creating 2nd Form 8</t>
+  </si>
+  <si>
+    <t>ExpPaymentStartRow</t>
+  </si>
+  <si>
+    <t>ExpPaymentCount</t>
+  </si>
+  <si>
+    <t>Updating Form 8</t>
+  </si>
+  <si>
+    <t>1st Form 8</t>
+  </si>
+  <si>
+    <t>2nd Form 8</t>
+  </si>
+  <si>
+    <t>Update Form 8 Payment</t>
+  </si>
+  <si>
+    <t>Market Value</t>
+  </si>
+  <si>
+    <t>Total Amount of Advance Taking</t>
+  </si>
+  <si>
+    <t>Temporary SRW</t>
+  </si>
+  <si>
+    <t>Loss of Site Improvements</t>
+  </si>
+  <si>
+    <t>Form8PayeeDisplay</t>
+  </si>
+  <si>
+    <t>Permanent SRW</t>
   </si>
 </sst>
 </file>
@@ -4229,7 +4574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4249,6 +4594,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4533,7 +4880,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4569,19 +4916,19 @@
         <v>619</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1057</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1059</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>176</v>
@@ -4620,13 +4967,13 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="J2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>205</v>
@@ -4665,7 +5012,7 @@
         <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>205</v>
@@ -4704,7 +5051,7 @@
         <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>205</v>
@@ -4743,7 +5090,7 @@
         <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>205</v>
@@ -4985,16 +5332,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C62D2-095D-41C7-8E12-52D5164F6230}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
@@ -5024,7 +5371,7 @@
         <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>307</v>
@@ -5069,12 +5416,12 @@
         <v>329</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B2" t="s">
         <v>270</v>
@@ -5083,7 +5430,7 @@
         <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
@@ -5116,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -5130,10 +5477,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>1395</v>
       </c>
       <c r="C3" t="s">
         <v>273</v>
@@ -5158,34 +5505,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1366</v>
+        <v>1397</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>1398</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L4" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="4">
-        <v>44651</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="O4" t="b">
         <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>355</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -5199,79 +5530,67 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>1396</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5" s="4">
+        <v>44651</v>
+      </c>
       <c r="O5" t="b">
         <v>0</v>
       </c>
+      <c r="P5" t="s">
+        <v>355</v>
+      </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>1359</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F6" t="s">
-        <v>361</v>
-      </c>
-      <c r="G6" t="s">
-        <v>362</v>
-      </c>
-      <c r="H6" t="s">
-        <v>340</v>
-      </c>
-      <c r="I6" s="4">
-        <v>44254</v>
-      </c>
-      <c r="J6" t="s">
-        <v>363</v>
-      </c>
-      <c r="K6" t="s">
-        <v>364</v>
-      </c>
-      <c r="L6" t="s">
-        <v>365</v>
-      </c>
-      <c r="M6" s="4">
-        <v>44703</v>
-      </c>
-      <c r="N6" t="s">
-        <v>366</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="4"/>
       <c r="O6" t="b">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -5279,57 +5598,113 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44254</v>
+      </c>
+      <c r="J7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M7" s="4">
+        <v>44703</v>
+      </c>
+      <c r="N7" t="s">
+        <v>366</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>383</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>270</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>275</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>276</v>
       </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <v>6</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="Remoraid@1987" xr:uid="{6726979E-8687-41FB-A207-52B54165935B}"/>
+    <hyperlink ref="A5" r:id="rId1" display="Remoraid@1987" xr:uid="{6726979E-8687-41FB-A207-52B54165935B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -5547,15 +5922,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABE440-1217-4524-8B92-D6A2E8FC0332}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.36328125" bestFit="1" customWidth="1"/>
@@ -5578,17 +5953,21 @@
     <col min="22" max="22" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="43.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.54296875" customWidth="1"/>
-    <col min="25" max="25" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
@@ -5596,13 +5975,13 @@
         <v>878</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>861</v>
@@ -5611,10 +5990,10 @@
         <v>862</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>863</v>
@@ -5635,7 +6014,7 @@
         <v>868</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>870</v>
@@ -5653,42 +6032,54 @@
         <v>899</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>314</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1116</v>
+        <v>1381</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1135</v>
+        <v>1380</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1162</v>
+        <v>1132</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1163</v>
+        <v>1133</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>1249</v>
+        <v>1159</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1250</v>
+        <v>1160</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+        <v>1246</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1355</v>
+        <v>1402</v>
       </c>
       <c r="B2" t="s">
         <v>879</v>
@@ -5700,10 +6091,10 @@
         <v>873</v>
       </c>
       <c r="E2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F2" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="G2" t="s">
         <v>877</v>
@@ -5716,7 +6107,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>1357</v>
+        <v>1405</v>
       </c>
       <c r="M2" t="s">
         <v>876</v>
@@ -5746,10 +6137,10 @@
         <v>900</v>
       </c>
       <c r="V2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="W2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="X2">
         <v>17</v>
@@ -5758,52 +6149,64 @@
         <v>1</v>
       </c>
       <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
         <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>4</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
       <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
         <v>1</v>
       </c>
-      <c r="AF2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1356</v>
+        <v>1403</v>
       </c>
       <c r="B3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="14">
         <v>5500001</v>
       </c>
       <c r="D3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="F3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45210</v>
+        <v>45225</v>
       </c>
       <c r="J3" s="4">
         <v>45318</v>
@@ -5812,10 +6215,10 @@
         <v>45352</v>
       </c>
       <c r="L3" t="s">
-        <v>1130</v>
+        <v>1404</v>
       </c>
       <c r="O3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="P3" t="s">
         <v>200</v>
@@ -5836,10 +6239,10 @@
         <v>354</v>
       </c>
       <c r="V3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="W3" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="X3">
         <v>18</v>
@@ -5848,68 +6251,223 @@
         <v>0</v>
       </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>5</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>2</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>2</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AH3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4">
+        <v>5512570</v>
+      </c>
+      <c r="D4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G4" t="s">
+        <v>877</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M4" t="s">
+        <v>876</v>
+      </c>
+      <c r="N4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O4" t="s">
+        <v>880</v>
+      </c>
+      <c r="P4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>900</v>
+      </c>
+      <c r="V4" t="s">
         <v>1131</v>
       </c>
+      <c r="W4" t="s">
+        <v>1127</v>
+      </c>
       <c r="X4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1164</v>
+        <v>1410</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5500001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I5" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45225</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45318</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45352</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O5" t="s">
+        <v>944</v>
+      </c>
+      <c r="P5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>6</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>3</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>354</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="X5">
+        <v>18</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -5917,125 +6475,1347 @@
       <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AF5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>916</v>
+        <v>1408</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C6">
+        <v>5512570</v>
+      </c>
+      <c r="D6" t="s">
+        <v>873</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>877</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K6" s="4"/>
       <c r="L6" t="s">
-        <v>944</v>
+        <v>1411</v>
+      </c>
+      <c r="M6" t="s">
+        <v>876</v>
       </c>
       <c r="N6" t="s">
-        <v>945</v>
+        <v>273</v>
       </c>
       <c r="O6" t="s">
-        <v>946</v>
+        <v>880</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
       <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>900</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X6">
+        <v>17</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
-        <v>921</v>
-      </c>
-      <c r="X6">
-        <v>21</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>918</v>
+        <v>1403</v>
       </c>
       <c r="B7" t="s">
         <v>273</v>
       </c>
+      <c r="C7" s="14">
+        <v>5500001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I7" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45225</v>
+      </c>
+      <c r="J7" s="4">
+        <v>45318</v>
+      </c>
+      <c r="K7" s="4">
+        <v>45352</v>
+      </c>
       <c r="L7" t="s">
-        <v>919</v>
+        <v>1430</v>
       </c>
       <c r="O7" t="s">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="P7" t="s">
         <v>200</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+      <c r="Q7" s="8">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8">
+        <v>3</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>354</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1352</v>
       </c>
       <c r="X7">
+        <v>18</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8">
+        <v>5512570</v>
+      </c>
+      <c r="D8" t="s">
+        <v>873</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G8" t="s">
+        <v>877</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M8" t="s">
+        <v>876</v>
+      </c>
+      <c r="N8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" t="s">
+        <v>880</v>
+      </c>
+      <c r="P8" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>900</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X8">
+        <v>17</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9">
+        <v>5512570</v>
+      </c>
+      <c r="D9" t="s">
+        <v>873</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G9" t="s">
+        <v>877</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J9" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M9" t="s">
+        <v>876</v>
+      </c>
+      <c r="N9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O9" t="s">
+        <v>880</v>
+      </c>
+      <c r="P9" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>900</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X9">
+        <v>17</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10">
+        <v>5512570</v>
+      </c>
+      <c r="D10" t="s">
+        <v>873</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G10" t="s">
+        <v>877</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M10" t="s">
+        <v>876</v>
+      </c>
+      <c r="N10" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" t="s">
+        <v>880</v>
+      </c>
+      <c r="P10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>900</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X10">
+        <v>17</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11">
+        <v>5512570</v>
+      </c>
+      <c r="D11" t="s">
+        <v>873</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G11" t="s">
+        <v>877</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="M11" t="s">
+        <v>876</v>
+      </c>
+      <c r="N11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O11" t="s">
+        <v>880</v>
+      </c>
+      <c r="P11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>900</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X11">
+        <v>17</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C12" s="14">
+        <v>5500001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I12" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45225</v>
+      </c>
+      <c r="J12" s="4">
+        <v>45318</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45352</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="O12" t="s">
+        <v>944</v>
+      </c>
+      <c r="P12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>6</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8">
+        <v>3</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>354</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="X12">
+        <v>18</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13">
+        <v>5512570</v>
+      </c>
+      <c r="D13" t="s">
+        <v>873</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G13" t="s">
+        <v>877</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J13" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="M13" t="s">
+        <v>876</v>
+      </c>
+      <c r="N13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O13" t="s">
+        <v>880</v>
+      </c>
+      <c r="P13" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>900</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X13">
+        <v>17</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14">
+        <v>5512570</v>
+      </c>
+      <c r="D14" t="s">
+        <v>873</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G14" t="s">
+        <v>877</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45170</v>
+      </c>
+      <c r="J14" s="4">
+        <v>45287</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M14" t="s">
+        <v>876</v>
+      </c>
+      <c r="N14" t="s">
+        <v>273</v>
+      </c>
+      <c r="O14" t="s">
+        <v>880</v>
+      </c>
+      <c r="P14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>900</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X14">
+        <v>17</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="14">
+        <v>5500001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I15" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45225</v>
+      </c>
+      <c r="J15" s="4">
+        <v>45318</v>
+      </c>
+      <c r="K15" s="4">
+        <v>45352</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O15" t="s">
+        <v>944</v>
+      </c>
+      <c r="P15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>6</v>
+      </c>
+      <c r="R15" s="8">
+        <v>1</v>
+      </c>
+      <c r="S15" s="8">
+        <v>3</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>354</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1352</v>
+      </c>
+      <c r="X15">
+        <v>18</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="O16" t="s">
+        <v>944</v>
+      </c>
+      <c r="P16" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1444</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="X16">
+        <v>17</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>13</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1432</v>
+      </c>
+      <c r="O17" t="s">
+        <v>918</v>
+      </c>
+      <c r="P17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>4</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>914</v>
+      </c>
+      <c r="B18" t="s">
+        <v>569</v>
+      </c>
+      <c r="L18" t="s">
+        <v>942</v>
+      </c>
+      <c r="N18" t="s">
+        <v>943</v>
+      </c>
+      <c r="O18" t="s">
+        <v>944</v>
+      </c>
+      <c r="P18" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>919</v>
+      </c>
+      <c r="X18">
+        <v>21</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="L19" t="s">
+        <v>917</v>
+      </c>
+      <c r="O19" t="s">
+        <v>918</v>
+      </c>
+      <c r="P19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>19</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="6">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>0</v>
       </c>
     </row>
@@ -6047,16 +7827,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EAAF30-BD78-4D23-AEBC-1D6C37D138A6}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -6127,24 +7908,46 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B8" t="s">
         <v>884</v>
       </c>
       <c r="C8" t="s">
-        <v>1230</v>
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>945</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B10" t="s">
+        <v>884</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
@@ -6154,7 +7957,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5453F532-21B6-4188-9011-0BA56E95151F}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -6252,13 +8055,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M2" t="s">
         <v>72</v>
@@ -6270,10 +8073,10 @@
         <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="S2">
         <v>4568853286</v>
@@ -6290,25 +8093,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>930</v>
+      </c>
+      <c r="G3" t="s">
+        <v>927</v>
+      </c>
+      <c r="H3" t="s">
+        <v>928</v>
+      </c>
+      <c r="I3" t="s">
+        <v>929</v>
+      </c>
+      <c r="J3" t="s">
         <v>932</v>
       </c>
-      <c r="G3" t="s">
-        <v>929</v>
-      </c>
-      <c r="H3" t="s">
-        <v>930</v>
-      </c>
-      <c r="I3" t="s">
-        <v>931</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>933</v>
+      </c>
+      <c r="L3" t="s">
         <v>934</v>
-      </c>
-      <c r="K3" t="s">
-        <v>935</v>
-      </c>
-      <c r="L3" t="s">
-        <v>936</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -6323,7 +8126,7 @@
         <v>4000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="S3">
         <v>2348876890</v>
@@ -6331,7 +8134,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -6340,16 +8143,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>947</v>
+      </c>
+      <c r="I4" t="s">
+        <v>948</v>
+      </c>
+      <c r="J4" t="s">
         <v>949</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>950</v>
-      </c>
-      <c r="J4" t="s">
-        <v>951</v>
-      </c>
-      <c r="M4" t="s">
-        <v>952</v>
       </c>
       <c r="N4" t="s">
         <v>39</v>
@@ -6358,10 +8161,10 @@
         <v>37</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="S4">
         <v>6780909654</v>
@@ -6369,7 +8172,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B5" t="s">
         <v>753</v>
@@ -6378,16 +8181,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K5" t="s">
         <v>1232</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1235</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -6399,10 +8202,10 @@
         <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="S5">
         <v>7896778787</v>
@@ -6410,7 +8213,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -6419,22 +8222,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J6" t="s">
         <v>1238</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N6" t="s">
         <v>1239</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1242</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -6443,10 +8246,51 @@
         <v>19706</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="S6">
         <v>7780991098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="S7">
+        <v>7089090655</v>
       </c>
     </row>
   </sheetData>
@@ -6456,9 +8300,10 @@
     <hyperlink ref="R4" r:id="rId3" xr:uid="{075C8FB6-1BE2-49B1-A2FD-08CAD8D51C56}"/>
     <hyperlink ref="R5" r:id="rId4" xr:uid="{EAB441FE-D409-414A-8C38-9F54FFE9E767}"/>
     <hyperlink ref="R6" r:id="rId5" xr:uid="{12121472-6ADE-4CFA-9BEA-4F82B220D2C3}"/>
+    <hyperlink ref="R7" r:id="rId6" xr:uid="{6562B110-A2E8-48F1-9F94-369ACEA7DE16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6466,7 +8311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD9027E-311F-43F3-971B-D6244D52A1F4}">
   <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6488,288 +8335,288 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>1109</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C2" t="s">
         <v>755</v>
       </c>
       <c r="D2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F2" t="s">
         <v>755</v>
       </c>
       <c r="G2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="I2" t="s">
         <v>755</v>
       </c>
       <c r="J2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="K2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="L2" t="s">
         <v>755</v>
       </c>
       <c r="M2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="N2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="O2" t="s">
         <v>755</v>
       </c>
       <c r="P2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Q2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="R2" t="s">
         <v>755</v>
       </c>
       <c r="S2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="T2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="U2" t="s">
         <v>755</v>
       </c>
       <c r="V2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="W2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="X2" t="s">
         <v>755</v>
       </c>
       <c r="Y2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Z2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AA2" t="s">
         <v>755</v>
       </c>
       <c r="AB2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AC2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AD2" t="s">
         <v>755</v>
       </c>
       <c r="AE2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AF2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AG2" t="s">
         <v>755</v>
       </c>
       <c r="AH2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AI2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AJ2" t="s">
         <v>755</v>
       </c>
       <c r="AK2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AL2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AM2" t="s">
         <v>755</v>
       </c>
       <c r="AN2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AO2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AP2" t="s">
         <v>755</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AR2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AS2" t="s">
         <v>755</v>
       </c>
       <c r="AT2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AU2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AV2" t="s">
         <v>755</v>
@@ -6777,22 +8624,22 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="X3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AL3" t="s">
         <v>755</v>
       </c>
       <c r="AV3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -6830,48 +8677,48 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1142</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B2" t="s">
         <v>569</v>
       </c>
       <c r="C2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D2" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E2" s="4">
         <v>44440</v>
@@ -6894,16 +8741,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B3" t="s">
         <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E3" s="4">
         <v>44806</v>
@@ -6926,16 +8773,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B4" t="s">
         <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E4" s="4">
         <v>44809</v>
@@ -6958,16 +8805,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B5" t="s">
         <v>572</v>
       </c>
       <c r="C5" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E5" s="4">
         <v>44810</v>
@@ -6993,16 +8840,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B6" t="s">
         <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E6" s="4">
         <v>44811</v>
@@ -7025,16 +8872,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B7" t="s">
         <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D7" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E7" s="4">
         <v>44819</v>
@@ -7062,10 +8909,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073F58F-6509-4BF3-843F-237D06AC55C6}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7085,45 +8932,45 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>750</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B2" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F2" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="G2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7131,22 +8978,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B3" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C3" t="s">
         <v>753</v>
       </c>
       <c r="E3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7154,22 +9001,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B4" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="G4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -7177,22 +9024,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B5" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C5" t="s">
         <v>753</v>
       </c>
       <c r="E5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -7200,22 +9047,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B6" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C6" t="s">
         <v>753</v>
       </c>
       <c r="E6" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -7223,16 +9070,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B7" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7240,16 +9087,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B8" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -7257,16 +9104,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B9" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C9" t="s">
         <v>753</v>
       </c>
       <c r="D9" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -7274,16 +9121,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B10" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C10" t="s">
         <v>753</v>
       </c>
       <c r="D10" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -7291,16 +9138,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B11" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C11" t="s">
         <v>753</v>
       </c>
       <c r="D11" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -7308,16 +9155,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B12" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C12" t="s">
         <v>753</v>
       </c>
       <c r="D12" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7325,24 +9172,64 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B13" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F13" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="G13" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>753</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
@@ -7359,7 +9246,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7392,69 +9279,69 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1205</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B2">
         <v>1256918.8700000001</v>
@@ -7469,7 +9356,7 @@
         <v>569</v>
       </c>
       <c r="F2" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="G2" s="4">
         <v>45176</v>
@@ -7481,22 +9368,22 @@
         <v>45149</v>
       </c>
       <c r="J2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M2" t="s">
         <v>1220</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>1221</v>
       </c>
-      <c r="L2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1224</v>
-      </c>
       <c r="O2" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="P2" t="s">
         <v>278</v>
@@ -7508,7 +9395,7 @@
         <v>12345</v>
       </c>
       <c r="S2" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -7519,7 +9406,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E3" t="s">
         <v>572</v>
@@ -7528,7 +9415,7 @@
         <v>45178</v>
       </c>
       <c r="J3" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -7550,7 +9437,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8051,9 +9938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A39253E-76F9-426F-AB51-5E3DB6377515}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8070,27 +9955,27 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B2" t="s">
         <v>1214</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1217</v>
       </c>
       <c r="C2">
         <v>128.88999999999999</v>
@@ -8107,10 +9992,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B3" t="s">
         <v>1215</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1218</v>
       </c>
       <c r="C3">
         <v>1200000</v>
@@ -8124,10 +10009,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B4" t="s">
         <v>1216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1219</v>
       </c>
       <c r="C4">
         <v>56789.98</v>
@@ -8144,10 +10029,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -8166,11 +10051,294 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE31339F-895D-48D8-9AD6-CFA457625F2E}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7265625" customWidth="1"/>
+    <col min="4" max="4" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9467DD6-431B-4487-B73A-065D683A7274}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2" s="11">
+        <v>78990</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3949.5</v>
+      </c>
+      <c r="F2" s="11">
+        <v>82939.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C3" s="11">
+        <v>789.39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="11">
+        <v>39.47</v>
+      </c>
+      <c r="F3" s="11">
+        <v>828.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8989.8700000000008</v>
+      </c>
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>8989.8700000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1800.48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="11">
+        <v>90.02</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1890.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E382B1-281B-4434-81AA-04C8D5F3D2FB}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8244,7 +10412,7 @@
         <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C3">
         <v>2000000</v>
@@ -8309,13 +10477,13 @@
         <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -8359,7 +10527,7 @@
         <v>824</v>
       </c>
       <c r="B14" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -8380,10 +10548,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B17" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -8391,78 +10559,78 @@
         <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="C18">
         <v>90077451</v>
       </c>
       <c r="D18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E18" t="s">
-        <v>904</v>
+        <v>1428</v>
       </c>
       <c r="F18" t="s">
-        <v>902</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B19" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F19" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B21" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B22" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B23" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B24" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B25" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -8470,13 +10638,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC28AC-6E43-4E72-BAB6-024FC197C5A5}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8643,7 +10809,7 @@
         <v>385</v>
       </c>
       <c r="P3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Q3" t="s">
         <v>303</v>
@@ -8704,37 +10870,37 @@
         <v>874</v>
       </c>
       <c r="B5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C5" t="s">
+        <v>903</v>
+      </c>
+      <c r="D5" t="s">
         <v>905</v>
       </c>
-      <c r="D5" t="s">
-        <v>907</v>
-      </c>
       <c r="E5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="N5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="O5" t="s">
+        <v>939</v>
+      </c>
+      <c r="P5" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q5" t="s">
         <v>941</v>
       </c>
-      <c r="P5" t="s">
-        <v>942</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>943</v>
-      </c>
       <c r="R5" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -8746,10 +10912,10 @@
         <v>125.78</v>
       </c>
       <c r="W5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="X5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -8758,7 +10924,412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA05679-694C-4F3E-B058-118DE368DBE0}">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="4">
+        <v>36841</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="Q2" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1200</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1178</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3207</v>
+      </c>
+      <c r="M3" s="4">
+        <v>39077</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1289.99</v>
+      </c>
+      <c r="P3" s="4">
+        <v>45408</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1335.88</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1604</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="Q4" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2566.66</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>814</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1888.88</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="N5" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="Q5" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2205.3000000000002</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4">
+        <v>45147</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="Q6" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3800.9</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="N7" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O7" s="6">
+        <v>8790.7900000000009</v>
+      </c>
+      <c r="P7" s="4">
+        <v>39270</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="R7" s="6">
+        <v>9000</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED69AB3B-3A11-477C-A201-8388519D3807}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -8786,7 +11357,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8797,7 +11368,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -8863,7 +11434,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -8874,7 +11445,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -8885,7 +11456,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -8896,7 +11467,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B12">
         <v>62</v>
@@ -8907,7 +11478,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -8921,7 +11492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2665AEC9-C942-4A65-984C-CAD52F4E2CCE}">
   <dimension ref="A1:AX66"/>
   <sheetViews>
@@ -9117,13 +11688,13 @@
         <v>Lease &amp; Licenses - Appraisals/Reviews</v>
       </c>
       <c r="B2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C2" t="s">
         <v>568</v>
       </c>
       <c r="AS2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
@@ -9222,7 +11793,7 @@
         <v>Lease &amp; Licenses - Conveyance closing documents (ex: PTT forms, Form A transfer etc.)</v>
       </c>
       <c r="B8" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C8" t="s">
         <v>574</v>
@@ -9264,13 +11835,13 @@
         <v>Lease &amp; Licenses - Financial records (invoices, journal vouchers etc.)</v>
       </c>
       <c r="B10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C10" t="s">
         <v>569</v>
       </c>
       <c r="AS10" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -9615,7 +12186,7 @@
         <v>Research File - Order in Council (OIC)</v>
       </c>
       <c r="B28" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C28" t="s">
         <v>573</v>
@@ -9657,7 +12228,7 @@
         <v>606</v>
       </c>
       <c r="AS29" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
@@ -9747,7 +12318,7 @@
         <v>Research File - Transfer of administration</v>
       </c>
       <c r="B34" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C34" t="s">
         <v>572</v>
@@ -9756,16 +12327,16 @@
         <v>36841</v>
       </c>
       <c r="Y34" t="s">
+        <v>982</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>983</v>
+      </c>
+      <c r="AP34" t="s">
         <v>984</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AV34" t="s">
         <v>985</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>986</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -9774,13 +12345,13 @@
         <v>Acquisition File - Affidavit of service</v>
       </c>
       <c r="B35" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C35" t="s">
         <v>573</v>
       </c>
       <c r="AS35" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -9789,13 +12360,13 @@
         <v>Acquisition File - Approval of expropriation (Form 5)</v>
       </c>
       <c r="B36" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C36" t="s">
         <v>574</v>
       </c>
       <c r="AS36" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -9804,13 +12375,13 @@
         <v>Acquisition File - Compensation cheque</v>
       </c>
       <c r="B37" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C37" t="s">
         <v>568</v>
       </c>
       <c r="AS37" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -9834,13 +12405,13 @@
         <v>Acquisition File - Notice of advanced payment (Form 8)</v>
       </c>
       <c r="B39" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C39" t="s">
         <v>570</v>
       </c>
       <c r="AS39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
@@ -9849,13 +12420,13 @@
         <v>Acquisition File - Notice of expropriation (Form 1)</v>
       </c>
       <c r="B40" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C40" t="s">
         <v>571</v>
       </c>
       <c r="AS40" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
@@ -9864,13 +12435,13 @@
         <v>Acquisition File - Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</v>
       </c>
       <c r="B41" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C41" t="s">
         <v>572</v>
       </c>
       <c r="AS41" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
@@ -9879,7 +12450,7 @@
         <v>Acquisition File - Professional reports (ex: engineering/environmental etc.)</v>
       </c>
       <c r="B42" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C42" t="s">
         <v>573</v>
@@ -9894,13 +12465,13 @@
         <v>Acquisition File - Record of negotiation</v>
       </c>
       <c r="B43" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C43" t="s">
         <v>574</v>
       </c>
       <c r="AS43" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
@@ -9909,13 +12480,13 @@
         <v>Acquisition File - Release of claims</v>
       </c>
       <c r="B44" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C44" t="s">
         <v>568</v>
       </c>
       <c r="AS44" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
@@ -9969,13 +12540,13 @@
         <v>Acquisition File - Temporary license for construction access (H0074)</v>
       </c>
       <c r="B48" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C48" t="s">
         <v>572</v>
       </c>
       <c r="AS48" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.35">
@@ -10005,18 +12576,18 @@
         <v>Acquisition File - Vesting notice (Form 9)</v>
       </c>
       <c r="B50" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C50" t="s">
         <v>574</v>
       </c>
       <c r="AS50" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B51" t="s">
         <v>528</v>
@@ -10028,18 +12599,18 @@
         <v>676767776</v>
       </c>
       <c r="AM51" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AP51" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AS51" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B52" t="s">
         <v>521</v>
@@ -10062,10 +12633,10 @@
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B53" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C53" t="s">
         <v>570</v>
@@ -10076,7 +12647,7 @@
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B54" t="s">
         <v>513</v>
@@ -10085,12 +12656,12 @@
         <v>571</v>
       </c>
       <c r="AS54" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B55" t="s">
         <v>517</v>
@@ -10099,35 +12670,35 @@
         <v>572</v>
       </c>
       <c r="E55" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G55" s="13">
         <v>44174</v>
       </c>
       <c r="AD55" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AS55" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B56" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C56" t="s">
         <v>573</v>
       </c>
       <c r="AS56" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B57" t="s">
         <v>524</v>
@@ -10139,10 +12710,10 @@
         <v>36872</v>
       </c>
       <c r="M57" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AR57" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AT57" s="13">
         <v>36892</v>
@@ -10150,7 +12721,7 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B58" t="s">
         <v>526</v>
@@ -10159,12 +12730,12 @@
         <v>568</v>
       </c>
       <c r="AS58" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B59" t="s">
         <v>527</v>
@@ -10176,15 +12747,15 @@
         <v>2347987</v>
       </c>
       <c r="Z59" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AJ59" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B60" t="s">
         <v>532</v>
@@ -10193,24 +12764,24 @@
         <v>570</v>
       </c>
       <c r="V60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Z60" t="s">
         <v>1018</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>1020</v>
       </c>
       <c r="AN60" s="4">
         <v>36872</v>
       </c>
       <c r="AO60" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -10222,18 +12793,18 @@
         <v>765356</v>
       </c>
       <c r="AM61" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AP61" t="s">
         <v>1022</v>
       </c>
-      <c r="AP61" t="s">
-        <v>1024</v>
-      </c>
       <c r="AS61" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B62" t="s">
         <v>536</v>
@@ -10242,21 +12813,21 @@
         <v>572</v>
       </c>
       <c r="AH62" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AI62" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AK62">
         <v>333</v>
       </c>
       <c r="AL62" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B63" t="s">
         <v>537</v>
@@ -10265,7 +12836,7 @@
         <v>573</v>
       </c>
       <c r="E63" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G63" s="13">
         <v>45085</v>
@@ -10274,12 +12845,12 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B64" t="s">
         <v>539</v>
@@ -10288,12 +12859,12 @@
         <v>574</v>
       </c>
       <c r="AS64" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B65" t="s">
         <v>540</v>
@@ -10302,12 +12873,12 @@
         <v>568</v>
       </c>
       <c r="AS65" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B66" t="s">
         <v>517</v>
@@ -10316,7 +12887,7 @@
         <v>568</v>
       </c>
       <c r="AS66" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -10325,7 +12896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0191B-A695-44B6-B8DB-539DF91B46C4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -10553,127 +13124,127 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>1302</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
@@ -11094,7 +13665,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
@@ -11106,13 +13677,13 @@
         <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G6" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J6" t="s">
         <v>90</v>
@@ -11122,7 +13693,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="R6" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="S6" t="s">
         <v>93</v>
@@ -11131,10 +13702,10 @@
         <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="V6" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="X6" t="s">
         <v>155</v>
@@ -11155,7 +13726,7 @@
         <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
@@ -11257,127 +13828,127 @@
         <v>618</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1343</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -11569,7 +14140,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E4" t="s">
         <v>121</v>
@@ -11637,23 +14208,23 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C5" t="s">
         <v>1047</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>1048</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1050</v>
       </c>
       <c r="E5" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J5" t="s">
         <v>89</v>
@@ -11662,7 +14233,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M5" t="s">
         <v>94</v>
@@ -11671,10 +14242,10 @@
         <v>103</v>
       </c>
       <c r="AB5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AC5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AE5" t="s">
         <v>43</v>
@@ -11689,10 +14260,10 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AT5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -11721,8 +14292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J3"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12057,10 +14628,10 @@
         <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D2" t="s">
         <v>569</v>
@@ -12409,7 +14980,7 @@
         <v>694</v>
       </c>
       <c r="P4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Q4" t="s">
         <v>737</v>
@@ -12755,7 +15326,7 @@
         <v>753</v>
       </c>
       <c r="C2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D2" t="s">
         <v>755</v>
@@ -13054,7 +15625,7 @@
         <v>45058</v>
       </c>
       <c r="G5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H5" s="4">
         <v>45076</v>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE484E5-3112-43F7-BF1C-E1F7430A9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D5F1E-B35E-47EB-AEB4-573E19F0F583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1490">
   <si>
     <t>FirstName</t>
   </si>
@@ -3176,12 +3176,6 @@
     <t>Update existing Individual</t>
   </si>
   <si>
-    <t>Seline</t>
-  </si>
-  <si>
-    <t>seline.white2@yahoo.com</t>
-  </si>
-  <si>
     <t>(778) 567-5555</t>
   </si>
   <si>
@@ -3203,9 +3197,6 @@
     <t>2835 12TH AVE E</t>
   </si>
   <si>
-    <t>Update existing Organization contact</t>
-  </si>
-  <si>
     <t>Automation Test Corp III</t>
   </si>
   <si>
@@ -3392,9 +3383,6 @@
     <t>Section3AgreementSelect9</t>
   </si>
   <si>
-    <t>Section3AgreementSelect10</t>
-  </si>
-  <si>
     <t>AcquisitionCompletionSelect1</t>
   </si>
   <si>
@@ -4127,9 +4115,6 @@
     <t>Editing existing Acquisition File</t>
   </si>
   <si>
-    <t>Devin Smith(MoTI Solicitor)</t>
-  </si>
-  <si>
     <t>010-344-250</t>
   </si>
   <si>
@@ -4512,6 +4497,45 @@
   </si>
   <si>
     <t>Permanent SRW</t>
+  </si>
+  <si>
+    <t>Update complete Individual contact</t>
+  </si>
+  <si>
+    <t>Update existing Individual all Addresses</t>
+  </si>
+  <si>
+    <t>Update complete Individual contact with "Other" addresses</t>
+  </si>
+  <si>
+    <t>Update complete contact form</t>
+  </si>
+  <si>
+    <t>info@testcorp.ca</t>
+  </si>
+  <si>
+    <t>(779) 700-3000</t>
+  </si>
+  <si>
+    <t>Automated update on complete Organization contact</t>
+  </si>
+  <si>
+    <t>Update minimum Organization contact</t>
+  </si>
+  <si>
+    <t>Gral. Manuel Baquedano 079</t>
+  </si>
+  <si>
+    <t>(236) 900-7000</t>
+  </si>
+  <si>
+    <t>Section6ExpropriationSelect12</t>
+  </si>
+  <si>
+    <t>Automated Research File Creation - File Details</t>
+  </si>
+  <si>
+    <t>Devin Smith (MoTI Solicitor)</t>
   </si>
 </sst>
 </file>
@@ -4916,19 +4940,19 @@
         <v>619</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>176</v>
@@ -4967,13 +4991,13 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I2" t="s">
         <v>1058</v>
       </c>
-      <c r="I2" t="s">
-        <v>1061</v>
-      </c>
       <c r="J2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>205</v>
@@ -5012,7 +5036,7 @@
         <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>205</v>
@@ -5051,7 +5075,7 @@
         <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>205</v>
@@ -5090,7 +5114,7 @@
         <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>205</v>
@@ -5335,7 +5359,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5371,7 +5395,7 @@
         <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>307</v>
@@ -5416,21 +5440,21 @@
         <v>329</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>1488</v>
       </c>
       <c r="C2" t="s">
         <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
@@ -5463,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -5477,10 +5501,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="B3" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C3" t="s">
         <v>273</v>
@@ -5505,10 +5529,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="B4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="C4" t="s">
         <v>273</v>
@@ -5530,16 +5554,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B5" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="C5" t="s">
         <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G5" t="s">
         <v>282</v>
@@ -5571,10 +5595,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>1390</v>
       </c>
       <c r="C6" t="s">
         <v>273</v>
@@ -5610,7 +5634,7 @@
         <v>199</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F7" t="s">
         <v>361</v>
@@ -5981,7 +6005,7 @@
         <v>922</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>861</v>
@@ -6014,7 +6038,7 @@
         <v>868</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>870</v>
@@ -6032,54 +6056,54 @@
         <v>899</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>1126</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>1130</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>314</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="B2" t="s">
         <v>879</v>
@@ -6091,10 +6115,10 @@
         <v>873</v>
       </c>
       <c r="E2" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F2" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G2" t="s">
         <v>877</v>
@@ -6107,7 +6131,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="s">
         <v>876</v>
@@ -6137,10 +6161,10 @@
         <v>900</v>
       </c>
       <c r="V2" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X2">
         <v>17</v>
@@ -6184,29 +6208,29 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C3" s="14">
         <v>5500001</v>
       </c>
       <c r="D3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F3" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="J3" s="4">
         <v>45318</v>
@@ -6215,7 +6239,7 @@
         <v>45352</v>
       </c>
       <c r="L3" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="O3" t="s">
         <v>944</v>
@@ -6239,10 +6263,10 @@
         <v>354</v>
       </c>
       <c r="V3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W3" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X3">
         <v>18</v>
@@ -6286,7 +6310,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="B4" t="s">
         <v>273</v>
@@ -6298,10 +6322,10 @@
         <v>873</v>
       </c>
       <c r="E4" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F4" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G4" t="s">
         <v>877</v>
@@ -6314,7 +6338,7 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="M4" t="s">
         <v>876</v>
@@ -6344,10 +6368,10 @@
         <v>900</v>
       </c>
       <c r="V4" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W4" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X4">
         <v>17</v>
@@ -6391,29 +6415,29 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="B5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C5" s="14">
         <v>5500001</v>
       </c>
       <c r="D5" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E5" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F5" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G5" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I5" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="J5" s="4">
         <v>45318</v>
@@ -6422,7 +6446,7 @@
         <v>45352</v>
       </c>
       <c r="L5" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="O5" t="s">
         <v>944</v>
@@ -6446,10 +6470,10 @@
         <v>354</v>
       </c>
       <c r="V5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W5" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X5">
         <v>18</v>
@@ -6493,7 +6517,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="B6" t="s">
         <v>273</v>
@@ -6505,10 +6529,10 @@
         <v>873</v>
       </c>
       <c r="E6" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F6" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G6" t="s">
         <v>877</v>
@@ -6521,7 +6545,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="M6" t="s">
         <v>876</v>
@@ -6551,10 +6575,10 @@
         <v>900</v>
       </c>
       <c r="V6" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W6" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X6">
         <v>17</v>
@@ -6598,7 +6622,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B7" t="s">
         <v>273</v>
@@ -6607,20 +6631,20 @@
         <v>5500001</v>
       </c>
       <c r="D7" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E7" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F7" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G7" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="J7" s="4">
         <v>45318</v>
@@ -6629,7 +6653,7 @@
         <v>45352</v>
       </c>
       <c r="L7" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="O7" t="s">
         <v>944</v>
@@ -6653,10 +6677,10 @@
         <v>354</v>
       </c>
       <c r="V7" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W7" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X7">
         <v>18</v>
@@ -6700,7 +6724,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="B8" t="s">
         <v>273</v>
@@ -6712,10 +6736,10 @@
         <v>873</v>
       </c>
       <c r="E8" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G8" t="s">
         <v>877</v>
@@ -6728,7 +6752,7 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="M8" t="s">
         <v>876</v>
@@ -6758,10 +6782,10 @@
         <v>900</v>
       </c>
       <c r="V8" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W8" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X8">
         <v>17</v>
@@ -6805,7 +6829,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="B9" t="s">
         <v>273</v>
@@ -6817,10 +6841,10 @@
         <v>873</v>
       </c>
       <c r="E9" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F9" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G9" t="s">
         <v>877</v>
@@ -6833,7 +6857,7 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="M9" t="s">
         <v>876</v>
@@ -6863,10 +6887,10 @@
         <v>900</v>
       </c>
       <c r="V9" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W9" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X9">
         <v>17</v>
@@ -6910,7 +6934,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="B10" t="s">
         <v>273</v>
@@ -6922,10 +6946,10 @@
         <v>873</v>
       </c>
       <c r="E10" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G10" t="s">
         <v>877</v>
@@ -6938,7 +6962,7 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="M10" t="s">
         <v>876</v>
@@ -6968,10 +6992,10 @@
         <v>900</v>
       </c>
       <c r="V10" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W10" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X10">
         <v>17</v>
@@ -7015,7 +7039,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="B11" t="s">
         <v>273</v>
@@ -7027,10 +7051,10 @@
         <v>873</v>
       </c>
       <c r="E11" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F11" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G11" t="s">
         <v>877</v>
@@ -7043,7 +7067,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="M11" t="s">
         <v>876</v>
@@ -7073,10 +7097,10 @@
         <v>900</v>
       </c>
       <c r="V11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W11" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X11">
         <v>17</v>
@@ -7120,29 +7144,29 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="B12" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C12" s="14">
         <v>5500001</v>
       </c>
       <c r="D12" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E12" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F12" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G12" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="J12" s="4">
         <v>45318</v>
@@ -7151,7 +7175,7 @@
         <v>45352</v>
       </c>
       <c r="L12" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="O12" t="s">
         <v>944</v>
@@ -7175,10 +7199,10 @@
         <v>354</v>
       </c>
       <c r="V12" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W12" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X12">
         <v>18</v>
@@ -7222,7 +7246,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="B13" t="s">
         <v>273</v>
@@ -7234,10 +7258,10 @@
         <v>873</v>
       </c>
       <c r="E13" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F13" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G13" t="s">
         <v>877</v>
@@ -7250,7 +7274,7 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="M13" t="s">
         <v>876</v>
@@ -7280,10 +7304,10 @@
         <v>900</v>
       </c>
       <c r="V13" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W13" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X13">
         <v>17</v>
@@ -7327,7 +7351,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="B14" t="s">
         <v>273</v>
@@ -7339,10 +7363,10 @@
         <v>873</v>
       </c>
       <c r="E14" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F14" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G14" t="s">
         <v>877</v>
@@ -7355,7 +7379,7 @@
       </c>
       <c r="K14" s="4"/>
       <c r="L14" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="M14" t="s">
         <v>876</v>
@@ -7385,10 +7409,10 @@
         <v>900</v>
       </c>
       <c r="V14" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W14" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X14">
         <v>17</v>
@@ -7432,7 +7456,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B15" t="s">
         <v>273</v>
@@ -7441,20 +7465,20 @@
         <v>5500001</v>
       </c>
       <c r="D15" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E15" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F15" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G15" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I15" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="J15" s="4">
         <v>45318</v>
@@ -7463,7 +7487,7 @@
         <v>45352</v>
       </c>
       <c r="L15" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="O15" t="s">
         <v>944</v>
@@ -7487,10 +7511,10 @@
         <v>354</v>
       </c>
       <c r="V15" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W15" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X15">
         <v>18</v>
@@ -7534,13 +7558,13 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B16" t="s">
         <v>273</v>
       </c>
       <c r="L16" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="O16" t="s">
         <v>944</v>
@@ -7561,13 +7585,13 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="V16" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="W16" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="X16">
         <v>17</v>
@@ -7611,13 +7635,13 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B17" t="s">
         <v>273</v>
       </c>
       <c r="L17" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="O17" t="s">
         <v>918</v>
@@ -7919,35 +7943,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B8" t="s">
         <v>884</v>
       </c>
       <c r="C8" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="B9" t="s">
         <v>945</v>
       </c>
       <c r="C9" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="B10" t="s">
         <v>884</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +8196,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B5" t="s">
         <v>753</v>
@@ -8181,16 +8205,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E5" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="J5" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="K5" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -8202,10 +8226,10 @@
         <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="S5">
         <v>7896778787</v>
@@ -8213,7 +8237,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -8222,22 +8246,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="N6" t="s">
         <v>1235</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1239</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -8246,7 +8270,7 @@
         <v>19706</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="S6">
         <v>7780991098</v>
@@ -8254,7 +8278,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="B7" t="s">
         <v>753</v>
@@ -8266,13 +8290,13 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="J7" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="K7" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="M7" t="s">
         <v>72</v>
@@ -8284,10 +8308,10 @@
         <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="S7">
         <v>7089090655</v>
@@ -8311,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD9027E-311F-43F3-971B-D6244D52A1F4}">
   <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8323,10 +8347,9 @@
     <col min="16" max="23" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="35" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="45" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.54296875" customWidth="1"/>
+    <col min="36" max="44" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="26.54296875" customWidth="1"/>
     <col min="48" max="48" width="27.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8335,288 +8358,288 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C2" t="s">
         <v>755</v>
       </c>
       <c r="D2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F2" t="s">
         <v>755</v>
       </c>
       <c r="G2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="I2" t="s">
         <v>755</v>
       </c>
       <c r="J2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="K2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="L2" t="s">
         <v>755</v>
       </c>
       <c r="M2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="N2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="O2" t="s">
         <v>755</v>
       </c>
       <c r="P2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="Q2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="R2" t="s">
         <v>755</v>
       </c>
       <c r="S2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="T2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="U2" t="s">
         <v>755</v>
       </c>
       <c r="V2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="W2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="X2" t="s">
         <v>755</v>
       </c>
       <c r="Y2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="Z2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AA2" t="s">
         <v>755</v>
       </c>
       <c r="AB2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AC2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AD2" t="s">
         <v>755</v>
       </c>
       <c r="AE2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AF2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AG2" t="s">
         <v>755</v>
       </c>
       <c r="AH2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AI2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AJ2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AL2" t="s">
         <v>755</v>
       </c>
-      <c r="AK2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>1111</v>
-      </c>
       <c r="AM2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AO2" t="s">
         <v>755</v>
       </c>
-      <c r="AN2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>1111</v>
-      </c>
       <c r="AP2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AR2" t="s">
         <v>755</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>1111</v>
-      </c>
       <c r="AS2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AU2" t="s">
         <v>755</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>1111</v>
       </c>
       <c r="AV2" t="s">
         <v>755</v>
@@ -8624,22 +8647,22 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="X3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AK3" t="s">
         <v>755</v>
       </c>
       <c r="AV3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -8677,48 +8700,48 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B2" t="s">
         <v>569</v>
       </c>
       <c r="C2" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D2" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E2" s="4">
         <v>44440</v>
@@ -8741,16 +8764,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B3" t="s">
         <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E3" s="4">
         <v>44806</v>
@@ -8773,16 +8796,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B4" t="s">
         <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D4" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E4" s="4">
         <v>44809</v>
@@ -8805,16 +8828,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="B5" t="s">
         <v>572</v>
       </c>
       <c r="C5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E5" s="4">
         <v>44810</v>
@@ -8840,16 +8863,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B6" t="s">
         <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D6" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E6" s="4">
         <v>44811</v>
@@ -8872,16 +8895,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B7" t="s">
         <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D7" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E7" s="4">
         <v>44819</v>
@@ -8932,45 +8955,45 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>750</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B2" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F2" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="G2" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8978,22 +9001,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C3" t="s">
         <v>753</v>
       </c>
       <c r="E3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G3" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -9001,22 +9024,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="F4" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="G4" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -9024,22 +9047,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C5" t="s">
         <v>753</v>
       </c>
       <c r="E5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G5" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -9047,22 +9070,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C6" t="s">
         <v>753</v>
       </c>
       <c r="E6" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G6" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -9070,16 +9093,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B7" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -9087,16 +9110,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B8" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -9104,16 +9127,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B9" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C9" t="s">
         <v>753</v>
       </c>
       <c r="D9" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -9121,16 +9144,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B10" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C10" t="s">
         <v>753</v>
       </c>
       <c r="D10" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -9138,16 +9161,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B11" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C11" t="s">
         <v>753</v>
       </c>
       <c r="D11" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -9155,16 +9178,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B12" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C12" t="s">
         <v>753</v>
       </c>
       <c r="D12" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9172,22 +9195,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B13" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F13" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="G13" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9195,16 +9218,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B14" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9212,22 +9235,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B15" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C15" t="s">
         <v>753</v>
       </c>
       <c r="E15" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="F15" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G15" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -9245,8 +9268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC3795-F36B-4D0F-8244-A4F4C3935686}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9279,69 +9302,69 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B2">
         <v>1256918.8700000001</v>
@@ -9356,7 +9379,7 @@
         <v>569</v>
       </c>
       <c r="F2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G2" s="4">
         <v>45176</v>
@@ -9368,22 +9391,22 @@
         <v>45149</v>
       </c>
       <c r="J2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N2" t="s">
         <v>1217</v>
       </c>
-      <c r="K2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1221</v>
-      </c>
       <c r="O2" t="s">
-        <v>1353</v>
+        <v>1489</v>
       </c>
       <c r="P2" t="s">
         <v>278</v>
@@ -9395,7 +9418,7 @@
         <v>12345</v>
       </c>
       <c r="S2" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -9406,7 +9429,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E3" t="s">
         <v>572</v>
@@ -9415,7 +9438,7 @@
         <v>45178</v>
       </c>
       <c r="J3" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -9955,27 +9978,27 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1210</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B2" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C2">
         <v>128.88999999999999</v>
@@ -9992,10 +10015,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C3">
         <v>1200000</v>
@@ -10009,10 +10032,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B4" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C4">
         <v>56789.98</v>
@@ -10029,10 +10052,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B5" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -10074,39 +10097,39 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B2" t="s">
         <v>1454</v>
       </c>
-      <c r="B2" t="s">
-        <v>1459</v>
-      </c>
       <c r="C2" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="D2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E2" t="s">
         <v>1463</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1468</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -10117,19 +10140,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B3" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="C3" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="D3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E3" t="s">
         <v>1464</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1469</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -10140,19 +10163,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B4" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="C4" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="D4" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="E4" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -10163,19 +10186,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="B5" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="C5" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="D5" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="E5" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -10193,7 +10216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9467DD6-431B-4487-B73A-065D683A7274}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -10212,27 +10235,27 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="B2" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="C2" s="11">
         <v>78990</v>
@@ -10249,10 +10272,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="B3" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="C3" s="11">
         <v>789.39</v>
@@ -10269,10 +10292,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B4" t="s">
         <v>1473</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1478</v>
       </c>
       <c r="C4" s="11">
         <v>2000</v>
@@ -10289,10 +10312,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="B5" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="C5" s="11">
         <v>8989.8700000000008</v>
@@ -10309,10 +10332,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B6" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="C6" s="11">
         <v>1800.48</v>
@@ -10338,7 +10361,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10412,7 +10435,7 @@
         <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C3">
         <v>2000000</v>
@@ -10477,13 +10500,13 @@
         <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -10527,7 +10550,7 @@
         <v>824</v>
       </c>
       <c r="B14" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10559,7 +10582,7 @@
         <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="C18">
         <v>90077451</v>
@@ -10568,10 +10591,10 @@
         <v>902</v>
       </c>
       <c r="E18" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="F18" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -10611,26 +10634,26 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B23" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B24" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B25" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -10809,7 +10832,7 @@
         <v>385</v>
       </c>
       <c r="P3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="Q3" t="s">
         <v>303</v>
@@ -10900,7 +10923,7 @@
         <v>941</v>
       </c>
       <c r="R5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -10959,103 +10982,103 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1379</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>814</v>
       </c>
       <c r="C2" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D2" t="s">
         <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K2" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="4">
         <v>36841</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="O2" s="6"/>
       <c r="Q2" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2">
@@ -11067,10 +11090,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B3" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C3" t="s">
         <v>574</v>
@@ -11079,25 +11102,25 @@
         <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G3" s="6">
         <v>1200</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I3" s="6">
         <v>1178</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K3" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="L3" s="6">
         <v>3207</v>
@@ -11106,7 +11129,7 @@
         <v>39077</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="O3" s="6">
         <v>1289.99</v>
@@ -11115,7 +11138,7 @@
         <v>45408</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R3" s="6">
         <v>1335.88</v>
@@ -11129,41 +11152,41 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B4" t="s">
         <v>814</v>
       </c>
       <c r="C4" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D4" t="s">
         <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G4" s="6">
         <v>1604</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="4"/>
       <c r="N4" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="O4" s="6"/>
       <c r="Q4" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R4" s="6">
         <v>2566.66</v>
@@ -11177,40 +11200,40 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B5" t="s">
         <v>814</v>
       </c>
       <c r="C5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D5" t="s">
         <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I5" s="6">
         <v>1888.88</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L5" s="6"/>
       <c r="N5" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="O5" s="6"/>
       <c r="Q5" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5">
@@ -11222,10 +11245,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B6" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C6" t="s">
         <v>574</v>
@@ -11234,34 +11257,34 @@
         <v>341</v>
       </c>
       <c r="E6" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G6" s="6">
         <v>2205.3000000000002</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K6" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4">
         <v>45147</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="O6" s="6"/>
       <c r="Q6" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6">
@@ -11273,36 +11296,36 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="B7" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C7" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D7" t="s">
         <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G7" s="6">
         <v>3800.9</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L7" s="6"/>
       <c r="N7" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="O7" s="6">
         <v>8790.7900000000009</v>
@@ -11311,7 +11334,7 @@
         <v>39270</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R7" s="6">
         <v>9000</v>
@@ -11478,7 +11501,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -12605,7 +12628,7 @@
         <v>959</v>
       </c>
       <c r="AS51" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
@@ -12845,7 +12868,7 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
@@ -12887,7 +12910,7 @@
         <v>568</v>
       </c>
       <c r="AS66" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -13045,10 +13068,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13072,14 +13095,15 @@
     <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="37.54296875" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.453125" bestFit="1" customWidth="1"/>
@@ -13124,127 +13148,127 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>1298</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
@@ -13389,156 +13413,49 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>101</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="L3" s="1"/>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>1486</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3">
-        <v>3500</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3">
-        <v>10089</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AW3" t="s">
-        <v>48</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
@@ -13546,126 +13463,134 @@
       <c r="K4" t="s">
         <v>101</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" t="s">
+        <v>120</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4">
+        <v>3500</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4">
+        <v>10089</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>45</v>
       </c>
       <c r="AW4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U5" t="s">
-        <v>153</v>
-      </c>
-      <c r="V5" t="s">
-        <v>154</v>
-      </c>
-      <c r="X5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>157</v>
+        <v>1478</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="AE5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5">
+        <v>10089</v>
       </c>
       <c r="AW5" t="s">
-        <v>158</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1035</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
@@ -13676,14 +13601,11 @@
       <c r="E6" t="s">
         <v>148</v>
       </c>
-      <c r="F6" t="s">
-        <v>1036</v>
-      </c>
       <c r="G6" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1037</v>
+        <v>149</v>
       </c>
       <c r="J6" t="s">
         <v>90</v>
@@ -13691,9 +13613,26 @@
       <c r="K6" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>119</v>
+      </c>
       <c r="R6" t="s">
-        <v>1038</v>
+        <v>152</v>
       </c>
       <c r="S6" t="s">
         <v>93</v>
@@ -13702,10 +13641,10 @@
         <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>1039</v>
+        <v>153</v>
       </c>
       <c r="V6" t="s">
-        <v>1040</v>
+        <v>154</v>
       </c>
       <c r="X6" t="s">
         <v>155</v>
@@ -13726,32 +13665,148 @@
         <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>1041</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="R7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>159</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>160</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{16C12AA1-ECCE-499E-9396-FFC7128B9E7E}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{3E5C643A-012D-4079-8C9C-CE03A2BB44C0}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{1CC1FCEE-4D1F-4BC0-B831-33526F37CA9E}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{3BF8C400-BAC1-4978-8D41-326CBC17576E}"/>
-    <hyperlink ref="L5" r:id="rId6" xr:uid="{9CA6DE06-BA42-496F-902B-6B9113678CE6}"/>
-    <hyperlink ref="I6" r:id="rId7" xr:uid="{B25FEFEA-0800-4243-A177-1E1D3B4F1661}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{1CC1FCEE-4D1F-4BC0-B831-33526F37CA9E}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{3BF8C400-BAC1-4978-8D41-326CBC17576E}"/>
+    <hyperlink ref="L6" r:id="rId6" xr:uid="{9CA6DE06-BA42-496F-902B-6B9113678CE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13759,17 +13814,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9B3A8-42C1-4A9C-B1C1-5E5E07CE0539}">
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
@@ -13828,127 +13883,127 @@
         <v>618</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1339</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -14084,55 +14139,31 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
+        <v>1480</v>
       </c>
       <c r="E3" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
         <v>101</v>
       </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3">
-        <v>33323</v>
-      </c>
       <c r="AT3" t="s">
-        <v>81</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -14140,7 +14171,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E4" t="s">
         <v>121</v>
@@ -14208,23 +14239,23 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D5" t="s">
         <v>1045</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1048</v>
       </c>
       <c r="E5" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J5" t="s">
         <v>89</v>
@@ -14233,7 +14264,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M5" t="s">
         <v>94</v>
@@ -14242,10 +14273,10 @@
         <v>103</v>
       </c>
       <c r="AB5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AC5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AE5" t="s">
         <v>43</v>
@@ -14260,17 +14291,70 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AT5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>33323</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14278,13 +14362,14 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{EABDD7EF-9E20-4FD0-91D9-4DE7B815FF35}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{A0A05DFE-6C79-4ADA-B136-085505F633B4}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{7537BC25-0749-4A34-9FD8-9F423E0202C6}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{7537BC25-0749-4A34-9FD8-9F423E0202C6}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{4078AD70-0085-443C-BDA0-BD2ECBB8DD3B}"/>
     <hyperlink ref="I4" r:id="rId5" xr:uid="{ED87B454-F8FB-4903-82F0-44C2BB74A551}"/>
     <hyperlink ref="I5" r:id="rId6" xr:uid="{C2EB0E13-A168-49C4-8001-C198483226AD}"/>
+    <hyperlink ref="I3" r:id="rId7" xr:uid="{30233657-0EC2-4B08-BA0D-0862260E6F8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -14292,8 +14377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14628,10 +14713,10 @@
         <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C2" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D2" t="s">
         <v>569</v>
@@ -15326,7 +15411,7 @@
         <v>753</v>
       </c>
       <c r="C2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D2" t="s">
         <v>755</v>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D5F1E-B35E-47EB-AEB4-573E19F0F583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6DB111-89EF-411F-92C3-3821047ACC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="I3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="J3" s="4">
         <v>45318</v>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="I5" s="4">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="J5" s="4">
         <v>45318</v>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="I7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="J7" s="4">
         <v>45318</v>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="I12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="J12" s="4">
         <v>45318</v>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="I15" s="4">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="J15" s="4">
         <v>45318</v>
@@ -9268,7 +9268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC3795-F36B-4D0F-8244-A4F4C3935686}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -14377,8 +14377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE484E5-3112-43F7-BF1C-E1F7430A9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6DB111-89EF-411F-92C3-3821047ACC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1490">
   <si>
     <t>FirstName</t>
   </si>
@@ -3176,12 +3176,6 @@
     <t>Update existing Individual</t>
   </si>
   <si>
-    <t>Seline</t>
-  </si>
-  <si>
-    <t>seline.white2@yahoo.com</t>
-  </si>
-  <si>
     <t>(778) 567-5555</t>
   </si>
   <si>
@@ -3203,9 +3197,6 @@
     <t>2835 12TH AVE E</t>
   </si>
   <si>
-    <t>Update existing Organization contact</t>
-  </si>
-  <si>
     <t>Automation Test Corp III</t>
   </si>
   <si>
@@ -3392,9 +3383,6 @@
     <t>Section3AgreementSelect9</t>
   </si>
   <si>
-    <t>Section3AgreementSelect10</t>
-  </si>
-  <si>
     <t>AcquisitionCompletionSelect1</t>
   </si>
   <si>
@@ -4127,9 +4115,6 @@
     <t>Editing existing Acquisition File</t>
   </si>
   <si>
-    <t>Devin Smith(MoTI Solicitor)</t>
-  </si>
-  <si>
     <t>010-344-250</t>
   </si>
   <si>
@@ -4512,6 +4497,45 @@
   </si>
   <si>
     <t>Permanent SRW</t>
+  </si>
+  <si>
+    <t>Update complete Individual contact</t>
+  </si>
+  <si>
+    <t>Update existing Individual all Addresses</t>
+  </si>
+  <si>
+    <t>Update complete Individual contact with "Other" addresses</t>
+  </si>
+  <si>
+    <t>Update complete contact form</t>
+  </si>
+  <si>
+    <t>info@testcorp.ca</t>
+  </si>
+  <si>
+    <t>(779) 700-3000</t>
+  </si>
+  <si>
+    <t>Automated update on complete Organization contact</t>
+  </si>
+  <si>
+    <t>Update minimum Organization contact</t>
+  </si>
+  <si>
+    <t>Gral. Manuel Baquedano 079</t>
+  </si>
+  <si>
+    <t>(236) 900-7000</t>
+  </si>
+  <si>
+    <t>Section6ExpropriationSelect12</t>
+  </si>
+  <si>
+    <t>Automated Research File Creation - File Details</t>
+  </si>
+  <si>
+    <t>Devin Smith (MoTI Solicitor)</t>
   </si>
 </sst>
 </file>
@@ -4916,19 +4940,19 @@
         <v>619</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>176</v>
@@ -4967,13 +4991,13 @@
         <v>201</v>
       </c>
       <c r="H2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I2" t="s">
         <v>1058</v>
       </c>
-      <c r="I2" t="s">
-        <v>1061</v>
-      </c>
       <c r="J2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>205</v>
@@ -5012,7 +5036,7 @@
         <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>205</v>
@@ -5051,7 +5075,7 @@
         <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>205</v>
@@ -5090,7 +5114,7 @@
         <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>205</v>
@@ -5335,7 +5359,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5371,7 +5395,7 @@
         <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>307</v>
@@ -5416,21 +5440,21 @@
         <v>329</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>1488</v>
       </c>
       <c r="C2" t="s">
         <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
@@ -5463,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -5477,10 +5501,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="B3" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C3" t="s">
         <v>273</v>
@@ -5505,10 +5529,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="B4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="C4" t="s">
         <v>273</v>
@@ -5530,16 +5554,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B5" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="C5" t="s">
         <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G5" t="s">
         <v>282</v>
@@ -5571,10 +5595,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>1390</v>
       </c>
       <c r="C6" t="s">
         <v>273</v>
@@ -5610,7 +5634,7 @@
         <v>199</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F7" t="s">
         <v>361</v>
@@ -5981,7 +6005,7 @@
         <v>922</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>861</v>
@@ -6014,7 +6038,7 @@
         <v>868</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>870</v>
@@ -6032,54 +6056,54 @@
         <v>899</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>1126</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>1130</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>314</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="B2" t="s">
         <v>879</v>
@@ -6091,10 +6115,10 @@
         <v>873</v>
       </c>
       <c r="E2" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F2" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G2" t="s">
         <v>877</v>
@@ -6107,7 +6131,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="s">
         <v>876</v>
@@ -6137,10 +6161,10 @@
         <v>900</v>
       </c>
       <c r="V2" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X2">
         <v>17</v>
@@ -6184,29 +6208,29 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C3" s="14">
         <v>5500001</v>
       </c>
       <c r="D3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F3" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="J3" s="4">
         <v>45318</v>
@@ -6215,7 +6239,7 @@
         <v>45352</v>
       </c>
       <c r="L3" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="O3" t="s">
         <v>944</v>
@@ -6239,10 +6263,10 @@
         <v>354</v>
       </c>
       <c r="V3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W3" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X3">
         <v>18</v>
@@ -6286,7 +6310,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="B4" t="s">
         <v>273</v>
@@ -6298,10 +6322,10 @@
         <v>873</v>
       </c>
       <c r="E4" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F4" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G4" t="s">
         <v>877</v>
@@ -6314,7 +6338,7 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="M4" t="s">
         <v>876</v>
@@ -6344,10 +6368,10 @@
         <v>900</v>
       </c>
       <c r="V4" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W4" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X4">
         <v>17</v>
@@ -6391,29 +6415,29 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="B5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C5" s="14">
         <v>5500001</v>
       </c>
       <c r="D5" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E5" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F5" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G5" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I5" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="J5" s="4">
         <v>45318</v>
@@ -6422,7 +6446,7 @@
         <v>45352</v>
       </c>
       <c r="L5" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="O5" t="s">
         <v>944</v>
@@ -6446,10 +6470,10 @@
         <v>354</v>
       </c>
       <c r="V5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W5" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X5">
         <v>18</v>
@@ -6493,7 +6517,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="B6" t="s">
         <v>273</v>
@@ -6505,10 +6529,10 @@
         <v>873</v>
       </c>
       <c r="E6" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F6" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G6" t="s">
         <v>877</v>
@@ -6521,7 +6545,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="M6" t="s">
         <v>876</v>
@@ -6551,10 +6575,10 @@
         <v>900</v>
       </c>
       <c r="V6" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W6" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X6">
         <v>17</v>
@@ -6598,7 +6622,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B7" t="s">
         <v>273</v>
@@ -6607,20 +6631,20 @@
         <v>5500001</v>
       </c>
       <c r="D7" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E7" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F7" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G7" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="J7" s="4">
         <v>45318</v>
@@ -6629,7 +6653,7 @@
         <v>45352</v>
       </c>
       <c r="L7" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="O7" t="s">
         <v>944</v>
@@ -6653,10 +6677,10 @@
         <v>354</v>
       </c>
       <c r="V7" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W7" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X7">
         <v>18</v>
@@ -6700,7 +6724,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="B8" t="s">
         <v>273</v>
@@ -6712,10 +6736,10 @@
         <v>873</v>
       </c>
       <c r="E8" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G8" t="s">
         <v>877</v>
@@ -6728,7 +6752,7 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="M8" t="s">
         <v>876</v>
@@ -6758,10 +6782,10 @@
         <v>900</v>
       </c>
       <c r="V8" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W8" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X8">
         <v>17</v>
@@ -6805,7 +6829,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="B9" t="s">
         <v>273</v>
@@ -6817,10 +6841,10 @@
         <v>873</v>
       </c>
       <c r="E9" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F9" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G9" t="s">
         <v>877</v>
@@ -6833,7 +6857,7 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="M9" t="s">
         <v>876</v>
@@ -6863,10 +6887,10 @@
         <v>900</v>
       </c>
       <c r="V9" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W9" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X9">
         <v>17</v>
@@ -6910,7 +6934,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="B10" t="s">
         <v>273</v>
@@ -6922,10 +6946,10 @@
         <v>873</v>
       </c>
       <c r="E10" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G10" t="s">
         <v>877</v>
@@ -6938,7 +6962,7 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="M10" t="s">
         <v>876</v>
@@ -6968,10 +6992,10 @@
         <v>900</v>
       </c>
       <c r="V10" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W10" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X10">
         <v>17</v>
@@ -7015,7 +7039,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="B11" t="s">
         <v>273</v>
@@ -7027,10 +7051,10 @@
         <v>873</v>
       </c>
       <c r="E11" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F11" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G11" t="s">
         <v>877</v>
@@ -7043,7 +7067,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="M11" t="s">
         <v>876</v>
@@ -7073,10 +7097,10 @@
         <v>900</v>
       </c>
       <c r="V11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W11" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X11">
         <v>17</v>
@@ -7120,29 +7144,29 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="B12" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C12" s="14">
         <v>5500001</v>
       </c>
       <c r="D12" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E12" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F12" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G12" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="J12" s="4">
         <v>45318</v>
@@ -7151,7 +7175,7 @@
         <v>45352</v>
       </c>
       <c r="L12" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="O12" t="s">
         <v>944</v>
@@ -7175,10 +7199,10 @@
         <v>354</v>
       </c>
       <c r="V12" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W12" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X12">
         <v>18</v>
@@ -7222,7 +7246,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="B13" t="s">
         <v>273</v>
@@ -7234,10 +7258,10 @@
         <v>873</v>
       </c>
       <c r="E13" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F13" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G13" t="s">
         <v>877</v>
@@ -7250,7 +7274,7 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="M13" t="s">
         <v>876</v>
@@ -7280,10 +7304,10 @@
         <v>900</v>
       </c>
       <c r="V13" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W13" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X13">
         <v>17</v>
@@ -7327,7 +7351,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="B14" t="s">
         <v>273</v>
@@ -7339,10 +7363,10 @@
         <v>873</v>
       </c>
       <c r="E14" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F14" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G14" t="s">
         <v>877</v>
@@ -7355,7 +7379,7 @@
       </c>
       <c r="K14" s="4"/>
       <c r="L14" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="M14" t="s">
         <v>876</v>
@@ -7385,10 +7409,10 @@
         <v>900</v>
       </c>
       <c r="V14" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="W14" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="X14">
         <v>17</v>
@@ -7432,7 +7456,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B15" t="s">
         <v>273</v>
@@ -7441,20 +7465,20 @@
         <v>5500001</v>
       </c>
       <c r="D15" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E15" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F15" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G15" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I15" s="4">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="J15" s="4">
         <v>45318</v>
@@ -7463,7 +7487,7 @@
         <v>45352</v>
       </c>
       <c r="L15" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="O15" t="s">
         <v>944</v>
@@ -7487,10 +7511,10 @@
         <v>354</v>
       </c>
       <c r="V15" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="W15" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="X15">
         <v>18</v>
@@ -7534,13 +7558,13 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B16" t="s">
         <v>273</v>
       </c>
       <c r="L16" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="O16" t="s">
         <v>944</v>
@@ -7561,13 +7585,13 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="V16" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="W16" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="X16">
         <v>17</v>
@@ -7611,13 +7635,13 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B17" t="s">
         <v>273</v>
       </c>
       <c r="L17" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="O17" t="s">
         <v>918</v>
@@ -7919,35 +7943,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B8" t="s">
         <v>884</v>
       </c>
       <c r="C8" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="B9" t="s">
         <v>945</v>
       </c>
       <c r="C9" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="B10" t="s">
         <v>884</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +8196,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B5" t="s">
         <v>753</v>
@@ -8181,16 +8205,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E5" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="J5" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="K5" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -8202,10 +8226,10 @@
         <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="S5">
         <v>7896778787</v>
@@ -8213,7 +8237,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -8222,22 +8246,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="N6" t="s">
         <v>1235</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1239</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -8246,7 +8270,7 @@
         <v>19706</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="S6">
         <v>7780991098</v>
@@ -8254,7 +8278,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="B7" t="s">
         <v>753</v>
@@ -8266,13 +8290,13 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="J7" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="K7" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="M7" t="s">
         <v>72</v>
@@ -8284,10 +8308,10 @@
         <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="S7">
         <v>7089090655</v>
@@ -8311,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD9027E-311F-43F3-971B-D6244D52A1F4}">
   <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8323,10 +8347,9 @@
     <col min="16" max="23" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="35" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="45" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.54296875" customWidth="1"/>
+    <col min="36" max="44" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="26.54296875" customWidth="1"/>
     <col min="48" max="48" width="27.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8335,288 +8358,288 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C2" t="s">
         <v>755</v>
       </c>
       <c r="D2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F2" t="s">
         <v>755</v>
       </c>
       <c r="G2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="I2" t="s">
         <v>755</v>
       </c>
       <c r="J2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="K2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="L2" t="s">
         <v>755</v>
       </c>
       <c r="M2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="N2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="O2" t="s">
         <v>755</v>
       </c>
       <c r="P2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="Q2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="R2" t="s">
         <v>755</v>
       </c>
       <c r="S2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="T2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="U2" t="s">
         <v>755</v>
       </c>
       <c r="V2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="W2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="X2" t="s">
         <v>755</v>
       </c>
       <c r="Y2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="Z2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AA2" t="s">
         <v>755</v>
       </c>
       <c r="AB2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AC2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AD2" t="s">
         <v>755</v>
       </c>
       <c r="AE2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AF2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AG2" t="s">
         <v>755</v>
       </c>
       <c r="AH2" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AI2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AJ2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AL2" t="s">
         <v>755</v>
       </c>
-      <c r="AK2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>1111</v>
-      </c>
       <c r="AM2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AO2" t="s">
         <v>755</v>
       </c>
-      <c r="AN2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>1111</v>
-      </c>
       <c r="AP2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AR2" t="s">
         <v>755</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>1111</v>
-      </c>
       <c r="AS2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AU2" t="s">
         <v>755</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>1111</v>
       </c>
       <c r="AV2" t="s">
         <v>755</v>
@@ -8624,22 +8647,22 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="X3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AK3" t="s">
         <v>755</v>
       </c>
       <c r="AV3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -8677,48 +8700,48 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B2" t="s">
         <v>569</v>
       </c>
       <c r="C2" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D2" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E2" s="4">
         <v>44440</v>
@@ -8741,16 +8764,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B3" t="s">
         <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E3" s="4">
         <v>44806</v>
@@ -8773,16 +8796,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B4" t="s">
         <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D4" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E4" s="4">
         <v>44809</v>
@@ -8805,16 +8828,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="B5" t="s">
         <v>572</v>
       </c>
       <c r="C5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E5" s="4">
         <v>44810</v>
@@ -8840,16 +8863,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B6" t="s">
         <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D6" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E6" s="4">
         <v>44811</v>
@@ -8872,16 +8895,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B7" t="s">
         <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D7" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E7" s="4">
         <v>44819</v>
@@ -8932,45 +8955,45 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>750</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B2" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F2" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="G2" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8978,22 +9001,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C3" t="s">
         <v>753</v>
       </c>
       <c r="E3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G3" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -9001,22 +9024,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="F4" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="G4" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -9024,22 +9047,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C5" t="s">
         <v>753</v>
       </c>
       <c r="E5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G5" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -9047,22 +9070,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C6" t="s">
         <v>753</v>
       </c>
       <c r="E6" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G6" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -9070,16 +9093,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B7" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -9087,16 +9110,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B8" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -9104,16 +9127,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B9" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C9" t="s">
         <v>753</v>
       </c>
       <c r="D9" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -9121,16 +9144,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B10" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C10" t="s">
         <v>753</v>
       </c>
       <c r="D10" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -9138,16 +9161,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B11" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C11" t="s">
         <v>753</v>
       </c>
       <c r="D11" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -9155,16 +9178,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B12" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C12" t="s">
         <v>753</v>
       </c>
       <c r="D12" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9172,22 +9195,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B13" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F13" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="G13" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9195,16 +9218,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B14" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9212,22 +9235,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B15" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C15" t="s">
         <v>753</v>
       </c>
       <c r="E15" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="F15" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G15" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -9246,7 +9269,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9279,69 +9302,69 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B2">
         <v>1256918.8700000001</v>
@@ -9356,7 +9379,7 @@
         <v>569</v>
       </c>
       <c r="F2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G2" s="4">
         <v>45176</v>
@@ -9368,22 +9391,22 @@
         <v>45149</v>
       </c>
       <c r="J2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N2" t="s">
         <v>1217</v>
       </c>
-      <c r="K2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1221</v>
-      </c>
       <c r="O2" t="s">
-        <v>1353</v>
+        <v>1489</v>
       </c>
       <c r="P2" t="s">
         <v>278</v>
@@ -9395,7 +9418,7 @@
         <v>12345</v>
       </c>
       <c r="S2" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -9406,7 +9429,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E3" t="s">
         <v>572</v>
@@ -9415,7 +9438,7 @@
         <v>45178</v>
       </c>
       <c r="J3" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -9955,27 +9978,27 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1210</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B2" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C2">
         <v>128.88999999999999</v>
@@ -9992,10 +10015,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C3">
         <v>1200000</v>
@@ -10009,10 +10032,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B4" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C4">
         <v>56789.98</v>
@@ -10029,10 +10052,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B5" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -10074,39 +10097,39 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B2" t="s">
         <v>1454</v>
       </c>
-      <c r="B2" t="s">
-        <v>1459</v>
-      </c>
       <c r="C2" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="D2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E2" t="s">
         <v>1463</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1468</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -10117,19 +10140,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B3" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="C3" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="D3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E3" t="s">
         <v>1464</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1469</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -10140,19 +10163,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="B4" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="C4" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="D4" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="E4" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -10163,19 +10186,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="B5" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="C5" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="D5" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="E5" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -10193,7 +10216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9467DD6-431B-4487-B73A-065D683A7274}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -10212,27 +10235,27 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="B2" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="C2" s="11">
         <v>78990</v>
@@ -10249,10 +10272,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="B3" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="C3" s="11">
         <v>789.39</v>
@@ -10269,10 +10292,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B4" t="s">
         <v>1473</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1478</v>
       </c>
       <c r="C4" s="11">
         <v>2000</v>
@@ -10289,10 +10312,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="B5" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="C5" s="11">
         <v>8989.8700000000008</v>
@@ -10309,10 +10332,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B6" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="C6" s="11">
         <v>1800.48</v>
@@ -10338,7 +10361,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10412,7 +10435,7 @@
         <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C3">
         <v>2000000</v>
@@ -10477,13 +10500,13 @@
         <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C10">
         <v>90077451</v>
       </c>
       <c r="D10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -10527,7 +10550,7 @@
         <v>824</v>
       </c>
       <c r="B14" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10559,7 +10582,7 @@
         <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="C18">
         <v>90077451</v>
@@ -10568,10 +10591,10 @@
         <v>902</v>
       </c>
       <c r="E18" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="F18" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -10611,26 +10634,26 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B23" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B24" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B25" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -10809,7 +10832,7 @@
         <v>385</v>
       </c>
       <c r="P3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="Q3" t="s">
         <v>303</v>
@@ -10900,7 +10923,7 @@
         <v>941</v>
       </c>
       <c r="R5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="T5">
         <v>89.87</v>
@@ -10959,103 +10982,103 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1379</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>814</v>
       </c>
       <c r="C2" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D2" t="s">
         <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K2" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="4">
         <v>36841</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="O2" s="6"/>
       <c r="Q2" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2">
@@ -11067,10 +11090,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B3" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C3" t="s">
         <v>574</v>
@@ -11079,25 +11102,25 @@
         <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G3" s="6">
         <v>1200</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I3" s="6">
         <v>1178</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K3" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="L3" s="6">
         <v>3207</v>
@@ -11106,7 +11129,7 @@
         <v>39077</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="O3" s="6">
         <v>1289.99</v>
@@ -11115,7 +11138,7 @@
         <v>45408</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R3" s="6">
         <v>1335.88</v>
@@ -11129,41 +11152,41 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B4" t="s">
         <v>814</v>
       </c>
       <c r="C4" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D4" t="s">
         <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G4" s="6">
         <v>1604</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="4"/>
       <c r="N4" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="O4" s="6"/>
       <c r="Q4" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R4" s="6">
         <v>2566.66</v>
@@ -11177,40 +11200,40 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B5" t="s">
         <v>814</v>
       </c>
       <c r="C5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D5" t="s">
         <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I5" s="6">
         <v>1888.88</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L5" s="6"/>
       <c r="N5" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="O5" s="6"/>
       <c r="Q5" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5">
@@ -11222,10 +11245,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B6" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C6" t="s">
         <v>574</v>
@@ -11234,34 +11257,34 @@
         <v>341</v>
       </c>
       <c r="E6" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G6" s="6">
         <v>2205.3000000000002</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K6" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4">
         <v>45147</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="O6" s="6"/>
       <c r="Q6" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6">
@@ -11273,36 +11296,36 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="B7" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C7" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D7" t="s">
         <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G7" s="6">
         <v>3800.9</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="15" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L7" s="6"/>
       <c r="N7" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="O7" s="6">
         <v>8790.7900000000009</v>
@@ -11311,7 +11334,7 @@
         <v>39270</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="R7" s="6">
         <v>9000</v>
@@ -11478,7 +11501,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -12605,7 +12628,7 @@
         <v>959</v>
       </c>
       <c r="AS51" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
@@ -12845,7 +12868,7 @@
         <v>678998</v>
       </c>
       <c r="AS63" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
@@ -12887,7 +12910,7 @@
         <v>568</v>
       </c>
       <c r="AS66" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -13045,10 +13068,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13072,14 +13095,15 @@
     <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="37.54296875" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.453125" bestFit="1" customWidth="1"/>
@@ -13124,127 +13148,127 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>1298</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
@@ -13389,156 +13413,49 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>101</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="L3" s="1"/>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>1486</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3">
-        <v>3500</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3">
-        <v>10089</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AW3" t="s">
-        <v>48</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
@@ -13546,126 +13463,134 @@
       <c r="K4" t="s">
         <v>101</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" t="s">
+        <v>120</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4">
+        <v>3500</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4">
+        <v>10089</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>45</v>
       </c>
       <c r="AW4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U5" t="s">
-        <v>153</v>
-      </c>
-      <c r="V5" t="s">
-        <v>154</v>
-      </c>
-      <c r="X5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>157</v>
+        <v>1478</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="AE5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5">
+        <v>10089</v>
       </c>
       <c r="AW5" t="s">
-        <v>158</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1035</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
@@ -13676,14 +13601,11 @@
       <c r="E6" t="s">
         <v>148</v>
       </c>
-      <c r="F6" t="s">
-        <v>1036</v>
-      </c>
       <c r="G6" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1037</v>
+        <v>149</v>
       </c>
       <c r="J6" t="s">
         <v>90</v>
@@ -13691,9 +13613,26 @@
       <c r="K6" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>119</v>
+      </c>
       <c r="R6" t="s">
-        <v>1038</v>
+        <v>152</v>
       </c>
       <c r="S6" t="s">
         <v>93</v>
@@ -13702,10 +13641,10 @@
         <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>1039</v>
+        <v>153</v>
       </c>
       <c r="V6" t="s">
-        <v>1040</v>
+        <v>154</v>
       </c>
       <c r="X6" t="s">
         <v>155</v>
@@ -13726,32 +13665,148 @@
         <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>1041</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="R7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>159</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>160</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{16C12AA1-ECCE-499E-9396-FFC7128B9E7E}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{3E5C643A-012D-4079-8C9C-CE03A2BB44C0}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{1CC1FCEE-4D1F-4BC0-B831-33526F37CA9E}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{3BF8C400-BAC1-4978-8D41-326CBC17576E}"/>
-    <hyperlink ref="L5" r:id="rId6" xr:uid="{9CA6DE06-BA42-496F-902B-6B9113678CE6}"/>
-    <hyperlink ref="I6" r:id="rId7" xr:uid="{B25FEFEA-0800-4243-A177-1E1D3B4F1661}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{1CC1FCEE-4D1F-4BC0-B831-33526F37CA9E}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{749E9344-8D93-4BC6-9B68-CC2E0927EBF0}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{3BF8C400-BAC1-4978-8D41-326CBC17576E}"/>
+    <hyperlink ref="L6" r:id="rId6" xr:uid="{9CA6DE06-BA42-496F-902B-6B9113678CE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13759,17 +13814,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9B3A8-42C1-4A9C-B1C1-5E5E07CE0539}">
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
@@ -13828,127 +13883,127 @@
         <v>618</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1339</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -14084,55 +14139,31 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
+        <v>1480</v>
       </c>
       <c r="E3" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
         <v>101</v>
       </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3">
-        <v>33323</v>
-      </c>
       <c r="AT3" t="s">
-        <v>81</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -14140,7 +14171,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E4" t="s">
         <v>121</v>
@@ -14208,23 +14239,23 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D5" t="s">
         <v>1045</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1048</v>
       </c>
       <c r="E5" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J5" t="s">
         <v>89</v>
@@ -14233,7 +14264,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M5" t="s">
         <v>94</v>
@@ -14242,10 +14273,10 @@
         <v>103</v>
       </c>
       <c r="AB5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AC5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AE5" t="s">
         <v>43</v>
@@ -14260,17 +14291,70 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AT5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>33323</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14278,13 +14362,14 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{EABDD7EF-9E20-4FD0-91D9-4DE7B815FF35}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{A0A05DFE-6C79-4ADA-B136-085505F633B4}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{7537BC25-0749-4A34-9FD8-9F423E0202C6}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{7537BC25-0749-4A34-9FD8-9F423E0202C6}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{4078AD70-0085-443C-BDA0-BD2ECBB8DD3B}"/>
     <hyperlink ref="I4" r:id="rId5" xr:uid="{ED87B454-F8FB-4903-82F0-44C2BB74A551}"/>
     <hyperlink ref="I5" r:id="rId6" xr:uid="{C2EB0E13-A168-49C4-8001-C198483226AD}"/>
+    <hyperlink ref="I3" r:id="rId7" xr:uid="{30233657-0EC2-4B08-BA0D-0862260E6F8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -14292,8 +14377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49A716-1E6E-4D56-8BE1-20B354C9F88C}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14628,10 +14713,10 @@
         <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C2" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D2" t="s">
         <v>569</v>
@@ -15326,7 +15411,7 @@
         <v>753</v>
       </c>
       <c r="C2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D2" t="s">
         <v>755</v>

--- a/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
+++ b/testing/PIMS.Tests.Automation/Data/PIMS_Testing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueT\Quartech Projects\PSP\testing\PIMS.Tests.Automation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6DB111-89EF-411F-92C3-3821047ACC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CECA63-B8BF-43B5-A336-B2BF304FD057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="934" firstSheet="12" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <sheet name="Notes" sheetId="10" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">DocumentsDetails!$A$1:$AX$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">DocumentsDetails!$A$1:$AX$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="1499">
   <si>
     <t>FirstName</t>
   </si>
@@ -992,9 +992,6 @@
     <t>Projects</t>
   </si>
   <si>
-    <t>Automation Functional Testing - Note 1,Automation Functional Testing - Note 2,Automation Functional Testing - Note 3</t>
-  </si>
-  <si>
     <t>ResearchFileName</t>
   </si>
   <si>
@@ -1934,18 +1931,6 @@
     <t>PINNumber</t>
   </si>
   <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>Nanaimo Station</t>
-  </si>
-  <si>
-    <t>Updating automatic Field notes document</t>
-  </si>
-  <si>
-    <t>Updating automatic Notice of possible entry (H0224) document - edited</t>
-  </si>
-  <si>
     <t>MinistryProject</t>
   </si>
   <si>
@@ -2942,12 +2927,6 @@
     <t>Other Land Agreement (Indemnity Letter, Letter of Intended Use, Assumption Agreement, etc)</t>
   </si>
   <si>
-    <t>002-999-000</t>
-  </si>
-  <si>
-    <t>The Main Canada Highway - updated</t>
-  </si>
-  <si>
     <t>Professional reports (ex: engineering/environmental etc.)</t>
   </si>
   <si>
@@ -3260,12 +3239,6 @@
     <t>Update Digital Document into a Project</t>
   </si>
   <si>
-    <t>Updating previously inserted Document in a project</t>
-  </si>
-  <si>
-    <t>Updating digital document on a Lease</t>
-  </si>
-  <si>
     <t>Don Cavers</t>
   </si>
   <si>
@@ -4151,30 +4124,6 @@
     <t>TakeDescription</t>
   </si>
   <si>
-    <t>IsNewRightWay</t>
-  </si>
-  <si>
-    <t>IsNewRightWayArea</t>
-  </si>
-  <si>
-    <t>IsStatutoryRightWay</t>
-  </si>
-  <si>
-    <t>IsStatutoryRightWayArea</t>
-  </si>
-  <si>
-    <t>IsLandNotation</t>
-  </si>
-  <si>
-    <t>IsLandNotationDetail</t>
-  </si>
-  <si>
-    <t>IsLandNotationArea</t>
-  </si>
-  <si>
-    <t>IsLandNotationDate</t>
-  </si>
-  <si>
     <t>IsLicenseConstruct</t>
   </si>
   <si>
@@ -4536,6 +4485,84 @@
   </si>
   <si>
     <t>Devin Smith (MoTI Solicitor)</t>
+  </si>
+  <si>
+    <t>IsMotiInventory</t>
+  </si>
+  <si>
+    <t>IsNewHighwayDedication</t>
+  </si>
+  <si>
+    <t>IsNewHighwayDedicationArea</t>
+  </si>
+  <si>
+    <t>IsNewInterestLand</t>
+  </si>
+  <si>
+    <t>IsNewInterestLandArea</t>
+  </si>
+  <si>
+    <t>IsLandActTenureDetail</t>
+  </si>
+  <si>
+    <t>IsLandActTenureArea</t>
+  </si>
+  <si>
+    <t>IsLandActTenureDate</t>
+  </si>
+  <si>
+    <t>IsLandActTenure</t>
+  </si>
+  <si>
+    <t>Update automatic Appraisal/Reviews document on a lease</t>
+  </si>
+  <si>
+    <t>Update automatic Condition of entry (H0443) document</t>
+  </si>
+  <si>
+    <t>Update Automatic Affidavit of service document in an Acquisition File</t>
+  </si>
+  <si>
+    <t>Updating a Document in a Project</t>
+  </si>
+  <si>
+    <t>Updating a new Brifing notes in a project</t>
+  </si>
+  <si>
+    <t>Automation Project 05</t>
+  </si>
+  <si>
+    <t>AU-0005</t>
+  </si>
+  <si>
+    <t>Minimum required project information to test documents</t>
+  </si>
+  <si>
+    <t>Automation Project 06</t>
+  </si>
+  <si>
+    <t>AU-0006</t>
+  </si>
+  <si>
+    <t>Minimum required project information to test notes</t>
+  </si>
+  <si>
+    <t>Projects - Create Notes</t>
+  </si>
+  <si>
+    <t>Projects - Edit Notes</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing for notes on Projects - Updating a note</t>
+  </si>
+  <si>
+    <t>Minimum required project for documents</t>
+  </si>
+  <si>
+    <t>Minimum required project for notes</t>
+  </si>
+  <si>
+    <t>Automation Functional Testing for notes on Projects - Note 1,Automation Functional Testing for notes on Projects  - Note 2,Automation Functional Testing for notes on Projects  - Note 3,Automation Functional Testing for notes on Projects - Note 4,Automation Functional Testing for notes on Projects  - Note 5,Automation Functional Testing for notes on Projects  - Note 6,Automation Functional Testing for notes on Projects - Note 7,Automation Functional Testing for notes on Projects  - Note 8,Automation Functional Testing for notes on Projects  - Note 9,Automation Functional Testing for notes on Projects - Note 10,Automation Functional Testing for notes on Projects  - Note 11,Automation Functional Testing for notes on Projects  - Note 12</t>
   </si>
 </sst>
 </file>
@@ -4598,7 +4625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4620,6 +4647,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4901,10 +4929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12A4D20-CBEC-42E3-9A24-C9C857FE01F3}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4937,22 +4965,22 @@
         <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>176</v>
@@ -4969,35 +4997,29 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(C2," ",B2)</f>
-        <v>AU-0001 Automation Project 01</v>
+        <v>AU-0002 Automation Project 02</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>205</v>
@@ -5006,37 +5028,37 @@
         <v>205</v>
       </c>
       <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
         <v>1</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE(C3," ",B3)</f>
-        <v>AU-0002 Automation Project 02</v>
+        <v>AU-0003 Automation Project 03</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1056</v>
+        <v>203</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1050</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>205</v>
@@ -5045,37 +5067,37 @@
         <v>205</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" t="str">
         <f>CONCATENATE(C4," ",B4)</f>
-        <v>AU-0003 Automation Project 03</v>
+        <v>AU-0004 Automation Project 04</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1057</v>
+        <v>204</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1052</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>205</v>
@@ -5084,37 +5106,43 @@
         <v>205</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D5" t="str">
         <f>CONCATENATE(C5," ",B5)</f>
-        <v>AU-0004 Automation Project 04</v>
+        <v>AU-0001 Automation Project 01</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1051</v>
       </c>
       <c r="J5" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>205</v>
@@ -5123,15 +5151,15 @@
         <v>205</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
         <v>186</v>
@@ -5163,6 +5191,78 @@
       </c>
       <c r="N6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE(C7," ",B7)</f>
+        <v>AU-0005 Automation Project 05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE(C8," ",B8)</f>
+        <v>AU-0006 Automation Project 06</v>
+      </c>
+      <c r="E8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1492</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5197,36 +5297,36 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B2" s="4">
         <v>44616</v>
       </c>
       <c r="C2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D2">
         <v>2625</v>
@@ -5239,7 +5339,7 @@
         <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5247,13 +5347,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B3" s="4">
         <v>44623</v>
       </c>
       <c r="C3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -5265,7 +5365,7 @@
         <v>14.29</v>
       </c>
       <c r="G3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -5273,13 +5373,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B4" s="4">
         <v>44630</v>
       </c>
       <c r="C4" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -5291,7 +5391,7 @@
         <v>142.86000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5299,13 +5399,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B5" s="4">
         <v>45061</v>
       </c>
       <c r="C5" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D5">
         <v>130000</v>
@@ -5317,7 +5417,7 @@
         <v>6190.48</v>
       </c>
       <c r="G5" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5325,13 +5425,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B6" s="4">
         <v>36692</v>
       </c>
       <c r="C6" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -5343,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5389,13 +5489,13 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>307</v>
@@ -5428,33 +5528,33 @@
         <v>243</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="B2" t="s">
-        <v>1488</v>
+        <v>1471</v>
       </c>
       <c r="C2" t="s">
         <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="F2" t="s">
         <v>276</v>
@@ -5463,7 +5563,7 @@
         <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I2" s="4">
         <v>44625</v>
@@ -5487,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -5501,10 +5601,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="B3" t="s">
-        <v>1390</v>
+        <v>1373</v>
       </c>
       <c r="C3" t="s">
         <v>273</v>
@@ -5529,10 +5629,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="B4" t="s">
-        <v>1393</v>
+        <v>1376</v>
       </c>
       <c r="C4" t="s">
         <v>273</v>
@@ -5554,22 +5654,22 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="B5" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="C5" t="s">
         <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="G5" t="s">
         <v>282</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L5" t="s">
         <v>283</v>
@@ -5581,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -5595,10 +5695,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="B6" t="s">
-        <v>1390</v>
+        <v>1373</v>
       </c>
       <c r="C6" t="s">
         <v>273</v>
@@ -5634,34 +5734,34 @@
         <v>199</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
         <v>361</v>
       </c>
-      <c r="G7" t="s">
-        <v>362</v>
-      </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I7" s="4">
         <v>44254</v>
       </c>
       <c r="J7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K7" t="s">
         <v>363</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>364</v>
-      </c>
-      <c r="L7" t="s">
-        <v>365</v>
       </c>
       <c r="M7" s="4">
         <v>44703</v>
       </c>
       <c r="N7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -5678,7 +5778,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>271</v>
@@ -5701,7 +5801,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>270</v>
@@ -5759,56 +5859,56 @@
         <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
         <v>330</v>
       </c>
-      <c r="B2" t="s">
-        <v>331</v>
-      </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
         <v>299</v>
       </c>
       <c r="E2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
         <v>341</v>
-      </c>
-      <c r="F2" t="s">
-        <v>347</v>
-      </c>
-  